--- a/src/test/resources/workbooks/Charakterbogen.xlsx
+++ b/src/test/resources/workbooks/Charakterbogen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\basti\Documents\pp\PP-Manager\src\test\resources\workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFDF595-1C85-481A-BFD3-E4BAEF158462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86AD9D26-431C-4FB4-9DE8-637C61A1454C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Charakterbogen" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="493">
   <si>
     <t xml:space="preserve"> Name</t>
   </si>
@@ -1483,6 +1483,45 @@
   </si>
   <si>
     <t>talent.climb</t>
+  </si>
+  <si>
+    <t>character.spell.1</t>
+  </si>
+  <si>
+    <t>character.spell.2</t>
+  </si>
+  <si>
+    <t>character.spell.3</t>
+  </si>
+  <si>
+    <t>character.spell.4</t>
+  </si>
+  <si>
+    <t>character.spell.5</t>
+  </si>
+  <si>
+    <t>character.spell.6</t>
+  </si>
+  <si>
+    <t>character.spell.7</t>
+  </si>
+  <si>
+    <t>character.spell.8</t>
+  </si>
+  <si>
+    <t>character.spell.9</t>
+  </si>
+  <si>
+    <t>character.spell.10</t>
+  </si>
+  <si>
+    <t>character.spell.11</t>
+  </si>
+  <si>
+    <t>character.spell.12</t>
+  </si>
+  <si>
+    <t>character.spell.13</t>
   </si>
 </sst>
 </file>
@@ -1955,43 +1994,38 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2000,18 +2034,183 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2030,19 +2229,13 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2051,53 +2244,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2107,134 +2263,17 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2665,8 +2704,8 @@
   </sheetPr>
   <dimension ref="A1:AMK97"/>
   <sheetViews>
-    <sheetView topLeftCell="D8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BB11" activeCellId="11" sqref="Z11:Z40 AD11:AD38 Z45:Z62 AD45:AD62 AH11:AH50 AL11:AL50 AP37:AP56 AT37:AT54 AP11:AP24 AT11:AT24 AX11:AX26 BB11:BB26"/>
+    <sheetView topLeftCell="AF23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AU37" sqref="AU37:AV38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2679,38 +2718,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="18.75">
-      <c r="A1" s="129" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="130" t="s">
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="64" t="s">
         <v>463</v>
       </c>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="129" t="s">
+      <c r="G1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129">
+      <c r="H1" s="34"/>
+      <c r="I1" s="34">
         <v>1337</v>
       </c>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="131" t="s">
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="131"/>
-      <c r="P1" s="131"/>
-      <c r="Q1" s="131"/>
-      <c r="R1" s="131"/>
-      <c r="S1" s="131"/>
-      <c r="T1" s="131"/>
-      <c r="U1" s="131"/>
-      <c r="V1" s="131"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
       <c r="W1" s="3" t="s">
         <v>3</v>
       </c>
@@ -2809,36 +2848,36 @@
       </c>
     </row>
     <row r="2" spans="1:54" ht="18.75" customHeight="1">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="132" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="66" t="s">
         <v>464</v>
       </c>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="129" t="s">
+      <c r="G2" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129" t="s">
+      <c r="H2" s="34"/>
+      <c r="I2" s="34" t="s">
         <v>466</v>
       </c>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="131"/>
-      <c r="O2" s="131"/>
-      <c r="P2" s="131"/>
-      <c r="Q2" s="131"/>
-      <c r="R2" s="131"/>
-      <c r="S2" s="131"/>
-      <c r="T2" s="131"/>
-      <c r="U2" s="131"/>
-      <c r="V2" s="131"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="65"/>
       <c r="W2" s="3">
         <f>$D$6</f>
         <v>1</v>
@@ -2969,38 +3008,38 @@
       </c>
     </row>
     <row r="3" spans="1:54" ht="18.75" customHeight="1">
-      <c r="A3" s="129" t="s">
+      <c r="A3" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="129"/>
-      <c r="C3" s="129" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34" t="s">
         <v>465</v>
       </c>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="129" t="s">
+      <c r="G3" s="34" t="s">
         <v>251</v>
       </c>
-      <c r="H3" s="129"/>
-      <c r="I3" s="133">
+      <c r="H3" s="34"/>
+      <c r="I3" s="35">
         <v>42</v>
       </c>
-      <c r="J3" s="133"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="134" t="s">
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="36" t="s">
         <v>475</v>
       </c>
-      <c r="M3" s="134"/>
-      <c r="N3" s="134"/>
-      <c r="O3" s="134"/>
-      <c r="P3" s="134"/>
-      <c r="Q3" s="134"/>
-      <c r="R3" s="134"/>
-      <c r="S3" s="134"/>
-      <c r="T3" s="134"/>
-      <c r="U3" s="134"/>
-      <c r="V3" s="134"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
       <c r="W3" s="8"/>
       <c r="X3" s="8"/>
       <c r="Y3" s="8"/>
@@ -3031,17 +3070,17 @@
       <c r="I4" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="L4" s="134"/>
-      <c r="M4" s="134"/>
-      <c r="N4" s="134"/>
-      <c r="O4" s="134"/>
-      <c r="P4" s="134"/>
-      <c r="Q4" s="134"/>
-      <c r="R4" s="134"/>
-      <c r="S4" s="134"/>
-      <c r="T4" s="134"/>
-      <c r="U4" s="134"/>
-      <c r="V4" s="134"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
       <c r="W4" s="8"/>
       <c r="X4" s="8"/>
       <c r="Y4" s="8"/>
@@ -3068,236 +3107,236 @@
       <c r="AZ4" s="2"/>
     </row>
     <row r="5" spans="1:54" ht="18.75" customHeight="1">
-      <c r="B5" s="135" t="s">
+      <c r="B5" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="135"/>
-      <c r="D5" s="120" t="s">
+      <c r="C5" s="37"/>
+      <c r="D5" s="75" t="s">
         <v>257</v>
       </c>
-      <c r="E5" s="120"/>
+      <c r="E5" s="75"/>
       <c r="F5" s="2"/>
       <c r="I5" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="L5" s="134"/>
-      <c r="M5" s="134"/>
-      <c r="N5" s="134"/>
-      <c r="O5" s="134"/>
-      <c r="P5" s="134"/>
-      <c r="Q5" s="134"/>
-      <c r="R5" s="134"/>
-      <c r="S5" s="134"/>
-      <c r="T5" s="134"/>
-      <c r="U5" s="134"/>
-      <c r="V5" s="134"/>
-      <c r="W5" s="119" t="s">
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="X5" s="119"/>
-      <c r="Y5" s="119"/>
-      <c r="Z5" s="119"/>
-      <c r="AA5" s="119"/>
-      <c r="AB5" s="119"/>
-      <c r="AC5" s="119"/>
-      <c r="AD5" s="119"/>
-      <c r="AE5" s="119" t="s">
+      <c r="X5" s="74"/>
+      <c r="Y5" s="74"/>
+      <c r="Z5" s="74"/>
+      <c r="AA5" s="74"/>
+      <c r="AB5" s="74"/>
+      <c r="AC5" s="74"/>
+      <c r="AD5" s="74"/>
+      <c r="AE5" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="AF5" s="119"/>
-      <c r="AG5" s="119"/>
-      <c r="AH5" s="119"/>
-      <c r="AI5" s="119"/>
-      <c r="AJ5" s="119"/>
-      <c r="AK5" s="119"/>
-      <c r="AL5" s="119"/>
-      <c r="AM5" s="119" t="s">
+      <c r="AF5" s="74"/>
+      <c r="AG5" s="74"/>
+      <c r="AH5" s="74"/>
+      <c r="AI5" s="74"/>
+      <c r="AJ5" s="74"/>
+      <c r="AK5" s="74"/>
+      <c r="AL5" s="74"/>
+      <c r="AM5" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="AN5" s="119"/>
-      <c r="AO5" s="119"/>
-      <c r="AP5" s="119"/>
-      <c r="AQ5" s="119"/>
-      <c r="AR5" s="119"/>
-      <c r="AS5" s="119"/>
-      <c r="AT5" s="119"/>
-      <c r="AU5" s="119" t="s">
+      <c r="AN5" s="74"/>
+      <c r="AO5" s="74"/>
+      <c r="AP5" s="74"/>
+      <c r="AQ5" s="74"/>
+      <c r="AR5" s="74"/>
+      <c r="AS5" s="74"/>
+      <c r="AT5" s="74"/>
+      <c r="AU5" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="AV5" s="119"/>
-      <c r="AW5" s="119"/>
-      <c r="AX5" s="119"/>
-      <c r="AY5" s="119"/>
-      <c r="AZ5" s="119"/>
-      <c r="BA5" s="119"/>
-      <c r="BB5" s="119"/>
+      <c r="AV5" s="74"/>
+      <c r="AW5" s="74"/>
+      <c r="AX5" s="74"/>
+      <c r="AY5" s="74"/>
+      <c r="AZ5" s="74"/>
+      <c r="BA5" s="74"/>
+      <c r="BB5" s="74"/>
     </row>
     <row r="6" spans="1:54" ht="18.75" customHeight="1">
-      <c r="A6" s="121" t="s">
+      <c r="A6" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="121"/>
-      <c r="C6" s="122" t="s">
+      <c r="B6" s="50"/>
+      <c r="C6" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="123">
+      <c r="D6" s="52">
         <v>1</v>
       </c>
-      <c r="E6" s="123"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="G6" s="121" t="s">
+      <c r="G6" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="121"/>
-      <c r="I6" s="121"/>
-      <c r="J6" s="113">
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="54">
         <v>9</v>
       </c>
-      <c r="K6" s="42"/>
-      <c r="L6" s="134"/>
-      <c r="M6" s="134"/>
-      <c r="N6" s="134"/>
-      <c r="O6" s="134"/>
-      <c r="P6" s="134"/>
-      <c r="Q6" s="134"/>
-      <c r="R6" s="134"/>
-      <c r="S6" s="134"/>
-      <c r="T6" s="134"/>
-      <c r="U6" s="134"/>
-      <c r="V6" s="134"/>
-      <c r="W6" s="119"/>
-      <c r="X6" s="119"/>
-      <c r="Y6" s="119"/>
-      <c r="Z6" s="119"/>
-      <c r="AA6" s="119"/>
-      <c r="AB6" s="119"/>
-      <c r="AC6" s="119"/>
-      <c r="AD6" s="119"/>
-      <c r="AE6" s="119"/>
-      <c r="AF6" s="119"/>
-      <c r="AG6" s="119"/>
-      <c r="AH6" s="119"/>
-      <c r="AI6" s="119"/>
-      <c r="AJ6" s="119"/>
-      <c r="AK6" s="119"/>
-      <c r="AL6" s="119"/>
-      <c r="AM6" s="119"/>
-      <c r="AN6" s="119"/>
-      <c r="AO6" s="119"/>
-      <c r="AP6" s="119"/>
-      <c r="AQ6" s="119"/>
-      <c r="AR6" s="119"/>
-      <c r="AS6" s="119"/>
-      <c r="AT6" s="119"/>
-      <c r="AU6" s="119"/>
-      <c r="AV6" s="119"/>
-      <c r="AW6" s="119"/>
-      <c r="AX6" s="119"/>
-      <c r="AY6" s="119"/>
-      <c r="AZ6" s="119"/>
-      <c r="BA6" s="119"/>
-      <c r="BB6" s="119"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="74"/>
+      <c r="X6" s="74"/>
+      <c r="Y6" s="74"/>
+      <c r="Z6" s="74"/>
+      <c r="AA6" s="74"/>
+      <c r="AB6" s="74"/>
+      <c r="AC6" s="74"/>
+      <c r="AD6" s="74"/>
+      <c r="AE6" s="74"/>
+      <c r="AF6" s="74"/>
+      <c r="AG6" s="74"/>
+      <c r="AH6" s="74"/>
+      <c r="AI6" s="74"/>
+      <c r="AJ6" s="74"/>
+      <c r="AK6" s="74"/>
+      <c r="AL6" s="74"/>
+      <c r="AM6" s="74"/>
+      <c r="AN6" s="74"/>
+      <c r="AO6" s="74"/>
+      <c r="AP6" s="74"/>
+      <c r="AQ6" s="74"/>
+      <c r="AR6" s="74"/>
+      <c r="AS6" s="74"/>
+      <c r="AT6" s="74"/>
+      <c r="AU6" s="74"/>
+      <c r="AV6" s="74"/>
+      <c r="AW6" s="74"/>
+      <c r="AX6" s="74"/>
+      <c r="AY6" s="74"/>
+      <c r="AZ6" s="74"/>
+      <c r="BA6" s="74"/>
+      <c r="BB6" s="74"/>
     </row>
     <row r="7" spans="1:54" ht="18.75" customHeight="1">
-      <c r="A7" s="121"/>
-      <c r="B7" s="121"/>
-      <c r="C7" s="122"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="134"/>
-      <c r="M7" s="134"/>
-      <c r="N7" s="134"/>
-      <c r="O7" s="134"/>
-      <c r="P7" s="134"/>
-      <c r="Q7" s="134"/>
-      <c r="R7" s="134"/>
-      <c r="S7" s="134"/>
-      <c r="T7" s="134"/>
-      <c r="U7" s="134"/>
-      <c r="V7" s="134"/>
-      <c r="W7" s="119"/>
-      <c r="X7" s="119"/>
-      <c r="Y7" s="119"/>
-      <c r="Z7" s="119"/>
-      <c r="AA7" s="119"/>
-      <c r="AB7" s="119"/>
-      <c r="AC7" s="119"/>
-      <c r="AD7" s="119"/>
-      <c r="AE7" s="119"/>
-      <c r="AF7" s="119"/>
-      <c r="AG7" s="119"/>
-      <c r="AH7" s="119"/>
-      <c r="AI7" s="119"/>
-      <c r="AJ7" s="119"/>
-      <c r="AK7" s="119"/>
-      <c r="AL7" s="119"/>
-      <c r="AM7" s="119"/>
-      <c r="AN7" s="119"/>
-      <c r="AO7" s="119"/>
-      <c r="AP7" s="119"/>
-      <c r="AQ7" s="119"/>
-      <c r="AR7" s="119"/>
-      <c r="AS7" s="119"/>
-      <c r="AT7" s="119"/>
-      <c r="AU7" s="119"/>
-      <c r="AV7" s="119"/>
-      <c r="AW7" s="119"/>
-      <c r="AX7" s="119"/>
-      <c r="AY7" s="119"/>
-      <c r="AZ7" s="119"/>
-      <c r="BA7" s="119"/>
-      <c r="BB7" s="119"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="74"/>
+      <c r="X7" s="74"/>
+      <c r="Y7" s="74"/>
+      <c r="Z7" s="74"/>
+      <c r="AA7" s="74"/>
+      <c r="AB7" s="74"/>
+      <c r="AC7" s="74"/>
+      <c r="AD7" s="74"/>
+      <c r="AE7" s="74"/>
+      <c r="AF7" s="74"/>
+      <c r="AG7" s="74"/>
+      <c r="AH7" s="74"/>
+      <c r="AI7" s="74"/>
+      <c r="AJ7" s="74"/>
+      <c r="AK7" s="74"/>
+      <c r="AL7" s="74"/>
+      <c r="AM7" s="74"/>
+      <c r="AN7" s="74"/>
+      <c r="AO7" s="74"/>
+      <c r="AP7" s="74"/>
+      <c r="AQ7" s="74"/>
+      <c r="AR7" s="74"/>
+      <c r="AS7" s="74"/>
+      <c r="AT7" s="74"/>
+      <c r="AU7" s="74"/>
+      <c r="AV7" s="74"/>
+      <c r="AW7" s="74"/>
+      <c r="AX7" s="74"/>
+      <c r="AY7" s="74"/>
+      <c r="AZ7" s="74"/>
+      <c r="BA7" s="74"/>
+      <c r="BB7" s="74"/>
     </row>
     <row r="8" spans="1:54" ht="18.75" customHeight="1">
-      <c r="A8" s="116" t="s">
+      <c r="A8" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="116"/>
-      <c r="C8" s="108" t="s">
+      <c r="B8" s="58"/>
+      <c r="C8" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="109">
+      <c r="D8" s="60">
         <v>2</v>
       </c>
-      <c r="E8" s="109"/>
+      <c r="E8" s="60"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="116" t="s">
+      <c r="G8" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="111">
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="39">
         <v>10</v>
       </c>
-      <c r="K8" s="126"/>
-      <c r="L8" s="134"/>
-      <c r="M8" s="134"/>
-      <c r="N8" s="134"/>
-      <c r="O8" s="134"/>
-      <c r="P8" s="134"/>
-      <c r="Q8" s="134"/>
-      <c r="R8" s="134"/>
-      <c r="S8" s="134"/>
-      <c r="T8" s="134"/>
-      <c r="U8" s="134"/>
-      <c r="V8" s="134"/>
-      <c r="W8" s="125">
+      <c r="K8" s="40"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="76">
         <f>SUM(W11:AT62)+SUM(AU11:BB34)</f>
         <v>6328</v>
       </c>
-      <c r="X8" s="125"/>
-      <c r="Y8" s="125" t="s">
+      <c r="X8" s="76"/>
+      <c r="Y8" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="Z8" s="125"/>
+      <c r="Z8" s="76"/>
       <c r="AA8" s="8" t="s">
         <v>252</v>
       </c>
@@ -3322,32 +3361,32 @@
       <c r="AZ8" s="8"/>
     </row>
     <row r="9" spans="1:54" ht="18.75" customHeight="1">
-      <c r="A9" s="116"/>
-      <c r="B9" s="116"/>
-      <c r="C9" s="108"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="127"/>
-      <c r="K9" s="128"/>
-      <c r="L9" s="134"/>
-      <c r="M9" s="134"/>
-      <c r="N9" s="134"/>
-      <c r="O9" s="134"/>
-      <c r="P9" s="134"/>
-      <c r="Q9" s="134"/>
-      <c r="R9" s="134"/>
-      <c r="S9" s="134"/>
-      <c r="T9" s="134"/>
-      <c r="U9" s="134"/>
-      <c r="V9" s="134"/>
-      <c r="W9" s="125"/>
-      <c r="X9" s="125"/>
-      <c r="Y9" s="125"/>
-      <c r="Z9" s="125"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="76"/>
+      <c r="X9" s="76"/>
+      <c r="Y9" s="76"/>
+      <c r="Z9" s="76"/>
       <c r="AA9" s="8" t="s">
         <v>253</v>
       </c>
@@ -3372,1056 +3411,1056 @@
       <c r="AZ9" s="8"/>
     </row>
     <row r="10" spans="1:54" ht="18.75" customHeight="1">
-      <c r="A10" s="121" t="s">
+      <c r="A10" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="121"/>
-      <c r="C10" s="122" t="s">
+      <c r="B10" s="50"/>
+      <c r="C10" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="123">
+      <c r="D10" s="52">
         <v>3</v>
       </c>
-      <c r="E10" s="123"/>
+      <c r="E10" s="52"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="138" t="s">
+      <c r="G10" s="53" t="s">
         <v>248</v>
       </c>
-      <c r="H10" s="138"/>
-      <c r="I10" s="138"/>
-      <c r="J10" s="113">
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="54">
         <v>11</v>
       </c>
-      <c r="K10" s="42"/>
-      <c r="L10" s="134"/>
-      <c r="M10" s="134"/>
-      <c r="N10" s="134"/>
-      <c r="O10" s="134"/>
-      <c r="P10" s="134"/>
-      <c r="Q10" s="134"/>
-      <c r="R10" s="134"/>
-      <c r="S10" s="134"/>
-      <c r="T10" s="134"/>
-      <c r="U10" s="134"/>
-      <c r="V10" s="134"/>
-      <c r="W10" s="93" t="s">
+      <c r="K10" s="55"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="X10" s="93"/>
-      <c r="Y10" s="93"/>
-      <c r="Z10" s="93"/>
-      <c r="AA10" s="93"/>
-      <c r="AB10" s="93"/>
-      <c r="AC10" s="93"/>
-      <c r="AD10" s="93"/>
-      <c r="AE10" s="93" t="s">
+      <c r="X10" s="73"/>
+      <c r="Y10" s="73"/>
+      <c r="Z10" s="73"/>
+      <c r="AA10" s="73"/>
+      <c r="AB10" s="73"/>
+      <c r="AC10" s="73"/>
+      <c r="AD10" s="73"/>
+      <c r="AE10" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="AF10" s="93"/>
-      <c r="AG10" s="93"/>
-      <c r="AH10" s="93"/>
-      <c r="AI10" s="93"/>
-      <c r="AJ10" s="93"/>
-      <c r="AK10" s="93"/>
-      <c r="AL10" s="93"/>
-      <c r="AM10" s="93" t="s">
+      <c r="AF10" s="73"/>
+      <c r="AG10" s="73"/>
+      <c r="AH10" s="73"/>
+      <c r="AI10" s="73"/>
+      <c r="AJ10" s="73"/>
+      <c r="AK10" s="73"/>
+      <c r="AL10" s="73"/>
+      <c r="AM10" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="AN10" s="93"/>
-      <c r="AO10" s="93"/>
-      <c r="AP10" s="93"/>
-      <c r="AQ10" s="93"/>
-      <c r="AR10" s="93"/>
-      <c r="AS10" s="93"/>
-      <c r="AT10" s="93"/>
-      <c r="AU10" s="93" t="s">
+      <c r="AN10" s="73"/>
+      <c r="AO10" s="73"/>
+      <c r="AP10" s="73"/>
+      <c r="AQ10" s="73"/>
+      <c r="AR10" s="73"/>
+      <c r="AS10" s="73"/>
+      <c r="AT10" s="73"/>
+      <c r="AU10" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="AV10" s="93"/>
-      <c r="AW10" s="93"/>
-      <c r="AX10" s="93"/>
-      <c r="AY10" s="93"/>
-      <c r="AZ10" s="93"/>
-      <c r="BA10" s="93"/>
-      <c r="BB10" s="93"/>
+      <c r="AV10" s="73"/>
+      <c r="AW10" s="73"/>
+      <c r="AX10" s="73"/>
+      <c r="AY10" s="73"/>
+      <c r="AZ10" s="73"/>
+      <c r="BA10" s="73"/>
+      <c r="BB10" s="73"/>
     </row>
     <row r="11" spans="1:54" ht="18.75" customHeight="1">
-      <c r="A11" s="121"/>
-      <c r="B11" s="121"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="138"/>
-      <c r="H11" s="138"/>
-      <c r="I11" s="138"/>
-      <c r="J11" s="124"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="134"/>
-      <c r="M11" s="134"/>
-      <c r="N11" s="134"/>
-      <c r="O11" s="134"/>
-      <c r="P11" s="134"/>
-      <c r="Q11" s="134"/>
-      <c r="R11" s="134"/>
-      <c r="S11" s="134"/>
-      <c r="T11" s="134"/>
-      <c r="U11" s="134"/>
-      <c r="V11" s="134"/>
-      <c r="W11" s="34" t="s">
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="37" t="s">
+      <c r="X11" s="70"/>
+      <c r="Y11" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="Z11" s="40">
+      <c r="Z11" s="68">
         <v>1</v>
       </c>
-      <c r="AA11" s="34" t="s">
+      <c r="AA11" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="AB11" s="34"/>
-      <c r="AC11" s="37" t="s">
+      <c r="AB11" s="70"/>
+      <c r="AC11" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="AD11" s="40">
+      <c r="AD11" s="68">
         <v>14</v>
       </c>
-      <c r="AE11" s="34" t="s">
+      <c r="AE11" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="AF11" s="34"/>
-      <c r="AG11" s="39" t="s">
+      <c r="AF11" s="70"/>
+      <c r="AG11" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="AH11" s="40">
+      <c r="AH11" s="68">
         <v>40</v>
       </c>
-      <c r="AI11" s="38" t="s">
+      <c r="AI11" s="72" t="s">
         <v>254</v>
       </c>
-      <c r="AJ11" s="38"/>
-      <c r="AK11" s="39" t="s">
+      <c r="AJ11" s="72"/>
+      <c r="AK11" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AL11" s="40">
+      <c r="AL11" s="68">
         <v>57</v>
       </c>
-      <c r="AM11" s="38" t="s">
+      <c r="AM11" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="AN11" s="38"/>
-      <c r="AO11" s="39" t="s">
+      <c r="AN11" s="72"/>
+      <c r="AO11" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="AP11" s="40">
+      <c r="AP11" s="68">
         <v>70</v>
       </c>
-      <c r="AQ11" s="38" t="s">
+      <c r="AQ11" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="AR11" s="38"/>
-      <c r="AS11" s="39" t="s">
+      <c r="AR11" s="72"/>
+      <c r="AS11" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="AT11" s="40">
+      <c r="AT11" s="68">
         <v>86</v>
       </c>
-      <c r="AU11" s="34" t="s">
+      <c r="AU11" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="AV11" s="34"/>
-      <c r="AW11" s="37" t="s">
+      <c r="AV11" s="70"/>
+      <c r="AW11" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="AX11" s="40">
+      <c r="AX11" s="68">
         <v>99</v>
       </c>
-      <c r="AY11" s="34" t="s">
+      <c r="AY11" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="AZ11" s="34"/>
-      <c r="BA11" s="37" t="s">
+      <c r="AZ11" s="70"/>
+      <c r="BA11" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="BB11" s="40">
+      <c r="BB11" s="68">
         <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:54" ht="18.75" customHeight="1">
-      <c r="A12" s="116" t="s">
+      <c r="A12" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="116"/>
-      <c r="C12" s="108" t="s">
+      <c r="B12" s="58"/>
+      <c r="C12" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="109">
+      <c r="D12" s="60">
         <v>4</v>
       </c>
-      <c r="E12" s="109"/>
+      <c r="E12" s="60"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="107" t="s">
+      <c r="G12" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="111">
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="39">
         <v>12</v>
       </c>
-      <c r="K12" s="126"/>
-      <c r="L12" s="134"/>
-      <c r="M12" s="134"/>
-      <c r="N12" s="134"/>
-      <c r="O12" s="134"/>
-      <c r="P12" s="134"/>
-      <c r="Q12" s="134"/>
-      <c r="R12" s="134"/>
-      <c r="S12" s="134"/>
-      <c r="T12" s="134"/>
-      <c r="U12" s="134"/>
-      <c r="V12" s="134"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="36"/>
-      <c r="AA12" s="34"/>
-      <c r="AB12" s="34"/>
-      <c r="AC12" s="37"/>
-      <c r="AD12" s="36"/>
-      <c r="AE12" s="34"/>
-      <c r="AF12" s="34"/>
-      <c r="AG12" s="39"/>
-      <c r="AH12" s="36"/>
-      <c r="AI12" s="38"/>
-      <c r="AJ12" s="38"/>
-      <c r="AK12" s="39"/>
-      <c r="AL12" s="36"/>
-      <c r="AM12" s="38"/>
-      <c r="AN12" s="38"/>
-      <c r="AO12" s="39"/>
-      <c r="AP12" s="36"/>
-      <c r="AQ12" s="38"/>
-      <c r="AR12" s="38"/>
-      <c r="AS12" s="39"/>
-      <c r="AT12" s="36"/>
-      <c r="AU12" s="34"/>
-      <c r="AV12" s="34"/>
-      <c r="AW12" s="37"/>
-      <c r="AX12" s="36"/>
-      <c r="AY12" s="34"/>
-      <c r="AZ12" s="34"/>
-      <c r="BA12" s="37"/>
-      <c r="BB12" s="36"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="70"/>
+      <c r="X12" s="70"/>
+      <c r="Y12" s="67"/>
+      <c r="Z12" s="69"/>
+      <c r="AA12" s="70"/>
+      <c r="AB12" s="70"/>
+      <c r="AC12" s="67"/>
+      <c r="AD12" s="69"/>
+      <c r="AE12" s="70"/>
+      <c r="AF12" s="70"/>
+      <c r="AG12" s="71"/>
+      <c r="AH12" s="69"/>
+      <c r="AI12" s="72"/>
+      <c r="AJ12" s="72"/>
+      <c r="AK12" s="71"/>
+      <c r="AL12" s="69"/>
+      <c r="AM12" s="72"/>
+      <c r="AN12" s="72"/>
+      <c r="AO12" s="71"/>
+      <c r="AP12" s="69"/>
+      <c r="AQ12" s="72"/>
+      <c r="AR12" s="72"/>
+      <c r="AS12" s="71"/>
+      <c r="AT12" s="69"/>
+      <c r="AU12" s="70"/>
+      <c r="AV12" s="70"/>
+      <c r="AW12" s="67"/>
+      <c r="AX12" s="69"/>
+      <c r="AY12" s="70"/>
+      <c r="AZ12" s="70"/>
+      <c r="BA12" s="67"/>
+      <c r="BB12" s="69"/>
     </row>
     <row r="13" spans="1:54" ht="18.75" customHeight="1">
-      <c r="A13" s="116"/>
-      <c r="B13" s="116"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="109"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="127"/>
-      <c r="K13" s="128"/>
-      <c r="L13" s="134"/>
-      <c r="M13" s="134"/>
-      <c r="N13" s="134"/>
-      <c r="O13" s="134"/>
-      <c r="P13" s="134"/>
-      <c r="Q13" s="134"/>
-      <c r="R13" s="134"/>
-      <c r="S13" s="134"/>
-      <c r="T13" s="134"/>
-      <c r="U13" s="134"/>
-      <c r="V13" s="134"/>
-      <c r="W13" s="34" t="s">
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="37" t="s">
+      <c r="X13" s="70"/>
+      <c r="Y13" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="Z13" s="36">
+      <c r="Z13" s="69">
         <v>2</v>
       </c>
-      <c r="AA13" s="34" t="s">
+      <c r="AA13" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="AB13" s="34"/>
-      <c r="AC13" s="37" t="s">
+      <c r="AB13" s="70"/>
+      <c r="AC13" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="AD13" s="36">
+      <c r="AD13" s="69">
         <v>15</v>
       </c>
-      <c r="AE13" s="34" t="s">
+      <c r="AE13" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="AF13" s="34"/>
-      <c r="AG13" s="37" t="s">
+      <c r="AF13" s="70"/>
+      <c r="AG13" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="AH13" s="36">
+      <c r="AH13" s="69">
         <v>41</v>
       </c>
-      <c r="AI13" s="34" t="s">
+      <c r="AI13" s="70" t="s">
         <v>255</v>
       </c>
-      <c r="AJ13" s="34"/>
-      <c r="AK13" s="37" t="s">
+      <c r="AJ13" s="70"/>
+      <c r="AK13" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="AL13" s="36">
+      <c r="AL13" s="69">
         <v>58</v>
       </c>
-      <c r="AM13" s="34" t="s">
+      <c r="AM13" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="AN13" s="34"/>
-      <c r="AO13" s="37" t="s">
+      <c r="AN13" s="70"/>
+      <c r="AO13" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="AP13" s="36">
+      <c r="AP13" s="69">
         <v>71</v>
       </c>
-      <c r="AQ13" s="34" t="s">
+      <c r="AQ13" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="AR13" s="34"/>
-      <c r="AS13" s="37" t="s">
+      <c r="AR13" s="70"/>
+      <c r="AS13" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="AT13" s="36">
+      <c r="AT13" s="69">
         <v>87</v>
       </c>
-      <c r="AU13" s="75"/>
-      <c r="AV13" s="75"/>
-      <c r="AW13" s="74"/>
-      <c r="AX13" s="36"/>
-      <c r="AY13" s="117"/>
-      <c r="AZ13" s="117"/>
-      <c r="BA13" s="118"/>
-      <c r="BB13" s="36"/>
+      <c r="AU13" s="77"/>
+      <c r="AV13" s="77"/>
+      <c r="AW13" s="78"/>
+      <c r="AX13" s="69"/>
+      <c r="AY13" s="79"/>
+      <c r="AZ13" s="79"/>
+      <c r="BA13" s="80"/>
+      <c r="BB13" s="69"/>
     </row>
     <row r="14" spans="1:54" ht="18.75" customHeight="1">
-      <c r="A14" s="121" t="s">
+      <c r="A14" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="121"/>
-      <c r="C14" s="122" t="s">
+      <c r="B14" s="50"/>
+      <c r="C14" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="123">
+      <c r="D14" s="52">
         <v>5</v>
       </c>
-      <c r="E14" s="123"/>
+      <c r="E14" s="52"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="114" t="s">
+      <c r="G14" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="H14" s="114"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="115">
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="62">
         <v>13</v>
       </c>
-      <c r="K14" s="115"/>
-      <c r="L14" s="134"/>
-      <c r="M14" s="134"/>
-      <c r="N14" s="134"/>
-      <c r="O14" s="134"/>
-      <c r="P14" s="134"/>
-      <c r="Q14" s="134"/>
-      <c r="R14" s="134"/>
-      <c r="S14" s="134"/>
-      <c r="T14" s="134"/>
-      <c r="U14" s="134"/>
-      <c r="V14" s="134"/>
-      <c r="W14" s="34"/>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="37"/>
-      <c r="Z14" s="36"/>
-      <c r="AA14" s="34"/>
-      <c r="AB14" s="34"/>
-      <c r="AC14" s="37"/>
-      <c r="AD14" s="36"/>
-      <c r="AE14" s="34"/>
-      <c r="AF14" s="34"/>
-      <c r="AG14" s="37"/>
-      <c r="AH14" s="36"/>
-      <c r="AI14" s="34"/>
-      <c r="AJ14" s="34"/>
-      <c r="AK14" s="37"/>
-      <c r="AL14" s="36"/>
-      <c r="AM14" s="34"/>
-      <c r="AN14" s="34"/>
-      <c r="AO14" s="37"/>
-      <c r="AP14" s="36"/>
-      <c r="AQ14" s="34"/>
-      <c r="AR14" s="34"/>
-      <c r="AS14" s="37"/>
-      <c r="AT14" s="36"/>
-      <c r="AU14" s="75"/>
-      <c r="AV14" s="75"/>
-      <c r="AW14" s="74"/>
-      <c r="AX14" s="36"/>
-      <c r="AY14" s="117"/>
-      <c r="AZ14" s="117"/>
-      <c r="BA14" s="118"/>
-      <c r="BB14" s="36"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="70"/>
+      <c r="X14" s="70"/>
+      <c r="Y14" s="67"/>
+      <c r="Z14" s="69"/>
+      <c r="AA14" s="70"/>
+      <c r="AB14" s="70"/>
+      <c r="AC14" s="67"/>
+      <c r="AD14" s="69"/>
+      <c r="AE14" s="70"/>
+      <c r="AF14" s="70"/>
+      <c r="AG14" s="67"/>
+      <c r="AH14" s="69"/>
+      <c r="AI14" s="70"/>
+      <c r="AJ14" s="70"/>
+      <c r="AK14" s="67"/>
+      <c r="AL14" s="69"/>
+      <c r="AM14" s="70"/>
+      <c r="AN14" s="70"/>
+      <c r="AO14" s="67"/>
+      <c r="AP14" s="69"/>
+      <c r="AQ14" s="70"/>
+      <c r="AR14" s="70"/>
+      <c r="AS14" s="67"/>
+      <c r="AT14" s="69"/>
+      <c r="AU14" s="77"/>
+      <c r="AV14" s="77"/>
+      <c r="AW14" s="78"/>
+      <c r="AX14" s="69"/>
+      <c r="AY14" s="79"/>
+      <c r="AZ14" s="79"/>
+      <c r="BA14" s="80"/>
+      <c r="BB14" s="69"/>
     </row>
     <row r="15" spans="1:54" ht="18.75" customHeight="1">
-      <c r="A15" s="121"/>
-      <c r="B15" s="121"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="114"/>
-      <c r="J15" s="115"/>
-      <c r="K15" s="115"/>
-      <c r="L15" s="134"/>
-      <c r="M15" s="134"/>
-      <c r="N15" s="134"/>
-      <c r="O15" s="134"/>
-      <c r="P15" s="134"/>
-      <c r="Q15" s="134"/>
-      <c r="R15" s="134"/>
-      <c r="S15" s="134"/>
-      <c r="T15" s="134"/>
-      <c r="U15" s="134"/>
-      <c r="V15" s="134"/>
-      <c r="W15" s="34" t="s">
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="X15" s="34"/>
-      <c r="Y15" s="37" t="s">
+      <c r="X15" s="70"/>
+      <c r="Y15" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="Z15" s="36">
+      <c r="Z15" s="69">
         <v>3</v>
       </c>
-      <c r="AA15" s="41" t="s">
+      <c r="AA15" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="AB15" s="42"/>
-      <c r="AC15" s="45" t="s">
+      <c r="AB15" s="55"/>
+      <c r="AC15" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="AD15" s="36">
+      <c r="AD15" s="69">
         <v>16</v>
       </c>
-      <c r="AE15" s="34" t="s">
+      <c r="AE15" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="AF15" s="34"/>
-      <c r="AG15" s="37" t="s">
+      <c r="AF15" s="70"/>
+      <c r="AG15" s="67" t="s">
         <v>130</v>
       </c>
-      <c r="AH15" s="36">
+      <c r="AH15" s="69">
         <v>42</v>
       </c>
-      <c r="AI15" s="34" t="s">
+      <c r="AI15" s="70" t="s">
         <v>153</v>
       </c>
-      <c r="AJ15" s="34"/>
-      <c r="AK15" s="37" t="s">
+      <c r="AJ15" s="70"/>
+      <c r="AK15" s="67" t="s">
         <v>154</v>
       </c>
-      <c r="AL15" s="36">
+      <c r="AL15" s="69">
         <v>59</v>
       </c>
-      <c r="AM15" s="34" t="s">
+      <c r="AM15" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="AN15" s="34"/>
-      <c r="AO15" s="37" t="s">
+      <c r="AN15" s="70"/>
+      <c r="AO15" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="AP15" s="36">
+      <c r="AP15" s="69">
         <v>72</v>
       </c>
-      <c r="AQ15" s="34" t="s">
+      <c r="AQ15" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="AR15" s="34"/>
-      <c r="AS15" s="37" t="s">
+      <c r="AR15" s="70"/>
+      <c r="AS15" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="AT15" s="36">
+      <c r="AT15" s="69">
         <v>88</v>
       </c>
-      <c r="AU15" s="38" t="s">
+      <c r="AU15" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="AV15" s="38"/>
-      <c r="AW15" s="39" t="s">
+      <c r="AV15" s="72"/>
+      <c r="AW15" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="AX15" s="36">
+      <c r="AX15" s="69">
         <v>100</v>
       </c>
-      <c r="AY15" s="34" t="s">
+      <c r="AY15" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="AZ15" s="34"/>
-      <c r="BA15" s="37" t="s">
+      <c r="AZ15" s="70"/>
+      <c r="BA15" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="BB15" s="36">
+      <c r="BB15" s="69">
         <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:54" ht="18.75" customHeight="1">
-      <c r="A16" s="116" t="s">
+      <c r="A16" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="116"/>
-      <c r="C16" s="108" t="s">
+      <c r="B16" s="58"/>
+      <c r="C16" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="109">
+      <c r="D16" s="60">
         <v>6</v>
       </c>
-      <c r="E16" s="109"/>
+      <c r="E16" s="60"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="116" t="s">
+      <c r="G16" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="109">
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="60">
         <v>14</v>
       </c>
-      <c r="K16" s="109"/>
-      <c r="L16" s="134"/>
-      <c r="M16" s="134"/>
-      <c r="N16" s="134"/>
-      <c r="O16" s="134"/>
-      <c r="P16" s="134"/>
-      <c r="Q16" s="134"/>
-      <c r="R16" s="134"/>
-      <c r="S16" s="134"/>
-      <c r="T16" s="134"/>
-      <c r="U16" s="134"/>
-      <c r="V16" s="134"/>
-      <c r="W16" s="34"/>
-      <c r="X16" s="34"/>
-      <c r="Y16" s="37"/>
-      <c r="Z16" s="36"/>
-      <c r="AA16" s="43"/>
-      <c r="AB16" s="44"/>
-      <c r="AC16" s="39"/>
-      <c r="AD16" s="36"/>
-      <c r="AE16" s="34"/>
-      <c r="AF16" s="34"/>
-      <c r="AG16" s="37"/>
-      <c r="AH16" s="36"/>
-      <c r="AI16" s="34"/>
-      <c r="AJ16" s="34"/>
-      <c r="AK16" s="37"/>
-      <c r="AL16" s="36"/>
-      <c r="AM16" s="34"/>
-      <c r="AN16" s="34"/>
-      <c r="AO16" s="37"/>
-      <c r="AP16" s="36"/>
-      <c r="AQ16" s="34"/>
-      <c r="AR16" s="34"/>
-      <c r="AS16" s="37"/>
-      <c r="AT16" s="36"/>
-      <c r="AU16" s="38"/>
-      <c r="AV16" s="38"/>
-      <c r="AW16" s="39"/>
-      <c r="AX16" s="36"/>
-      <c r="AY16" s="34"/>
-      <c r="AZ16" s="34"/>
-      <c r="BA16" s="37"/>
-      <c r="BB16" s="36"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="70"/>
+      <c r="X16" s="70"/>
+      <c r="Y16" s="67"/>
+      <c r="Z16" s="69"/>
+      <c r="AA16" s="82"/>
+      <c r="AB16" s="57"/>
+      <c r="AC16" s="71"/>
+      <c r="AD16" s="69"/>
+      <c r="AE16" s="70"/>
+      <c r="AF16" s="70"/>
+      <c r="AG16" s="67"/>
+      <c r="AH16" s="69"/>
+      <c r="AI16" s="70"/>
+      <c r="AJ16" s="70"/>
+      <c r="AK16" s="67"/>
+      <c r="AL16" s="69"/>
+      <c r="AM16" s="70"/>
+      <c r="AN16" s="70"/>
+      <c r="AO16" s="67"/>
+      <c r="AP16" s="69"/>
+      <c r="AQ16" s="70"/>
+      <c r="AR16" s="70"/>
+      <c r="AS16" s="67"/>
+      <c r="AT16" s="69"/>
+      <c r="AU16" s="72"/>
+      <c r="AV16" s="72"/>
+      <c r="AW16" s="71"/>
+      <c r="AX16" s="69"/>
+      <c r="AY16" s="70"/>
+      <c r="AZ16" s="70"/>
+      <c r="BA16" s="67"/>
+      <c r="BB16" s="69"/>
     </row>
     <row r="17" spans="1:54" ht="18.75" customHeight="1">
-      <c r="A17" s="116"/>
-      <c r="B17" s="116"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="109"/>
-      <c r="E17" s="109"/>
+      <c r="A17" s="58"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="116"/>
-      <c r="H17" s="116"/>
-      <c r="I17" s="116"/>
-      <c r="J17" s="109"/>
-      <c r="K17" s="109"/>
-      <c r="L17" s="134"/>
-      <c r="M17" s="134"/>
-      <c r="N17" s="134"/>
-      <c r="O17" s="134"/>
-      <c r="P17" s="134"/>
-      <c r="Q17" s="134"/>
-      <c r="R17" s="134"/>
-      <c r="S17" s="134"/>
-      <c r="T17" s="134"/>
-      <c r="U17" s="134"/>
-      <c r="V17" s="134"/>
-      <c r="W17" s="34" t="s">
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="X17" s="34"/>
-      <c r="Y17" s="37" t="s">
+      <c r="X17" s="70"/>
+      <c r="Y17" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="Z17" s="36">
+      <c r="Z17" s="69">
         <v>4</v>
       </c>
-      <c r="AA17" s="41" t="s">
+      <c r="AA17" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="AB17" s="42"/>
-      <c r="AC17" s="45" t="s">
+      <c r="AB17" s="55"/>
+      <c r="AC17" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="AD17" s="36">
+      <c r="AD17" s="69">
         <v>17</v>
       </c>
-      <c r="AE17" s="34" t="s">
+      <c r="AE17" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="AF17" s="34"/>
-      <c r="AG17" s="37" t="s">
+      <c r="AF17" s="70"/>
+      <c r="AG17" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="AH17" s="36">
+      <c r="AH17" s="69">
         <v>43</v>
       </c>
-      <c r="AI17" s="34"/>
-      <c r="AJ17" s="34"/>
-      <c r="AK17" s="37"/>
-      <c r="AL17" s="36"/>
-      <c r="AM17" s="34" t="s">
+      <c r="AI17" s="70"/>
+      <c r="AJ17" s="70"/>
+      <c r="AK17" s="67"/>
+      <c r="AL17" s="69"/>
+      <c r="AM17" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="AN17" s="34"/>
-      <c r="AO17" s="37" t="s">
+      <c r="AN17" s="70"/>
+      <c r="AO17" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="AP17" s="36">
+      <c r="AP17" s="69">
         <v>73</v>
       </c>
-      <c r="AQ17" s="75"/>
-      <c r="AR17" s="75"/>
-      <c r="AS17" s="74"/>
-      <c r="AT17" s="36"/>
-      <c r="AU17" s="34" t="s">
+      <c r="AQ17" s="77"/>
+      <c r="AR17" s="77"/>
+      <c r="AS17" s="78"/>
+      <c r="AT17" s="69"/>
+      <c r="AU17" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="AV17" s="34"/>
-      <c r="AW17" s="37" t="s">
+      <c r="AV17" s="70"/>
+      <c r="AW17" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="AX17" s="36">
+      <c r="AX17" s="69">
         <v>101</v>
       </c>
-      <c r="AY17" s="34" t="s">
+      <c r="AY17" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="AZ17" s="34"/>
-      <c r="BA17" s="37" t="s">
+      <c r="AZ17" s="70"/>
+      <c r="BA17" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="BB17" s="36">
+      <c r="BB17" s="69">
         <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:54" ht="18.75" customHeight="1">
-      <c r="A18" s="112" t="s">
+      <c r="A18" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="112"/>
-      <c r="C18" s="113" t="s">
+      <c r="B18" s="84"/>
+      <c r="C18" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="42">
+      <c r="D18" s="55">
         <v>7</v>
       </c>
-      <c r="E18" s="42"/>
+      <c r="E18" s="55"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="114" t="s">
+      <c r="G18" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="H18" s="114"/>
-      <c r="I18" s="114"/>
-      <c r="J18" s="115">
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="62">
         <v>15</v>
       </c>
-      <c r="K18" s="115"/>
-      <c r="L18" s="134"/>
-      <c r="M18" s="134"/>
-      <c r="N18" s="134"/>
-      <c r="O18" s="134"/>
-      <c r="P18" s="134"/>
-      <c r="Q18" s="134"/>
-      <c r="R18" s="134"/>
-      <c r="S18" s="134"/>
-      <c r="T18" s="134"/>
-      <c r="U18" s="134"/>
-      <c r="V18" s="134"/>
-      <c r="W18" s="34"/>
-      <c r="X18" s="34"/>
-      <c r="Y18" s="37"/>
-      <c r="Z18" s="36"/>
-      <c r="AA18" s="43"/>
-      <c r="AB18" s="44"/>
-      <c r="AC18" s="39"/>
-      <c r="AD18" s="36"/>
-      <c r="AE18" s="34"/>
-      <c r="AF18" s="34"/>
-      <c r="AG18" s="37"/>
-      <c r="AH18" s="36"/>
-      <c r="AI18" s="34"/>
-      <c r="AJ18" s="34"/>
-      <c r="AK18" s="37"/>
-      <c r="AL18" s="36"/>
-      <c r="AM18" s="34"/>
-      <c r="AN18" s="34"/>
-      <c r="AO18" s="37"/>
-      <c r="AP18" s="36"/>
-      <c r="AQ18" s="75"/>
-      <c r="AR18" s="75"/>
-      <c r="AS18" s="74"/>
-      <c r="AT18" s="36"/>
-      <c r="AU18" s="34"/>
-      <c r="AV18" s="34"/>
-      <c r="AW18" s="37"/>
-      <c r="AX18" s="36"/>
-      <c r="AY18" s="34"/>
-      <c r="AZ18" s="34"/>
-      <c r="BA18" s="37"/>
-      <c r="BB18" s="36"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="70"/>
+      <c r="X18" s="70"/>
+      <c r="Y18" s="67"/>
+      <c r="Z18" s="69"/>
+      <c r="AA18" s="82"/>
+      <c r="AB18" s="57"/>
+      <c r="AC18" s="71"/>
+      <c r="AD18" s="69"/>
+      <c r="AE18" s="70"/>
+      <c r="AF18" s="70"/>
+      <c r="AG18" s="67"/>
+      <c r="AH18" s="69"/>
+      <c r="AI18" s="70"/>
+      <c r="AJ18" s="70"/>
+      <c r="AK18" s="67"/>
+      <c r="AL18" s="69"/>
+      <c r="AM18" s="70"/>
+      <c r="AN18" s="70"/>
+      <c r="AO18" s="67"/>
+      <c r="AP18" s="69"/>
+      <c r="AQ18" s="77"/>
+      <c r="AR18" s="77"/>
+      <c r="AS18" s="78"/>
+      <c r="AT18" s="69"/>
+      <c r="AU18" s="70"/>
+      <c r="AV18" s="70"/>
+      <c r="AW18" s="67"/>
+      <c r="AX18" s="69"/>
+      <c r="AY18" s="70"/>
+      <c r="AZ18" s="70"/>
+      <c r="BA18" s="67"/>
+      <c r="BB18" s="69"/>
     </row>
     <row r="19" spans="1:54" ht="18.75" customHeight="1">
-      <c r="A19" s="112"/>
-      <c r="B19" s="112"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
+      <c r="A19" s="84"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="114"/>
-      <c r="J19" s="115"/>
-      <c r="K19" s="115"/>
-      <c r="L19" s="134"/>
-      <c r="M19" s="134"/>
-      <c r="N19" s="134"/>
-      <c r="O19" s="134"/>
-      <c r="P19" s="134"/>
-      <c r="Q19" s="134"/>
-      <c r="R19" s="134"/>
-      <c r="S19" s="134"/>
-      <c r="T19" s="134"/>
-      <c r="U19" s="134"/>
-      <c r="V19" s="134"/>
-      <c r="W19" s="34" t="s">
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="X19" s="34"/>
-      <c r="Y19" s="37" t="s">
+      <c r="X19" s="70"/>
+      <c r="Y19" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="Z19" s="36">
+      <c r="Z19" s="69">
         <v>5</v>
       </c>
-      <c r="AA19" s="41" t="s">
+      <c r="AA19" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="AB19" s="42"/>
-      <c r="AC19" s="45" t="s">
+      <c r="AB19" s="55"/>
+      <c r="AC19" s="83" t="s">
         <v>169</v>
       </c>
-      <c r="AD19" s="36">
+      <c r="AD19" s="69">
         <v>18</v>
       </c>
-      <c r="AE19" s="34"/>
-      <c r="AF19" s="34"/>
-      <c r="AG19" s="37"/>
-      <c r="AH19" s="36"/>
-      <c r="AI19" s="34"/>
-      <c r="AJ19" s="34"/>
-      <c r="AK19" s="37"/>
-      <c r="AL19" s="36"/>
-      <c r="AM19" s="34" t="s">
+      <c r="AE19" s="70"/>
+      <c r="AF19" s="70"/>
+      <c r="AG19" s="67"/>
+      <c r="AH19" s="69"/>
+      <c r="AI19" s="70"/>
+      <c r="AJ19" s="70"/>
+      <c r="AK19" s="67"/>
+      <c r="AL19" s="69"/>
+      <c r="AM19" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="AN19" s="34"/>
-      <c r="AO19" s="37" t="s">
+      <c r="AN19" s="70"/>
+      <c r="AO19" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="AP19" s="36">
+      <c r="AP19" s="69">
         <v>74</v>
       </c>
-      <c r="AQ19" s="34" t="s">
+      <c r="AQ19" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AR19" s="34"/>
-      <c r="AS19" s="37" t="s">
+      <c r="AR19" s="70"/>
+      <c r="AS19" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="AT19" s="36">
+      <c r="AT19" s="69">
         <v>89</v>
       </c>
-      <c r="AU19" s="34" t="s">
+      <c r="AU19" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="AV19" s="34"/>
-      <c r="AW19" s="39" t="s">
+      <c r="AV19" s="70"/>
+      <c r="AW19" s="71" t="s">
         <v>236</v>
       </c>
-      <c r="AX19" s="36">
+      <c r="AX19" s="69">
         <v>102</v>
       </c>
-      <c r="AY19" s="34" t="s">
+      <c r="AY19" s="70" t="s">
         <v>101</v>
       </c>
-      <c r="AZ19" s="34"/>
-      <c r="BA19" s="39" t="s">
+      <c r="AZ19" s="70"/>
+      <c r="BA19" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="BB19" s="36">
+      <c r="BB19" s="69">
         <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:54" ht="18.75" customHeight="1">
-      <c r="A20" s="107" t="s">
+      <c r="A20" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="B20" s="107"/>
-      <c r="C20" s="108" t="s">
+      <c r="B20" s="38"/>
+      <c r="C20" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="109">
+      <c r="D20" s="60">
         <v>8</v>
       </c>
-      <c r="E20" s="109"/>
+      <c r="E20" s="60"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="107" t="s">
+      <c r="G20" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="H20" s="107"/>
-      <c r="I20" s="107"/>
-      <c r="J20" s="109">
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="60">
         <v>16</v>
       </c>
-      <c r="K20" s="109"/>
-      <c r="L20" s="134"/>
-      <c r="M20" s="134"/>
-      <c r="N20" s="134"/>
-      <c r="O20" s="134"/>
-      <c r="P20" s="134"/>
-      <c r="Q20" s="134"/>
-      <c r="R20" s="134"/>
-      <c r="S20" s="134"/>
-      <c r="T20" s="134"/>
-      <c r="U20" s="134"/>
-      <c r="V20" s="134"/>
-      <c r="W20" s="34"/>
-      <c r="X20" s="34"/>
-      <c r="Y20" s="37"/>
-      <c r="Z20" s="36"/>
-      <c r="AA20" s="43"/>
-      <c r="AB20" s="44"/>
-      <c r="AC20" s="39"/>
-      <c r="AD20" s="36"/>
-      <c r="AE20" s="34"/>
-      <c r="AF20" s="34"/>
-      <c r="AG20" s="37"/>
-      <c r="AH20" s="36"/>
-      <c r="AI20" s="34"/>
-      <c r="AJ20" s="34"/>
-      <c r="AK20" s="37"/>
-      <c r="AL20" s="36"/>
-      <c r="AM20" s="34"/>
-      <c r="AN20" s="34"/>
-      <c r="AO20" s="37"/>
-      <c r="AP20" s="36"/>
-      <c r="AQ20" s="34"/>
-      <c r="AR20" s="34"/>
-      <c r="AS20" s="37"/>
-      <c r="AT20" s="36"/>
-      <c r="AU20" s="34"/>
-      <c r="AV20" s="34"/>
-      <c r="AW20" s="39"/>
-      <c r="AX20" s="36"/>
-      <c r="AY20" s="34"/>
-      <c r="AZ20" s="34"/>
-      <c r="BA20" s="39"/>
-      <c r="BB20" s="36"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="70"/>
+      <c r="X20" s="70"/>
+      <c r="Y20" s="67"/>
+      <c r="Z20" s="69"/>
+      <c r="AA20" s="82"/>
+      <c r="AB20" s="57"/>
+      <c r="AC20" s="71"/>
+      <c r="AD20" s="69"/>
+      <c r="AE20" s="70"/>
+      <c r="AF20" s="70"/>
+      <c r="AG20" s="67"/>
+      <c r="AH20" s="69"/>
+      <c r="AI20" s="70"/>
+      <c r="AJ20" s="70"/>
+      <c r="AK20" s="67"/>
+      <c r="AL20" s="69"/>
+      <c r="AM20" s="70"/>
+      <c r="AN20" s="70"/>
+      <c r="AO20" s="67"/>
+      <c r="AP20" s="69"/>
+      <c r="AQ20" s="70"/>
+      <c r="AR20" s="70"/>
+      <c r="AS20" s="67"/>
+      <c r="AT20" s="69"/>
+      <c r="AU20" s="70"/>
+      <c r="AV20" s="70"/>
+      <c r="AW20" s="71"/>
+      <c r="AX20" s="69"/>
+      <c r="AY20" s="70"/>
+      <c r="AZ20" s="70"/>
+      <c r="BA20" s="71"/>
+      <c r="BB20" s="69"/>
     </row>
     <row r="21" spans="1:54" ht="18.75" customHeight="1">
-      <c r="A21" s="107"/>
-      <c r="B21" s="107"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="109"/>
-      <c r="E21" s="109"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="109"/>
-      <c r="K21" s="109"/>
-      <c r="L21" s="134"/>
-      <c r="M21" s="134"/>
-      <c r="N21" s="134"/>
-      <c r="O21" s="134"/>
-      <c r="P21" s="134"/>
-      <c r="Q21" s="134"/>
-      <c r="R21" s="134"/>
-      <c r="S21" s="134"/>
-      <c r="T21" s="134"/>
-      <c r="U21" s="134"/>
-      <c r="V21" s="134"/>
-      <c r="W21" s="34" t="s">
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="37" t="s">
+      <c r="X21" s="70"/>
+      <c r="Y21" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="Z21" s="36">
+      <c r="Z21" s="69">
         <v>6</v>
       </c>
-      <c r="AA21" s="34" t="s">
+      <c r="AA21" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="AB21" s="34"/>
-      <c r="AC21" s="37" t="s">
+      <c r="AB21" s="70"/>
+      <c r="AC21" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="AD21" s="36">
+      <c r="AD21" s="69">
         <v>19</v>
       </c>
-      <c r="AE21" s="34" t="s">
+      <c r="AE21" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="AF21" s="34"/>
-      <c r="AG21" s="37" t="s">
+      <c r="AF21" s="70"/>
+      <c r="AG21" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="AH21" s="36">
+      <c r="AH21" s="69">
         <v>44</v>
       </c>
-      <c r="AI21" s="34" t="s">
+      <c r="AI21" s="70" t="s">
         <v>159</v>
       </c>
-      <c r="AJ21" s="34"/>
-      <c r="AK21" s="37" t="s">
+      <c r="AJ21" s="70"/>
+      <c r="AK21" s="67" t="s">
         <v>160</v>
       </c>
-      <c r="AL21" s="36">
+      <c r="AL21" s="69">
         <v>60</v>
       </c>
       <c r="AM21" s="86" t="s">
         <v>122</v>
       </c>
       <c r="AN21" s="86"/>
-      <c r="AO21" s="37" t="s">
+      <c r="AO21" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="AP21" s="36">
+      <c r="AP21" s="69">
         <v>75</v>
       </c>
-      <c r="AQ21" s="34" t="s">
+      <c r="AQ21" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="AR21" s="34"/>
-      <c r="AS21" s="37" t="s">
+      <c r="AR21" s="70"/>
+      <c r="AS21" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="AT21" s="36">
+      <c r="AT21" s="69">
         <v>90</v>
       </c>
-      <c r="AU21" s="38" t="s">
+      <c r="AU21" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="AV21" s="38"/>
-      <c r="AW21" s="39" t="s">
+      <c r="AV21" s="72"/>
+      <c r="AW21" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="AX21" s="36">
+      <c r="AX21" s="69">
         <v>103</v>
       </c>
-      <c r="AY21" s="34" t="s">
+      <c r="AY21" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="AZ21" s="34"/>
-      <c r="BA21" s="39" t="s">
+      <c r="AZ21" s="70"/>
+      <c r="BA21" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="BB21" s="36">
+      <c r="BB21" s="69">
         <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:54" ht="18.75" customHeight="1">
-      <c r="B22" s="110" t="s">
+      <c r="B22" s="85" t="s">
         <v>258</v>
       </c>
-      <c r="C22" s="110"/>
-      <c r="D22" s="111">
+      <c r="C22" s="85"/>
+      <c r="D22" s="39">
         <f>SUM(D6:D20)</f>
         <v>36</v>
       </c>
-      <c r="E22" s="111"/>
+      <c r="E22" s="39"/>
       <c r="F22" s="2"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
-      <c r="L22" s="134"/>
-      <c r="M22" s="134"/>
-      <c r="N22" s="134"/>
-      <c r="O22" s="134"/>
-      <c r="P22" s="134"/>
-      <c r="Q22" s="134"/>
-      <c r="R22" s="134"/>
-      <c r="S22" s="134"/>
-      <c r="T22" s="134"/>
-      <c r="U22" s="134"/>
-      <c r="V22" s="134"/>
-      <c r="W22" s="34"/>
-      <c r="X22" s="34"/>
-      <c r="Y22" s="37"/>
-      <c r="Z22" s="36"/>
-      <c r="AA22" s="34"/>
-      <c r="AB22" s="34"/>
-      <c r="AC22" s="37"/>
-      <c r="AD22" s="36"/>
-      <c r="AE22" s="34"/>
-      <c r="AF22" s="34"/>
-      <c r="AG22" s="37"/>
-      <c r="AH22" s="36"/>
-      <c r="AI22" s="34"/>
-      <c r="AJ22" s="34"/>
-      <c r="AK22" s="37"/>
-      <c r="AL22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="70"/>
+      <c r="X22" s="70"/>
+      <c r="Y22" s="67"/>
+      <c r="Z22" s="69"/>
+      <c r="AA22" s="70"/>
+      <c r="AB22" s="70"/>
+      <c r="AC22" s="67"/>
+      <c r="AD22" s="69"/>
+      <c r="AE22" s="70"/>
+      <c r="AF22" s="70"/>
+      <c r="AG22" s="67"/>
+      <c r="AH22" s="69"/>
+      <c r="AI22" s="70"/>
+      <c r="AJ22" s="70"/>
+      <c r="AK22" s="67"/>
+      <c r="AL22" s="69"/>
       <c r="AM22" s="86"/>
       <c r="AN22" s="86"/>
-      <c r="AO22" s="37"/>
-      <c r="AP22" s="36"/>
-      <c r="AQ22" s="34"/>
-      <c r="AR22" s="34"/>
-      <c r="AS22" s="37"/>
-      <c r="AT22" s="36"/>
-      <c r="AU22" s="38"/>
-      <c r="AV22" s="38"/>
-      <c r="AW22" s="39"/>
-      <c r="AX22" s="36"/>
-      <c r="AY22" s="34"/>
-      <c r="AZ22" s="34"/>
-      <c r="BA22" s="39"/>
-      <c r="BB22" s="36"/>
+      <c r="AO22" s="67"/>
+      <c r="AP22" s="69"/>
+      <c r="AQ22" s="70"/>
+      <c r="AR22" s="70"/>
+      <c r="AS22" s="67"/>
+      <c r="AT22" s="69"/>
+      <c r="AU22" s="72"/>
+      <c r="AV22" s="72"/>
+      <c r="AW22" s="71"/>
+      <c r="AX22" s="69"/>
+      <c r="AY22" s="70"/>
+      <c r="AZ22" s="70"/>
+      <c r="BA22" s="71"/>
+      <c r="BB22" s="69"/>
     </row>
     <row r="23" spans="1:54" ht="18.75" customHeight="1">
       <c r="B23" s="22"/>
@@ -4434,239 +4473,239 @@
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
-      <c r="L23" s="134"/>
-      <c r="M23" s="134"/>
-      <c r="N23" s="134"/>
-      <c r="O23" s="134"/>
-      <c r="P23" s="134"/>
-      <c r="Q23" s="134"/>
-      <c r="R23" s="134"/>
-      <c r="S23" s="134"/>
-      <c r="T23" s="134"/>
-      <c r="U23" s="134"/>
-      <c r="V23" s="134"/>
-      <c r="W23" s="34" t="s">
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="X23" s="34"/>
-      <c r="Y23" s="37" t="s">
+      <c r="X23" s="70"/>
+      <c r="Y23" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="Z23" s="36">
+      <c r="Z23" s="69">
         <v>7</v>
       </c>
-      <c r="AA23" s="34"/>
-      <c r="AB23" s="34"/>
-      <c r="AC23" s="37"/>
-      <c r="AD23" s="36"/>
-      <c r="AE23" s="34" t="s">
+      <c r="AA23" s="70"/>
+      <c r="AB23" s="70"/>
+      <c r="AC23" s="67"/>
+      <c r="AD23" s="69"/>
+      <c r="AE23" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="AF23" s="34"/>
-      <c r="AG23" s="37" t="s">
+      <c r="AF23" s="70"/>
+      <c r="AG23" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="AH23" s="36">
+      <c r="AH23" s="69">
         <v>45</v>
       </c>
-      <c r="AI23" s="34" t="s">
+      <c r="AI23" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="AJ23" s="34"/>
-      <c r="AK23" s="37" t="s">
+      <c r="AJ23" s="70"/>
+      <c r="AK23" s="67" t="s">
         <v>205</v>
       </c>
-      <c r="AL23" s="36">
+      <c r="AL23" s="69">
         <v>61</v>
       </c>
       <c r="AM23" s="86" t="s">
         <v>133</v>
       </c>
       <c r="AN23" s="86"/>
-      <c r="AO23" s="37" t="s">
+      <c r="AO23" s="67" t="s">
         <v>134</v>
       </c>
-      <c r="AP23" s="36">
+      <c r="AP23" s="69">
         <v>76</v>
       </c>
-      <c r="AQ23" s="34" t="s">
+      <c r="AQ23" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="AR23" s="34"/>
-      <c r="AS23" s="37" t="s">
+      <c r="AR23" s="70"/>
+      <c r="AS23" s="67" t="s">
         <v>266</v>
       </c>
-      <c r="AT23" s="36">
+      <c r="AT23" s="69">
         <v>91</v>
       </c>
-      <c r="AU23" s="34" t="s">
+      <c r="AU23" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="AV23" s="34"/>
-      <c r="AW23" s="39" t="s">
+      <c r="AV23" s="70"/>
+      <c r="AW23" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="AX23" s="36">
+      <c r="AX23" s="69">
         <v>104</v>
       </c>
-      <c r="AY23" s="34" t="s">
+      <c r="AY23" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="AZ23" s="34"/>
-      <c r="BA23" s="39" t="s">
+      <c r="AZ23" s="70"/>
+      <c r="BA23" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="BB23" s="36">
+      <c r="BB23" s="69">
         <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:54" ht="18.75" customHeight="1">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="46" t="s">
+      <c r="B24" s="46"/>
+      <c r="C24" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="D24" s="47"/>
-      <c r="E24" s="50" t="s">
+      <c r="D24" s="46"/>
+      <c r="E24" s="136" t="s">
         <v>140</v>
       </c>
-      <c r="F24" s="52" t="s">
+      <c r="F24" s="138" t="s">
         <v>240</v>
       </c>
-      <c r="G24" s="52" t="s">
+      <c r="G24" s="138" t="s">
         <v>241</v>
       </c>
-      <c r="H24" s="52" t="s">
+      <c r="H24" s="138" t="s">
         <v>141</v>
       </c>
-      <c r="I24" s="46" t="s">
+      <c r="I24" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="J24" s="136"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="134"/>
-      <c r="M24" s="134"/>
-      <c r="N24" s="134"/>
-      <c r="O24" s="134"/>
-      <c r="P24" s="134"/>
-      <c r="Q24" s="134"/>
-      <c r="R24" s="134"/>
-      <c r="S24" s="134"/>
-      <c r="T24" s="134"/>
-      <c r="U24" s="134"/>
-      <c r="V24" s="134"/>
-      <c r="W24" s="34"/>
-      <c r="X24" s="34"/>
-      <c r="Y24" s="37"/>
-      <c r="Z24" s="36"/>
-      <c r="AA24" s="34"/>
-      <c r="AB24" s="34"/>
-      <c r="AC24" s="37"/>
-      <c r="AD24" s="36"/>
-      <c r="AE24" s="34"/>
-      <c r="AF24" s="34"/>
-      <c r="AG24" s="37"/>
-      <c r="AH24" s="36"/>
-      <c r="AI24" s="34"/>
-      <c r="AJ24" s="34"/>
-      <c r="AK24" s="37"/>
-      <c r="AL24" s="36"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="70"/>
+      <c r="X24" s="70"/>
+      <c r="Y24" s="67"/>
+      <c r="Z24" s="69"/>
+      <c r="AA24" s="70"/>
+      <c r="AB24" s="70"/>
+      <c r="AC24" s="67"/>
+      <c r="AD24" s="69"/>
+      <c r="AE24" s="70"/>
+      <c r="AF24" s="70"/>
+      <c r="AG24" s="67"/>
+      <c r="AH24" s="69"/>
+      <c r="AI24" s="70"/>
+      <c r="AJ24" s="70"/>
+      <c r="AK24" s="67"/>
+      <c r="AL24" s="69"/>
       <c r="AM24" s="86"/>
       <c r="AN24" s="86"/>
-      <c r="AO24" s="37"/>
-      <c r="AP24" s="36"/>
-      <c r="AQ24" s="34"/>
-      <c r="AR24" s="34"/>
-      <c r="AS24" s="37"/>
-      <c r="AT24" s="36"/>
-      <c r="AU24" s="34"/>
-      <c r="AV24" s="34"/>
-      <c r="AW24" s="39"/>
-      <c r="AX24" s="36"/>
-      <c r="AY24" s="34"/>
-      <c r="AZ24" s="34"/>
-      <c r="BA24" s="39"/>
-      <c r="BB24" s="36"/>
+      <c r="AO24" s="67"/>
+      <c r="AP24" s="69"/>
+      <c r="AQ24" s="70"/>
+      <c r="AR24" s="70"/>
+      <c r="AS24" s="67"/>
+      <c r="AT24" s="69"/>
+      <c r="AU24" s="70"/>
+      <c r="AV24" s="70"/>
+      <c r="AW24" s="71"/>
+      <c r="AX24" s="69"/>
+      <c r="AY24" s="70"/>
+      <c r="AZ24" s="70"/>
+      <c r="BA24" s="71"/>
+      <c r="BB24" s="69"/>
     </row>
     <row r="25" spans="1:54" ht="18.75" customHeight="1">
-      <c r="A25" s="48"/>
+      <c r="A25" s="47"/>
       <c r="B25" s="49"/>
-      <c r="C25" s="48"/>
+      <c r="C25" s="47"/>
       <c r="D25" s="49"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="137"/>
+      <c r="E25" s="137"/>
+      <c r="F25" s="137"/>
+      <c r="G25" s="137"/>
+      <c r="H25" s="137"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="48"/>
       <c r="K25" s="49"/>
-      <c r="L25" s="134"/>
-      <c r="M25" s="134"/>
-      <c r="N25" s="134"/>
-      <c r="O25" s="134"/>
-      <c r="P25" s="134"/>
-      <c r="Q25" s="134"/>
-      <c r="R25" s="134"/>
-      <c r="S25" s="134"/>
-      <c r="T25" s="134"/>
-      <c r="U25" s="134"/>
-      <c r="V25" s="134"/>
-      <c r="W25" s="75"/>
-      <c r="X25" s="75"/>
-      <c r="Y25" s="74"/>
-      <c r="Z25" s="36"/>
-      <c r="AA25" s="75"/>
-      <c r="AB25" s="75"/>
-      <c r="AC25" s="74"/>
-      <c r="AD25" s="36"/>
-      <c r="AE25" s="34" t="s">
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="77"/>
+      <c r="X25" s="77"/>
+      <c r="Y25" s="78"/>
+      <c r="Z25" s="69"/>
+      <c r="AA25" s="77"/>
+      <c r="AB25" s="77"/>
+      <c r="AC25" s="78"/>
+      <c r="AD25" s="69"/>
+      <c r="AE25" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="AF25" s="34"/>
-      <c r="AG25" s="37" t="s">
+      <c r="AF25" s="70"/>
+      <c r="AG25" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="AH25" s="36">
+      <c r="AH25" s="69">
         <v>46</v>
       </c>
-      <c r="AI25" s="34" t="s">
+      <c r="AI25" s="70" t="s">
         <v>131</v>
       </c>
-      <c r="AJ25" s="34"/>
-      <c r="AK25" s="37" t="s">
+      <c r="AJ25" s="70"/>
+      <c r="AK25" s="67" t="s">
         <v>132</v>
       </c>
-      <c r="AL25" s="36">
+      <c r="AL25" s="69">
         <v>62</v>
       </c>
       <c r="AM25" s="86"/>
       <c r="AN25" s="86"/>
-      <c r="AO25" s="37"/>
-      <c r="AP25" s="36"/>
-      <c r="AQ25" s="75"/>
-      <c r="AR25" s="75"/>
-      <c r="AS25" s="74"/>
-      <c r="AT25" s="36"/>
-      <c r="AU25" s="106" t="s">
+      <c r="AO25" s="67"/>
+      <c r="AP25" s="69"/>
+      <c r="AQ25" s="77"/>
+      <c r="AR25" s="77"/>
+      <c r="AS25" s="78"/>
+      <c r="AT25" s="69"/>
+      <c r="AU25" s="87" t="s">
         <v>135</v>
       </c>
-      <c r="AV25" s="106"/>
-      <c r="AW25" s="39" t="s">
+      <c r="AV25" s="87"/>
+      <c r="AW25" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="AX25" s="36">
+      <c r="AX25" s="69">
         <v>105</v>
       </c>
-      <c r="AY25" s="34" t="s">
+      <c r="AY25" s="70" t="s">
         <v>136</v>
       </c>
-      <c r="AZ25" s="34"/>
-      <c r="BA25" s="37" t="s">
+      <c r="AZ25" s="70"/>
+      <c r="BA25" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="BB25" s="36">
+      <c r="BB25" s="69">
         <v>112</v>
       </c>
     </row>
@@ -4684,49 +4723,49 @@
       <c r="I26" s="11"/>
       <c r="J26" s="2"/>
       <c r="K26" s="12"/>
-      <c r="L26" s="134"/>
-      <c r="M26" s="134"/>
-      <c r="N26" s="134"/>
-      <c r="O26" s="134"/>
-      <c r="P26" s="134"/>
-      <c r="Q26" s="134"/>
-      <c r="R26" s="134"/>
-      <c r="S26" s="134"/>
-      <c r="T26" s="134"/>
-      <c r="U26" s="134"/>
-      <c r="V26" s="134"/>
-      <c r="W26" s="75"/>
-      <c r="X26" s="75"/>
-      <c r="Y26" s="74"/>
-      <c r="Z26" s="36"/>
-      <c r="AA26" s="75"/>
-      <c r="AB26" s="75"/>
-      <c r="AC26" s="74"/>
-      <c r="AD26" s="36"/>
-      <c r="AE26" s="34"/>
-      <c r="AF26" s="34"/>
-      <c r="AG26" s="37"/>
-      <c r="AH26" s="36"/>
-      <c r="AI26" s="34"/>
-      <c r="AJ26" s="34"/>
-      <c r="AK26" s="37"/>
-      <c r="AL26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="77"/>
+      <c r="X26" s="77"/>
+      <c r="Y26" s="78"/>
+      <c r="Z26" s="69"/>
+      <c r="AA26" s="77"/>
+      <c r="AB26" s="77"/>
+      <c r="AC26" s="78"/>
+      <c r="AD26" s="69"/>
+      <c r="AE26" s="70"/>
+      <c r="AF26" s="70"/>
+      <c r="AG26" s="67"/>
+      <c r="AH26" s="69"/>
+      <c r="AI26" s="70"/>
+      <c r="AJ26" s="70"/>
+      <c r="AK26" s="67"/>
+      <c r="AL26" s="69"/>
       <c r="AM26" s="86"/>
       <c r="AN26" s="86"/>
-      <c r="AO26" s="37"/>
-      <c r="AP26" s="36"/>
-      <c r="AQ26" s="75"/>
-      <c r="AR26" s="75"/>
-      <c r="AS26" s="74"/>
-      <c r="AT26" s="36"/>
-      <c r="AU26" s="106"/>
-      <c r="AV26" s="106"/>
-      <c r="AW26" s="39"/>
-      <c r="AX26" s="36"/>
-      <c r="AY26" s="34"/>
-      <c r="AZ26" s="34"/>
-      <c r="BA26" s="37"/>
-      <c r="BB26" s="36"/>
+      <c r="AO26" s="67"/>
+      <c r="AP26" s="69"/>
+      <c r="AQ26" s="77"/>
+      <c r="AR26" s="77"/>
+      <c r="AS26" s="78"/>
+      <c r="AT26" s="69"/>
+      <c r="AU26" s="87"/>
+      <c r="AV26" s="87"/>
+      <c r="AW26" s="71"/>
+      <c r="AX26" s="69"/>
+      <c r="AY26" s="70"/>
+      <c r="AZ26" s="70"/>
+      <c r="BA26" s="67"/>
+      <c r="BB26" s="69"/>
     </row>
     <row r="27" spans="1:54" ht="18.75" customHeight="1">
       <c r="A27" s="16"/>
@@ -4740,67 +4779,67 @@
       <c r="I27" s="17"/>
       <c r="J27" s="17"/>
       <c r="K27" s="18"/>
-      <c r="L27" s="134"/>
-      <c r="M27" s="134"/>
-      <c r="N27" s="134"/>
-      <c r="O27" s="134"/>
-      <c r="P27" s="134"/>
-      <c r="Q27" s="134"/>
-      <c r="R27" s="134"/>
-      <c r="S27" s="134"/>
-      <c r="T27" s="134"/>
-      <c r="U27" s="134"/>
-      <c r="V27" s="134"/>
-      <c r="W27" s="34" t="s">
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="70" t="s">
         <v>143</v>
       </c>
-      <c r="X27" s="34"/>
-      <c r="Y27" s="37" t="s">
+      <c r="X27" s="70"/>
+      <c r="Y27" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="Z27" s="36">
+      <c r="Z27" s="69">
         <v>8</v>
       </c>
-      <c r="AA27" s="34" t="s">
+      <c r="AA27" s="70" t="s">
         <v>144</v>
       </c>
-      <c r="AB27" s="34"/>
-      <c r="AC27" s="37" t="s">
+      <c r="AB27" s="70"/>
+      <c r="AC27" s="67" t="s">
         <v>145</v>
       </c>
-      <c r="AD27" s="36">
+      <c r="AD27" s="69">
         <v>20</v>
       </c>
-      <c r="AE27" s="34" t="s">
+      <c r="AE27" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="AF27" s="34"/>
-      <c r="AG27" s="37" t="s">
+      <c r="AF27" s="70"/>
+      <c r="AG27" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="AH27" s="36">
+      <c r="AH27" s="69">
         <v>47</v>
       </c>
-      <c r="AI27" s="34"/>
-      <c r="AJ27" s="34"/>
-      <c r="AK27" s="37"/>
-      <c r="AL27" s="36"/>
-      <c r="AM27" s="75"/>
-      <c r="AN27" s="75"/>
-      <c r="AO27" s="74"/>
-      <c r="AP27" s="36"/>
-      <c r="AQ27" s="75"/>
-      <c r="AR27" s="75"/>
-      <c r="AS27" s="74"/>
-      <c r="AT27" s="36"/>
-      <c r="AU27" s="104"/>
-      <c r="AV27" s="104"/>
-      <c r="AW27" s="105"/>
-      <c r="AX27" s="36"/>
-      <c r="AY27" s="75"/>
-      <c r="AZ27" s="75"/>
-      <c r="BA27" s="74"/>
-      <c r="BB27" s="36"/>
+      <c r="AI27" s="70"/>
+      <c r="AJ27" s="70"/>
+      <c r="AK27" s="67"/>
+      <c r="AL27" s="69"/>
+      <c r="AM27" s="77"/>
+      <c r="AN27" s="77"/>
+      <c r="AO27" s="78"/>
+      <c r="AP27" s="69"/>
+      <c r="AQ27" s="77"/>
+      <c r="AR27" s="77"/>
+      <c r="AS27" s="78"/>
+      <c r="AT27" s="69"/>
+      <c r="AU27" s="88"/>
+      <c r="AV27" s="88"/>
+      <c r="AW27" s="89"/>
+      <c r="AX27" s="69"/>
+      <c r="AY27" s="77"/>
+      <c r="AZ27" s="77"/>
+      <c r="BA27" s="78"/>
+      <c r="BB27" s="69"/>
     </row>
     <row r="28" spans="1:54" ht="18.75" customHeight="1">
       <c r="A28" s="11" t="s">
@@ -4816,49 +4855,49 @@
       <c r="I28" s="11"/>
       <c r="J28" s="2"/>
       <c r="K28" s="12"/>
-      <c r="L28" s="134"/>
-      <c r="M28" s="134"/>
-      <c r="N28" s="134"/>
-      <c r="O28" s="134"/>
-      <c r="P28" s="134"/>
-      <c r="Q28" s="134"/>
-      <c r="R28" s="134"/>
-      <c r="S28" s="134"/>
-      <c r="T28" s="134"/>
-      <c r="U28" s="134"/>
-      <c r="V28" s="134"/>
-      <c r="W28" s="34"/>
-      <c r="X28" s="34"/>
-      <c r="Y28" s="37"/>
-      <c r="Z28" s="36"/>
-      <c r="AA28" s="34"/>
-      <c r="AB28" s="34"/>
-      <c r="AC28" s="37"/>
-      <c r="AD28" s="36"/>
-      <c r="AE28" s="34"/>
-      <c r="AF28" s="34"/>
-      <c r="AG28" s="37"/>
-      <c r="AH28" s="36"/>
-      <c r="AI28" s="34"/>
-      <c r="AJ28" s="34"/>
-      <c r="AK28" s="37"/>
-      <c r="AL28" s="36"/>
-      <c r="AM28" s="75"/>
-      <c r="AN28" s="75"/>
-      <c r="AO28" s="74"/>
-      <c r="AP28" s="36"/>
-      <c r="AQ28" s="75"/>
-      <c r="AR28" s="75"/>
-      <c r="AS28" s="74"/>
-      <c r="AT28" s="36"/>
-      <c r="AU28" s="104"/>
-      <c r="AV28" s="104"/>
-      <c r="AW28" s="105"/>
-      <c r="AX28" s="36"/>
-      <c r="AY28" s="75"/>
-      <c r="AZ28" s="75"/>
-      <c r="BA28" s="74"/>
-      <c r="BB28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="70"/>
+      <c r="X28" s="70"/>
+      <c r="Y28" s="67"/>
+      <c r="Z28" s="69"/>
+      <c r="AA28" s="70"/>
+      <c r="AB28" s="70"/>
+      <c r="AC28" s="67"/>
+      <c r="AD28" s="69"/>
+      <c r="AE28" s="70"/>
+      <c r="AF28" s="70"/>
+      <c r="AG28" s="67"/>
+      <c r="AH28" s="69"/>
+      <c r="AI28" s="70"/>
+      <c r="AJ28" s="70"/>
+      <c r="AK28" s="67"/>
+      <c r="AL28" s="69"/>
+      <c r="AM28" s="77"/>
+      <c r="AN28" s="77"/>
+      <c r="AO28" s="78"/>
+      <c r="AP28" s="69"/>
+      <c r="AQ28" s="77"/>
+      <c r="AR28" s="77"/>
+      <c r="AS28" s="78"/>
+      <c r="AT28" s="69"/>
+      <c r="AU28" s="88"/>
+      <c r="AV28" s="88"/>
+      <c r="AW28" s="89"/>
+      <c r="AX28" s="69"/>
+      <c r="AY28" s="77"/>
+      <c r="AZ28" s="77"/>
+      <c r="BA28" s="78"/>
+      <c r="BB28" s="69"/>
     </row>
     <row r="29" spans="1:54" ht="18.75" customHeight="1">
       <c r="A29" s="16"/>
@@ -4872,61 +4911,61 @@
       <c r="I29" s="17"/>
       <c r="J29" s="17"/>
       <c r="K29" s="18"/>
-      <c r="L29" s="134"/>
-      <c r="M29" s="134"/>
-      <c r="N29" s="134"/>
-      <c r="O29" s="134"/>
-      <c r="P29" s="134"/>
-      <c r="Q29" s="134"/>
-      <c r="R29" s="134"/>
-      <c r="S29" s="134"/>
-      <c r="T29" s="134"/>
-      <c r="U29" s="134"/>
-      <c r="V29" s="134"/>
-      <c r="W29" s="34" t="s">
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="36"/>
+      <c r="U29" s="36"/>
+      <c r="V29" s="36"/>
+      <c r="W29" s="70" t="s">
         <v>150</v>
       </c>
-      <c r="X29" s="34"/>
-      <c r="Y29" s="37" t="s">
+      <c r="X29" s="70"/>
+      <c r="Y29" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="Z29" s="36">
+      <c r="Z29" s="69">
         <v>9</v>
       </c>
-      <c r="AA29" s="34" t="s">
+      <c r="AA29" s="70" t="s">
         <v>151</v>
       </c>
-      <c r="AB29" s="34"/>
-      <c r="AC29" s="37" t="s">
+      <c r="AB29" s="70"/>
+      <c r="AC29" s="67" t="s">
         <v>152</v>
       </c>
-      <c r="AD29" s="36">
+      <c r="AD29" s="69">
         <v>21</v>
       </c>
-      <c r="AE29" s="34"/>
-      <c r="AF29" s="34"/>
-      <c r="AG29" s="37"/>
-      <c r="AH29" s="36"/>
-      <c r="AI29" s="34"/>
-      <c r="AJ29" s="34"/>
-      <c r="AK29" s="35"/>
-      <c r="AL29" s="36"/>
-      <c r="AM29" s="75"/>
-      <c r="AN29" s="75"/>
-      <c r="AO29" s="74"/>
-      <c r="AP29" s="40"/>
-      <c r="AQ29" s="75"/>
-      <c r="AR29" s="75"/>
-      <c r="AS29" s="74"/>
-      <c r="AT29" s="40"/>
-      <c r="AU29" s="104"/>
-      <c r="AV29" s="104"/>
-      <c r="AW29" s="105"/>
-      <c r="AX29" s="40"/>
-      <c r="AY29" s="75"/>
-      <c r="AZ29" s="75"/>
-      <c r="BA29" s="74"/>
-      <c r="BB29" s="40"/>
+      <c r="AE29" s="70"/>
+      <c r="AF29" s="70"/>
+      <c r="AG29" s="67"/>
+      <c r="AH29" s="69"/>
+      <c r="AI29" s="70"/>
+      <c r="AJ29" s="70"/>
+      <c r="AK29" s="90"/>
+      <c r="AL29" s="69"/>
+      <c r="AM29" s="77"/>
+      <c r="AN29" s="77"/>
+      <c r="AO29" s="78"/>
+      <c r="AP29" s="68"/>
+      <c r="AQ29" s="77"/>
+      <c r="AR29" s="77"/>
+      <c r="AS29" s="78"/>
+      <c r="AT29" s="68"/>
+      <c r="AU29" s="88"/>
+      <c r="AV29" s="88"/>
+      <c r="AW29" s="89"/>
+      <c r="AX29" s="68"/>
+      <c r="AY29" s="77"/>
+      <c r="AZ29" s="77"/>
+      <c r="BA29" s="78"/>
+      <c r="BB29" s="68"/>
     </row>
     <row r="30" spans="1:54" ht="18.75" customHeight="1">
       <c r="A30" s="11"/>
@@ -4940,49 +4979,49 @@
       <c r="I30" s="11"/>
       <c r="J30" s="2"/>
       <c r="K30" s="12"/>
-      <c r="L30" s="134"/>
-      <c r="M30" s="134"/>
-      <c r="N30" s="134"/>
-      <c r="O30" s="134"/>
-      <c r="P30" s="134"/>
-      <c r="Q30" s="134"/>
-      <c r="R30" s="134"/>
-      <c r="S30" s="134"/>
-      <c r="T30" s="134"/>
-      <c r="U30" s="134"/>
-      <c r="V30" s="134"/>
-      <c r="W30" s="34"/>
-      <c r="X30" s="34"/>
-      <c r="Y30" s="37"/>
-      <c r="Z30" s="36"/>
-      <c r="AA30" s="34"/>
-      <c r="AB30" s="34"/>
-      <c r="AC30" s="37"/>
-      <c r="AD30" s="36"/>
-      <c r="AE30" s="34"/>
-      <c r="AF30" s="34"/>
-      <c r="AG30" s="37"/>
-      <c r="AH30" s="36"/>
-      <c r="AI30" s="34"/>
-      <c r="AJ30" s="34"/>
-      <c r="AK30" s="35"/>
-      <c r="AL30" s="36"/>
-      <c r="AM30" s="75"/>
-      <c r="AN30" s="75"/>
-      <c r="AO30" s="74"/>
-      <c r="AP30" s="36"/>
-      <c r="AQ30" s="75"/>
-      <c r="AR30" s="75"/>
-      <c r="AS30" s="74"/>
-      <c r="AT30" s="36"/>
-      <c r="AU30" s="104"/>
-      <c r="AV30" s="104"/>
-      <c r="AW30" s="105"/>
-      <c r="AX30" s="36"/>
-      <c r="AY30" s="75"/>
-      <c r="AZ30" s="75"/>
-      <c r="BA30" s="74"/>
-      <c r="BB30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="36"/>
+      <c r="S30" s="36"/>
+      <c r="T30" s="36"/>
+      <c r="U30" s="36"/>
+      <c r="V30" s="36"/>
+      <c r="W30" s="70"/>
+      <c r="X30" s="70"/>
+      <c r="Y30" s="67"/>
+      <c r="Z30" s="69"/>
+      <c r="AA30" s="70"/>
+      <c r="AB30" s="70"/>
+      <c r="AC30" s="67"/>
+      <c r="AD30" s="69"/>
+      <c r="AE30" s="70"/>
+      <c r="AF30" s="70"/>
+      <c r="AG30" s="67"/>
+      <c r="AH30" s="69"/>
+      <c r="AI30" s="70"/>
+      <c r="AJ30" s="70"/>
+      <c r="AK30" s="90"/>
+      <c r="AL30" s="69"/>
+      <c r="AM30" s="77"/>
+      <c r="AN30" s="77"/>
+      <c r="AO30" s="78"/>
+      <c r="AP30" s="69"/>
+      <c r="AQ30" s="77"/>
+      <c r="AR30" s="77"/>
+      <c r="AS30" s="78"/>
+      <c r="AT30" s="69"/>
+      <c r="AU30" s="88"/>
+      <c r="AV30" s="88"/>
+      <c r="AW30" s="89"/>
+      <c r="AX30" s="69"/>
+      <c r="AY30" s="77"/>
+      <c r="AZ30" s="77"/>
+      <c r="BA30" s="78"/>
+      <c r="BB30" s="69"/>
     </row>
     <row r="31" spans="1:54" ht="18.75" customHeight="1">
       <c r="A31" s="16"/>
@@ -4996,73 +5035,73 @@
       <c r="I31" s="17"/>
       <c r="J31" s="17"/>
       <c r="K31" s="18"/>
-      <c r="L31" s="134"/>
-      <c r="M31" s="134"/>
-      <c r="N31" s="134"/>
-      <c r="O31" s="134"/>
-      <c r="P31" s="134"/>
-      <c r="Q31" s="134"/>
-      <c r="R31" s="134"/>
-      <c r="S31" s="134"/>
-      <c r="T31" s="134"/>
-      <c r="U31" s="134"/>
-      <c r="V31" s="134"/>
-      <c r="W31" s="34" t="s">
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="36"/>
+      <c r="T31" s="36"/>
+      <c r="U31" s="36"/>
+      <c r="V31" s="36"/>
+      <c r="W31" s="70" t="s">
         <v>157</v>
       </c>
-      <c r="X31" s="34"/>
-      <c r="Y31" s="37" t="s">
+      <c r="X31" s="70"/>
+      <c r="Y31" s="67" t="s">
         <v>158</v>
       </c>
-      <c r="Z31" s="36">
+      <c r="Z31" s="69">
         <v>10</v>
       </c>
-      <c r="AA31" s="34" t="s">
+      <c r="AA31" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="AB31" s="34"/>
-      <c r="AC31" s="37" t="s">
+      <c r="AB31" s="70"/>
+      <c r="AC31" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="AD31" s="36">
+      <c r="AD31" s="69">
         <v>22</v>
       </c>
-      <c r="AE31" s="41" t="s">
+      <c r="AE31" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="AF31" s="42"/>
-      <c r="AG31" s="45" t="s">
+      <c r="AF31" s="55"/>
+      <c r="AG31" s="83" t="s">
         <v>256</v>
       </c>
-      <c r="AH31" s="73">
+      <c r="AH31" s="91">
         <v>48</v>
       </c>
-      <c r="AI31" s="34" t="s">
+      <c r="AI31" s="70" t="s">
         <v>196</v>
       </c>
-      <c r="AJ31" s="34"/>
-      <c r="AK31" s="37" t="s">
+      <c r="AJ31" s="70"/>
+      <c r="AK31" s="67" t="s">
         <v>267</v>
       </c>
-      <c r="AL31" s="40">
+      <c r="AL31" s="68">
         <v>63</v>
       </c>
-      <c r="AM31" s="104"/>
-      <c r="AN31" s="104"/>
-      <c r="AO31" s="105"/>
-      <c r="AP31" s="36"/>
-      <c r="AQ31" s="104"/>
-      <c r="AR31" s="104"/>
-      <c r="AS31" s="105"/>
-      <c r="AT31" s="36"/>
-      <c r="AU31" s="104"/>
-      <c r="AV31" s="104"/>
-      <c r="AW31" s="105"/>
-      <c r="AX31" s="36"/>
-      <c r="AY31" s="75"/>
-      <c r="AZ31" s="75"/>
-      <c r="BA31" s="74"/>
-      <c r="BB31" s="36"/>
+      <c r="AM31" s="88"/>
+      <c r="AN31" s="88"/>
+      <c r="AO31" s="89"/>
+      <c r="AP31" s="69"/>
+      <c r="AQ31" s="88"/>
+      <c r="AR31" s="88"/>
+      <c r="AS31" s="89"/>
+      <c r="AT31" s="69"/>
+      <c r="AU31" s="88"/>
+      <c r="AV31" s="88"/>
+      <c r="AW31" s="89"/>
+      <c r="AX31" s="69"/>
+      <c r="AY31" s="77"/>
+      <c r="AZ31" s="77"/>
+      <c r="BA31" s="78"/>
+      <c r="BB31" s="69"/>
     </row>
     <row r="32" spans="1:54" ht="18.75" customHeight="1">
       <c r="A32" s="11"/>
@@ -5076,38 +5115,38 @@
       <c r="I32" s="11"/>
       <c r="J32" s="2"/>
       <c r="K32" s="12"/>
-      <c r="W32" s="34"/>
-      <c r="X32" s="34"/>
-      <c r="Y32" s="37"/>
-      <c r="Z32" s="36"/>
-      <c r="AA32" s="34"/>
-      <c r="AB32" s="34"/>
-      <c r="AC32" s="37"/>
-      <c r="AD32" s="36"/>
-      <c r="AE32" s="43"/>
-      <c r="AF32" s="44"/>
-      <c r="AG32" s="39"/>
-      <c r="AH32" s="36"/>
-      <c r="AI32" s="34"/>
-      <c r="AJ32" s="34"/>
-      <c r="AK32" s="37"/>
-      <c r="AL32" s="36"/>
-      <c r="AM32" s="104"/>
-      <c r="AN32" s="104"/>
-      <c r="AO32" s="105"/>
-      <c r="AP32" s="36"/>
-      <c r="AQ32" s="104"/>
-      <c r="AR32" s="104"/>
-      <c r="AS32" s="105"/>
-      <c r="AT32" s="36"/>
-      <c r="AU32" s="104"/>
-      <c r="AV32" s="104"/>
-      <c r="AW32" s="105"/>
-      <c r="AX32" s="36"/>
-      <c r="AY32" s="75"/>
-      <c r="AZ32" s="75"/>
-      <c r="BA32" s="74"/>
-      <c r="BB32" s="36"/>
+      <c r="W32" s="70"/>
+      <c r="X32" s="70"/>
+      <c r="Y32" s="67"/>
+      <c r="Z32" s="69"/>
+      <c r="AA32" s="70"/>
+      <c r="AB32" s="70"/>
+      <c r="AC32" s="67"/>
+      <c r="AD32" s="69"/>
+      <c r="AE32" s="82"/>
+      <c r="AF32" s="57"/>
+      <c r="AG32" s="71"/>
+      <c r="AH32" s="69"/>
+      <c r="AI32" s="70"/>
+      <c r="AJ32" s="70"/>
+      <c r="AK32" s="67"/>
+      <c r="AL32" s="69"/>
+      <c r="AM32" s="88"/>
+      <c r="AN32" s="88"/>
+      <c r="AO32" s="89"/>
+      <c r="AP32" s="69"/>
+      <c r="AQ32" s="88"/>
+      <c r="AR32" s="88"/>
+      <c r="AS32" s="89"/>
+      <c r="AT32" s="69"/>
+      <c r="AU32" s="88"/>
+      <c r="AV32" s="88"/>
+      <c r="AW32" s="89"/>
+      <c r="AX32" s="69"/>
+      <c r="AY32" s="77"/>
+      <c r="AZ32" s="77"/>
+      <c r="BA32" s="78"/>
+      <c r="BB32" s="69"/>
     </row>
     <row r="33" spans="1:54" ht="18.75" customHeight="1">
       <c r="A33" s="16"/>
@@ -5121,257 +5160,257 @@
       <c r="I33" s="17"/>
       <c r="J33" s="17"/>
       <c r="K33" s="18"/>
-      <c r="L33" s="103" t="s">
+      <c r="L33" s="63" t="s">
         <v>162</v>
       </c>
-      <c r="M33" s="103"/>
-      <c r="N33" s="103"/>
-      <c r="O33" s="103"/>
-      <c r="P33" s="103"/>
-      <c r="R33" s="103" t="s">
+      <c r="M33" s="63"/>
+      <c r="N33" s="63"/>
+      <c r="O33" s="63"/>
+      <c r="P33" s="63"/>
+      <c r="R33" s="63" t="s">
         <v>163</v>
       </c>
-      <c r="S33" s="103"/>
-      <c r="T33" s="103"/>
-      <c r="U33" s="103"/>
-      <c r="V33" s="103"/>
-      <c r="W33" s="75"/>
-      <c r="X33" s="75"/>
-      <c r="Y33" s="74"/>
-      <c r="Z33" s="36"/>
-      <c r="AA33" s="75"/>
-      <c r="AB33" s="75"/>
-      <c r="AC33" s="74"/>
-      <c r="AD33" s="36"/>
-      <c r="AE33" s="34" t="s">
+      <c r="S33" s="63"/>
+      <c r="T33" s="63"/>
+      <c r="U33" s="63"/>
+      <c r="V33" s="63"/>
+      <c r="W33" s="77"/>
+      <c r="X33" s="77"/>
+      <c r="Y33" s="78"/>
+      <c r="Z33" s="69"/>
+      <c r="AA33" s="77"/>
+      <c r="AB33" s="77"/>
+      <c r="AC33" s="78"/>
+      <c r="AD33" s="69"/>
+      <c r="AE33" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="AF33" s="34"/>
-      <c r="AG33" s="37" t="s">
+      <c r="AF33" s="70"/>
+      <c r="AG33" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="AH33" s="36">
+      <c r="AH33" s="69">
         <v>49</v>
       </c>
-      <c r="AI33" s="34" t="s">
+      <c r="AI33" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="AJ33" s="34"/>
-      <c r="AK33" s="37" t="s">
+      <c r="AJ33" s="70"/>
+      <c r="AK33" s="67" t="s">
         <v>147</v>
       </c>
-      <c r="AL33" s="36">
+      <c r="AL33" s="69">
         <v>64</v>
       </c>
-      <c r="AM33" s="75"/>
-      <c r="AN33" s="75"/>
-      <c r="AO33" s="74"/>
-      <c r="AP33" s="36"/>
-      <c r="AQ33" s="75"/>
-      <c r="AR33" s="75"/>
-      <c r="AS33" s="74"/>
-      <c r="AT33" s="36"/>
-      <c r="AU33" s="75"/>
-      <c r="AV33" s="75"/>
-      <c r="AW33" s="74"/>
-      <c r="AX33" s="36"/>
-      <c r="AY33" s="75"/>
-      <c r="AZ33" s="75"/>
-      <c r="BA33" s="74"/>
-      <c r="BB33" s="36"/>
+      <c r="AM33" s="77"/>
+      <c r="AN33" s="77"/>
+      <c r="AO33" s="78"/>
+      <c r="AP33" s="69"/>
+      <c r="AQ33" s="77"/>
+      <c r="AR33" s="77"/>
+      <c r="AS33" s="78"/>
+      <c r="AT33" s="69"/>
+      <c r="AU33" s="77"/>
+      <c r="AV33" s="77"/>
+      <c r="AW33" s="78"/>
+      <c r="AX33" s="69"/>
+      <c r="AY33" s="77"/>
+      <c r="AZ33" s="77"/>
+      <c r="BA33" s="78"/>
+      <c r="BB33" s="69"/>
     </row>
     <row r="34" spans="1:54" ht="18.75" customHeight="1">
-      <c r="L34" s="103"/>
-      <c r="M34" s="103"/>
-      <c r="N34" s="103"/>
-      <c r="O34" s="103"/>
-      <c r="P34" s="103"/>
-      <c r="R34" s="103"/>
-      <c r="S34" s="103"/>
-      <c r="T34" s="103"/>
-      <c r="U34" s="103"/>
-      <c r="V34" s="103"/>
-      <c r="W34" s="75"/>
-      <c r="X34" s="75"/>
-      <c r="Y34" s="74"/>
-      <c r="Z34" s="36"/>
-      <c r="AA34" s="75"/>
-      <c r="AB34" s="75"/>
-      <c r="AC34" s="74"/>
-      <c r="AD34" s="36"/>
-      <c r="AE34" s="34"/>
-      <c r="AF34" s="34"/>
-      <c r="AG34" s="37"/>
-      <c r="AH34" s="36"/>
-      <c r="AI34" s="34"/>
-      <c r="AJ34" s="34"/>
-      <c r="AK34" s="37"/>
-      <c r="AL34" s="36"/>
-      <c r="AM34" s="75"/>
-      <c r="AN34" s="75"/>
-      <c r="AO34" s="74"/>
-      <c r="AP34" s="36"/>
-      <c r="AQ34" s="75"/>
-      <c r="AR34" s="75"/>
-      <c r="AS34" s="74"/>
-      <c r="AT34" s="36"/>
-      <c r="AU34" s="75"/>
-      <c r="AV34" s="75"/>
-      <c r="AW34" s="74"/>
-      <c r="AX34" s="36"/>
-      <c r="AY34" s="75"/>
-      <c r="AZ34" s="75"/>
-      <c r="BA34" s="74"/>
-      <c r="BB34" s="36"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="63"/>
+      <c r="N34" s="63"/>
+      <c r="O34" s="63"/>
+      <c r="P34" s="63"/>
+      <c r="R34" s="63"/>
+      <c r="S34" s="63"/>
+      <c r="T34" s="63"/>
+      <c r="U34" s="63"/>
+      <c r="V34" s="63"/>
+      <c r="W34" s="77"/>
+      <c r="X34" s="77"/>
+      <c r="Y34" s="78"/>
+      <c r="Z34" s="69"/>
+      <c r="AA34" s="77"/>
+      <c r="AB34" s="77"/>
+      <c r="AC34" s="78"/>
+      <c r="AD34" s="69"/>
+      <c r="AE34" s="70"/>
+      <c r="AF34" s="70"/>
+      <c r="AG34" s="67"/>
+      <c r="AH34" s="69"/>
+      <c r="AI34" s="70"/>
+      <c r="AJ34" s="70"/>
+      <c r="AK34" s="67"/>
+      <c r="AL34" s="69"/>
+      <c r="AM34" s="77"/>
+      <c r="AN34" s="77"/>
+      <c r="AO34" s="78"/>
+      <c r="AP34" s="69"/>
+      <c r="AQ34" s="77"/>
+      <c r="AR34" s="77"/>
+      <c r="AS34" s="78"/>
+      <c r="AT34" s="69"/>
+      <c r="AU34" s="77"/>
+      <c r="AV34" s="77"/>
+      <c r="AW34" s="78"/>
+      <c r="AX34" s="69"/>
+      <c r="AY34" s="77"/>
+      <c r="AZ34" s="77"/>
+      <c r="BA34" s="78"/>
+      <c r="BB34" s="69"/>
     </row>
     <row r="35" spans="1:54" ht="18.75" customHeight="1">
       <c r="A35" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="B35" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="68"/>
+      <c r="B35" s="112" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="112"/>
       <c r="D35" s="20" t="s">
         <v>177</v>
       </c>
       <c r="E35" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="G35" s="95" t="s">
+      <c r="G35" s="99" t="s">
         <v>231</v>
       </c>
-      <c r="H35" s="95"/>
-      <c r="I35" s="95"/>
-      <c r="J35" s="95"/>
-      <c r="K35" s="95"/>
-      <c r="L35" s="98" t="s">
+      <c r="H35" s="99"/>
+      <c r="I35" s="99"/>
+      <c r="J35" s="99"/>
+      <c r="K35" s="99"/>
+      <c r="L35" s="92" t="s">
         <v>476</v>
       </c>
-      <c r="M35" s="99"/>
-      <c r="N35" s="99"/>
-      <c r="O35" s="99"/>
-      <c r="P35" s="99"/>
-      <c r="R35" s="98" t="s">
+      <c r="M35" s="93"/>
+      <c r="N35" s="93"/>
+      <c r="O35" s="93"/>
+      <c r="P35" s="93"/>
+      <c r="R35" s="92" t="s">
         <v>477</v>
       </c>
-      <c r="S35" s="99"/>
-      <c r="T35" s="99"/>
-      <c r="U35" s="99"/>
-      <c r="V35" s="99"/>
-      <c r="W35" s="34" t="s">
+      <c r="S35" s="93"/>
+      <c r="T35" s="93"/>
+      <c r="U35" s="93"/>
+      <c r="V35" s="93"/>
+      <c r="W35" s="70" t="s">
         <v>164</v>
       </c>
-      <c r="X35" s="34"/>
-      <c r="Y35" s="37" t="s">
+      <c r="X35" s="70"/>
+      <c r="Y35" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="Z35" s="36">
+      <c r="Z35" s="69">
         <v>11</v>
       </c>
-      <c r="AA35" s="34" t="s">
+      <c r="AA35" s="70" t="s">
         <v>165</v>
       </c>
-      <c r="AB35" s="34"/>
-      <c r="AC35" s="37" t="s">
+      <c r="AB35" s="70"/>
+      <c r="AC35" s="67" t="s">
         <v>145</v>
       </c>
-      <c r="AD35" s="36">
+      <c r="AD35" s="69">
         <v>23</v>
       </c>
-      <c r="AE35" s="34" t="s">
+      <c r="AE35" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="AF35" s="34"/>
-      <c r="AG35" s="37" t="s">
+      <c r="AF35" s="70"/>
+      <c r="AG35" s="67" t="s">
         <v>205</v>
       </c>
-      <c r="AH35" s="36">
+      <c r="AH35" s="69">
         <v>50</v>
       </c>
-      <c r="AI35" s="34" t="s">
+      <c r="AI35" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="AJ35" s="34"/>
-      <c r="AK35" s="37" t="s">
+      <c r="AJ35" s="70"/>
+      <c r="AK35" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="AL35" s="36">
+      <c r="AL35" s="69">
         <v>65</v>
       </c>
-      <c r="AU35" s="100" t="s">
+      <c r="AU35" s="94" t="s">
         <v>170</v>
       </c>
-      <c r="AV35" s="100"/>
-      <c r="AW35" s="100"/>
-      <c r="AX35" s="100"/>
-      <c r="AY35" s="100"/>
-      <c r="AZ35" s="100"/>
-      <c r="BA35" s="100"/>
-      <c r="BB35" s="100"/>
+      <c r="AV35" s="94"/>
+      <c r="AW35" s="94"/>
+      <c r="AX35" s="94"/>
+      <c r="AY35" s="94"/>
+      <c r="AZ35" s="94"/>
+      <c r="BA35" s="94"/>
+      <c r="BB35" s="94"/>
     </row>
     <row r="36" spans="1:54" ht="18.75" customHeight="1">
       <c r="A36" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="B36" s="66" t="s">
+      <c r="B36" s="102" t="s">
         <v>271</v>
       </c>
-      <c r="C36" s="67"/>
+      <c r="C36" s="103"/>
       <c r="D36" s="24"/>
       <c r="E36" s="23"/>
-      <c r="G36" s="74">
+      <c r="G36" s="78">
         <v>1</v>
       </c>
-      <c r="H36" s="74"/>
-      <c r="I36" s="74"/>
-      <c r="J36" s="74"/>
-      <c r="K36" s="74"/>
-      <c r="L36" s="98"/>
-      <c r="M36" s="99"/>
-      <c r="N36" s="99"/>
-      <c r="O36" s="99"/>
-      <c r="P36" s="99"/>
-      <c r="R36" s="98"/>
-      <c r="S36" s="99"/>
-      <c r="T36" s="99"/>
-      <c r="U36" s="99"/>
-      <c r="V36" s="99"/>
-      <c r="W36" s="34"/>
-      <c r="X36" s="34"/>
-      <c r="Y36" s="37"/>
-      <c r="Z36" s="36"/>
-      <c r="AA36" s="34"/>
-      <c r="AB36" s="34"/>
-      <c r="AC36" s="37"/>
-      <c r="AD36" s="36"/>
-      <c r="AE36" s="34"/>
-      <c r="AF36" s="34"/>
-      <c r="AG36" s="37"/>
-      <c r="AH36" s="36"/>
-      <c r="AI36" s="34"/>
-      <c r="AJ36" s="34"/>
-      <c r="AK36" s="37"/>
-      <c r="AL36" s="36"/>
-      <c r="AM36" s="93" t="s">
+      <c r="H36" s="78"/>
+      <c r="I36" s="78"/>
+      <c r="J36" s="78"/>
+      <c r="K36" s="78"/>
+      <c r="L36" s="92"/>
+      <c r="M36" s="93"/>
+      <c r="N36" s="93"/>
+      <c r="O36" s="93"/>
+      <c r="P36" s="93"/>
+      <c r="R36" s="92"/>
+      <c r="S36" s="93"/>
+      <c r="T36" s="93"/>
+      <c r="U36" s="93"/>
+      <c r="V36" s="93"/>
+      <c r="W36" s="70"/>
+      <c r="X36" s="70"/>
+      <c r="Y36" s="67"/>
+      <c r="Z36" s="69"/>
+      <c r="AA36" s="70"/>
+      <c r="AB36" s="70"/>
+      <c r="AC36" s="67"/>
+      <c r="AD36" s="69"/>
+      <c r="AE36" s="70"/>
+      <c r="AF36" s="70"/>
+      <c r="AG36" s="67"/>
+      <c r="AH36" s="69"/>
+      <c r="AI36" s="70"/>
+      <c r="AJ36" s="70"/>
+      <c r="AK36" s="67"/>
+      <c r="AL36" s="69"/>
+      <c r="AM36" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="AN36" s="93"/>
-      <c r="AO36" s="93"/>
-      <c r="AP36" s="93"/>
-      <c r="AQ36" s="93"/>
-      <c r="AR36" s="93"/>
-      <c r="AS36" s="93"/>
-      <c r="AT36" s="93"/>
-      <c r="AU36" s="101" t="s">
+      <c r="AN36" s="73"/>
+      <c r="AO36" s="73"/>
+      <c r="AP36" s="73"/>
+      <c r="AQ36" s="73"/>
+      <c r="AR36" s="73"/>
+      <c r="AS36" s="73"/>
+      <c r="AT36" s="73"/>
+      <c r="AU36" s="95" t="s">
         <v>172</v>
       </c>
-      <c r="AV36" s="101"/>
-      <c r="AW36" s="102" t="s">
+      <c r="AV36" s="95"/>
+      <c r="AW36" s="96" t="s">
         <v>173</v>
       </c>
-      <c r="AX36" s="102"/>
-      <c r="AY36" s="102"/>
+      <c r="AX36" s="96"/>
+      <c r="AY36" s="96"/>
       <c r="AZ36" s="19" t="s">
         <v>174</v>
       </c>
@@ -5388,151 +5427,151 @@
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
       <c r="E37" s="18"/>
-      <c r="G37" s="95" t="s">
+      <c r="G37" s="99" t="s">
         <v>232</v>
       </c>
-      <c r="H37" s="95"/>
-      <c r="I37" s="95"/>
-      <c r="J37" s="95"/>
-      <c r="K37" s="95"/>
-      <c r="L37" s="98"/>
-      <c r="M37" s="99"/>
-      <c r="N37" s="99"/>
-      <c r="O37" s="99"/>
-      <c r="P37" s="99"/>
-      <c r="R37" s="98"/>
-      <c r="S37" s="99"/>
-      <c r="T37" s="99"/>
-      <c r="U37" s="99"/>
-      <c r="V37" s="99"/>
-      <c r="W37" s="34" t="s">
+      <c r="H37" s="99"/>
+      <c r="I37" s="99"/>
+      <c r="J37" s="99"/>
+      <c r="K37" s="99"/>
+      <c r="L37" s="92"/>
+      <c r="M37" s="93"/>
+      <c r="N37" s="93"/>
+      <c r="O37" s="93"/>
+      <c r="P37" s="93"/>
+      <c r="R37" s="92"/>
+      <c r="S37" s="93"/>
+      <c r="T37" s="93"/>
+      <c r="U37" s="93"/>
+      <c r="V37" s="93"/>
+      <c r="W37" s="70" t="s">
         <v>179</v>
       </c>
-      <c r="X37" s="34"/>
-      <c r="Y37" s="37" t="s">
+      <c r="X37" s="70"/>
+      <c r="Y37" s="67" t="s">
         <v>180</v>
       </c>
-      <c r="Z37" s="36">
+      <c r="Z37" s="69">
         <v>12</v>
       </c>
-      <c r="AA37" s="34" t="s">
+      <c r="AA37" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="AB37" s="34"/>
-      <c r="AC37" s="37" t="s">
+      <c r="AB37" s="70"/>
+      <c r="AC37" s="67" t="s">
         <v>182</v>
       </c>
-      <c r="AD37" s="36">
+      <c r="AD37" s="69">
         <v>24</v>
       </c>
-      <c r="AE37" s="34" t="s">
+      <c r="AE37" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="AF37" s="34"/>
-      <c r="AG37" s="37" t="s">
+      <c r="AF37" s="70"/>
+      <c r="AG37" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="AH37" s="36">
+      <c r="AH37" s="69">
         <v>51</v>
       </c>
-      <c r="AI37" s="34" t="s">
+      <c r="AI37" s="70" t="s">
         <v>161</v>
       </c>
-      <c r="AJ37" s="34"/>
-      <c r="AK37" s="35" t="s">
+      <c r="AJ37" s="70"/>
+      <c r="AK37" s="90" t="s">
         <v>112</v>
       </c>
-      <c r="AL37" s="36">
+      <c r="AL37" s="69">
         <v>66</v>
       </c>
-      <c r="AM37" s="38" t="s">
+      <c r="AM37" s="72" t="s">
         <v>186</v>
       </c>
-      <c r="AN37" s="38"/>
-      <c r="AO37" s="97" t="s">
+      <c r="AN37" s="72"/>
+      <c r="AO37" s="111" t="s">
         <v>187</v>
       </c>
-      <c r="AP37" s="40">
+      <c r="AP37" s="68">
         <v>77</v>
       </c>
-      <c r="AQ37" s="38" t="s">
+      <c r="AQ37" s="72" t="s">
         <v>188</v>
       </c>
-      <c r="AR37" s="38"/>
-      <c r="AS37" s="96" t="s">
+      <c r="AR37" s="72"/>
+      <c r="AS37" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="AT37" s="40">
+      <c r="AT37" s="68">
         <v>92</v>
       </c>
-      <c r="AU37" s="76"/>
-      <c r="AV37" s="77"/>
-      <c r="AW37" s="76"/>
-      <c r="AX37" s="80"/>
-      <c r="AY37" s="77"/>
-      <c r="AZ37" s="73"/>
-      <c r="BA37" s="73"/>
-      <c r="BB37" s="73"/>
+      <c r="AU37" s="105"/>
+      <c r="AV37" s="106"/>
+      <c r="AW37" s="105"/>
+      <c r="AX37" s="109"/>
+      <c r="AY37" s="106"/>
+      <c r="AZ37" s="91"/>
+      <c r="BA37" s="91"/>
+      <c r="BB37" s="91"/>
     </row>
     <row r="38" spans="1:54" ht="18.75" customHeight="1">
       <c r="A38" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="B38" s="66" t="s">
+      <c r="B38" s="102" t="s">
         <v>272</v>
       </c>
-      <c r="C38" s="67"/>
+      <c r="C38" s="103"/>
       <c r="D38" s="24"/>
       <c r="E38" s="23"/>
-      <c r="G38" s="74">
+      <c r="G38" s="78">
         <v>33</v>
       </c>
-      <c r="H38" s="74"/>
-      <c r="I38" s="74"/>
-      <c r="J38" s="74"/>
-      <c r="K38" s="74"/>
-      <c r="L38" s="98"/>
-      <c r="M38" s="99"/>
-      <c r="N38" s="99"/>
-      <c r="O38" s="99"/>
-      <c r="P38" s="99"/>
-      <c r="R38" s="98"/>
-      <c r="S38" s="99"/>
-      <c r="T38" s="99"/>
-      <c r="U38" s="99"/>
-      <c r="V38" s="99"/>
-      <c r="W38" s="34"/>
-      <c r="X38" s="34"/>
-      <c r="Y38" s="37"/>
-      <c r="Z38" s="36"/>
-      <c r="AA38" s="34"/>
-      <c r="AB38" s="34"/>
-      <c r="AC38" s="37"/>
-      <c r="AD38" s="36"/>
-      <c r="AE38" s="34"/>
-      <c r="AF38" s="34"/>
-      <c r="AG38" s="37"/>
-      <c r="AH38" s="36"/>
-      <c r="AI38" s="34"/>
-      <c r="AJ38" s="34"/>
-      <c r="AK38" s="35"/>
-      <c r="AL38" s="36"/>
-      <c r="AM38" s="38"/>
-      <c r="AN38" s="38"/>
-      <c r="AO38" s="97"/>
-      <c r="AP38" s="36"/>
-      <c r="AQ38" s="38"/>
-      <c r="AR38" s="38"/>
-      <c r="AS38" s="96"/>
-      <c r="AT38" s="36"/>
-      <c r="AU38" s="78"/>
-      <c r="AV38" s="79"/>
-      <c r="AW38" s="78"/>
-      <c r="AX38" s="81"/>
-      <c r="AY38" s="79"/>
-      <c r="AZ38" s="36"/>
-      <c r="BA38" s="36"/>
-      <c r="BB38" s="36"/>
+      <c r="H38" s="78"/>
+      <c r="I38" s="78"/>
+      <c r="J38" s="78"/>
+      <c r="K38" s="78"/>
+      <c r="L38" s="92"/>
+      <c r="M38" s="93"/>
+      <c r="N38" s="93"/>
+      <c r="O38" s="93"/>
+      <c r="P38" s="93"/>
+      <c r="R38" s="92"/>
+      <c r="S38" s="93"/>
+      <c r="T38" s="93"/>
+      <c r="U38" s="93"/>
+      <c r="V38" s="93"/>
+      <c r="W38" s="70"/>
+      <c r="X38" s="70"/>
+      <c r="Y38" s="67"/>
+      <c r="Z38" s="69"/>
+      <c r="AA38" s="70"/>
+      <c r="AB38" s="70"/>
+      <c r="AC38" s="67"/>
+      <c r="AD38" s="69"/>
+      <c r="AE38" s="70"/>
+      <c r="AF38" s="70"/>
+      <c r="AG38" s="67"/>
+      <c r="AH38" s="69"/>
+      <c r="AI38" s="70"/>
+      <c r="AJ38" s="70"/>
+      <c r="AK38" s="90"/>
+      <c r="AL38" s="69"/>
+      <c r="AM38" s="72"/>
+      <c r="AN38" s="72"/>
+      <c r="AO38" s="111"/>
+      <c r="AP38" s="69"/>
+      <c r="AQ38" s="72"/>
+      <c r="AR38" s="72"/>
+      <c r="AS38" s="104"/>
+      <c r="AT38" s="69"/>
+      <c r="AU38" s="107"/>
+      <c r="AV38" s="108"/>
+      <c r="AW38" s="107"/>
+      <c r="AX38" s="110"/>
+      <c r="AY38" s="108"/>
+      <c r="AZ38" s="69"/>
+      <c r="BA38" s="69"/>
+      <c r="BB38" s="69"/>
     </row>
     <row r="39" spans="1:54" ht="18.75" customHeight="1">
       <c r="A39" s="26"/>
@@ -5540,139 +5579,139 @@
       <c r="C39" s="17"/>
       <c r="D39" s="17"/>
       <c r="E39" s="18"/>
-      <c r="G39" s="95" t="s">
+      <c r="G39" s="99" t="s">
         <v>233</v>
       </c>
-      <c r="H39" s="95"/>
-      <c r="I39" s="95"/>
-      <c r="J39" s="95"/>
-      <c r="K39" s="95"/>
-      <c r="L39" s="98"/>
-      <c r="M39" s="99"/>
-      <c r="N39" s="99"/>
-      <c r="O39" s="99"/>
-      <c r="P39" s="99"/>
-      <c r="R39" s="98"/>
-      <c r="S39" s="99"/>
-      <c r="T39" s="99"/>
-      <c r="U39" s="99"/>
-      <c r="V39" s="99"/>
-      <c r="W39" s="34" t="s">
+      <c r="H39" s="99"/>
+      <c r="I39" s="99"/>
+      <c r="J39" s="99"/>
+      <c r="K39" s="99"/>
+      <c r="L39" s="92"/>
+      <c r="M39" s="93"/>
+      <c r="N39" s="93"/>
+      <c r="O39" s="93"/>
+      <c r="P39" s="93"/>
+      <c r="R39" s="92"/>
+      <c r="S39" s="93"/>
+      <c r="T39" s="93"/>
+      <c r="U39" s="93"/>
+      <c r="V39" s="93"/>
+      <c r="W39" s="70" t="s">
         <v>189</v>
       </c>
-      <c r="X39" s="34"/>
-      <c r="Y39" s="37" t="s">
+      <c r="X39" s="70"/>
+      <c r="Y39" s="67" t="s">
         <v>190</v>
       </c>
-      <c r="Z39" s="36">
+      <c r="Z39" s="69">
         <v>13</v>
       </c>
-      <c r="AA39" s="34"/>
-      <c r="AB39" s="34"/>
-      <c r="AC39" s="37"/>
-      <c r="AD39" s="36"/>
-      <c r="AE39" s="38" t="s">
+      <c r="AA39" s="70"/>
+      <c r="AB39" s="70"/>
+      <c r="AC39" s="67"/>
+      <c r="AD39" s="69"/>
+      <c r="AE39" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="AF39" s="38"/>
-      <c r="AG39" s="39" t="s">
+      <c r="AF39" s="72"/>
+      <c r="AG39" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="AH39" s="40">
+      <c r="AH39" s="68">
         <v>52</v>
       </c>
-      <c r="AI39" s="38"/>
-      <c r="AJ39" s="38"/>
-      <c r="AK39" s="39"/>
-      <c r="AL39" s="40"/>
-      <c r="AM39" s="94" t="s">
+      <c r="AI39" s="72"/>
+      <c r="AJ39" s="72"/>
+      <c r="AK39" s="71"/>
+      <c r="AL39" s="68"/>
+      <c r="AM39" s="97" t="s">
         <v>193</v>
       </c>
-      <c r="AN39" s="94"/>
-      <c r="AO39" s="82" t="s">
+      <c r="AN39" s="97"/>
+      <c r="AO39" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="AP39" s="36">
+      <c r="AP39" s="69">
         <v>78</v>
       </c>
-      <c r="AQ39" s="94" t="s">
+      <c r="AQ39" s="97" t="s">
         <v>194</v>
       </c>
-      <c r="AR39" s="94"/>
-      <c r="AS39" s="82" t="s">
+      <c r="AR39" s="97"/>
+      <c r="AS39" s="98" t="s">
         <v>195</v>
       </c>
-      <c r="AT39" s="36">
+      <c r="AT39" s="69">
         <v>93</v>
       </c>
-      <c r="AU39" s="53"/>
-      <c r="AV39" s="54"/>
-      <c r="AW39" s="53"/>
-      <c r="AX39" s="57"/>
-      <c r="AY39" s="54"/>
-      <c r="AZ39" s="59"/>
-      <c r="BA39" s="59"/>
-      <c r="BB39" s="59"/>
+      <c r="AU39" s="113"/>
+      <c r="AV39" s="114"/>
+      <c r="AW39" s="113"/>
+      <c r="AX39" s="117"/>
+      <c r="AY39" s="114"/>
+      <c r="AZ39" s="100"/>
+      <c r="BA39" s="100"/>
+      <c r="BB39" s="100"/>
     </row>
     <row r="40" spans="1:54" ht="18.75" customHeight="1">
       <c r="A40" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="B40" s="66" t="s">
+      <c r="B40" s="102" t="s">
         <v>273</v>
       </c>
-      <c r="C40" s="67"/>
+      <c r="C40" s="103"/>
       <c r="D40" s="24"/>
       <c r="E40" s="23"/>
-      <c r="G40" s="74">
+      <c r="G40" s="78">
         <v>7</v>
       </c>
-      <c r="H40" s="74"/>
-      <c r="I40" s="74"/>
-      <c r="J40" s="74"/>
-      <c r="K40" s="74"/>
-      <c r="L40" s="98"/>
-      <c r="M40" s="99"/>
-      <c r="N40" s="99"/>
-      <c r="O40" s="99"/>
-      <c r="P40" s="99"/>
-      <c r="R40" s="98"/>
-      <c r="S40" s="99"/>
-      <c r="T40" s="99"/>
-      <c r="U40" s="99"/>
-      <c r="V40" s="99"/>
-      <c r="W40" s="34"/>
-      <c r="X40" s="34"/>
-      <c r="Y40" s="37"/>
-      <c r="Z40" s="36"/>
-      <c r="AA40" s="34"/>
-      <c r="AB40" s="34"/>
-      <c r="AC40" s="37"/>
-      <c r="AD40" s="36"/>
-      <c r="AE40" s="38"/>
-      <c r="AF40" s="38"/>
-      <c r="AG40" s="39"/>
-      <c r="AH40" s="36"/>
-      <c r="AI40" s="38"/>
-      <c r="AJ40" s="38"/>
-      <c r="AK40" s="39"/>
-      <c r="AL40" s="36"/>
-      <c r="AM40" s="94"/>
-      <c r="AN40" s="94"/>
-      <c r="AO40" s="82"/>
-      <c r="AP40" s="36"/>
-      <c r="AQ40" s="94"/>
-      <c r="AR40" s="94"/>
-      <c r="AS40" s="82"/>
-      <c r="AT40" s="36"/>
-      <c r="AU40" s="55"/>
-      <c r="AV40" s="56"/>
-      <c r="AW40" s="55"/>
-      <c r="AX40" s="58"/>
-      <c r="AY40" s="56"/>
-      <c r="AZ40" s="60"/>
-      <c r="BA40" s="60"/>
-      <c r="BB40" s="60"/>
+      <c r="H40" s="78"/>
+      <c r="I40" s="78"/>
+      <c r="J40" s="78"/>
+      <c r="K40" s="78"/>
+      <c r="L40" s="92"/>
+      <c r="M40" s="93"/>
+      <c r="N40" s="93"/>
+      <c r="O40" s="93"/>
+      <c r="P40" s="93"/>
+      <c r="R40" s="92"/>
+      <c r="S40" s="93"/>
+      <c r="T40" s="93"/>
+      <c r="U40" s="93"/>
+      <c r="V40" s="93"/>
+      <c r="W40" s="70"/>
+      <c r="X40" s="70"/>
+      <c r="Y40" s="67"/>
+      <c r="Z40" s="69"/>
+      <c r="AA40" s="70"/>
+      <c r="AB40" s="70"/>
+      <c r="AC40" s="67"/>
+      <c r="AD40" s="69"/>
+      <c r="AE40" s="72"/>
+      <c r="AF40" s="72"/>
+      <c r="AG40" s="71"/>
+      <c r="AH40" s="69"/>
+      <c r="AI40" s="72"/>
+      <c r="AJ40" s="72"/>
+      <c r="AK40" s="71"/>
+      <c r="AL40" s="69"/>
+      <c r="AM40" s="97"/>
+      <c r="AN40" s="97"/>
+      <c r="AO40" s="98"/>
+      <c r="AP40" s="69"/>
+      <c r="AQ40" s="97"/>
+      <c r="AR40" s="97"/>
+      <c r="AS40" s="98"/>
+      <c r="AT40" s="69"/>
+      <c r="AU40" s="115"/>
+      <c r="AV40" s="116"/>
+      <c r="AW40" s="115"/>
+      <c r="AX40" s="118"/>
+      <c r="AY40" s="116"/>
+      <c r="AZ40" s="101"/>
+      <c r="BA40" s="101"/>
+      <c r="BB40" s="101"/>
     </row>
     <row r="41" spans="1:54" ht="18.75" customHeight="1">
       <c r="A41" s="26"/>
@@ -5680,126 +5719,126 @@
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
       <c r="E41" s="18"/>
-      <c r="L41" s="98"/>
-      <c r="M41" s="99"/>
-      <c r="N41" s="99"/>
-      <c r="O41" s="99"/>
-      <c r="P41" s="99"/>
-      <c r="R41" s="98"/>
-      <c r="S41" s="99"/>
-      <c r="T41" s="99"/>
-      <c r="U41" s="99"/>
-      <c r="V41" s="99"/>
-      <c r="W41" s="75"/>
-      <c r="X41" s="75"/>
-      <c r="Y41" s="74"/>
-      <c r="Z41" s="36"/>
-      <c r="AA41" s="34"/>
-      <c r="AB41" s="34"/>
-      <c r="AC41" s="37"/>
-      <c r="AD41" s="36"/>
-      <c r="AE41" s="34" t="s">
+      <c r="L41" s="92"/>
+      <c r="M41" s="93"/>
+      <c r="N41" s="93"/>
+      <c r="O41" s="93"/>
+      <c r="P41" s="93"/>
+      <c r="R41" s="92"/>
+      <c r="S41" s="93"/>
+      <c r="T41" s="93"/>
+      <c r="U41" s="93"/>
+      <c r="V41" s="93"/>
+      <c r="W41" s="77"/>
+      <c r="X41" s="77"/>
+      <c r="Y41" s="78"/>
+      <c r="Z41" s="69"/>
+      <c r="AA41" s="70"/>
+      <c r="AB41" s="70"/>
+      <c r="AC41" s="67"/>
+      <c r="AD41" s="69"/>
+      <c r="AE41" s="70" t="s">
         <v>155</v>
       </c>
-      <c r="AF41" s="34"/>
-      <c r="AG41" s="35" t="s">
+      <c r="AF41" s="70"/>
+      <c r="AG41" s="90" t="s">
         <v>156</v>
       </c>
-      <c r="AH41" s="36">
+      <c r="AH41" s="69">
         <v>53</v>
       </c>
-      <c r="AI41" s="34"/>
-      <c r="AJ41" s="34"/>
-      <c r="AK41" s="35"/>
-      <c r="AL41" s="36"/>
-      <c r="AM41" s="94" t="s">
+      <c r="AI41" s="70"/>
+      <c r="AJ41" s="70"/>
+      <c r="AK41" s="90"/>
+      <c r="AL41" s="69"/>
+      <c r="AM41" s="97" t="s">
         <v>197</v>
       </c>
-      <c r="AN41" s="94"/>
-      <c r="AO41" s="82" t="s">
+      <c r="AN41" s="97"/>
+      <c r="AO41" s="98" t="s">
         <v>195</v>
       </c>
-      <c r="AP41" s="36">
+      <c r="AP41" s="69">
         <v>79</v>
       </c>
-      <c r="AQ41" s="94" t="s">
+      <c r="AQ41" s="97" t="s">
         <v>198</v>
       </c>
-      <c r="AR41" s="94"/>
-      <c r="AS41" s="82" t="s">
+      <c r="AR41" s="97"/>
+      <c r="AS41" s="98" t="s">
         <v>152</v>
       </c>
-      <c r="AT41" s="36">
+      <c r="AT41" s="69">
         <v>94</v>
       </c>
-      <c r="AU41" s="76"/>
-      <c r="AV41" s="77"/>
-      <c r="AW41" s="76"/>
-      <c r="AX41" s="80"/>
-      <c r="AY41" s="77"/>
-      <c r="AZ41" s="73"/>
-      <c r="BA41" s="73"/>
-      <c r="BB41" s="73"/>
+      <c r="AU41" s="105"/>
+      <c r="AV41" s="106"/>
+      <c r="AW41" s="105"/>
+      <c r="AX41" s="109"/>
+      <c r="AY41" s="106"/>
+      <c r="AZ41" s="91"/>
+      <c r="BA41" s="91"/>
+      <c r="BB41" s="91"/>
     </row>
     <row r="42" spans="1:54" ht="18.75" customHeight="1">
       <c r="A42" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="B42" s="66" t="s">
+      <c r="B42" s="102" t="s">
         <v>274</v>
       </c>
-      <c r="C42" s="67"/>
+      <c r="C42" s="103"/>
       <c r="D42" s="24"/>
       <c r="E42" s="23"/>
-      <c r="G42" s="72" t="s">
+      <c r="G42" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="H42" s="72"/>
-      <c r="I42" s="72"/>
-      <c r="J42" s="72"/>
-      <c r="K42" s="72"/>
-      <c r="L42" s="98"/>
-      <c r="M42" s="99"/>
-      <c r="N42" s="99"/>
-      <c r="O42" s="99"/>
-      <c r="P42" s="99"/>
-      <c r="R42" s="98"/>
-      <c r="S42" s="99"/>
-      <c r="T42" s="99"/>
-      <c r="U42" s="99"/>
-      <c r="V42" s="99"/>
-      <c r="W42" s="75"/>
-      <c r="X42" s="75"/>
-      <c r="Y42" s="74"/>
-      <c r="Z42" s="36"/>
-      <c r="AA42" s="34"/>
-      <c r="AB42" s="34"/>
-      <c r="AC42" s="37"/>
-      <c r="AD42" s="36"/>
-      <c r="AE42" s="34"/>
-      <c r="AF42" s="34"/>
-      <c r="AG42" s="35"/>
-      <c r="AH42" s="36"/>
-      <c r="AI42" s="34"/>
-      <c r="AJ42" s="34"/>
-      <c r="AK42" s="35"/>
-      <c r="AL42" s="36"/>
-      <c r="AM42" s="94"/>
-      <c r="AN42" s="94"/>
-      <c r="AO42" s="82"/>
-      <c r="AP42" s="36"/>
-      <c r="AQ42" s="94"/>
-      <c r="AR42" s="94"/>
-      <c r="AS42" s="82"/>
-      <c r="AT42" s="36"/>
-      <c r="AU42" s="78"/>
-      <c r="AV42" s="79"/>
-      <c r="AW42" s="78"/>
-      <c r="AX42" s="81"/>
-      <c r="AY42" s="79"/>
-      <c r="AZ42" s="36"/>
-      <c r="BA42" s="36"/>
-      <c r="BB42" s="36"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="43"/>
+      <c r="L42" s="92"/>
+      <c r="M42" s="93"/>
+      <c r="N42" s="93"/>
+      <c r="O42" s="93"/>
+      <c r="P42" s="93"/>
+      <c r="R42" s="92"/>
+      <c r="S42" s="93"/>
+      <c r="T42" s="93"/>
+      <c r="U42" s="93"/>
+      <c r="V42" s="93"/>
+      <c r="W42" s="77"/>
+      <c r="X42" s="77"/>
+      <c r="Y42" s="78"/>
+      <c r="Z42" s="69"/>
+      <c r="AA42" s="70"/>
+      <c r="AB42" s="70"/>
+      <c r="AC42" s="67"/>
+      <c r="AD42" s="69"/>
+      <c r="AE42" s="70"/>
+      <c r="AF42" s="70"/>
+      <c r="AG42" s="90"/>
+      <c r="AH42" s="69"/>
+      <c r="AI42" s="70"/>
+      <c r="AJ42" s="70"/>
+      <c r="AK42" s="90"/>
+      <c r="AL42" s="69"/>
+      <c r="AM42" s="97"/>
+      <c r="AN42" s="97"/>
+      <c r="AO42" s="98"/>
+      <c r="AP42" s="69"/>
+      <c r="AQ42" s="97"/>
+      <c r="AR42" s="97"/>
+      <c r="AS42" s="98"/>
+      <c r="AT42" s="69"/>
+      <c r="AU42" s="107"/>
+      <c r="AV42" s="108"/>
+      <c r="AW42" s="107"/>
+      <c r="AX42" s="110"/>
+      <c r="AY42" s="108"/>
+      <c r="AZ42" s="69"/>
+      <c r="BA42" s="69"/>
+      <c r="BB42" s="69"/>
     </row>
     <row r="43" spans="1:54" ht="18.75" customHeight="1">
       <c r="A43" s="26"/>
@@ -5807,1270 +5846,1270 @@
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
       <c r="E43" s="18"/>
-      <c r="G43" s="64" t="s">
+      <c r="G43" s="122" t="s">
         <v>469</v>
       </c>
-      <c r="H43" s="65"/>
-      <c r="I43" s="64"/>
-      <c r="J43" s="71"/>
-      <c r="K43" s="65"/>
-      <c r="L43" s="98"/>
-      <c r="M43" s="99"/>
-      <c r="N43" s="99"/>
-      <c r="O43" s="99"/>
-      <c r="P43" s="99"/>
-      <c r="R43" s="98"/>
-      <c r="S43" s="99"/>
-      <c r="T43" s="99"/>
-      <c r="U43" s="99"/>
-      <c r="V43" s="99"/>
-      <c r="AE43" s="75"/>
-      <c r="AF43" s="75"/>
-      <c r="AG43" s="74"/>
-      <c r="AH43" s="36"/>
-      <c r="AI43" s="34"/>
-      <c r="AJ43" s="34"/>
-      <c r="AK43" s="37"/>
-      <c r="AL43" s="36"/>
-      <c r="AM43" s="34" t="s">
+      <c r="H43" s="123"/>
+      <c r="I43" s="122"/>
+      <c r="J43" s="124"/>
+      <c r="K43" s="123"/>
+      <c r="L43" s="92"/>
+      <c r="M43" s="93"/>
+      <c r="N43" s="93"/>
+      <c r="O43" s="93"/>
+      <c r="P43" s="93"/>
+      <c r="R43" s="92"/>
+      <c r="S43" s="93"/>
+      <c r="T43" s="93"/>
+      <c r="U43" s="93"/>
+      <c r="V43" s="93"/>
+      <c r="AE43" s="77"/>
+      <c r="AF43" s="77"/>
+      <c r="AG43" s="78"/>
+      <c r="AH43" s="69"/>
+      <c r="AI43" s="70"/>
+      <c r="AJ43" s="70"/>
+      <c r="AK43" s="67"/>
+      <c r="AL43" s="69"/>
+      <c r="AM43" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="AN43" s="34"/>
-      <c r="AO43" s="82" t="s">
+      <c r="AN43" s="70"/>
+      <c r="AO43" s="98" t="s">
         <v>169</v>
       </c>
-      <c r="AP43" s="36">
+      <c r="AP43" s="69">
         <v>80</v>
       </c>
-      <c r="AQ43" s="34" t="s">
+      <c r="AQ43" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="AR43" s="34"/>
-      <c r="AS43" s="82" t="s">
+      <c r="AR43" s="70"/>
+      <c r="AS43" s="98" t="s">
         <v>119</v>
       </c>
-      <c r="AT43" s="36">
+      <c r="AT43" s="69">
         <v>95</v>
       </c>
-      <c r="AU43" s="53"/>
-      <c r="AV43" s="54"/>
-      <c r="AW43" s="53"/>
-      <c r="AX43" s="57"/>
-      <c r="AY43" s="54"/>
-      <c r="AZ43" s="59"/>
-      <c r="BA43" s="59"/>
-      <c r="BB43" s="59"/>
+      <c r="AU43" s="113"/>
+      <c r="AV43" s="114"/>
+      <c r="AW43" s="113"/>
+      <c r="AX43" s="117"/>
+      <c r="AY43" s="114"/>
+      <c r="AZ43" s="100"/>
+      <c r="BA43" s="100"/>
+      <c r="BB43" s="100"/>
     </row>
     <row r="44" spans="1:54" ht="18.75" customHeight="1">
-      <c r="L44" s="98"/>
-      <c r="M44" s="99"/>
-      <c r="N44" s="99"/>
-      <c r="O44" s="99"/>
-      <c r="P44" s="99"/>
-      <c r="R44" s="98"/>
-      <c r="S44" s="99"/>
-      <c r="T44" s="99"/>
-      <c r="U44" s="99"/>
-      <c r="V44" s="99"/>
-      <c r="W44" s="93" t="s">
+      <c r="L44" s="92"/>
+      <c r="M44" s="93"/>
+      <c r="N44" s="93"/>
+      <c r="O44" s="93"/>
+      <c r="P44" s="93"/>
+      <c r="R44" s="92"/>
+      <c r="S44" s="93"/>
+      <c r="T44" s="93"/>
+      <c r="U44" s="93"/>
+      <c r="V44" s="93"/>
+      <c r="W44" s="73" t="s">
         <v>201</v>
       </c>
-      <c r="X44" s="93"/>
-      <c r="Y44" s="93"/>
-      <c r="Z44" s="93"/>
-      <c r="AA44" s="93"/>
-      <c r="AB44" s="93"/>
-      <c r="AC44" s="93"/>
-      <c r="AD44" s="93"/>
-      <c r="AE44" s="75"/>
-      <c r="AF44" s="75"/>
-      <c r="AG44" s="74"/>
-      <c r="AH44" s="36"/>
-      <c r="AI44" s="34"/>
-      <c r="AJ44" s="34"/>
-      <c r="AK44" s="37"/>
-      <c r="AL44" s="36"/>
-      <c r="AM44" s="34"/>
-      <c r="AN44" s="34"/>
-      <c r="AO44" s="82"/>
-      <c r="AP44" s="36"/>
-      <c r="AQ44" s="34"/>
-      <c r="AR44" s="34"/>
-      <c r="AS44" s="82"/>
-      <c r="AT44" s="36"/>
-      <c r="AU44" s="55"/>
-      <c r="AV44" s="56"/>
-      <c r="AW44" s="55"/>
-      <c r="AX44" s="58"/>
-      <c r="AY44" s="56"/>
-      <c r="AZ44" s="60"/>
-      <c r="BA44" s="60"/>
-      <c r="BB44" s="60"/>
+      <c r="X44" s="73"/>
+      <c r="Y44" s="73"/>
+      <c r="Z44" s="73"/>
+      <c r="AA44" s="73"/>
+      <c r="AB44" s="73"/>
+      <c r="AC44" s="73"/>
+      <c r="AD44" s="73"/>
+      <c r="AE44" s="77"/>
+      <c r="AF44" s="77"/>
+      <c r="AG44" s="78"/>
+      <c r="AH44" s="69"/>
+      <c r="AI44" s="70"/>
+      <c r="AJ44" s="70"/>
+      <c r="AK44" s="67"/>
+      <c r="AL44" s="69"/>
+      <c r="AM44" s="70"/>
+      <c r="AN44" s="70"/>
+      <c r="AO44" s="98"/>
+      <c r="AP44" s="69"/>
+      <c r="AQ44" s="70"/>
+      <c r="AR44" s="70"/>
+      <c r="AS44" s="98"/>
+      <c r="AT44" s="69"/>
+      <c r="AU44" s="115"/>
+      <c r="AV44" s="116"/>
+      <c r="AW44" s="115"/>
+      <c r="AX44" s="118"/>
+      <c r="AY44" s="116"/>
+      <c r="AZ44" s="101"/>
+      <c r="BA44" s="101"/>
+      <c r="BB44" s="101"/>
     </row>
     <row r="45" spans="1:54" ht="18.75" customHeight="1">
-      <c r="A45" s="68" t="s">
+      <c r="A45" s="112" t="s">
         <v>242</v>
       </c>
-      <c r="B45" s="69"/>
-      <c r="C45" s="69"/>
-      <c r="D45" s="69"/>
-      <c r="E45" s="70"/>
-      <c r="G45" s="72" t="s">
+      <c r="B45" s="129"/>
+      <c r="C45" s="129"/>
+      <c r="D45" s="129"/>
+      <c r="E45" s="130"/>
+      <c r="G45" s="43" t="s">
         <v>243</v>
       </c>
-      <c r="H45" s="72"/>
-      <c r="I45" s="72"/>
-      <c r="J45" s="72"/>
-      <c r="K45" s="72"/>
-      <c r="L45" s="98"/>
-      <c r="M45" s="99"/>
-      <c r="N45" s="99"/>
-      <c r="O45" s="99"/>
-      <c r="P45" s="99"/>
-      <c r="R45" s="98"/>
-      <c r="S45" s="99"/>
-      <c r="T45" s="99"/>
-      <c r="U45" s="99"/>
-      <c r="V45" s="99"/>
-      <c r="W45" s="34" t="s">
+      <c r="H45" s="43"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="92"/>
+      <c r="M45" s="93"/>
+      <c r="N45" s="93"/>
+      <c r="O45" s="93"/>
+      <c r="P45" s="93"/>
+      <c r="R45" s="92"/>
+      <c r="S45" s="93"/>
+      <c r="T45" s="93"/>
+      <c r="U45" s="93"/>
+      <c r="V45" s="93"/>
+      <c r="W45" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="X45" s="34"/>
-      <c r="Y45" s="37" t="s">
+      <c r="X45" s="70"/>
+      <c r="Y45" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="Z45" s="40">
+      <c r="Z45" s="68">
         <v>25</v>
       </c>
-      <c r="AA45" s="34" t="s">
+      <c r="AA45" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="AB45" s="34"/>
-      <c r="AC45" s="39" t="s">
+      <c r="AB45" s="70"/>
+      <c r="AC45" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="AD45" s="40">
+      <c r="AD45" s="68">
         <v>32</v>
       </c>
-      <c r="AE45" s="34" t="s">
+      <c r="AE45" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="AF45" s="34"/>
-      <c r="AG45" s="37" t="s">
+      <c r="AF45" s="70"/>
+      <c r="AG45" s="67" t="s">
         <v>167</v>
       </c>
-      <c r="AH45" s="36">
+      <c r="AH45" s="69">
         <v>54</v>
       </c>
-      <c r="AI45" s="34" t="s">
+      <c r="AI45" s="70" t="s">
         <v>168</v>
       </c>
-      <c r="AJ45" s="34"/>
-      <c r="AK45" s="37" t="s">
+      <c r="AJ45" s="70"/>
+      <c r="AK45" s="67" t="s">
         <v>169</v>
       </c>
-      <c r="AL45" s="36">
+      <c r="AL45" s="69">
         <v>67</v>
       </c>
-      <c r="AM45" s="34" t="s">
+      <c r="AM45" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="AN45" s="34"/>
-      <c r="AO45" s="82" t="s">
+      <c r="AN45" s="70"/>
+      <c r="AO45" s="98" t="s">
         <v>205</v>
       </c>
-      <c r="AP45" s="36">
+      <c r="AP45" s="69">
         <v>81</v>
       </c>
-      <c r="AQ45" s="34" t="s">
+      <c r="AQ45" s="70" t="s">
         <v>206</v>
       </c>
-      <c r="AR45" s="34"/>
-      <c r="AS45" s="82" t="s">
+      <c r="AR45" s="70"/>
+      <c r="AS45" s="98" t="s">
         <v>207</v>
       </c>
-      <c r="AT45" s="36">
+      <c r="AT45" s="69">
         <v>96</v>
       </c>
-      <c r="AU45" s="76"/>
-      <c r="AV45" s="77"/>
-      <c r="AW45" s="76"/>
-      <c r="AX45" s="80"/>
-      <c r="AY45" s="77"/>
-      <c r="AZ45" s="73"/>
-      <c r="BA45" s="73"/>
-      <c r="BB45" s="73"/>
+      <c r="AU45" s="105"/>
+      <c r="AV45" s="106"/>
+      <c r="AW45" s="105"/>
+      <c r="AX45" s="109"/>
+      <c r="AY45" s="106"/>
+      <c r="AZ45" s="91"/>
+      <c r="BA45" s="91"/>
+      <c r="BB45" s="91"/>
     </row>
     <row r="46" spans="1:54" ht="18.75" customHeight="1">
-      <c r="A46" s="64" t="s">
+      <c r="A46" s="122" t="s">
         <v>275</v>
       </c>
-      <c r="B46" s="65"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="71"/>
-      <c r="E46" s="65"/>
-      <c r="G46" s="64" t="s">
+      <c r="B46" s="123"/>
+      <c r="C46" s="122"/>
+      <c r="D46" s="124"/>
+      <c r="E46" s="123"/>
+      <c r="G46" s="122" t="s">
         <v>468</v>
       </c>
-      <c r="H46" s="65"/>
-      <c r="I46" s="64"/>
-      <c r="J46" s="71"/>
-      <c r="K46" s="65"/>
-      <c r="L46" s="98"/>
-      <c r="M46" s="99"/>
-      <c r="N46" s="99"/>
-      <c r="O46" s="99"/>
-      <c r="P46" s="99"/>
-      <c r="R46" s="98"/>
-      <c r="S46" s="99"/>
-      <c r="T46" s="99"/>
-      <c r="U46" s="99"/>
-      <c r="V46" s="99"/>
-      <c r="W46" s="34"/>
-      <c r="X46" s="34"/>
-      <c r="Y46" s="37"/>
-      <c r="Z46" s="36"/>
-      <c r="AA46" s="34"/>
-      <c r="AB46" s="34"/>
-      <c r="AC46" s="39"/>
-      <c r="AD46" s="36"/>
-      <c r="AE46" s="34"/>
-      <c r="AF46" s="34"/>
-      <c r="AG46" s="37"/>
-      <c r="AH46" s="36"/>
-      <c r="AI46" s="34"/>
-      <c r="AJ46" s="34"/>
-      <c r="AK46" s="37"/>
-      <c r="AL46" s="36"/>
-      <c r="AM46" s="34"/>
-      <c r="AN46" s="34"/>
-      <c r="AO46" s="82"/>
-      <c r="AP46" s="36"/>
-      <c r="AQ46" s="34"/>
-      <c r="AR46" s="34"/>
-      <c r="AS46" s="82"/>
-      <c r="AT46" s="36"/>
-      <c r="AU46" s="78"/>
-      <c r="AV46" s="79"/>
-      <c r="AW46" s="78"/>
-      <c r="AX46" s="81"/>
-      <c r="AY46" s="79"/>
-      <c r="AZ46" s="36"/>
-      <c r="BA46" s="36"/>
-      <c r="BB46" s="36"/>
+      <c r="H46" s="123"/>
+      <c r="I46" s="122"/>
+      <c r="J46" s="124"/>
+      <c r="K46" s="123"/>
+      <c r="L46" s="92"/>
+      <c r="M46" s="93"/>
+      <c r="N46" s="93"/>
+      <c r="O46" s="93"/>
+      <c r="P46" s="93"/>
+      <c r="R46" s="92"/>
+      <c r="S46" s="93"/>
+      <c r="T46" s="93"/>
+      <c r="U46" s="93"/>
+      <c r="V46" s="93"/>
+      <c r="W46" s="70"/>
+      <c r="X46" s="70"/>
+      <c r="Y46" s="67"/>
+      <c r="Z46" s="69"/>
+      <c r="AA46" s="70"/>
+      <c r="AB46" s="70"/>
+      <c r="AC46" s="71"/>
+      <c r="AD46" s="69"/>
+      <c r="AE46" s="70"/>
+      <c r="AF46" s="70"/>
+      <c r="AG46" s="67"/>
+      <c r="AH46" s="69"/>
+      <c r="AI46" s="70"/>
+      <c r="AJ46" s="70"/>
+      <c r="AK46" s="67"/>
+      <c r="AL46" s="69"/>
+      <c r="AM46" s="70"/>
+      <c r="AN46" s="70"/>
+      <c r="AO46" s="98"/>
+      <c r="AP46" s="69"/>
+      <c r="AQ46" s="70"/>
+      <c r="AR46" s="70"/>
+      <c r="AS46" s="98"/>
+      <c r="AT46" s="69"/>
+      <c r="AU46" s="107"/>
+      <c r="AV46" s="108"/>
+      <c r="AW46" s="107"/>
+      <c r="AX46" s="110"/>
+      <c r="AY46" s="108"/>
+      <c r="AZ46" s="69"/>
+      <c r="BA46" s="69"/>
+      <c r="BB46" s="69"/>
     </row>
     <row r="47" spans="1:54" ht="18.75" customHeight="1">
-      <c r="A47" s="61" t="s">
+      <c r="A47" s="119" t="s">
         <v>277</v>
       </c>
-      <c r="B47" s="63"/>
-      <c r="C47" s="61"/>
-      <c r="D47" s="62"/>
-      <c r="E47" s="63"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="63"/>
-      <c r="I47" s="61"/>
-      <c r="J47" s="62"/>
-      <c r="K47" s="63"/>
-      <c r="L47" s="98"/>
-      <c r="M47" s="99"/>
-      <c r="N47" s="99"/>
-      <c r="O47" s="99"/>
-      <c r="P47" s="99"/>
-      <c r="R47" s="98"/>
-      <c r="S47" s="99"/>
-      <c r="T47" s="99"/>
-      <c r="U47" s="99"/>
-      <c r="V47" s="99"/>
-      <c r="W47" s="34" t="s">
+      <c r="B47" s="120"/>
+      <c r="C47" s="119"/>
+      <c r="D47" s="121"/>
+      <c r="E47" s="120"/>
+      <c r="G47" s="119"/>
+      <c r="H47" s="120"/>
+      <c r="I47" s="119"/>
+      <c r="J47" s="121"/>
+      <c r="K47" s="120"/>
+      <c r="L47" s="92"/>
+      <c r="M47" s="93"/>
+      <c r="N47" s="93"/>
+      <c r="O47" s="93"/>
+      <c r="P47" s="93"/>
+      <c r="R47" s="92"/>
+      <c r="S47" s="93"/>
+      <c r="T47" s="93"/>
+      <c r="U47" s="93"/>
+      <c r="V47" s="93"/>
+      <c r="W47" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="X47" s="34"/>
-      <c r="Y47" s="39" t="s">
+      <c r="X47" s="70"/>
+      <c r="Y47" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="Z47" s="36">
+      <c r="Z47" s="69">
         <v>26</v>
       </c>
-      <c r="AA47" s="34" t="s">
+      <c r="AA47" s="70" t="s">
         <v>209</v>
       </c>
-      <c r="AB47" s="34"/>
-      <c r="AC47" s="39" t="s">
+      <c r="AB47" s="70"/>
+      <c r="AC47" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="AD47" s="36">
+      <c r="AD47" s="69">
         <v>33</v>
       </c>
-      <c r="AE47" s="34" t="s">
+      <c r="AE47" s="70" t="s">
         <v>183</v>
       </c>
-      <c r="AF47" s="34"/>
-      <c r="AG47" s="37" t="s">
+      <c r="AF47" s="70"/>
+      <c r="AG47" s="67" t="s">
         <v>167</v>
       </c>
-      <c r="AH47" s="36">
+      <c r="AH47" s="69">
         <v>55</v>
       </c>
-      <c r="AI47" s="34" t="s">
+      <c r="AI47" s="70" t="s">
         <v>184</v>
       </c>
-      <c r="AJ47" s="34"/>
-      <c r="AK47" s="37" t="s">
+      <c r="AJ47" s="70"/>
+      <c r="AK47" s="67" t="s">
         <v>185</v>
       </c>
-      <c r="AL47" s="36">
+      <c r="AL47" s="69">
         <v>68</v>
       </c>
-      <c r="AM47" s="34" t="s">
+      <c r="AM47" s="70" t="s">
         <v>210</v>
       </c>
-      <c r="AN47" s="34"/>
-      <c r="AO47" s="82" t="s">
+      <c r="AN47" s="70"/>
+      <c r="AO47" s="98" t="s">
         <v>211</v>
       </c>
-      <c r="AP47" s="36">
+      <c r="AP47" s="69">
         <v>82</v>
       </c>
-      <c r="AQ47" s="75"/>
-      <c r="AR47" s="75"/>
-      <c r="AS47" s="74"/>
-      <c r="AT47" s="36"/>
-      <c r="AU47" s="53"/>
-      <c r="AV47" s="54"/>
-      <c r="AW47" s="53"/>
-      <c r="AX47" s="57"/>
-      <c r="AY47" s="54"/>
-      <c r="AZ47" s="59"/>
-      <c r="BA47" s="59"/>
-      <c r="BB47" s="59"/>
+      <c r="AQ47" s="77"/>
+      <c r="AR47" s="77"/>
+      <c r="AS47" s="78"/>
+      <c r="AT47" s="69"/>
+      <c r="AU47" s="113"/>
+      <c r="AV47" s="114"/>
+      <c r="AW47" s="113"/>
+      <c r="AX47" s="117"/>
+      <c r="AY47" s="114"/>
+      <c r="AZ47" s="100"/>
+      <c r="BA47" s="100"/>
+      <c r="BB47" s="100"/>
     </row>
     <row r="48" spans="1:54" ht="18.75" customHeight="1">
-      <c r="A48" s="64"/>
-      <c r="B48" s="65"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="71"/>
-      <c r="E48" s="65"/>
-      <c r="L48" s="98"/>
-      <c r="M48" s="99"/>
-      <c r="N48" s="99"/>
-      <c r="O48" s="99"/>
-      <c r="P48" s="99"/>
-      <c r="R48" s="98"/>
-      <c r="S48" s="99"/>
-      <c r="T48" s="99"/>
-      <c r="U48" s="99"/>
-      <c r="V48" s="99"/>
-      <c r="W48" s="34"/>
-      <c r="X48" s="34"/>
-      <c r="Y48" s="39"/>
-      <c r="Z48" s="36"/>
-      <c r="AA48" s="34"/>
-      <c r="AB48" s="34"/>
-      <c r="AC48" s="39"/>
-      <c r="AD48" s="36"/>
-      <c r="AE48" s="34"/>
-      <c r="AF48" s="34"/>
-      <c r="AG48" s="37"/>
-      <c r="AH48" s="36"/>
-      <c r="AI48" s="34"/>
-      <c r="AJ48" s="34"/>
-      <c r="AK48" s="37"/>
-      <c r="AL48" s="36"/>
-      <c r="AM48" s="34"/>
-      <c r="AN48" s="34"/>
-      <c r="AO48" s="82"/>
-      <c r="AP48" s="36"/>
-      <c r="AQ48" s="75"/>
-      <c r="AR48" s="75"/>
-      <c r="AS48" s="74"/>
-      <c r="AT48" s="36"/>
-      <c r="AU48" s="55"/>
-      <c r="AV48" s="56"/>
-      <c r="AW48" s="55"/>
-      <c r="AX48" s="58"/>
-      <c r="AY48" s="56"/>
-      <c r="AZ48" s="60"/>
-      <c r="BA48" s="60"/>
-      <c r="BB48" s="60"/>
+      <c r="A48" s="122"/>
+      <c r="B48" s="123"/>
+      <c r="C48" s="122"/>
+      <c r="D48" s="124"/>
+      <c r="E48" s="123"/>
+      <c r="L48" s="92"/>
+      <c r="M48" s="93"/>
+      <c r="N48" s="93"/>
+      <c r="O48" s="93"/>
+      <c r="P48" s="93"/>
+      <c r="R48" s="92"/>
+      <c r="S48" s="93"/>
+      <c r="T48" s="93"/>
+      <c r="U48" s="93"/>
+      <c r="V48" s="93"/>
+      <c r="W48" s="70"/>
+      <c r="X48" s="70"/>
+      <c r="Y48" s="71"/>
+      <c r="Z48" s="69"/>
+      <c r="AA48" s="70"/>
+      <c r="AB48" s="70"/>
+      <c r="AC48" s="71"/>
+      <c r="AD48" s="69"/>
+      <c r="AE48" s="70"/>
+      <c r="AF48" s="70"/>
+      <c r="AG48" s="67"/>
+      <c r="AH48" s="69"/>
+      <c r="AI48" s="70"/>
+      <c r="AJ48" s="70"/>
+      <c r="AK48" s="67"/>
+      <c r="AL48" s="69"/>
+      <c r="AM48" s="70"/>
+      <c r="AN48" s="70"/>
+      <c r="AO48" s="98"/>
+      <c r="AP48" s="69"/>
+      <c r="AQ48" s="77"/>
+      <c r="AR48" s="77"/>
+      <c r="AS48" s="78"/>
+      <c r="AT48" s="69"/>
+      <c r="AU48" s="115"/>
+      <c r="AV48" s="116"/>
+      <c r="AW48" s="115"/>
+      <c r="AX48" s="118"/>
+      <c r="AY48" s="116"/>
+      <c r="AZ48" s="101"/>
+      <c r="BA48" s="101"/>
+      <c r="BB48" s="101"/>
     </row>
     <row r="49" spans="1:1025" ht="18.75" customHeight="1">
-      <c r="A49" s="61"/>
-      <c r="B49" s="63"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="63"/>
-      <c r="G49" s="68" t="s">
+      <c r="A49" s="119"/>
+      <c r="B49" s="120"/>
+      <c r="C49" s="119"/>
+      <c r="D49" s="121"/>
+      <c r="E49" s="120"/>
+      <c r="G49" s="112" t="s">
         <v>245</v>
       </c>
-      <c r="H49" s="69"/>
-      <c r="I49" s="69"/>
-      <c r="J49" s="69"/>
-      <c r="K49" s="70"/>
-      <c r="L49" s="98"/>
-      <c r="M49" s="99"/>
-      <c r="N49" s="99"/>
-      <c r="O49" s="99"/>
-      <c r="P49" s="99"/>
-      <c r="R49" s="98"/>
-      <c r="S49" s="99"/>
-      <c r="T49" s="99"/>
-      <c r="U49" s="99"/>
-      <c r="V49" s="99"/>
-      <c r="W49" s="34" t="s">
+      <c r="H49" s="129"/>
+      <c r="I49" s="129"/>
+      <c r="J49" s="129"/>
+      <c r="K49" s="130"/>
+      <c r="L49" s="92"/>
+      <c r="M49" s="93"/>
+      <c r="N49" s="93"/>
+      <c r="O49" s="93"/>
+      <c r="P49" s="93"/>
+      <c r="R49" s="92"/>
+      <c r="S49" s="93"/>
+      <c r="T49" s="93"/>
+      <c r="U49" s="93"/>
+      <c r="V49" s="93"/>
+      <c r="W49" s="70" t="s">
         <v>213</v>
       </c>
-      <c r="X49" s="34"/>
-      <c r="Y49" s="39" t="s">
+      <c r="X49" s="70"/>
+      <c r="Y49" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="Z49" s="36">
+      <c r="Z49" s="69">
         <v>27</v>
       </c>
-      <c r="AA49" s="34" t="s">
+      <c r="AA49" s="70" t="s">
         <v>214</v>
       </c>
-      <c r="AB49" s="34"/>
-      <c r="AC49" s="35" t="s">
+      <c r="AB49" s="70"/>
+      <c r="AC49" s="90" t="s">
         <v>156</v>
       </c>
-      <c r="AD49" s="36">
+      <c r="AD49" s="69">
         <v>34</v>
       </c>
-      <c r="AE49" s="34" t="s">
+      <c r="AE49" s="70" t="s">
         <v>191</v>
       </c>
-      <c r="AF49" s="34"/>
-      <c r="AG49" s="37" t="s">
+      <c r="AF49" s="70"/>
+      <c r="AG49" s="67" t="s">
         <v>167</v>
       </c>
-      <c r="AH49" s="36">
+      <c r="AH49" s="69">
         <v>56</v>
       </c>
-      <c r="AI49" s="34" t="s">
+      <c r="AI49" s="70" t="s">
         <v>192</v>
       </c>
-      <c r="AJ49" s="34"/>
-      <c r="AK49" s="37" t="s">
+      <c r="AJ49" s="70"/>
+      <c r="AK49" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="AL49" s="40">
+      <c r="AL49" s="68">
         <v>69</v>
       </c>
-      <c r="AM49" s="75"/>
-      <c r="AN49" s="75"/>
-      <c r="AO49" s="74"/>
-      <c r="AP49" s="36"/>
-      <c r="AQ49" s="75"/>
-      <c r="AR49" s="75"/>
-      <c r="AS49" s="74"/>
-      <c r="AT49" s="36"/>
-      <c r="AU49" s="76"/>
-      <c r="AV49" s="77"/>
-      <c r="AW49" s="76"/>
-      <c r="AX49" s="80"/>
-      <c r="AY49" s="77"/>
-      <c r="AZ49" s="73"/>
-      <c r="BA49" s="73"/>
-      <c r="BB49" s="73"/>
+      <c r="AM49" s="77"/>
+      <c r="AN49" s="77"/>
+      <c r="AO49" s="78"/>
+      <c r="AP49" s="69"/>
+      <c r="AQ49" s="77"/>
+      <c r="AR49" s="77"/>
+      <c r="AS49" s="78"/>
+      <c r="AT49" s="69"/>
+      <c r="AU49" s="105"/>
+      <c r="AV49" s="106"/>
+      <c r="AW49" s="105"/>
+      <c r="AX49" s="109"/>
+      <c r="AY49" s="106"/>
+      <c r="AZ49" s="91"/>
+      <c r="BA49" s="91"/>
+      <c r="BB49" s="91"/>
     </row>
     <row r="50" spans="1:1025" ht="18.75" customHeight="1">
-      <c r="A50" s="64"/>
-      <c r="B50" s="65"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="71"/>
-      <c r="E50" s="65"/>
-      <c r="G50" s="64" t="s">
+      <c r="A50" s="122"/>
+      <c r="B50" s="123"/>
+      <c r="C50" s="122"/>
+      <c r="D50" s="124"/>
+      <c r="E50" s="123"/>
+      <c r="G50" s="122" t="s">
         <v>467</v>
       </c>
-      <c r="H50" s="65"/>
-      <c r="I50" s="64"/>
-      <c r="J50" s="71"/>
-      <c r="K50" s="65"/>
-      <c r="L50" s="98"/>
-      <c r="M50" s="99"/>
-      <c r="N50" s="99"/>
-      <c r="O50" s="99"/>
-      <c r="P50" s="99"/>
-      <c r="R50" s="98"/>
-      <c r="S50" s="99"/>
-      <c r="T50" s="99"/>
-      <c r="U50" s="99"/>
-      <c r="V50" s="99"/>
-      <c r="W50" s="34"/>
-      <c r="X50" s="34"/>
-      <c r="Y50" s="39"/>
-      <c r="Z50" s="36"/>
-      <c r="AA50" s="34"/>
-      <c r="AB50" s="34"/>
-      <c r="AC50" s="35"/>
-      <c r="AD50" s="36"/>
-      <c r="AE50" s="34"/>
-      <c r="AF50" s="34"/>
-      <c r="AG50" s="37"/>
-      <c r="AH50" s="36"/>
-      <c r="AI50" s="34"/>
-      <c r="AJ50" s="34"/>
-      <c r="AK50" s="37"/>
-      <c r="AL50" s="36"/>
-      <c r="AM50" s="75"/>
-      <c r="AN50" s="75"/>
-      <c r="AO50" s="74"/>
-      <c r="AP50" s="36"/>
-      <c r="AQ50" s="75"/>
-      <c r="AR50" s="75"/>
-      <c r="AS50" s="74"/>
-      <c r="AT50" s="36"/>
-      <c r="AU50" s="78"/>
-      <c r="AV50" s="79"/>
-      <c r="AW50" s="78"/>
-      <c r="AX50" s="81"/>
-      <c r="AY50" s="79"/>
-      <c r="AZ50" s="36"/>
-      <c r="BA50" s="36"/>
-      <c r="BB50" s="36"/>
+      <c r="H50" s="123"/>
+      <c r="I50" s="122"/>
+      <c r="J50" s="124"/>
+      <c r="K50" s="123"/>
+      <c r="L50" s="92"/>
+      <c r="M50" s="93"/>
+      <c r="N50" s="93"/>
+      <c r="O50" s="93"/>
+      <c r="P50" s="93"/>
+      <c r="R50" s="92"/>
+      <c r="S50" s="93"/>
+      <c r="T50" s="93"/>
+      <c r="U50" s="93"/>
+      <c r="V50" s="93"/>
+      <c r="W50" s="70"/>
+      <c r="X50" s="70"/>
+      <c r="Y50" s="71"/>
+      <c r="Z50" s="69"/>
+      <c r="AA50" s="70"/>
+      <c r="AB50" s="70"/>
+      <c r="AC50" s="90"/>
+      <c r="AD50" s="69"/>
+      <c r="AE50" s="70"/>
+      <c r="AF50" s="70"/>
+      <c r="AG50" s="67"/>
+      <c r="AH50" s="69"/>
+      <c r="AI50" s="70"/>
+      <c r="AJ50" s="70"/>
+      <c r="AK50" s="67"/>
+      <c r="AL50" s="69"/>
+      <c r="AM50" s="77"/>
+      <c r="AN50" s="77"/>
+      <c r="AO50" s="78"/>
+      <c r="AP50" s="69"/>
+      <c r="AQ50" s="77"/>
+      <c r="AR50" s="77"/>
+      <c r="AS50" s="78"/>
+      <c r="AT50" s="69"/>
+      <c r="AU50" s="107"/>
+      <c r="AV50" s="108"/>
+      <c r="AW50" s="107"/>
+      <c r="AX50" s="110"/>
+      <c r="AY50" s="108"/>
+      <c r="AZ50" s="69"/>
+      <c r="BA50" s="69"/>
+      <c r="BB50" s="69"/>
     </row>
     <row r="51" spans="1:1025" ht="18.75" customHeight="1">
-      <c r="A51" s="61"/>
-      <c r="B51" s="63"/>
-      <c r="C51" s="61"/>
-      <c r="D51" s="62"/>
-      <c r="E51" s="63"/>
-      <c r="G51" s="61"/>
-      <c r="H51" s="63"/>
-      <c r="I51" s="61"/>
-      <c r="J51" s="62"/>
-      <c r="K51" s="63"/>
-      <c r="L51" s="98"/>
-      <c r="M51" s="99"/>
-      <c r="N51" s="99"/>
-      <c r="O51" s="99"/>
-      <c r="P51" s="99"/>
-      <c r="R51" s="98"/>
-      <c r="S51" s="99"/>
-      <c r="T51" s="99"/>
-      <c r="U51" s="99"/>
-      <c r="V51" s="99"/>
-      <c r="W51" s="34" t="s">
+      <c r="A51" s="119"/>
+      <c r="B51" s="120"/>
+      <c r="C51" s="119"/>
+      <c r="D51" s="121"/>
+      <c r="E51" s="120"/>
+      <c r="G51" s="119"/>
+      <c r="H51" s="120"/>
+      <c r="I51" s="119"/>
+      <c r="J51" s="121"/>
+      <c r="K51" s="120"/>
+      <c r="L51" s="92"/>
+      <c r="M51" s="93"/>
+      <c r="N51" s="93"/>
+      <c r="O51" s="93"/>
+      <c r="P51" s="93"/>
+      <c r="R51" s="92"/>
+      <c r="S51" s="93"/>
+      <c r="T51" s="93"/>
+      <c r="U51" s="93"/>
+      <c r="V51" s="93"/>
+      <c r="W51" s="70" t="s">
         <v>215</v>
       </c>
-      <c r="X51" s="34"/>
-      <c r="Y51" s="39" t="s">
+      <c r="X51" s="70"/>
+      <c r="Y51" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="Z51" s="36">
+      <c r="Z51" s="69">
         <v>28</v>
       </c>
-      <c r="AA51" s="34" t="s">
+      <c r="AA51" s="70" t="s">
         <v>216</v>
       </c>
-      <c r="AB51" s="34"/>
-      <c r="AC51" s="39" t="s">
+      <c r="AB51" s="70"/>
+      <c r="AC51" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="AD51" s="36">
+      <c r="AD51" s="69">
         <v>35</v>
       </c>
-      <c r="AE51" s="34"/>
-      <c r="AF51" s="34"/>
-      <c r="AG51" s="35"/>
-      <c r="AH51" s="36"/>
-      <c r="AI51" s="34"/>
-      <c r="AJ51" s="34"/>
-      <c r="AK51" s="35"/>
-      <c r="AL51" s="36"/>
-      <c r="AM51" s="34" t="s">
+      <c r="AE51" s="70"/>
+      <c r="AF51" s="70"/>
+      <c r="AG51" s="90"/>
+      <c r="AH51" s="69"/>
+      <c r="AI51" s="70"/>
+      <c r="AJ51" s="70"/>
+      <c r="AK51" s="90"/>
+      <c r="AL51" s="69"/>
+      <c r="AM51" s="70" t="s">
         <v>217</v>
       </c>
-      <c r="AN51" s="34"/>
-      <c r="AO51" s="87" t="s">
+      <c r="AN51" s="70"/>
+      <c r="AO51" s="132" t="s">
         <v>218</v>
       </c>
-      <c r="AP51" s="36">
+      <c r="AP51" s="69">
         <v>83</v>
       </c>
-      <c r="AQ51" s="88" t="s">
+      <c r="AQ51" s="133" t="s">
         <v>219</v>
       </c>
-      <c r="AR51" s="88"/>
-      <c r="AS51" s="89" t="s">
+      <c r="AR51" s="133"/>
+      <c r="AS51" s="134" t="s">
         <v>220</v>
       </c>
-      <c r="AT51" s="36">
+      <c r="AT51" s="69">
         <v>97</v>
       </c>
-      <c r="AU51" s="53"/>
-      <c r="AV51" s="54"/>
-      <c r="AW51" s="53"/>
-      <c r="AX51" s="57"/>
-      <c r="AY51" s="54"/>
-      <c r="AZ51" s="59"/>
-      <c r="BA51" s="59"/>
-      <c r="BB51" s="59"/>
+      <c r="AU51" s="113"/>
+      <c r="AV51" s="114"/>
+      <c r="AW51" s="113"/>
+      <c r="AX51" s="117"/>
+      <c r="AY51" s="114"/>
+      <c r="AZ51" s="100"/>
+      <c r="BA51" s="100"/>
+      <c r="BB51" s="100"/>
     </row>
     <row r="52" spans="1:1025" ht="18.75" customHeight="1">
-      <c r="A52" s="64"/>
-      <c r="B52" s="65"/>
-      <c r="C52" s="64"/>
-      <c r="D52" s="71"/>
-      <c r="E52" s="65"/>
-      <c r="G52" s="64"/>
-      <c r="H52" s="65"/>
-      <c r="I52" s="64"/>
-      <c r="J52" s="71"/>
-      <c r="K52" s="65"/>
-      <c r="L52" s="98"/>
-      <c r="M52" s="99"/>
-      <c r="N52" s="99"/>
-      <c r="O52" s="99"/>
-      <c r="P52" s="99"/>
-      <c r="R52" s="98"/>
-      <c r="S52" s="99"/>
-      <c r="T52" s="99"/>
-      <c r="U52" s="99"/>
-      <c r="V52" s="99"/>
-      <c r="W52" s="34"/>
-      <c r="X52" s="34"/>
-      <c r="Y52" s="39"/>
-      <c r="Z52" s="36"/>
-      <c r="AA52" s="34"/>
-      <c r="AB52" s="34"/>
-      <c r="AC52" s="39"/>
-      <c r="AD52" s="36"/>
-      <c r="AE52" s="34"/>
-      <c r="AF52" s="34"/>
-      <c r="AG52" s="35"/>
-      <c r="AH52" s="36"/>
-      <c r="AI52" s="34"/>
-      <c r="AJ52" s="34"/>
-      <c r="AK52" s="35"/>
-      <c r="AL52" s="36"/>
-      <c r="AM52" s="34"/>
-      <c r="AN52" s="34"/>
-      <c r="AO52" s="87"/>
-      <c r="AP52" s="36"/>
-      <c r="AQ52" s="88"/>
-      <c r="AR52" s="88"/>
-      <c r="AS52" s="89"/>
-      <c r="AT52" s="36"/>
-      <c r="AU52" s="55"/>
-      <c r="AV52" s="56"/>
-      <c r="AW52" s="55"/>
-      <c r="AX52" s="58"/>
-      <c r="AY52" s="56"/>
-      <c r="AZ52" s="60"/>
-      <c r="BA52" s="60"/>
-      <c r="BB52" s="60"/>
+      <c r="A52" s="122"/>
+      <c r="B52" s="123"/>
+      <c r="C52" s="122"/>
+      <c r="D52" s="124"/>
+      <c r="E52" s="123"/>
+      <c r="G52" s="122"/>
+      <c r="H52" s="123"/>
+      <c r="I52" s="122"/>
+      <c r="J52" s="124"/>
+      <c r="K52" s="123"/>
+      <c r="L52" s="92"/>
+      <c r="M52" s="93"/>
+      <c r="N52" s="93"/>
+      <c r="O52" s="93"/>
+      <c r="P52" s="93"/>
+      <c r="R52" s="92"/>
+      <c r="S52" s="93"/>
+      <c r="T52" s="93"/>
+      <c r="U52" s="93"/>
+      <c r="V52" s="93"/>
+      <c r="W52" s="70"/>
+      <c r="X52" s="70"/>
+      <c r="Y52" s="71"/>
+      <c r="Z52" s="69"/>
+      <c r="AA52" s="70"/>
+      <c r="AB52" s="70"/>
+      <c r="AC52" s="71"/>
+      <c r="AD52" s="69"/>
+      <c r="AE52" s="70"/>
+      <c r="AF52" s="70"/>
+      <c r="AG52" s="90"/>
+      <c r="AH52" s="69"/>
+      <c r="AI52" s="70"/>
+      <c r="AJ52" s="70"/>
+      <c r="AK52" s="90"/>
+      <c r="AL52" s="69"/>
+      <c r="AM52" s="70"/>
+      <c r="AN52" s="70"/>
+      <c r="AO52" s="132"/>
+      <c r="AP52" s="69"/>
+      <c r="AQ52" s="133"/>
+      <c r="AR52" s="133"/>
+      <c r="AS52" s="134"/>
+      <c r="AT52" s="69"/>
+      <c r="AU52" s="115"/>
+      <c r="AV52" s="116"/>
+      <c r="AW52" s="115"/>
+      <c r="AX52" s="118"/>
+      <c r="AY52" s="116"/>
+      <c r="AZ52" s="101"/>
+      <c r="BA52" s="101"/>
+      <c r="BB52" s="101"/>
     </row>
     <row r="53" spans="1:1025" ht="18.75" customHeight="1">
-      <c r="A53" s="61"/>
-      <c r="B53" s="63"/>
-      <c r="C53" s="61"/>
-      <c r="D53" s="62"/>
-      <c r="E53" s="63"/>
-      <c r="G53" s="61"/>
-      <c r="H53" s="63"/>
-      <c r="I53" s="61"/>
-      <c r="J53" s="62"/>
-      <c r="K53" s="63"/>
-      <c r="L53" s="98"/>
-      <c r="M53" s="99"/>
-      <c r="N53" s="99"/>
-      <c r="O53" s="99"/>
-      <c r="P53" s="99"/>
-      <c r="R53" s="98"/>
-      <c r="S53" s="99"/>
-      <c r="T53" s="99"/>
-      <c r="U53" s="99"/>
-      <c r="V53" s="99"/>
-      <c r="W53" s="34" t="s">
+      <c r="A53" s="119"/>
+      <c r="B53" s="120"/>
+      <c r="C53" s="119"/>
+      <c r="D53" s="121"/>
+      <c r="E53" s="120"/>
+      <c r="G53" s="119"/>
+      <c r="H53" s="120"/>
+      <c r="I53" s="119"/>
+      <c r="J53" s="121"/>
+      <c r="K53" s="120"/>
+      <c r="L53" s="92"/>
+      <c r="M53" s="93"/>
+      <c r="N53" s="93"/>
+      <c r="O53" s="93"/>
+      <c r="P53" s="93"/>
+      <c r="R53" s="92"/>
+      <c r="S53" s="93"/>
+      <c r="T53" s="93"/>
+      <c r="U53" s="93"/>
+      <c r="V53" s="93"/>
+      <c r="W53" s="70" t="s">
         <v>221</v>
       </c>
-      <c r="X53" s="34"/>
-      <c r="Y53" s="37" t="s">
+      <c r="X53" s="70"/>
+      <c r="Y53" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="Z53" s="36">
+      <c r="Z53" s="69">
         <v>29</v>
       </c>
-      <c r="AA53" s="34" t="s">
+      <c r="AA53" s="70" t="s">
         <v>222</v>
       </c>
-      <c r="AB53" s="34"/>
-      <c r="AC53" s="37" t="s">
+      <c r="AB53" s="70"/>
+      <c r="AC53" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="AD53" s="36">
+      <c r="AD53" s="69">
         <v>36</v>
       </c>
-      <c r="AE53" s="75"/>
-      <c r="AF53" s="75"/>
-      <c r="AG53" s="74"/>
-      <c r="AH53" s="36"/>
-      <c r="AI53" s="75"/>
-      <c r="AJ53" s="75"/>
-      <c r="AK53" s="74"/>
-      <c r="AL53" s="36"/>
-      <c r="AM53" s="34" t="s">
+      <c r="AE53" s="77"/>
+      <c r="AF53" s="77"/>
+      <c r="AG53" s="78"/>
+      <c r="AH53" s="69"/>
+      <c r="AI53" s="77"/>
+      <c r="AJ53" s="77"/>
+      <c r="AK53" s="78"/>
+      <c r="AL53" s="69"/>
+      <c r="AM53" s="70" t="s">
         <v>223</v>
       </c>
-      <c r="AN53" s="34"/>
-      <c r="AO53" s="37" t="s">
+      <c r="AN53" s="70"/>
+      <c r="AO53" s="67" t="s">
         <v>156</v>
       </c>
-      <c r="AP53" s="36">
+      <c r="AP53" s="69">
         <v>84</v>
       </c>
       <c r="AQ53" s="86" t="s">
         <v>224</v>
       </c>
       <c r="AR53" s="86"/>
-      <c r="AS53" s="37" t="s">
+      <c r="AS53" s="67" t="s">
         <v>225</v>
       </c>
-      <c r="AT53" s="36">
+      <c r="AT53" s="69">
         <v>98</v>
       </c>
-      <c r="AU53" s="76"/>
-      <c r="AV53" s="77"/>
-      <c r="AW53" s="76"/>
-      <c r="AX53" s="80"/>
-      <c r="AY53" s="77"/>
-      <c r="AZ53" s="73"/>
-      <c r="BA53" s="73"/>
-      <c r="BB53" s="73"/>
+      <c r="AU53" s="105"/>
+      <c r="AV53" s="106"/>
+      <c r="AW53" s="105"/>
+      <c r="AX53" s="109"/>
+      <c r="AY53" s="106"/>
+      <c r="AZ53" s="91"/>
+      <c r="BA53" s="91"/>
+      <c r="BB53" s="91"/>
     </row>
     <row r="54" spans="1:1025" ht="18.75" customHeight="1">
-      <c r="L54" s="98"/>
-      <c r="M54" s="99"/>
-      <c r="N54" s="99"/>
-      <c r="O54" s="99"/>
-      <c r="P54" s="99"/>
-      <c r="R54" s="98"/>
-      <c r="S54" s="99"/>
-      <c r="T54" s="99"/>
-      <c r="U54" s="99"/>
-      <c r="V54" s="99"/>
-      <c r="W54" s="34"/>
-      <c r="X54" s="34"/>
-      <c r="Y54" s="37"/>
-      <c r="Z54" s="36"/>
-      <c r="AA54" s="34"/>
-      <c r="AB54" s="34"/>
-      <c r="AC54" s="37"/>
-      <c r="AD54" s="36"/>
-      <c r="AE54" s="75"/>
-      <c r="AF54" s="75"/>
-      <c r="AG54" s="74"/>
-      <c r="AH54" s="36"/>
-      <c r="AI54" s="75"/>
-      <c r="AJ54" s="75"/>
-      <c r="AK54" s="74"/>
-      <c r="AL54" s="36"/>
-      <c r="AM54" s="34"/>
-      <c r="AN54" s="34"/>
-      <c r="AO54" s="37"/>
-      <c r="AP54" s="36"/>
+      <c r="L54" s="92"/>
+      <c r="M54" s="93"/>
+      <c r="N54" s="93"/>
+      <c r="O54" s="93"/>
+      <c r="P54" s="93"/>
+      <c r="R54" s="92"/>
+      <c r="S54" s="93"/>
+      <c r="T54" s="93"/>
+      <c r="U54" s="93"/>
+      <c r="V54" s="93"/>
+      <c r="W54" s="70"/>
+      <c r="X54" s="70"/>
+      <c r="Y54" s="67"/>
+      <c r="Z54" s="69"/>
+      <c r="AA54" s="70"/>
+      <c r="AB54" s="70"/>
+      <c r="AC54" s="67"/>
+      <c r="AD54" s="69"/>
+      <c r="AE54" s="77"/>
+      <c r="AF54" s="77"/>
+      <c r="AG54" s="78"/>
+      <c r="AH54" s="69"/>
+      <c r="AI54" s="77"/>
+      <c r="AJ54" s="77"/>
+      <c r="AK54" s="78"/>
+      <c r="AL54" s="69"/>
+      <c r="AM54" s="70"/>
+      <c r="AN54" s="70"/>
+      <c r="AO54" s="67"/>
+      <c r="AP54" s="69"/>
       <c r="AQ54" s="86"/>
       <c r="AR54" s="86"/>
-      <c r="AS54" s="37"/>
-      <c r="AT54" s="36"/>
-      <c r="AU54" s="78"/>
-      <c r="AV54" s="79"/>
-      <c r="AW54" s="78"/>
-      <c r="AX54" s="81"/>
-      <c r="AY54" s="79"/>
-      <c r="AZ54" s="36"/>
-      <c r="BA54" s="36"/>
-      <c r="BB54" s="36"/>
+      <c r="AS54" s="67"/>
+      <c r="AT54" s="69"/>
+      <c r="AU54" s="107"/>
+      <c r="AV54" s="108"/>
+      <c r="AW54" s="107"/>
+      <c r="AX54" s="110"/>
+      <c r="AY54" s="108"/>
+      <c r="AZ54" s="69"/>
+      <c r="BA54" s="69"/>
+      <c r="BB54" s="69"/>
     </row>
     <row r="55" spans="1:1025" ht="18.75" customHeight="1">
-      <c r="A55" s="90" t="s">
+      <c r="A55" s="125" t="s">
         <v>212</v>
       </c>
-      <c r="B55" s="91"/>
-      <c r="C55" s="91"/>
-      <c r="D55" s="91"/>
-      <c r="E55" s="91"/>
-      <c r="F55" s="91"/>
-      <c r="G55" s="91"/>
-      <c r="H55" s="91"/>
-      <c r="I55" s="91"/>
-      <c r="J55" s="91"/>
-      <c r="K55" s="92"/>
-      <c r="L55" s="98"/>
-      <c r="M55" s="99"/>
-      <c r="N55" s="99"/>
-      <c r="O55" s="99"/>
-      <c r="P55" s="99"/>
-      <c r="R55" s="98"/>
-      <c r="S55" s="99"/>
-      <c r="T55" s="99"/>
-      <c r="U55" s="99"/>
-      <c r="V55" s="99"/>
-      <c r="W55" s="34"/>
-      <c r="X55" s="34"/>
-      <c r="Y55" s="74"/>
-      <c r="Z55" s="36"/>
-      <c r="AA55" s="34" t="s">
+      <c r="B55" s="126"/>
+      <c r="C55" s="126"/>
+      <c r="D55" s="126"/>
+      <c r="E55" s="126"/>
+      <c r="F55" s="126"/>
+      <c r="G55" s="126"/>
+      <c r="H55" s="126"/>
+      <c r="I55" s="126"/>
+      <c r="J55" s="126"/>
+      <c r="K55" s="127"/>
+      <c r="L55" s="92"/>
+      <c r="M55" s="93"/>
+      <c r="N55" s="93"/>
+      <c r="O55" s="93"/>
+      <c r="P55" s="93"/>
+      <c r="R55" s="92"/>
+      <c r="S55" s="93"/>
+      <c r="T55" s="93"/>
+      <c r="U55" s="93"/>
+      <c r="V55" s="93"/>
+      <c r="W55" s="70"/>
+      <c r="X55" s="70"/>
+      <c r="Y55" s="78"/>
+      <c r="Z55" s="69"/>
+      <c r="AA55" s="70" t="s">
         <v>226</v>
       </c>
-      <c r="AB55" s="34"/>
-      <c r="AC55" s="39" t="s">
+      <c r="AB55" s="70"/>
+      <c r="AC55" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="AD55" s="36">
+      <c r="AD55" s="69">
         <v>37</v>
       </c>
-      <c r="AE55" s="34"/>
-      <c r="AF55" s="34"/>
-      <c r="AG55" s="37"/>
-      <c r="AH55" s="36"/>
-      <c r="AI55" s="34"/>
-      <c r="AJ55" s="34"/>
-      <c r="AK55" s="37"/>
-      <c r="AL55" s="36"/>
-      <c r="AM55" s="34" t="s">
+      <c r="AE55" s="70"/>
+      <c r="AF55" s="70"/>
+      <c r="AG55" s="67"/>
+      <c r="AH55" s="69"/>
+      <c r="AI55" s="70"/>
+      <c r="AJ55" s="70"/>
+      <c r="AK55" s="67"/>
+      <c r="AL55" s="69"/>
+      <c r="AM55" s="70" t="s">
         <v>227</v>
       </c>
-      <c r="AN55" s="34"/>
-      <c r="AO55" s="83" t="s">
+      <c r="AN55" s="70"/>
+      <c r="AO55" s="135" t="s">
         <v>228</v>
       </c>
-      <c r="AP55" s="40">
+      <c r="AP55" s="68">
         <v>85</v>
       </c>
-      <c r="AQ55" s="75"/>
-      <c r="AR55" s="75"/>
-      <c r="AS55" s="37"/>
-      <c r="AT55" s="40"/>
-      <c r="AU55" s="53"/>
-      <c r="AV55" s="54"/>
-      <c r="AW55" s="53"/>
-      <c r="AX55" s="57"/>
-      <c r="AY55" s="54"/>
-      <c r="AZ55" s="59"/>
-      <c r="BA55" s="59"/>
-      <c r="BB55" s="59"/>
+      <c r="AQ55" s="77"/>
+      <c r="AR55" s="77"/>
+      <c r="AS55" s="67"/>
+      <c r="AT55" s="68"/>
+      <c r="AU55" s="113"/>
+      <c r="AV55" s="114"/>
+      <c r="AW55" s="113"/>
+      <c r="AX55" s="117"/>
+      <c r="AY55" s="114"/>
+      <c r="AZ55" s="100"/>
+      <c r="BA55" s="100"/>
+      <c r="BB55" s="100"/>
     </row>
     <row r="56" spans="1:1025" ht="18.75" customHeight="1">
-      <c r="A56" s="74" t="s">
+      <c r="A56" s="78" t="s">
         <v>470</v>
       </c>
-      <c r="B56" s="74"/>
-      <c r="C56" s="74"/>
-      <c r="D56" s="74"/>
-      <c r="E56" s="74"/>
-      <c r="F56" s="74"/>
-      <c r="G56" s="74"/>
-      <c r="H56" s="74"/>
-      <c r="I56" s="74"/>
-      <c r="J56" s="74"/>
-      <c r="K56" s="84"/>
-      <c r="L56" s="98"/>
-      <c r="M56" s="99"/>
-      <c r="N56" s="99"/>
-      <c r="O56" s="99"/>
-      <c r="P56" s="99"/>
-      <c r="R56" s="98"/>
-      <c r="S56" s="99"/>
-      <c r="T56" s="99"/>
-      <c r="U56" s="99"/>
-      <c r="V56" s="99"/>
-      <c r="W56" s="34"/>
-      <c r="X56" s="34"/>
-      <c r="Y56" s="74"/>
-      <c r="Z56" s="36"/>
-      <c r="AA56" s="34"/>
-      <c r="AB56" s="34"/>
-      <c r="AC56" s="39"/>
-      <c r="AD56" s="36"/>
-      <c r="AE56" s="34"/>
-      <c r="AF56" s="34"/>
-      <c r="AG56" s="37"/>
-      <c r="AH56" s="36"/>
-      <c r="AI56" s="34"/>
-      <c r="AJ56" s="34"/>
-      <c r="AK56" s="37"/>
-      <c r="AL56" s="36"/>
-      <c r="AM56" s="34"/>
-      <c r="AN56" s="34"/>
-      <c r="AO56" s="83"/>
-      <c r="AP56" s="36"/>
-      <c r="AQ56" s="75"/>
-      <c r="AR56" s="75"/>
-      <c r="AS56" s="37"/>
-      <c r="AT56" s="36"/>
-      <c r="AU56" s="55"/>
-      <c r="AV56" s="56"/>
-      <c r="AW56" s="55"/>
-      <c r="AX56" s="58"/>
-      <c r="AY56" s="56"/>
-      <c r="AZ56" s="60"/>
-      <c r="BA56" s="60"/>
-      <c r="BB56" s="60"/>
+      <c r="B56" s="78"/>
+      <c r="C56" s="78"/>
+      <c r="D56" s="78"/>
+      <c r="E56" s="78"/>
+      <c r="F56" s="78"/>
+      <c r="G56" s="78"/>
+      <c r="H56" s="78"/>
+      <c r="I56" s="78"/>
+      <c r="J56" s="78"/>
+      <c r="K56" s="128"/>
+      <c r="L56" s="92"/>
+      <c r="M56" s="93"/>
+      <c r="N56" s="93"/>
+      <c r="O56" s="93"/>
+      <c r="P56" s="93"/>
+      <c r="R56" s="92"/>
+      <c r="S56" s="93"/>
+      <c r="T56" s="93"/>
+      <c r="U56" s="93"/>
+      <c r="V56" s="93"/>
+      <c r="W56" s="70"/>
+      <c r="X56" s="70"/>
+      <c r="Y56" s="78"/>
+      <c r="Z56" s="69"/>
+      <c r="AA56" s="70"/>
+      <c r="AB56" s="70"/>
+      <c r="AC56" s="71"/>
+      <c r="AD56" s="69"/>
+      <c r="AE56" s="70"/>
+      <c r="AF56" s="70"/>
+      <c r="AG56" s="67"/>
+      <c r="AH56" s="69"/>
+      <c r="AI56" s="70"/>
+      <c r="AJ56" s="70"/>
+      <c r="AK56" s="67"/>
+      <c r="AL56" s="69"/>
+      <c r="AM56" s="70"/>
+      <c r="AN56" s="70"/>
+      <c r="AO56" s="135"/>
+      <c r="AP56" s="69"/>
+      <c r="AQ56" s="77"/>
+      <c r="AR56" s="77"/>
+      <c r="AS56" s="67"/>
+      <c r="AT56" s="69"/>
+      <c r="AU56" s="115"/>
+      <c r="AV56" s="116"/>
+      <c r="AW56" s="115"/>
+      <c r="AX56" s="118"/>
+      <c r="AY56" s="116"/>
+      <c r="AZ56" s="101"/>
+      <c r="BA56" s="101"/>
+      <c r="BB56" s="101"/>
     </row>
     <row r="57" spans="1:1025" ht="19.5" customHeight="1">
-      <c r="A57" s="75" t="s">
+      <c r="A57" s="77" t="s">
         <v>471</v>
       </c>
-      <c r="B57" s="75"/>
-      <c r="C57" s="75"/>
-      <c r="D57" s="75"/>
-      <c r="E57" s="75"/>
-      <c r="F57" s="75"/>
-      <c r="G57" s="75"/>
-      <c r="H57" s="75"/>
-      <c r="I57" s="75"/>
-      <c r="J57" s="75"/>
-      <c r="K57" s="85"/>
-      <c r="L57" s="98"/>
-      <c r="M57" s="99"/>
-      <c r="N57" s="99"/>
-      <c r="O57" s="99"/>
-      <c r="P57" s="99"/>
-      <c r="R57" s="98"/>
-      <c r="S57" s="99"/>
-      <c r="T57" s="99"/>
-      <c r="U57" s="99"/>
-      <c r="V57" s="99"/>
-      <c r="W57" s="75"/>
-      <c r="X57" s="75"/>
-      <c r="Y57" s="74"/>
-      <c r="Z57" s="36"/>
-      <c r="AA57" s="75"/>
-      <c r="AB57" s="75"/>
-      <c r="AC57" s="74"/>
-      <c r="AD57" s="36"/>
-      <c r="AE57" s="34"/>
-      <c r="AF57" s="34"/>
-      <c r="AG57" s="37"/>
-      <c r="AH57" s="36"/>
-      <c r="AI57" s="34"/>
-      <c r="AJ57" s="34"/>
-      <c r="AK57" s="37"/>
-      <c r="AL57" s="36"/>
-      <c r="AM57" s="75"/>
-      <c r="AN57" s="75"/>
-      <c r="AO57" s="74"/>
-      <c r="AP57" s="36"/>
-      <c r="AQ57" s="75"/>
-      <c r="AR57" s="75"/>
-      <c r="AS57" s="74"/>
-      <c r="AT57" s="36"/>
-      <c r="AU57" s="76"/>
-      <c r="AV57" s="77"/>
-      <c r="AW57" s="76"/>
-      <c r="AX57" s="80"/>
-      <c r="AY57" s="77"/>
-      <c r="AZ57" s="73"/>
-      <c r="BA57" s="73"/>
-      <c r="BB57" s="73"/>
+      <c r="B57" s="77"/>
+      <c r="C57" s="77"/>
+      <c r="D57" s="77"/>
+      <c r="E57" s="77"/>
+      <c r="F57" s="77"/>
+      <c r="G57" s="77"/>
+      <c r="H57" s="77"/>
+      <c r="I57" s="77"/>
+      <c r="J57" s="77"/>
+      <c r="K57" s="131"/>
+      <c r="L57" s="92"/>
+      <c r="M57" s="93"/>
+      <c r="N57" s="93"/>
+      <c r="O57" s="93"/>
+      <c r="P57" s="93"/>
+      <c r="R57" s="92"/>
+      <c r="S57" s="93"/>
+      <c r="T57" s="93"/>
+      <c r="U57" s="93"/>
+      <c r="V57" s="93"/>
+      <c r="W57" s="77"/>
+      <c r="X57" s="77"/>
+      <c r="Y57" s="78"/>
+      <c r="Z57" s="69"/>
+      <c r="AA57" s="77"/>
+      <c r="AB57" s="77"/>
+      <c r="AC57" s="78"/>
+      <c r="AD57" s="69"/>
+      <c r="AE57" s="70"/>
+      <c r="AF57" s="70"/>
+      <c r="AG57" s="67"/>
+      <c r="AH57" s="69"/>
+      <c r="AI57" s="70"/>
+      <c r="AJ57" s="70"/>
+      <c r="AK57" s="67"/>
+      <c r="AL57" s="69"/>
+      <c r="AM57" s="77"/>
+      <c r="AN57" s="77"/>
+      <c r="AO57" s="78"/>
+      <c r="AP57" s="69"/>
+      <c r="AQ57" s="77"/>
+      <c r="AR57" s="77"/>
+      <c r="AS57" s="78"/>
+      <c r="AT57" s="69"/>
+      <c r="AU57" s="105"/>
+      <c r="AV57" s="106"/>
+      <c r="AW57" s="105"/>
+      <c r="AX57" s="109"/>
+      <c r="AY57" s="106"/>
+      <c r="AZ57" s="91"/>
+      <c r="BA57" s="91"/>
+      <c r="BB57" s="91"/>
     </row>
     <row r="58" spans="1:1025" ht="18.75" customHeight="1">
-      <c r="A58" s="74"/>
-      <c r="B58" s="74"/>
-      <c r="C58" s="74"/>
-      <c r="D58" s="74"/>
-      <c r="E58" s="74" t="s">
+      <c r="A58" s="78"/>
+      <c r="B58" s="78"/>
+      <c r="C58" s="78"/>
+      <c r="D58" s="78"/>
+      <c r="E58" s="78" t="s">
         <v>472</v>
       </c>
-      <c r="F58" s="74"/>
-      <c r="G58" s="74"/>
-      <c r="H58" s="74"/>
-      <c r="I58" s="74"/>
-      <c r="J58" s="74"/>
-      <c r="K58" s="84"/>
-      <c r="L58" s="98"/>
-      <c r="M58" s="99"/>
-      <c r="N58" s="99"/>
-      <c r="O58" s="99"/>
-      <c r="P58" s="99"/>
-      <c r="R58" s="98"/>
-      <c r="S58" s="99"/>
-      <c r="T58" s="99"/>
-      <c r="U58" s="99"/>
-      <c r="V58" s="99"/>
-      <c r="W58" s="75"/>
-      <c r="X58" s="75"/>
-      <c r="Y58" s="74"/>
-      <c r="Z58" s="36"/>
-      <c r="AA58" s="75"/>
-      <c r="AB58" s="75"/>
-      <c r="AC58" s="74"/>
-      <c r="AD58" s="36"/>
-      <c r="AE58" s="34"/>
-      <c r="AF58" s="34"/>
-      <c r="AG58" s="37"/>
-      <c r="AH58" s="36"/>
-      <c r="AI58" s="34"/>
-      <c r="AJ58" s="34"/>
-      <c r="AK58" s="37"/>
-      <c r="AL58" s="36"/>
-      <c r="AM58" s="75"/>
-      <c r="AN58" s="75"/>
-      <c r="AO58" s="74"/>
-      <c r="AP58" s="36"/>
-      <c r="AQ58" s="75"/>
-      <c r="AR58" s="75"/>
-      <c r="AS58" s="74"/>
-      <c r="AT58" s="36"/>
-      <c r="AU58" s="78"/>
-      <c r="AV58" s="79"/>
-      <c r="AW58" s="78"/>
-      <c r="AX58" s="81"/>
-      <c r="AY58" s="79"/>
-      <c r="AZ58" s="36"/>
-      <c r="BA58" s="36"/>
-      <c r="BB58" s="36"/>
+      <c r="F58" s="78"/>
+      <c r="G58" s="78"/>
+      <c r="H58" s="78"/>
+      <c r="I58" s="78"/>
+      <c r="J58" s="78"/>
+      <c r="K58" s="128"/>
+      <c r="L58" s="92"/>
+      <c r="M58" s="93"/>
+      <c r="N58" s="93"/>
+      <c r="O58" s="93"/>
+      <c r="P58" s="93"/>
+      <c r="R58" s="92"/>
+      <c r="S58" s="93"/>
+      <c r="T58" s="93"/>
+      <c r="U58" s="93"/>
+      <c r="V58" s="93"/>
+      <c r="W58" s="77"/>
+      <c r="X58" s="77"/>
+      <c r="Y58" s="78"/>
+      <c r="Z58" s="69"/>
+      <c r="AA58" s="77"/>
+      <c r="AB58" s="77"/>
+      <c r="AC58" s="78"/>
+      <c r="AD58" s="69"/>
+      <c r="AE58" s="70"/>
+      <c r="AF58" s="70"/>
+      <c r="AG58" s="67"/>
+      <c r="AH58" s="69"/>
+      <c r="AI58" s="70"/>
+      <c r="AJ58" s="70"/>
+      <c r="AK58" s="67"/>
+      <c r="AL58" s="69"/>
+      <c r="AM58" s="77"/>
+      <c r="AN58" s="77"/>
+      <c r="AO58" s="78"/>
+      <c r="AP58" s="69"/>
+      <c r="AQ58" s="77"/>
+      <c r="AR58" s="77"/>
+      <c r="AS58" s="78"/>
+      <c r="AT58" s="69"/>
+      <c r="AU58" s="107"/>
+      <c r="AV58" s="108"/>
+      <c r="AW58" s="107"/>
+      <c r="AX58" s="110"/>
+      <c r="AY58" s="108"/>
+      <c r="AZ58" s="69"/>
+      <c r="BA58" s="69"/>
+      <c r="BB58" s="69"/>
     </row>
     <row r="59" spans="1:1025" ht="19.5" customHeight="1">
-      <c r="A59" s="75"/>
-      <c r="B59" s="75"/>
-      <c r="C59" s="75"/>
-      <c r="D59" s="75"/>
-      <c r="E59" s="75" t="s">
+      <c r="A59" s="77"/>
+      <c r="B59" s="77"/>
+      <c r="C59" s="77"/>
+      <c r="D59" s="77"/>
+      <c r="E59" s="77" t="s">
         <v>473</v>
       </c>
-      <c r="F59" s="75"/>
-      <c r="G59" s="75"/>
-      <c r="H59" s="75"/>
-      <c r="I59" s="75"/>
-      <c r="J59" s="75"/>
-      <c r="K59" s="85"/>
-      <c r="L59" s="98"/>
-      <c r="M59" s="99"/>
-      <c r="N59" s="99"/>
-      <c r="O59" s="99"/>
-      <c r="P59" s="99"/>
-      <c r="R59" s="98"/>
-      <c r="S59" s="99"/>
-      <c r="T59" s="99"/>
-      <c r="U59" s="99"/>
-      <c r="V59" s="99"/>
-      <c r="W59" s="34" t="s">
+      <c r="F59" s="77"/>
+      <c r="G59" s="77"/>
+      <c r="H59" s="77"/>
+      <c r="I59" s="77"/>
+      <c r="J59" s="77"/>
+      <c r="K59" s="131"/>
+      <c r="L59" s="92"/>
+      <c r="M59" s="93"/>
+      <c r="N59" s="93"/>
+      <c r="O59" s="93"/>
+      <c r="P59" s="93"/>
+      <c r="R59" s="92"/>
+      <c r="S59" s="93"/>
+      <c r="T59" s="93"/>
+      <c r="U59" s="93"/>
+      <c r="V59" s="93"/>
+      <c r="W59" s="70" t="s">
         <v>229</v>
       </c>
-      <c r="X59" s="34"/>
-      <c r="Y59" s="37" t="s">
+      <c r="X59" s="70"/>
+      <c r="Y59" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="Z59" s="36">
+      <c r="Z59" s="69">
         <v>30</v>
       </c>
-      <c r="AA59" s="34" t="s">
+      <c r="AA59" s="70" t="s">
         <v>230</v>
       </c>
-      <c r="AB59" s="34"/>
-      <c r="AC59" s="82" t="s">
+      <c r="AB59" s="70"/>
+      <c r="AC59" s="98" t="s">
         <v>195</v>
       </c>
-      <c r="AD59" s="36">
+      <c r="AD59" s="69">
         <v>38</v>
       </c>
-      <c r="AE59" s="34"/>
-      <c r="AF59" s="34"/>
-      <c r="AG59" s="37"/>
-      <c r="AH59" s="36"/>
-      <c r="AI59" s="34"/>
-      <c r="AJ59" s="34"/>
-      <c r="AK59" s="37"/>
-      <c r="AL59" s="36"/>
-      <c r="AM59" s="75"/>
-      <c r="AN59" s="75"/>
-      <c r="AO59" s="74"/>
-      <c r="AP59" s="36"/>
-      <c r="AQ59" s="75"/>
-      <c r="AR59" s="75"/>
-      <c r="AS59" s="74"/>
-      <c r="AT59" s="36"/>
-      <c r="AU59" s="53"/>
-      <c r="AV59" s="54"/>
-      <c r="AW59" s="53"/>
-      <c r="AX59" s="57"/>
-      <c r="AY59" s="54"/>
-      <c r="AZ59" s="59"/>
-      <c r="BA59" s="59"/>
-      <c r="BB59" s="59"/>
+      <c r="AE59" s="70"/>
+      <c r="AF59" s="70"/>
+      <c r="AG59" s="67"/>
+      <c r="AH59" s="69"/>
+      <c r="AI59" s="70"/>
+      <c r="AJ59" s="70"/>
+      <c r="AK59" s="67"/>
+      <c r="AL59" s="69"/>
+      <c r="AM59" s="77"/>
+      <c r="AN59" s="77"/>
+      <c r="AO59" s="78"/>
+      <c r="AP59" s="69"/>
+      <c r="AQ59" s="77"/>
+      <c r="AR59" s="77"/>
+      <c r="AS59" s="78"/>
+      <c r="AT59" s="69"/>
+      <c r="AU59" s="113"/>
+      <c r="AV59" s="114"/>
+      <c r="AW59" s="113"/>
+      <c r="AX59" s="117"/>
+      <c r="AY59" s="114"/>
+      <c r="AZ59" s="100"/>
+      <c r="BA59" s="100"/>
+      <c r="BB59" s="100"/>
     </row>
     <row r="60" spans="1:1025" ht="19.5" customHeight="1">
-      <c r="A60" s="74"/>
-      <c r="B60" s="74"/>
-      <c r="C60" s="74"/>
-      <c r="D60" s="74"/>
-      <c r="E60" s="74"/>
-      <c r="F60" s="74"/>
-      <c r="G60" s="74"/>
-      <c r="H60" s="74"/>
-      <c r="I60" s="74"/>
-      <c r="J60" s="74"/>
-      <c r="K60" s="84"/>
-      <c r="L60" s="98"/>
-      <c r="M60" s="99"/>
-      <c r="N60" s="99"/>
-      <c r="O60" s="99"/>
-      <c r="P60" s="99"/>
-      <c r="R60" s="98"/>
-      <c r="S60" s="99"/>
-      <c r="T60" s="99"/>
-      <c r="U60" s="99"/>
-      <c r="V60" s="99"/>
-      <c r="W60" s="34"/>
-      <c r="X60" s="34"/>
-      <c r="Y60" s="37"/>
-      <c r="Z60" s="36"/>
-      <c r="AA60" s="34"/>
-      <c r="AB60" s="34"/>
-      <c r="AC60" s="82"/>
-      <c r="AD60" s="36"/>
-      <c r="AE60" s="34"/>
-      <c r="AF60" s="34"/>
-      <c r="AG60" s="37"/>
-      <c r="AH60" s="36"/>
-      <c r="AI60" s="34"/>
-      <c r="AJ60" s="34"/>
-      <c r="AK60" s="37"/>
-      <c r="AL60" s="36"/>
-      <c r="AM60" s="75"/>
-      <c r="AN60" s="75"/>
-      <c r="AO60" s="74"/>
-      <c r="AP60" s="36"/>
-      <c r="AQ60" s="75"/>
-      <c r="AR60" s="75"/>
-      <c r="AS60" s="74"/>
-      <c r="AT60" s="36"/>
-      <c r="AU60" s="55"/>
-      <c r="AV60" s="56"/>
-      <c r="AW60" s="55"/>
-      <c r="AX60" s="58"/>
-      <c r="AY60" s="56"/>
-      <c r="AZ60" s="60"/>
-      <c r="BA60" s="60"/>
-      <c r="BB60" s="60"/>
+      <c r="A60" s="78"/>
+      <c r="B60" s="78"/>
+      <c r="C60" s="78"/>
+      <c r="D60" s="78"/>
+      <c r="E60" s="78"/>
+      <c r="F60" s="78"/>
+      <c r="G60" s="78"/>
+      <c r="H60" s="78"/>
+      <c r="I60" s="78"/>
+      <c r="J60" s="78"/>
+      <c r="K60" s="128"/>
+      <c r="L60" s="92"/>
+      <c r="M60" s="93"/>
+      <c r="N60" s="93"/>
+      <c r="O60" s="93"/>
+      <c r="P60" s="93"/>
+      <c r="R60" s="92"/>
+      <c r="S60" s="93"/>
+      <c r="T60" s="93"/>
+      <c r="U60" s="93"/>
+      <c r="V60" s="93"/>
+      <c r="W60" s="70"/>
+      <c r="X60" s="70"/>
+      <c r="Y60" s="67"/>
+      <c r="Z60" s="69"/>
+      <c r="AA60" s="70"/>
+      <c r="AB60" s="70"/>
+      <c r="AC60" s="98"/>
+      <c r="AD60" s="69"/>
+      <c r="AE60" s="70"/>
+      <c r="AF60" s="70"/>
+      <c r="AG60" s="67"/>
+      <c r="AH60" s="69"/>
+      <c r="AI60" s="70"/>
+      <c r="AJ60" s="70"/>
+      <c r="AK60" s="67"/>
+      <c r="AL60" s="69"/>
+      <c r="AM60" s="77"/>
+      <c r="AN60" s="77"/>
+      <c r="AO60" s="78"/>
+      <c r="AP60" s="69"/>
+      <c r="AQ60" s="77"/>
+      <c r="AR60" s="77"/>
+      <c r="AS60" s="78"/>
+      <c r="AT60" s="69"/>
+      <c r="AU60" s="115"/>
+      <c r="AV60" s="116"/>
+      <c r="AW60" s="115"/>
+      <c r="AX60" s="118"/>
+      <c r="AY60" s="116"/>
+      <c r="AZ60" s="101"/>
+      <c r="BA60" s="101"/>
+      <c r="BB60" s="101"/>
     </row>
     <row r="61" spans="1:1025" ht="19.5" customHeight="1">
-      <c r="A61" s="75"/>
-      <c r="B61" s="75"/>
-      <c r="C61" s="75"/>
-      <c r="D61" s="75"/>
-      <c r="E61" s="75"/>
-      <c r="F61" s="75"/>
-      <c r="G61" s="75"/>
-      <c r="H61" s="75"/>
-      <c r="I61" s="75" t="s">
+      <c r="A61" s="77"/>
+      <c r="B61" s="77"/>
+      <c r="C61" s="77"/>
+      <c r="D61" s="77"/>
+      <c r="E61" s="77"/>
+      <c r="F61" s="77"/>
+      <c r="G61" s="77"/>
+      <c r="H61" s="77"/>
+      <c r="I61" s="77" t="s">
         <v>474</v>
       </c>
-      <c r="J61" s="75"/>
-      <c r="K61" s="85"/>
-      <c r="L61" s="98"/>
-      <c r="M61" s="99"/>
-      <c r="N61" s="99"/>
-      <c r="O61" s="99"/>
-      <c r="P61" s="99"/>
-      <c r="R61" s="98"/>
-      <c r="S61" s="99"/>
-      <c r="T61" s="99"/>
-      <c r="U61" s="99"/>
-      <c r="V61" s="99"/>
-      <c r="W61" s="34" t="s">
+      <c r="J61" s="77"/>
+      <c r="K61" s="131"/>
+      <c r="L61" s="92"/>
+      <c r="M61" s="93"/>
+      <c r="N61" s="93"/>
+      <c r="O61" s="93"/>
+      <c r="P61" s="93"/>
+      <c r="R61" s="92"/>
+      <c r="S61" s="93"/>
+      <c r="T61" s="93"/>
+      <c r="U61" s="93"/>
+      <c r="V61" s="93"/>
+      <c r="W61" s="70" t="s">
         <v>234</v>
       </c>
-      <c r="X61" s="34"/>
-      <c r="Y61" s="39" t="s">
+      <c r="X61" s="70"/>
+      <c r="Y61" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="Z61" s="36">
+      <c r="Z61" s="69">
         <v>31</v>
       </c>
-      <c r="AA61" s="34" t="s">
+      <c r="AA61" s="70" t="s">
         <v>235</v>
       </c>
-      <c r="AB61" s="34"/>
-      <c r="AC61" s="37" t="s">
+      <c r="AB61" s="70"/>
+      <c r="AC61" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="AD61" s="36">
+      <c r="AD61" s="69">
         <v>39</v>
       </c>
-      <c r="AE61" s="75"/>
-      <c r="AF61" s="75"/>
-      <c r="AG61" s="74"/>
-      <c r="AH61" s="36"/>
-      <c r="AI61" s="75"/>
-      <c r="AJ61" s="75"/>
-      <c r="AK61" s="74"/>
-      <c r="AL61" s="36"/>
-      <c r="AM61" s="75"/>
-      <c r="AN61" s="75"/>
-      <c r="AO61" s="74"/>
-      <c r="AP61" s="36"/>
-      <c r="AQ61" s="75"/>
-      <c r="AR61" s="75"/>
-      <c r="AS61" s="74"/>
-      <c r="AT61" s="36"/>
-      <c r="AU61" s="76"/>
-      <c r="AV61" s="77"/>
-      <c r="AW61" s="76"/>
-      <c r="AX61" s="80"/>
-      <c r="AY61" s="77"/>
-      <c r="AZ61" s="73"/>
-      <c r="BA61" s="73"/>
-      <c r="BB61" s="73"/>
+      <c r="AE61" s="77"/>
+      <c r="AF61" s="77"/>
+      <c r="AG61" s="78"/>
+      <c r="AH61" s="69"/>
+      <c r="AI61" s="77"/>
+      <c r="AJ61" s="77"/>
+      <c r="AK61" s="78"/>
+      <c r="AL61" s="69"/>
+      <c r="AM61" s="77"/>
+      <c r="AN61" s="77"/>
+      <c r="AO61" s="78"/>
+      <c r="AP61" s="69"/>
+      <c r="AQ61" s="77"/>
+      <c r="AR61" s="77"/>
+      <c r="AS61" s="78"/>
+      <c r="AT61" s="69"/>
+      <c r="AU61" s="105"/>
+      <c r="AV61" s="106"/>
+      <c r="AW61" s="105"/>
+      <c r="AX61" s="109"/>
+      <c r="AY61" s="106"/>
+      <c r="AZ61" s="91"/>
+      <c r="BA61" s="91"/>
+      <c r="BB61" s="91"/>
     </row>
     <row r="62" spans="1:1025" ht="19.5" customHeight="1">
-      <c r="A62" s="74"/>
-      <c r="B62" s="74"/>
-      <c r="C62" s="74"/>
-      <c r="D62" s="74"/>
-      <c r="E62" s="74"/>
-      <c r="F62" s="74"/>
-      <c r="G62" s="74"/>
-      <c r="H62" s="74"/>
-      <c r="I62" s="74"/>
-      <c r="J62" s="74"/>
-      <c r="K62" s="84"/>
-      <c r="L62" s="98"/>
-      <c r="M62" s="99"/>
-      <c r="N62" s="99"/>
-      <c r="O62" s="99"/>
-      <c r="P62" s="99"/>
-      <c r="R62" s="98"/>
-      <c r="S62" s="99"/>
-      <c r="T62" s="99"/>
-      <c r="U62" s="99"/>
-      <c r="V62" s="99"/>
-      <c r="W62" s="34"/>
-      <c r="X62" s="34"/>
-      <c r="Y62" s="39"/>
-      <c r="Z62" s="36"/>
-      <c r="AA62" s="34"/>
-      <c r="AB62" s="34"/>
-      <c r="AC62" s="37"/>
-      <c r="AD62" s="36"/>
-      <c r="AE62" s="75"/>
-      <c r="AF62" s="75"/>
-      <c r="AG62" s="74"/>
-      <c r="AH62" s="36"/>
-      <c r="AI62" s="75"/>
-      <c r="AJ62" s="75"/>
-      <c r="AK62" s="74"/>
-      <c r="AL62" s="36"/>
-      <c r="AM62" s="75"/>
-      <c r="AN62" s="75"/>
-      <c r="AO62" s="74"/>
-      <c r="AP62" s="36"/>
-      <c r="AQ62" s="75"/>
-      <c r="AR62" s="75"/>
-      <c r="AS62" s="74"/>
-      <c r="AT62" s="36"/>
-      <c r="AU62" s="78"/>
-      <c r="AV62" s="79"/>
-      <c r="AW62" s="78"/>
-      <c r="AX62" s="81"/>
-      <c r="AY62" s="79"/>
-      <c r="AZ62" s="36"/>
-      <c r="BA62" s="36"/>
-      <c r="BB62" s="36"/>
+      <c r="A62" s="78"/>
+      <c r="B62" s="78"/>
+      <c r="C62" s="78"/>
+      <c r="D62" s="78"/>
+      <c r="E62" s="78"/>
+      <c r="F62" s="78"/>
+      <c r="G62" s="78"/>
+      <c r="H62" s="78"/>
+      <c r="I62" s="78"/>
+      <c r="J62" s="78"/>
+      <c r="K62" s="128"/>
+      <c r="L62" s="92"/>
+      <c r="M62" s="93"/>
+      <c r="N62" s="93"/>
+      <c r="O62" s="93"/>
+      <c r="P62" s="93"/>
+      <c r="R62" s="92"/>
+      <c r="S62" s="93"/>
+      <c r="T62" s="93"/>
+      <c r="U62" s="93"/>
+      <c r="V62" s="93"/>
+      <c r="W62" s="70"/>
+      <c r="X62" s="70"/>
+      <c r="Y62" s="71"/>
+      <c r="Z62" s="69"/>
+      <c r="AA62" s="70"/>
+      <c r="AB62" s="70"/>
+      <c r="AC62" s="67"/>
+      <c r="AD62" s="69"/>
+      <c r="AE62" s="77"/>
+      <c r="AF62" s="77"/>
+      <c r="AG62" s="78"/>
+      <c r="AH62" s="69"/>
+      <c r="AI62" s="77"/>
+      <c r="AJ62" s="77"/>
+      <c r="AK62" s="78"/>
+      <c r="AL62" s="69"/>
+      <c r="AM62" s="77"/>
+      <c r="AN62" s="77"/>
+      <c r="AO62" s="78"/>
+      <c r="AP62" s="69"/>
+      <c r="AQ62" s="77"/>
+      <c r="AR62" s="77"/>
+      <c r="AS62" s="78"/>
+      <c r="AT62" s="69"/>
+      <c r="AU62" s="107"/>
+      <c r="AV62" s="108"/>
+      <c r="AW62" s="107"/>
+      <c r="AX62" s="110"/>
+      <c r="AY62" s="108"/>
+      <c r="AZ62" s="69"/>
+      <c r="BA62" s="69"/>
+      <c r="BB62" s="69"/>
     </row>
     <row r="63" spans="1:1025" ht="18.75" customHeight="1">
       <c r="AMA63"/>
@@ -7300,6 +7339,726 @@
     </row>
   </sheetData>
   <mergeCells count="744">
+    <mergeCell ref="AE41:AF42"/>
+    <mergeCell ref="AG41:AG42"/>
+    <mergeCell ref="AH41:AH42"/>
+    <mergeCell ref="AE35:AF36"/>
+    <mergeCell ref="AG35:AG36"/>
+    <mergeCell ref="AH35:AH36"/>
+    <mergeCell ref="AE37:AF38"/>
+    <mergeCell ref="AG37:AG38"/>
+    <mergeCell ref="AH37:AH38"/>
+    <mergeCell ref="AE39:AF40"/>
+    <mergeCell ref="AG39:AG40"/>
+    <mergeCell ref="AH39:AH40"/>
+    <mergeCell ref="AL45:AL46"/>
+    <mergeCell ref="AE27:AF28"/>
+    <mergeCell ref="AG27:AG28"/>
+    <mergeCell ref="AH27:AH28"/>
+    <mergeCell ref="AI31:AJ32"/>
+    <mergeCell ref="AK31:AK32"/>
+    <mergeCell ref="AL31:AL32"/>
+    <mergeCell ref="AI33:AJ34"/>
+    <mergeCell ref="AK33:AK34"/>
+    <mergeCell ref="AL33:AL34"/>
+    <mergeCell ref="AI35:AJ36"/>
+    <mergeCell ref="AK35:AK36"/>
+    <mergeCell ref="AL35:AL36"/>
+    <mergeCell ref="AI37:AJ38"/>
+    <mergeCell ref="AK37:AK38"/>
+    <mergeCell ref="AL37:AL38"/>
+    <mergeCell ref="AI39:AJ40"/>
+    <mergeCell ref="AK39:AK40"/>
+    <mergeCell ref="AL39:AL40"/>
+    <mergeCell ref="AI41:AJ42"/>
+    <mergeCell ref="AK41:AK42"/>
+    <mergeCell ref="AL41:AL42"/>
+    <mergeCell ref="AE31:AF32"/>
+    <mergeCell ref="AG31:AG32"/>
+    <mergeCell ref="AA17:AB18"/>
+    <mergeCell ref="AC17:AC18"/>
+    <mergeCell ref="AA19:AB20"/>
+    <mergeCell ref="AC19:AC20"/>
+    <mergeCell ref="AA21:AB22"/>
+    <mergeCell ref="AC21:AC22"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="AU59:AV60"/>
+    <mergeCell ref="AW59:AY60"/>
+    <mergeCell ref="AZ59:AZ60"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="G45:K45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="AI43:AJ44"/>
+    <mergeCell ref="AK43:AK44"/>
+    <mergeCell ref="AL43:AL44"/>
+    <mergeCell ref="AI45:AJ46"/>
+    <mergeCell ref="BB61:BB62"/>
+    <mergeCell ref="AO61:AO62"/>
+    <mergeCell ref="AP61:AP62"/>
+    <mergeCell ref="AQ61:AR62"/>
+    <mergeCell ref="AS61:AS62"/>
+    <mergeCell ref="AT61:AT62"/>
+    <mergeCell ref="AU61:AV62"/>
+    <mergeCell ref="AW61:AY62"/>
+    <mergeCell ref="AZ61:AZ62"/>
+    <mergeCell ref="BA61:BA62"/>
+    <mergeCell ref="AS59:AS60"/>
+    <mergeCell ref="AT59:AT60"/>
+    <mergeCell ref="W59:X60"/>
+    <mergeCell ref="Y59:Y60"/>
+    <mergeCell ref="Z59:Z60"/>
+    <mergeCell ref="AM61:AN62"/>
+    <mergeCell ref="AA59:AB60"/>
+    <mergeCell ref="AC59:AC60"/>
+    <mergeCell ref="AD59:AD60"/>
+    <mergeCell ref="AM59:AN60"/>
+    <mergeCell ref="AE61:AF62"/>
+    <mergeCell ref="AG61:AG62"/>
+    <mergeCell ref="AH61:AH62"/>
+    <mergeCell ref="AI61:AJ62"/>
+    <mergeCell ref="AK61:AK62"/>
+    <mergeCell ref="AL61:AL62"/>
+    <mergeCell ref="AM57:AN58"/>
+    <mergeCell ref="AO57:AO58"/>
+    <mergeCell ref="AP57:AP58"/>
+    <mergeCell ref="W61:X62"/>
+    <mergeCell ref="Y61:Y62"/>
+    <mergeCell ref="Z61:Z62"/>
+    <mergeCell ref="AA61:AB62"/>
+    <mergeCell ref="AC61:AC62"/>
+    <mergeCell ref="AD61:AD62"/>
+    <mergeCell ref="BA59:BA60"/>
+    <mergeCell ref="BB59:BB60"/>
+    <mergeCell ref="BB55:BB56"/>
+    <mergeCell ref="W55:X56"/>
+    <mergeCell ref="Y55:Y56"/>
+    <mergeCell ref="Z55:Z56"/>
+    <mergeCell ref="AA55:AB56"/>
+    <mergeCell ref="AC55:AC56"/>
+    <mergeCell ref="AD55:AD56"/>
+    <mergeCell ref="AM55:AN56"/>
+    <mergeCell ref="AO55:AO56"/>
+    <mergeCell ref="AP55:AP56"/>
+    <mergeCell ref="AU55:AV56"/>
+    <mergeCell ref="AW55:AY56"/>
+    <mergeCell ref="AZ55:AZ56"/>
+    <mergeCell ref="BA55:BA56"/>
+    <mergeCell ref="AQ55:AR56"/>
+    <mergeCell ref="AS55:AS56"/>
+    <mergeCell ref="AT55:AT56"/>
+    <mergeCell ref="AZ57:AZ58"/>
+    <mergeCell ref="BA57:BA58"/>
+    <mergeCell ref="BB57:BB58"/>
+    <mergeCell ref="W57:X58"/>
+    <mergeCell ref="Y57:Y58"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="E62:H62"/>
+    <mergeCell ref="I62:K62"/>
+    <mergeCell ref="AW53:AY54"/>
+    <mergeCell ref="AQ57:AR58"/>
+    <mergeCell ref="AS57:AS58"/>
+    <mergeCell ref="AT57:AT58"/>
+    <mergeCell ref="AU57:AV58"/>
+    <mergeCell ref="AW57:AY58"/>
+    <mergeCell ref="AO59:AO60"/>
+    <mergeCell ref="AP59:AP60"/>
+    <mergeCell ref="AQ59:AR60"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="E61:H61"/>
+    <mergeCell ref="I61:K61"/>
+    <mergeCell ref="W53:X54"/>
+    <mergeCell ref="Y53:Y54"/>
+    <mergeCell ref="Z53:Z54"/>
+    <mergeCell ref="AA53:AB54"/>
+    <mergeCell ref="AC53:AC54"/>
+    <mergeCell ref="AD53:AD54"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="E60:H60"/>
+    <mergeCell ref="I60:K60"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="E59:H59"/>
+    <mergeCell ref="I59:K59"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="E58:H58"/>
+    <mergeCell ref="I58:K58"/>
+    <mergeCell ref="AL59:AL60"/>
+    <mergeCell ref="AE59:AF60"/>
+    <mergeCell ref="AG59:AG60"/>
+    <mergeCell ref="AH59:AH60"/>
+    <mergeCell ref="AI59:AJ60"/>
+    <mergeCell ref="AK59:AK60"/>
+    <mergeCell ref="AE57:AF58"/>
+    <mergeCell ref="AG57:AG58"/>
+    <mergeCell ref="AH57:AH58"/>
+    <mergeCell ref="AI57:AJ58"/>
+    <mergeCell ref="AK57:AK58"/>
+    <mergeCell ref="Z57:Z58"/>
+    <mergeCell ref="AA57:AB58"/>
+    <mergeCell ref="AC57:AC58"/>
+    <mergeCell ref="AD57:AD58"/>
+    <mergeCell ref="AZ53:AZ54"/>
+    <mergeCell ref="BA53:BA54"/>
+    <mergeCell ref="BB53:BB54"/>
+    <mergeCell ref="AM53:AN54"/>
+    <mergeCell ref="AO53:AO54"/>
+    <mergeCell ref="AP53:AP54"/>
+    <mergeCell ref="W51:X52"/>
+    <mergeCell ref="Y51:Y52"/>
+    <mergeCell ref="Z51:Z52"/>
+    <mergeCell ref="AA51:AB52"/>
+    <mergeCell ref="AC51:AC52"/>
+    <mergeCell ref="AD51:AD52"/>
+    <mergeCell ref="AK51:AK52"/>
+    <mergeCell ref="AE53:AF54"/>
+    <mergeCell ref="AG53:AG54"/>
+    <mergeCell ref="AH53:AH54"/>
+    <mergeCell ref="AI53:AJ54"/>
+    <mergeCell ref="AK53:AK54"/>
+    <mergeCell ref="AL53:AL54"/>
+    <mergeCell ref="AS49:AS50"/>
+    <mergeCell ref="AT49:AT50"/>
+    <mergeCell ref="AU49:AV50"/>
+    <mergeCell ref="AW49:AY50"/>
+    <mergeCell ref="AU51:AV52"/>
+    <mergeCell ref="AL51:AL52"/>
+    <mergeCell ref="AQ53:AR54"/>
+    <mergeCell ref="AS53:AS54"/>
+    <mergeCell ref="AT53:AT54"/>
+    <mergeCell ref="AU53:AV54"/>
+    <mergeCell ref="AP49:AP50"/>
+    <mergeCell ref="AQ49:AR50"/>
+    <mergeCell ref="AZ49:AZ50"/>
+    <mergeCell ref="BA49:BA50"/>
+    <mergeCell ref="BB49:BB50"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="E57:H57"/>
+    <mergeCell ref="I57:K57"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="AW51:AY52"/>
+    <mergeCell ref="AZ51:AZ52"/>
+    <mergeCell ref="BA51:BA52"/>
+    <mergeCell ref="BB51:BB52"/>
+    <mergeCell ref="AM51:AN52"/>
+    <mergeCell ref="AO51:AO52"/>
+    <mergeCell ref="AP51:AP52"/>
+    <mergeCell ref="AQ51:AR52"/>
+    <mergeCell ref="AS51:AS52"/>
+    <mergeCell ref="AT51:AT52"/>
+    <mergeCell ref="AE51:AF52"/>
+    <mergeCell ref="AG51:AG52"/>
+    <mergeCell ref="AL49:AL50"/>
+    <mergeCell ref="W49:X50"/>
+    <mergeCell ref="Y49:Y50"/>
+    <mergeCell ref="Z49:Z50"/>
+    <mergeCell ref="AA49:AB50"/>
+    <mergeCell ref="AC49:AC50"/>
+    <mergeCell ref="AD49:AD50"/>
+    <mergeCell ref="AM49:AN50"/>
+    <mergeCell ref="AO49:AO50"/>
+    <mergeCell ref="A55:K55"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="AE49:AF50"/>
+    <mergeCell ref="AG49:AG50"/>
+    <mergeCell ref="AH49:AH50"/>
+    <mergeCell ref="AI49:AJ50"/>
+    <mergeCell ref="AK49:AK50"/>
+    <mergeCell ref="AH51:AH52"/>
+    <mergeCell ref="AI51:AJ52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="G49:K49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="AU45:AV46"/>
+    <mergeCell ref="AW45:AY46"/>
+    <mergeCell ref="W47:X48"/>
+    <mergeCell ref="Y47:Y48"/>
+    <mergeCell ref="Z47:Z48"/>
+    <mergeCell ref="AA47:AB48"/>
+    <mergeCell ref="AC47:AC48"/>
+    <mergeCell ref="AD47:AD48"/>
+    <mergeCell ref="AA45:AB46"/>
+    <mergeCell ref="AC45:AC46"/>
+    <mergeCell ref="AD45:AD46"/>
+    <mergeCell ref="AS45:AS46"/>
+    <mergeCell ref="AT45:AT46"/>
+    <mergeCell ref="AE45:AF46"/>
+    <mergeCell ref="AG45:AG46"/>
+    <mergeCell ref="AH45:AH46"/>
+    <mergeCell ref="W45:X46"/>
+    <mergeCell ref="BA45:BA46"/>
+    <mergeCell ref="BB45:BB46"/>
+    <mergeCell ref="AE47:AF48"/>
+    <mergeCell ref="AG47:AG48"/>
+    <mergeCell ref="AH47:AH48"/>
+    <mergeCell ref="AI47:AJ48"/>
+    <mergeCell ref="AK47:AK48"/>
+    <mergeCell ref="AL47:AL48"/>
+    <mergeCell ref="AQ47:AR48"/>
+    <mergeCell ref="AS47:AS48"/>
+    <mergeCell ref="AT47:AT48"/>
+    <mergeCell ref="AU47:AV48"/>
+    <mergeCell ref="AW47:AY48"/>
+    <mergeCell ref="AZ47:AZ48"/>
+    <mergeCell ref="BA47:BA48"/>
+    <mergeCell ref="BB47:BB48"/>
+    <mergeCell ref="AM47:AN48"/>
+    <mergeCell ref="AO47:AO48"/>
+    <mergeCell ref="AP47:AP48"/>
+    <mergeCell ref="AM45:AN46"/>
+    <mergeCell ref="AO45:AO46"/>
+    <mergeCell ref="AP45:AP46"/>
+    <mergeCell ref="AQ45:AR46"/>
+    <mergeCell ref="AK45:AK46"/>
+    <mergeCell ref="Y45:Y46"/>
+    <mergeCell ref="Z45:Z46"/>
+    <mergeCell ref="AE43:AF44"/>
+    <mergeCell ref="AG43:AG44"/>
+    <mergeCell ref="AH43:AH44"/>
+    <mergeCell ref="AM43:AN44"/>
+    <mergeCell ref="BB43:BB44"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="W44:AD44"/>
+    <mergeCell ref="AO43:AO44"/>
+    <mergeCell ref="AP43:AP44"/>
+    <mergeCell ref="AQ43:AR44"/>
+    <mergeCell ref="BB41:BB42"/>
+    <mergeCell ref="AM41:AN42"/>
+    <mergeCell ref="AO41:AO42"/>
+    <mergeCell ref="AP41:AP42"/>
+    <mergeCell ref="AQ41:AR42"/>
+    <mergeCell ref="W41:X42"/>
+    <mergeCell ref="Y41:Y42"/>
+    <mergeCell ref="Z41:Z42"/>
+    <mergeCell ref="AA41:AB42"/>
+    <mergeCell ref="AC41:AC42"/>
+    <mergeCell ref="AD41:AD42"/>
+    <mergeCell ref="AZ45:AZ46"/>
+    <mergeCell ref="AU39:AV40"/>
+    <mergeCell ref="AW39:AY40"/>
+    <mergeCell ref="AZ39:AZ40"/>
+    <mergeCell ref="BA39:BA40"/>
+    <mergeCell ref="AS43:AS44"/>
+    <mergeCell ref="AT43:AT44"/>
+    <mergeCell ref="AU43:AV44"/>
+    <mergeCell ref="AW43:AY44"/>
+    <mergeCell ref="AZ43:AZ44"/>
+    <mergeCell ref="BA43:BA44"/>
+    <mergeCell ref="AS41:AS42"/>
+    <mergeCell ref="AT41:AT42"/>
+    <mergeCell ref="AU41:AV42"/>
+    <mergeCell ref="AW41:AY42"/>
+    <mergeCell ref="AZ41:AZ42"/>
+    <mergeCell ref="BA41:BA42"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="W37:X38"/>
+    <mergeCell ref="Y37:Y38"/>
+    <mergeCell ref="Z37:Z38"/>
+    <mergeCell ref="AA37:AB38"/>
+    <mergeCell ref="AC37:AC38"/>
+    <mergeCell ref="AD37:AD38"/>
+    <mergeCell ref="G37:K37"/>
+    <mergeCell ref="G38:K38"/>
+    <mergeCell ref="G35:K35"/>
+    <mergeCell ref="G36:K36"/>
+    <mergeCell ref="G39:K39"/>
+    <mergeCell ref="G40:K40"/>
+    <mergeCell ref="BB39:BB40"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="AZ37:AZ38"/>
+    <mergeCell ref="BA37:BA38"/>
+    <mergeCell ref="BB37:BB38"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="W39:X40"/>
+    <mergeCell ref="Y39:Y40"/>
+    <mergeCell ref="Z39:Z40"/>
+    <mergeCell ref="AA39:AB40"/>
+    <mergeCell ref="AC39:AC40"/>
+    <mergeCell ref="AD39:AD40"/>
+    <mergeCell ref="AS37:AS38"/>
+    <mergeCell ref="AT37:AT38"/>
+    <mergeCell ref="AU37:AV38"/>
+    <mergeCell ref="AW37:AY38"/>
+    <mergeCell ref="AM39:AN40"/>
+    <mergeCell ref="AM37:AN38"/>
+    <mergeCell ref="AO37:AO38"/>
+    <mergeCell ref="AP37:AP38"/>
+    <mergeCell ref="AQ37:AR38"/>
+    <mergeCell ref="AO39:AO40"/>
+    <mergeCell ref="BB33:BB34"/>
+    <mergeCell ref="L35:P62"/>
+    <mergeCell ref="R35:V62"/>
+    <mergeCell ref="W35:X36"/>
+    <mergeCell ref="Y35:Y36"/>
+    <mergeCell ref="Z35:Z36"/>
+    <mergeCell ref="AA35:AB36"/>
+    <mergeCell ref="AC35:AC36"/>
+    <mergeCell ref="AD35:AD36"/>
+    <mergeCell ref="AE55:AF56"/>
+    <mergeCell ref="AG55:AG56"/>
+    <mergeCell ref="AH55:AH56"/>
+    <mergeCell ref="AI55:AJ56"/>
+    <mergeCell ref="AK55:AK56"/>
+    <mergeCell ref="AL55:AL56"/>
+    <mergeCell ref="AU35:BB35"/>
+    <mergeCell ref="AM36:AT36"/>
+    <mergeCell ref="AU36:AV36"/>
+    <mergeCell ref="AW36:AY36"/>
+    <mergeCell ref="AL57:AL58"/>
+    <mergeCell ref="AP39:AP40"/>
+    <mergeCell ref="AQ39:AR40"/>
+    <mergeCell ref="AS39:AS40"/>
+    <mergeCell ref="AT39:AT40"/>
+    <mergeCell ref="AP33:AP34"/>
+    <mergeCell ref="AQ33:AR34"/>
+    <mergeCell ref="AS33:AS34"/>
+    <mergeCell ref="AT33:AT34"/>
+    <mergeCell ref="AU33:AV34"/>
+    <mergeCell ref="AW33:AW34"/>
+    <mergeCell ref="AX33:AX34"/>
+    <mergeCell ref="AY33:AZ34"/>
+    <mergeCell ref="BA33:BA34"/>
+    <mergeCell ref="R33:V34"/>
+    <mergeCell ref="W33:X34"/>
+    <mergeCell ref="Y33:Y34"/>
+    <mergeCell ref="Z33:Z34"/>
+    <mergeCell ref="AA33:AB34"/>
+    <mergeCell ref="AC33:AC34"/>
+    <mergeCell ref="AD33:AD34"/>
+    <mergeCell ref="AM33:AN34"/>
+    <mergeCell ref="AO33:AO34"/>
+    <mergeCell ref="AE33:AF34"/>
+    <mergeCell ref="AG33:AG34"/>
+    <mergeCell ref="AH33:AH34"/>
+    <mergeCell ref="BB29:BB30"/>
+    <mergeCell ref="W31:X32"/>
+    <mergeCell ref="Y31:Y32"/>
+    <mergeCell ref="Z31:Z32"/>
+    <mergeCell ref="AA31:AB32"/>
+    <mergeCell ref="AC31:AC32"/>
+    <mergeCell ref="AD31:AD32"/>
+    <mergeCell ref="AM31:AN32"/>
+    <mergeCell ref="AO31:AO32"/>
+    <mergeCell ref="AP31:AP32"/>
+    <mergeCell ref="AQ31:AR32"/>
+    <mergeCell ref="AS31:AS32"/>
+    <mergeCell ref="AT31:AT32"/>
+    <mergeCell ref="AU31:AV32"/>
+    <mergeCell ref="AW31:AW32"/>
+    <mergeCell ref="AX31:AX32"/>
+    <mergeCell ref="AY31:AZ32"/>
+    <mergeCell ref="BA31:BA32"/>
+    <mergeCell ref="BB31:BB32"/>
+    <mergeCell ref="AH31:AH32"/>
+    <mergeCell ref="BB27:BB28"/>
+    <mergeCell ref="W29:X30"/>
+    <mergeCell ref="Y29:Y30"/>
+    <mergeCell ref="Z29:Z30"/>
+    <mergeCell ref="AA29:AB30"/>
+    <mergeCell ref="AC29:AC30"/>
+    <mergeCell ref="AD29:AD30"/>
+    <mergeCell ref="AE29:AF30"/>
+    <mergeCell ref="AG29:AG30"/>
+    <mergeCell ref="AH29:AH30"/>
+    <mergeCell ref="AI29:AJ30"/>
+    <mergeCell ref="AK29:AK30"/>
+    <mergeCell ref="AL29:AL30"/>
+    <mergeCell ref="AM29:AN30"/>
+    <mergeCell ref="AO29:AO30"/>
+    <mergeCell ref="AP29:AP30"/>
+    <mergeCell ref="AQ29:AR30"/>
+    <mergeCell ref="AS29:AS30"/>
+    <mergeCell ref="AT29:AT30"/>
+    <mergeCell ref="AU29:AV30"/>
+    <mergeCell ref="AW29:AW30"/>
+    <mergeCell ref="AX29:AX30"/>
+    <mergeCell ref="AY29:AZ30"/>
+    <mergeCell ref="BA29:BA30"/>
+    <mergeCell ref="AX25:AX26"/>
+    <mergeCell ref="AY25:AZ26"/>
+    <mergeCell ref="BA25:BA26"/>
+    <mergeCell ref="BB25:BB26"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="Z27:Z28"/>
+    <mergeCell ref="AA27:AB28"/>
+    <mergeCell ref="AC27:AC28"/>
+    <mergeCell ref="AD27:AD28"/>
+    <mergeCell ref="AI27:AJ28"/>
+    <mergeCell ref="AK27:AK28"/>
+    <mergeCell ref="AL27:AL28"/>
+    <mergeCell ref="AM27:AN28"/>
+    <mergeCell ref="AO27:AO28"/>
+    <mergeCell ref="AP27:AP28"/>
+    <mergeCell ref="AQ27:AR28"/>
+    <mergeCell ref="AS27:AS28"/>
+    <mergeCell ref="AT27:AT28"/>
+    <mergeCell ref="AU27:AV28"/>
+    <mergeCell ref="AW27:AW28"/>
+    <mergeCell ref="AX27:AX28"/>
+    <mergeCell ref="AY27:AZ28"/>
+    <mergeCell ref="BA27:BA28"/>
+    <mergeCell ref="AX23:AX24"/>
+    <mergeCell ref="AY23:AZ24"/>
+    <mergeCell ref="BA23:BA24"/>
+    <mergeCell ref="BB23:BB24"/>
+    <mergeCell ref="W25:X26"/>
+    <mergeCell ref="Y25:Y26"/>
+    <mergeCell ref="Z25:Z26"/>
+    <mergeCell ref="AA25:AB26"/>
+    <mergeCell ref="AC25:AC26"/>
+    <mergeCell ref="AD25:AD26"/>
+    <mergeCell ref="AE25:AF26"/>
+    <mergeCell ref="AG25:AG26"/>
+    <mergeCell ref="AH25:AH26"/>
+    <mergeCell ref="AI25:AJ26"/>
+    <mergeCell ref="AK25:AK26"/>
+    <mergeCell ref="AL25:AL26"/>
+    <mergeCell ref="AM25:AN26"/>
+    <mergeCell ref="AO25:AO26"/>
+    <mergeCell ref="AP25:AP26"/>
+    <mergeCell ref="AQ25:AR26"/>
+    <mergeCell ref="AS25:AS26"/>
+    <mergeCell ref="AT25:AT26"/>
+    <mergeCell ref="AU25:AV26"/>
+    <mergeCell ref="AW25:AW26"/>
+    <mergeCell ref="AX21:AX22"/>
+    <mergeCell ref="AY21:AZ22"/>
+    <mergeCell ref="BA21:BA22"/>
+    <mergeCell ref="BB21:BB22"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="Y23:Y24"/>
+    <mergeCell ref="Z23:Z24"/>
+    <mergeCell ref="AA23:AB24"/>
+    <mergeCell ref="AC23:AC24"/>
+    <mergeCell ref="AD23:AD24"/>
+    <mergeCell ref="AE23:AF24"/>
+    <mergeCell ref="AG23:AG24"/>
+    <mergeCell ref="AH23:AH24"/>
+    <mergeCell ref="AI23:AJ24"/>
+    <mergeCell ref="AK23:AK24"/>
+    <mergeCell ref="AL23:AL24"/>
+    <mergeCell ref="AM23:AN24"/>
+    <mergeCell ref="AO23:AO24"/>
+    <mergeCell ref="AP23:AP24"/>
+    <mergeCell ref="AQ23:AR24"/>
+    <mergeCell ref="AS23:AS24"/>
+    <mergeCell ref="AT23:AT24"/>
+    <mergeCell ref="AU23:AV24"/>
+    <mergeCell ref="AW23:AW24"/>
+    <mergeCell ref="AL21:AL22"/>
+    <mergeCell ref="AM21:AN22"/>
+    <mergeCell ref="AO21:AO22"/>
+    <mergeCell ref="AP21:AP22"/>
+    <mergeCell ref="AQ21:AR22"/>
+    <mergeCell ref="AS21:AS22"/>
+    <mergeCell ref="AT21:AT22"/>
+    <mergeCell ref="AU21:AV22"/>
+    <mergeCell ref="AW21:AW22"/>
+    <mergeCell ref="AS19:AS20"/>
+    <mergeCell ref="AT19:AT20"/>
+    <mergeCell ref="AU19:AV20"/>
+    <mergeCell ref="AW19:AW20"/>
+    <mergeCell ref="AX19:AX20"/>
+    <mergeCell ref="AY19:AZ20"/>
+    <mergeCell ref="BA19:BA20"/>
+    <mergeCell ref="BB19:BB20"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:E21"/>
+    <mergeCell ref="G20:I21"/>
+    <mergeCell ref="J20:K21"/>
+    <mergeCell ref="W21:X22"/>
+    <mergeCell ref="Y21:Y22"/>
+    <mergeCell ref="Z21:Z22"/>
+    <mergeCell ref="AD21:AD22"/>
+    <mergeCell ref="AE21:AF22"/>
+    <mergeCell ref="AG21:AG22"/>
+    <mergeCell ref="AH21:AH22"/>
+    <mergeCell ref="AI21:AJ22"/>
+    <mergeCell ref="AK21:AK22"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="AY17:AZ18"/>
+    <mergeCell ref="BA17:BA18"/>
+    <mergeCell ref="BB17:BB18"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:E19"/>
+    <mergeCell ref="G18:I19"/>
+    <mergeCell ref="J18:K19"/>
+    <mergeCell ref="W19:X20"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="AD19:AD20"/>
+    <mergeCell ref="AE19:AF20"/>
+    <mergeCell ref="AG19:AG20"/>
+    <mergeCell ref="AH19:AH20"/>
+    <mergeCell ref="AI19:AJ20"/>
+    <mergeCell ref="AK19:AK20"/>
+    <mergeCell ref="AL19:AL20"/>
+    <mergeCell ref="AM19:AN20"/>
+    <mergeCell ref="AO19:AO20"/>
+    <mergeCell ref="AP19:AP20"/>
+    <mergeCell ref="AQ19:AR20"/>
+    <mergeCell ref="AM17:AN18"/>
+    <mergeCell ref="AO17:AO18"/>
+    <mergeCell ref="BA15:BA16"/>
+    <mergeCell ref="BB15:BB16"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="G16:I17"/>
+    <mergeCell ref="J16:K17"/>
+    <mergeCell ref="W17:X18"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="Z17:Z18"/>
+    <mergeCell ref="AD17:AD18"/>
+    <mergeCell ref="AE17:AF18"/>
+    <mergeCell ref="AG17:AG18"/>
+    <mergeCell ref="AH17:AH18"/>
+    <mergeCell ref="AI17:AJ18"/>
+    <mergeCell ref="AK17:AK18"/>
+    <mergeCell ref="AL17:AL18"/>
+    <mergeCell ref="AP17:AP18"/>
+    <mergeCell ref="AQ17:AR18"/>
+    <mergeCell ref="AS17:AS18"/>
+    <mergeCell ref="AT17:AT18"/>
+    <mergeCell ref="AU17:AV18"/>
+    <mergeCell ref="AW17:AW18"/>
+    <mergeCell ref="AX17:AX18"/>
+    <mergeCell ref="AL15:AL16"/>
+    <mergeCell ref="AM15:AN16"/>
+    <mergeCell ref="AO15:AO16"/>
+    <mergeCell ref="AP15:AP16"/>
+    <mergeCell ref="AQ15:AR16"/>
+    <mergeCell ref="AS15:AS16"/>
+    <mergeCell ref="AO13:AO14"/>
+    <mergeCell ref="AP13:AP14"/>
+    <mergeCell ref="AY15:AZ16"/>
+    <mergeCell ref="AT15:AT16"/>
+    <mergeCell ref="AU15:AV16"/>
+    <mergeCell ref="AW15:AW16"/>
+    <mergeCell ref="AX15:AX16"/>
+    <mergeCell ref="W15:X16"/>
+    <mergeCell ref="Y15:Y16"/>
+    <mergeCell ref="Z15:Z16"/>
+    <mergeCell ref="AD15:AD16"/>
+    <mergeCell ref="AE15:AF16"/>
+    <mergeCell ref="AG15:AG16"/>
+    <mergeCell ref="AH15:AH16"/>
+    <mergeCell ref="AI15:AJ16"/>
+    <mergeCell ref="AK15:AK16"/>
+    <mergeCell ref="AA15:AB16"/>
+    <mergeCell ref="AC15:AC16"/>
+    <mergeCell ref="AC13:AC14"/>
+    <mergeCell ref="AD13:AD14"/>
+    <mergeCell ref="AE13:AF14"/>
+    <mergeCell ref="AG13:AG14"/>
+    <mergeCell ref="AH13:AH14"/>
+    <mergeCell ref="AI13:AJ14"/>
+    <mergeCell ref="AK13:AK14"/>
+    <mergeCell ref="AL13:AL14"/>
+    <mergeCell ref="AM13:AN14"/>
+    <mergeCell ref="AU11:AV12"/>
+    <mergeCell ref="AW11:AW12"/>
+    <mergeCell ref="AX11:AX12"/>
+    <mergeCell ref="AY11:AZ12"/>
+    <mergeCell ref="BA11:BA12"/>
+    <mergeCell ref="BB11:BB12"/>
+    <mergeCell ref="AQ13:AR14"/>
+    <mergeCell ref="AS13:AS14"/>
+    <mergeCell ref="AT13:AT14"/>
+    <mergeCell ref="AU13:AV14"/>
+    <mergeCell ref="AW13:AW14"/>
+    <mergeCell ref="AX13:AX14"/>
+    <mergeCell ref="AY13:AZ14"/>
+    <mergeCell ref="BA13:BA14"/>
+    <mergeCell ref="BB13:BB14"/>
+    <mergeCell ref="W13:X14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="Z13:Z14"/>
+    <mergeCell ref="AA13:AB14"/>
+    <mergeCell ref="AU5:BB7"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:E7"/>
+    <mergeCell ref="G6:I7"/>
+    <mergeCell ref="J6:K7"/>
+    <mergeCell ref="W8:X9"/>
+    <mergeCell ref="Y8:Z9"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="G8:I9"/>
+    <mergeCell ref="J8:K9"/>
+    <mergeCell ref="W5:AD7"/>
+    <mergeCell ref="AE5:AL7"/>
+    <mergeCell ref="AM5:AT7"/>
+    <mergeCell ref="AU10:BB10"/>
+    <mergeCell ref="AK11:AK12"/>
+    <mergeCell ref="AL11:AL12"/>
+    <mergeCell ref="AC11:AC12"/>
+    <mergeCell ref="AD11:AD12"/>
+    <mergeCell ref="AE11:AF12"/>
+    <mergeCell ref="AG11:AG12"/>
+    <mergeCell ref="AH11:AH12"/>
+    <mergeCell ref="AI11:AJ12"/>
+    <mergeCell ref="W10:AD10"/>
+    <mergeCell ref="AE10:AL10"/>
+    <mergeCell ref="AM10:AT10"/>
+    <mergeCell ref="W11:X12"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="AA11:AB12"/>
+    <mergeCell ref="AM11:AN12"/>
+    <mergeCell ref="AO11:AO12"/>
+    <mergeCell ref="AP11:AP12"/>
+    <mergeCell ref="AQ11:AR12"/>
+    <mergeCell ref="AS11:AS12"/>
+    <mergeCell ref="AT11:AT12"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:V2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:K2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="G3:H3"/>
@@ -7324,726 +8083,6 @@
     <mergeCell ref="G14:I15"/>
     <mergeCell ref="J14:K15"/>
     <mergeCell ref="L33:P34"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:V2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="AC11:AC12"/>
-    <mergeCell ref="AD11:AD12"/>
-    <mergeCell ref="AE11:AF12"/>
-    <mergeCell ref="AG11:AG12"/>
-    <mergeCell ref="AH11:AH12"/>
-    <mergeCell ref="AI11:AJ12"/>
-    <mergeCell ref="W10:AD10"/>
-    <mergeCell ref="AE10:AL10"/>
-    <mergeCell ref="AM10:AT10"/>
-    <mergeCell ref="W11:X12"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z11:Z12"/>
-    <mergeCell ref="AA11:AB12"/>
-    <mergeCell ref="AM11:AN12"/>
-    <mergeCell ref="AO11:AO12"/>
-    <mergeCell ref="AP11:AP12"/>
-    <mergeCell ref="AQ11:AR12"/>
-    <mergeCell ref="AS11:AS12"/>
-    <mergeCell ref="AT11:AT12"/>
-    <mergeCell ref="W13:X14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="Z13:Z14"/>
-    <mergeCell ref="AA13:AB14"/>
-    <mergeCell ref="AU5:BB7"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:E7"/>
-    <mergeCell ref="G6:I7"/>
-    <mergeCell ref="J6:K7"/>
-    <mergeCell ref="W8:X9"/>
-    <mergeCell ref="Y8:Z9"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:E9"/>
-    <mergeCell ref="G8:I9"/>
-    <mergeCell ref="J8:K9"/>
-    <mergeCell ref="W5:AD7"/>
-    <mergeCell ref="AE5:AL7"/>
-    <mergeCell ref="AM5:AT7"/>
-    <mergeCell ref="AU10:BB10"/>
-    <mergeCell ref="AK11:AK12"/>
-    <mergeCell ref="AL11:AL12"/>
-    <mergeCell ref="AU11:AV12"/>
-    <mergeCell ref="AW11:AW12"/>
-    <mergeCell ref="AX11:AX12"/>
-    <mergeCell ref="AY11:AZ12"/>
-    <mergeCell ref="BA11:BA12"/>
-    <mergeCell ref="BB11:BB12"/>
-    <mergeCell ref="AQ13:AR14"/>
-    <mergeCell ref="AS13:AS14"/>
-    <mergeCell ref="AT13:AT14"/>
-    <mergeCell ref="AU13:AV14"/>
-    <mergeCell ref="AW13:AW14"/>
-    <mergeCell ref="AX13:AX14"/>
-    <mergeCell ref="AY13:AZ14"/>
-    <mergeCell ref="BA13:BA14"/>
-    <mergeCell ref="BB13:BB14"/>
-    <mergeCell ref="AC13:AC14"/>
-    <mergeCell ref="AD13:AD14"/>
-    <mergeCell ref="AE13:AF14"/>
-    <mergeCell ref="AG13:AG14"/>
-    <mergeCell ref="AH13:AH14"/>
-    <mergeCell ref="AI13:AJ14"/>
-    <mergeCell ref="AK13:AK14"/>
-    <mergeCell ref="AL13:AL14"/>
-    <mergeCell ref="AM13:AN14"/>
-    <mergeCell ref="W15:X16"/>
-    <mergeCell ref="Y15:Y16"/>
-    <mergeCell ref="Z15:Z16"/>
-    <mergeCell ref="AD15:AD16"/>
-    <mergeCell ref="AE15:AF16"/>
-    <mergeCell ref="AG15:AG16"/>
-    <mergeCell ref="AH15:AH16"/>
-    <mergeCell ref="AI15:AJ16"/>
-    <mergeCell ref="AK15:AK16"/>
-    <mergeCell ref="AA15:AB16"/>
-    <mergeCell ref="AC15:AC16"/>
-    <mergeCell ref="AL15:AL16"/>
-    <mergeCell ref="AM15:AN16"/>
-    <mergeCell ref="AO15:AO16"/>
-    <mergeCell ref="AP15:AP16"/>
-    <mergeCell ref="AQ15:AR16"/>
-    <mergeCell ref="AS15:AS16"/>
-    <mergeCell ref="AO13:AO14"/>
-    <mergeCell ref="AP13:AP14"/>
-    <mergeCell ref="AY15:AZ16"/>
-    <mergeCell ref="AT15:AT16"/>
-    <mergeCell ref="AU15:AV16"/>
-    <mergeCell ref="AW15:AW16"/>
-    <mergeCell ref="AX15:AX16"/>
-    <mergeCell ref="BA15:BA16"/>
-    <mergeCell ref="BB15:BB16"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="G16:I17"/>
-    <mergeCell ref="J16:K17"/>
-    <mergeCell ref="W17:X18"/>
-    <mergeCell ref="Y17:Y18"/>
-    <mergeCell ref="Z17:Z18"/>
-    <mergeCell ref="AD17:AD18"/>
-    <mergeCell ref="AE17:AF18"/>
-    <mergeCell ref="AG17:AG18"/>
-    <mergeCell ref="AH17:AH18"/>
-    <mergeCell ref="AI17:AJ18"/>
-    <mergeCell ref="AK17:AK18"/>
-    <mergeCell ref="AL17:AL18"/>
-    <mergeCell ref="AP17:AP18"/>
-    <mergeCell ref="AQ17:AR18"/>
-    <mergeCell ref="AS17:AS18"/>
-    <mergeCell ref="AT17:AT18"/>
-    <mergeCell ref="AU17:AV18"/>
-    <mergeCell ref="AW17:AW18"/>
-    <mergeCell ref="AX17:AX18"/>
-    <mergeCell ref="AY17:AZ18"/>
-    <mergeCell ref="BA17:BA18"/>
-    <mergeCell ref="BB17:BB18"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:E19"/>
-    <mergeCell ref="G18:I19"/>
-    <mergeCell ref="J18:K19"/>
-    <mergeCell ref="W19:X20"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="AD19:AD20"/>
-    <mergeCell ref="AE19:AF20"/>
-    <mergeCell ref="AG19:AG20"/>
-    <mergeCell ref="AH19:AH20"/>
-    <mergeCell ref="AI19:AJ20"/>
-    <mergeCell ref="AK19:AK20"/>
-    <mergeCell ref="AL19:AL20"/>
-    <mergeCell ref="AM19:AN20"/>
-    <mergeCell ref="AO19:AO20"/>
-    <mergeCell ref="AP19:AP20"/>
-    <mergeCell ref="AQ19:AR20"/>
-    <mergeCell ref="AM17:AN18"/>
-    <mergeCell ref="AO17:AO18"/>
-    <mergeCell ref="AS19:AS20"/>
-    <mergeCell ref="AT19:AT20"/>
-    <mergeCell ref="AU19:AV20"/>
-    <mergeCell ref="AW19:AW20"/>
-    <mergeCell ref="AX19:AX20"/>
-    <mergeCell ref="AY19:AZ20"/>
-    <mergeCell ref="BA19:BA20"/>
-    <mergeCell ref="BB19:BB20"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:E21"/>
-    <mergeCell ref="G20:I21"/>
-    <mergeCell ref="J20:K21"/>
-    <mergeCell ref="W21:X22"/>
-    <mergeCell ref="Y21:Y22"/>
-    <mergeCell ref="Z21:Z22"/>
-    <mergeCell ref="AD21:AD22"/>
-    <mergeCell ref="AE21:AF22"/>
-    <mergeCell ref="AG21:AG22"/>
-    <mergeCell ref="AH21:AH22"/>
-    <mergeCell ref="AI21:AJ22"/>
-    <mergeCell ref="AK21:AK22"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="AL21:AL22"/>
-    <mergeCell ref="AM21:AN22"/>
-    <mergeCell ref="AO21:AO22"/>
-    <mergeCell ref="AP21:AP22"/>
-    <mergeCell ref="AQ21:AR22"/>
-    <mergeCell ref="AS21:AS22"/>
-    <mergeCell ref="AT21:AT22"/>
-    <mergeCell ref="AU21:AV22"/>
-    <mergeCell ref="AW21:AW22"/>
-    <mergeCell ref="AX21:AX22"/>
-    <mergeCell ref="AY21:AZ22"/>
-    <mergeCell ref="BA21:BA22"/>
-    <mergeCell ref="BB21:BB22"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="Y23:Y24"/>
-    <mergeCell ref="Z23:Z24"/>
-    <mergeCell ref="AA23:AB24"/>
-    <mergeCell ref="AC23:AC24"/>
-    <mergeCell ref="AD23:AD24"/>
-    <mergeCell ref="AE23:AF24"/>
-    <mergeCell ref="AG23:AG24"/>
-    <mergeCell ref="AH23:AH24"/>
-    <mergeCell ref="AI23:AJ24"/>
-    <mergeCell ref="AK23:AK24"/>
-    <mergeCell ref="AL23:AL24"/>
-    <mergeCell ref="AM23:AN24"/>
-    <mergeCell ref="AO23:AO24"/>
-    <mergeCell ref="AP23:AP24"/>
-    <mergeCell ref="AQ23:AR24"/>
-    <mergeCell ref="AS23:AS24"/>
-    <mergeCell ref="AT23:AT24"/>
-    <mergeCell ref="AU23:AV24"/>
-    <mergeCell ref="AW23:AW24"/>
-    <mergeCell ref="AX23:AX24"/>
-    <mergeCell ref="AY23:AZ24"/>
-    <mergeCell ref="BA23:BA24"/>
-    <mergeCell ref="BB23:BB24"/>
-    <mergeCell ref="W25:X26"/>
-    <mergeCell ref="Y25:Y26"/>
-    <mergeCell ref="Z25:Z26"/>
-    <mergeCell ref="AA25:AB26"/>
-    <mergeCell ref="AC25:AC26"/>
-    <mergeCell ref="AD25:AD26"/>
-    <mergeCell ref="AE25:AF26"/>
-    <mergeCell ref="AG25:AG26"/>
-    <mergeCell ref="AH25:AH26"/>
-    <mergeCell ref="AI25:AJ26"/>
-    <mergeCell ref="AK25:AK26"/>
-    <mergeCell ref="AL25:AL26"/>
-    <mergeCell ref="AM25:AN26"/>
-    <mergeCell ref="AO25:AO26"/>
-    <mergeCell ref="AP25:AP26"/>
-    <mergeCell ref="AQ25:AR26"/>
-    <mergeCell ref="AS25:AS26"/>
-    <mergeCell ref="AT25:AT26"/>
-    <mergeCell ref="AU25:AV26"/>
-    <mergeCell ref="AW25:AW26"/>
-    <mergeCell ref="AX25:AX26"/>
-    <mergeCell ref="AY25:AZ26"/>
-    <mergeCell ref="BA25:BA26"/>
-    <mergeCell ref="BB25:BB26"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="Z27:Z28"/>
-    <mergeCell ref="AA27:AB28"/>
-    <mergeCell ref="AC27:AC28"/>
-    <mergeCell ref="AD27:AD28"/>
-    <mergeCell ref="AI27:AJ28"/>
-    <mergeCell ref="AK27:AK28"/>
-    <mergeCell ref="AL27:AL28"/>
-    <mergeCell ref="AM27:AN28"/>
-    <mergeCell ref="AO27:AO28"/>
-    <mergeCell ref="AP27:AP28"/>
-    <mergeCell ref="AQ27:AR28"/>
-    <mergeCell ref="AS27:AS28"/>
-    <mergeCell ref="AT27:AT28"/>
-    <mergeCell ref="AU27:AV28"/>
-    <mergeCell ref="AW27:AW28"/>
-    <mergeCell ref="AX27:AX28"/>
-    <mergeCell ref="AY27:AZ28"/>
-    <mergeCell ref="BA27:BA28"/>
-    <mergeCell ref="BB27:BB28"/>
-    <mergeCell ref="W29:X30"/>
-    <mergeCell ref="Y29:Y30"/>
-    <mergeCell ref="Z29:Z30"/>
-    <mergeCell ref="AA29:AB30"/>
-    <mergeCell ref="AC29:AC30"/>
-    <mergeCell ref="AD29:AD30"/>
-    <mergeCell ref="AE29:AF30"/>
-    <mergeCell ref="AG29:AG30"/>
-    <mergeCell ref="AH29:AH30"/>
-    <mergeCell ref="AI29:AJ30"/>
-    <mergeCell ref="AK29:AK30"/>
-    <mergeCell ref="AL29:AL30"/>
-    <mergeCell ref="AM29:AN30"/>
-    <mergeCell ref="AO29:AO30"/>
-    <mergeCell ref="AP29:AP30"/>
-    <mergeCell ref="AQ29:AR30"/>
-    <mergeCell ref="AS29:AS30"/>
-    <mergeCell ref="AT29:AT30"/>
-    <mergeCell ref="AU29:AV30"/>
-    <mergeCell ref="AW29:AW30"/>
-    <mergeCell ref="AX29:AX30"/>
-    <mergeCell ref="AY29:AZ30"/>
-    <mergeCell ref="BA29:BA30"/>
-    <mergeCell ref="BB29:BB30"/>
-    <mergeCell ref="W31:X32"/>
-    <mergeCell ref="Y31:Y32"/>
-    <mergeCell ref="Z31:Z32"/>
-    <mergeCell ref="AA31:AB32"/>
-    <mergeCell ref="AC31:AC32"/>
-    <mergeCell ref="AD31:AD32"/>
-    <mergeCell ref="AM31:AN32"/>
-    <mergeCell ref="AO31:AO32"/>
-    <mergeCell ref="AP31:AP32"/>
-    <mergeCell ref="AQ31:AR32"/>
-    <mergeCell ref="AS31:AS32"/>
-    <mergeCell ref="AT31:AT32"/>
-    <mergeCell ref="AU31:AV32"/>
-    <mergeCell ref="AW31:AW32"/>
-    <mergeCell ref="AX31:AX32"/>
-    <mergeCell ref="AY31:AZ32"/>
-    <mergeCell ref="BA31:BA32"/>
-    <mergeCell ref="BB31:BB32"/>
-    <mergeCell ref="AH31:AH32"/>
-    <mergeCell ref="R33:V34"/>
-    <mergeCell ref="W33:X34"/>
-    <mergeCell ref="Y33:Y34"/>
-    <mergeCell ref="Z33:Z34"/>
-    <mergeCell ref="AA33:AB34"/>
-    <mergeCell ref="AC33:AC34"/>
-    <mergeCell ref="AD33:AD34"/>
-    <mergeCell ref="AM33:AN34"/>
-    <mergeCell ref="AO33:AO34"/>
-    <mergeCell ref="AE33:AF34"/>
-    <mergeCell ref="AG33:AG34"/>
-    <mergeCell ref="AH33:AH34"/>
-    <mergeCell ref="AP33:AP34"/>
-    <mergeCell ref="AQ33:AR34"/>
-    <mergeCell ref="AS33:AS34"/>
-    <mergeCell ref="AT33:AT34"/>
-    <mergeCell ref="AU33:AV34"/>
-    <mergeCell ref="AW33:AW34"/>
-    <mergeCell ref="AX33:AX34"/>
-    <mergeCell ref="AY33:AZ34"/>
-    <mergeCell ref="BA33:BA34"/>
-    <mergeCell ref="BB33:BB34"/>
-    <mergeCell ref="L35:P62"/>
-    <mergeCell ref="R35:V62"/>
-    <mergeCell ref="W35:X36"/>
-    <mergeCell ref="Y35:Y36"/>
-    <mergeCell ref="Z35:Z36"/>
-    <mergeCell ref="AA35:AB36"/>
-    <mergeCell ref="AC35:AC36"/>
-    <mergeCell ref="AD35:AD36"/>
-    <mergeCell ref="AE55:AF56"/>
-    <mergeCell ref="AG55:AG56"/>
-    <mergeCell ref="AH55:AH56"/>
-    <mergeCell ref="AI55:AJ56"/>
-    <mergeCell ref="AK55:AK56"/>
-    <mergeCell ref="AL55:AL56"/>
-    <mergeCell ref="AU35:BB35"/>
-    <mergeCell ref="AM36:AT36"/>
-    <mergeCell ref="AU36:AV36"/>
-    <mergeCell ref="AW36:AY36"/>
-    <mergeCell ref="AL57:AL58"/>
-    <mergeCell ref="AP39:AP40"/>
-    <mergeCell ref="AQ39:AR40"/>
-    <mergeCell ref="AS39:AS40"/>
-    <mergeCell ref="AT39:AT40"/>
-    <mergeCell ref="G39:K39"/>
-    <mergeCell ref="G40:K40"/>
-    <mergeCell ref="BB39:BB40"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="AZ37:AZ38"/>
-    <mergeCell ref="BA37:BA38"/>
-    <mergeCell ref="BB37:BB38"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="W39:X40"/>
-    <mergeCell ref="Y39:Y40"/>
-    <mergeCell ref="Z39:Z40"/>
-    <mergeCell ref="AA39:AB40"/>
-    <mergeCell ref="AC39:AC40"/>
-    <mergeCell ref="AD39:AD40"/>
-    <mergeCell ref="AS37:AS38"/>
-    <mergeCell ref="AT37:AT38"/>
-    <mergeCell ref="AU37:AV38"/>
-    <mergeCell ref="AW37:AY38"/>
-    <mergeCell ref="AM39:AN40"/>
-    <mergeCell ref="AM37:AN38"/>
-    <mergeCell ref="AO37:AO38"/>
-    <mergeCell ref="AP37:AP38"/>
-    <mergeCell ref="AQ37:AR38"/>
-    <mergeCell ref="AO39:AO40"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="W37:X38"/>
-    <mergeCell ref="Y37:Y38"/>
-    <mergeCell ref="Z37:Z38"/>
-    <mergeCell ref="AA37:AB38"/>
-    <mergeCell ref="AC37:AC38"/>
-    <mergeCell ref="AD37:AD38"/>
-    <mergeCell ref="G37:K37"/>
-    <mergeCell ref="G38:K38"/>
-    <mergeCell ref="G35:K35"/>
-    <mergeCell ref="G36:K36"/>
-    <mergeCell ref="AU39:AV40"/>
-    <mergeCell ref="AW39:AY40"/>
-    <mergeCell ref="AZ39:AZ40"/>
-    <mergeCell ref="BA39:BA40"/>
-    <mergeCell ref="AS43:AS44"/>
-    <mergeCell ref="AT43:AT44"/>
-    <mergeCell ref="AU43:AV44"/>
-    <mergeCell ref="AW43:AY44"/>
-    <mergeCell ref="AZ43:AZ44"/>
-    <mergeCell ref="BA43:BA44"/>
-    <mergeCell ref="AS41:AS42"/>
-    <mergeCell ref="AT41:AT42"/>
-    <mergeCell ref="AU41:AV42"/>
-    <mergeCell ref="AW41:AY42"/>
-    <mergeCell ref="AZ41:AZ42"/>
-    <mergeCell ref="BA41:BA42"/>
-    <mergeCell ref="Y45:Y46"/>
-    <mergeCell ref="Z45:Z46"/>
-    <mergeCell ref="AE43:AF44"/>
-    <mergeCell ref="AG43:AG44"/>
-    <mergeCell ref="AH43:AH44"/>
-    <mergeCell ref="AM43:AN44"/>
-    <mergeCell ref="BB43:BB44"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="W44:AD44"/>
-    <mergeCell ref="AO43:AO44"/>
-    <mergeCell ref="AP43:AP44"/>
-    <mergeCell ref="AQ43:AR44"/>
-    <mergeCell ref="BB41:BB42"/>
-    <mergeCell ref="AM41:AN42"/>
-    <mergeCell ref="AO41:AO42"/>
-    <mergeCell ref="AP41:AP42"/>
-    <mergeCell ref="AQ41:AR42"/>
-    <mergeCell ref="W41:X42"/>
-    <mergeCell ref="Y41:Y42"/>
-    <mergeCell ref="Z41:Z42"/>
-    <mergeCell ref="AA41:AB42"/>
-    <mergeCell ref="AC41:AC42"/>
-    <mergeCell ref="AD41:AD42"/>
-    <mergeCell ref="AZ45:AZ46"/>
-    <mergeCell ref="BA45:BA46"/>
-    <mergeCell ref="BB45:BB46"/>
-    <mergeCell ref="AE47:AF48"/>
-    <mergeCell ref="AG47:AG48"/>
-    <mergeCell ref="AH47:AH48"/>
-    <mergeCell ref="AI47:AJ48"/>
-    <mergeCell ref="AK47:AK48"/>
-    <mergeCell ref="AL47:AL48"/>
-    <mergeCell ref="AQ47:AR48"/>
-    <mergeCell ref="AS47:AS48"/>
-    <mergeCell ref="AT47:AT48"/>
-    <mergeCell ref="AU47:AV48"/>
-    <mergeCell ref="AW47:AY48"/>
-    <mergeCell ref="AZ47:AZ48"/>
-    <mergeCell ref="BA47:BA48"/>
-    <mergeCell ref="BB47:BB48"/>
-    <mergeCell ref="AM47:AN48"/>
-    <mergeCell ref="AO47:AO48"/>
-    <mergeCell ref="AP47:AP48"/>
-    <mergeCell ref="AM45:AN46"/>
-    <mergeCell ref="AO45:AO46"/>
-    <mergeCell ref="AP45:AP46"/>
-    <mergeCell ref="AQ45:AR46"/>
-    <mergeCell ref="AK45:AK46"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:K53"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="AU45:AV46"/>
-    <mergeCell ref="AW45:AY46"/>
-    <mergeCell ref="W47:X48"/>
-    <mergeCell ref="Y47:Y48"/>
-    <mergeCell ref="Z47:Z48"/>
-    <mergeCell ref="AA47:AB48"/>
-    <mergeCell ref="AC47:AC48"/>
-    <mergeCell ref="AD47:AD48"/>
-    <mergeCell ref="AA45:AB46"/>
-    <mergeCell ref="AC45:AC46"/>
-    <mergeCell ref="AD45:AD46"/>
-    <mergeCell ref="AS45:AS46"/>
-    <mergeCell ref="AT45:AT46"/>
-    <mergeCell ref="AE45:AF46"/>
-    <mergeCell ref="AG45:AG46"/>
-    <mergeCell ref="AH45:AH46"/>
-    <mergeCell ref="W45:X46"/>
-    <mergeCell ref="Y49:Y50"/>
-    <mergeCell ref="Z49:Z50"/>
-    <mergeCell ref="AA49:AB50"/>
-    <mergeCell ref="AC49:AC50"/>
-    <mergeCell ref="AD49:AD50"/>
-    <mergeCell ref="AM49:AN50"/>
-    <mergeCell ref="AO49:AO50"/>
-    <mergeCell ref="A55:K55"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="I56:K56"/>
-    <mergeCell ref="AE49:AF50"/>
-    <mergeCell ref="AG49:AG50"/>
-    <mergeCell ref="AH49:AH50"/>
-    <mergeCell ref="AI49:AJ50"/>
-    <mergeCell ref="AK49:AK50"/>
-    <mergeCell ref="AH51:AH52"/>
-    <mergeCell ref="AI51:AJ52"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="G49:K49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="AZ49:AZ50"/>
-    <mergeCell ref="BA49:BA50"/>
-    <mergeCell ref="BB49:BB50"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="E57:H57"/>
-    <mergeCell ref="I57:K57"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="AW51:AY52"/>
-    <mergeCell ref="AZ51:AZ52"/>
-    <mergeCell ref="BA51:BA52"/>
-    <mergeCell ref="BB51:BB52"/>
-    <mergeCell ref="AM51:AN52"/>
-    <mergeCell ref="AO51:AO52"/>
-    <mergeCell ref="AP51:AP52"/>
-    <mergeCell ref="AQ51:AR52"/>
-    <mergeCell ref="AS51:AS52"/>
-    <mergeCell ref="AT51:AT52"/>
-    <mergeCell ref="AE51:AF52"/>
-    <mergeCell ref="AG51:AG52"/>
-    <mergeCell ref="AL49:AL50"/>
-    <mergeCell ref="W49:X50"/>
-    <mergeCell ref="AS49:AS50"/>
-    <mergeCell ref="AT49:AT50"/>
-    <mergeCell ref="AU49:AV50"/>
-    <mergeCell ref="AW49:AY50"/>
-    <mergeCell ref="AU51:AV52"/>
-    <mergeCell ref="AL51:AL52"/>
-    <mergeCell ref="AQ53:AR54"/>
-    <mergeCell ref="AS53:AS54"/>
-    <mergeCell ref="AT53:AT54"/>
-    <mergeCell ref="AU53:AV54"/>
-    <mergeCell ref="AP49:AP50"/>
-    <mergeCell ref="AQ49:AR50"/>
-    <mergeCell ref="AZ53:AZ54"/>
-    <mergeCell ref="BA53:BA54"/>
-    <mergeCell ref="BB53:BB54"/>
-    <mergeCell ref="AM53:AN54"/>
-    <mergeCell ref="AO53:AO54"/>
-    <mergeCell ref="AP53:AP54"/>
-    <mergeCell ref="W51:X52"/>
-    <mergeCell ref="Y51:Y52"/>
-    <mergeCell ref="Z51:Z52"/>
-    <mergeCell ref="AA51:AB52"/>
-    <mergeCell ref="AC51:AC52"/>
-    <mergeCell ref="AD51:AD52"/>
-    <mergeCell ref="AK51:AK52"/>
-    <mergeCell ref="AE53:AF54"/>
-    <mergeCell ref="AG53:AG54"/>
-    <mergeCell ref="AH53:AH54"/>
-    <mergeCell ref="AI53:AJ54"/>
-    <mergeCell ref="AK53:AK54"/>
-    <mergeCell ref="AL53:AL54"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="E59:H59"/>
-    <mergeCell ref="I59:K59"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="E58:H58"/>
-    <mergeCell ref="I58:K58"/>
-    <mergeCell ref="AL59:AL60"/>
-    <mergeCell ref="AE59:AF60"/>
-    <mergeCell ref="AG59:AG60"/>
-    <mergeCell ref="AH59:AH60"/>
-    <mergeCell ref="AI59:AJ60"/>
-    <mergeCell ref="AK59:AK60"/>
-    <mergeCell ref="AE57:AF58"/>
-    <mergeCell ref="AG57:AG58"/>
-    <mergeCell ref="AH57:AH58"/>
-    <mergeCell ref="AI57:AJ58"/>
-    <mergeCell ref="AK57:AK58"/>
-    <mergeCell ref="Z57:Z58"/>
-    <mergeCell ref="AA57:AB58"/>
-    <mergeCell ref="AC57:AC58"/>
-    <mergeCell ref="AD57:AD58"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="E62:H62"/>
-    <mergeCell ref="I62:K62"/>
-    <mergeCell ref="AW53:AY54"/>
-    <mergeCell ref="AQ57:AR58"/>
-    <mergeCell ref="AS57:AS58"/>
-    <mergeCell ref="AT57:AT58"/>
-    <mergeCell ref="AU57:AV58"/>
-    <mergeCell ref="AW57:AY58"/>
-    <mergeCell ref="AO59:AO60"/>
-    <mergeCell ref="AP59:AP60"/>
-    <mergeCell ref="AQ59:AR60"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="E61:H61"/>
-    <mergeCell ref="I61:K61"/>
-    <mergeCell ref="W53:X54"/>
-    <mergeCell ref="Y53:Y54"/>
-    <mergeCell ref="Z53:Z54"/>
-    <mergeCell ref="AA53:AB54"/>
-    <mergeCell ref="AC53:AC54"/>
-    <mergeCell ref="AD53:AD54"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="E60:H60"/>
-    <mergeCell ref="I60:K60"/>
-    <mergeCell ref="BA59:BA60"/>
-    <mergeCell ref="BB59:BB60"/>
-    <mergeCell ref="BB55:BB56"/>
-    <mergeCell ref="W55:X56"/>
-    <mergeCell ref="Y55:Y56"/>
-    <mergeCell ref="Z55:Z56"/>
-    <mergeCell ref="AA55:AB56"/>
-    <mergeCell ref="AC55:AC56"/>
-    <mergeCell ref="AD55:AD56"/>
-    <mergeCell ref="AM55:AN56"/>
-    <mergeCell ref="AO55:AO56"/>
-    <mergeCell ref="AP55:AP56"/>
-    <mergeCell ref="AU55:AV56"/>
-    <mergeCell ref="AW55:AY56"/>
-    <mergeCell ref="AZ55:AZ56"/>
-    <mergeCell ref="BA55:BA56"/>
-    <mergeCell ref="AQ55:AR56"/>
-    <mergeCell ref="AS55:AS56"/>
-    <mergeCell ref="AT55:AT56"/>
-    <mergeCell ref="AZ57:AZ58"/>
-    <mergeCell ref="BA57:BA58"/>
-    <mergeCell ref="BB57:BB58"/>
-    <mergeCell ref="W57:X58"/>
-    <mergeCell ref="Y57:Y58"/>
-    <mergeCell ref="AM57:AN58"/>
-    <mergeCell ref="AO57:AO58"/>
-    <mergeCell ref="AP57:AP58"/>
-    <mergeCell ref="W61:X62"/>
-    <mergeCell ref="Y61:Y62"/>
-    <mergeCell ref="Z61:Z62"/>
-    <mergeCell ref="AA61:AB62"/>
-    <mergeCell ref="AC61:AC62"/>
-    <mergeCell ref="AD61:AD62"/>
-    <mergeCell ref="AS59:AS60"/>
-    <mergeCell ref="AT59:AT60"/>
-    <mergeCell ref="W59:X60"/>
-    <mergeCell ref="Y59:Y60"/>
-    <mergeCell ref="Z59:Z60"/>
-    <mergeCell ref="AM61:AN62"/>
-    <mergeCell ref="AA59:AB60"/>
-    <mergeCell ref="AC59:AC60"/>
-    <mergeCell ref="AD59:AD60"/>
-    <mergeCell ref="AM59:AN60"/>
-    <mergeCell ref="AE61:AF62"/>
-    <mergeCell ref="AG61:AG62"/>
-    <mergeCell ref="AH61:AH62"/>
-    <mergeCell ref="AI61:AJ62"/>
-    <mergeCell ref="AK61:AK62"/>
-    <mergeCell ref="AL61:AL62"/>
-    <mergeCell ref="BB61:BB62"/>
-    <mergeCell ref="AO61:AO62"/>
-    <mergeCell ref="AP61:AP62"/>
-    <mergeCell ref="AQ61:AR62"/>
-    <mergeCell ref="AS61:AS62"/>
-    <mergeCell ref="AT61:AT62"/>
-    <mergeCell ref="AU61:AV62"/>
-    <mergeCell ref="AW61:AY62"/>
-    <mergeCell ref="AZ61:AZ62"/>
-    <mergeCell ref="BA61:BA62"/>
-    <mergeCell ref="AU59:AV60"/>
-    <mergeCell ref="AW59:AY60"/>
-    <mergeCell ref="AZ59:AZ60"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="G45:K45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="AI43:AJ44"/>
-    <mergeCell ref="AK43:AK44"/>
-    <mergeCell ref="AL43:AL44"/>
-    <mergeCell ref="AI45:AJ46"/>
-    <mergeCell ref="AA17:AB18"/>
-    <mergeCell ref="AC17:AC18"/>
-    <mergeCell ref="AA19:AB20"/>
-    <mergeCell ref="AC19:AC20"/>
-    <mergeCell ref="AA21:AB22"/>
-    <mergeCell ref="AC21:AC22"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="AL45:AL46"/>
-    <mergeCell ref="AE27:AF28"/>
-    <mergeCell ref="AG27:AG28"/>
-    <mergeCell ref="AH27:AH28"/>
-    <mergeCell ref="AI31:AJ32"/>
-    <mergeCell ref="AK31:AK32"/>
-    <mergeCell ref="AL31:AL32"/>
-    <mergeCell ref="AI33:AJ34"/>
-    <mergeCell ref="AK33:AK34"/>
-    <mergeCell ref="AL33:AL34"/>
-    <mergeCell ref="AI35:AJ36"/>
-    <mergeCell ref="AK35:AK36"/>
-    <mergeCell ref="AL35:AL36"/>
-    <mergeCell ref="AI37:AJ38"/>
-    <mergeCell ref="AK37:AK38"/>
-    <mergeCell ref="AL37:AL38"/>
-    <mergeCell ref="AI39:AJ40"/>
-    <mergeCell ref="AK39:AK40"/>
-    <mergeCell ref="AL39:AL40"/>
-    <mergeCell ref="AI41:AJ42"/>
-    <mergeCell ref="AK41:AK42"/>
-    <mergeCell ref="AL41:AL42"/>
-    <mergeCell ref="AE31:AF32"/>
-    <mergeCell ref="AG31:AG32"/>
-    <mergeCell ref="AE41:AF42"/>
-    <mergeCell ref="AG41:AG42"/>
-    <mergeCell ref="AH41:AH42"/>
-    <mergeCell ref="AE35:AF36"/>
-    <mergeCell ref="AG35:AG36"/>
-    <mergeCell ref="AH35:AH36"/>
-    <mergeCell ref="AE37:AF38"/>
-    <mergeCell ref="AG37:AG38"/>
-    <mergeCell ref="AH37:AH38"/>
-    <mergeCell ref="AE39:AF40"/>
-    <mergeCell ref="AG39:AG40"/>
-    <mergeCell ref="AH39:AH40"/>
   </mergeCells>
   <conditionalFormatting sqref="W8:X9">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
@@ -11337,10 +11376,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8434C3BD-0C8A-4666-95D3-44EF37B9B2E8}">
-  <dimension ref="A1:B185"/>
+  <dimension ref="A1:B198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="E171" sqref="E171"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="F191" sqref="F191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -13013,6 +13052,123 @@
         <v>112</v>
       </c>
     </row>
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
+        <v>480</v>
+      </c>
+      <c r="B186">
+        <f>Charakterbogen!AU37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
+        <v>481</v>
+      </c>
+      <c r="B187">
+        <f>Charakterbogen!AU39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
+        <v>482</v>
+      </c>
+      <c r="B188">
+        <f>Charakterbogen!AU41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
+        <v>483</v>
+      </c>
+      <c r="B189">
+        <f>Charakterbogen!AU43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" t="s">
+        <v>484</v>
+      </c>
+      <c r="B190">
+        <f>Charakterbogen!AU45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" t="s">
+        <v>485</v>
+      </c>
+      <c r="B191">
+        <f>Charakterbogen!AU47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
+        <v>486</v>
+      </c>
+      <c r="B192">
+        <f>Charakterbogen!AU49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" t="s">
+        <v>487</v>
+      </c>
+      <c r="B193">
+        <f>Charakterbogen!AU51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" t="s">
+        <v>488</v>
+      </c>
+      <c r="B194">
+        <f>Charakterbogen!AU53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" t="s">
+        <v>489</v>
+      </c>
+      <c r="B195">
+        <f>Charakterbogen!AU55</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" t="s">
+        <v>490</v>
+      </c>
+      <c r="B196">
+        <f>Charakterbogen!AU57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" t="s">
+        <v>491</v>
+      </c>
+      <c r="B197">
+        <f>Charakterbogen!AU59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" t="s">
+        <v>492</v>
+      </c>
+      <c r="B198">
+        <f>Charakterbogen!AU61</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/src/test/resources/workbooks/Charakterbogen.xlsx
+++ b/src/test/resources/workbooks/Charakterbogen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\basti\Documents\pp\PP-Manager\src\test\resources\workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86AD9D26-431C-4FB4-9DE8-637C61A1454C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07AB5338-3E0E-486A-BC78-590B2CEDA668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Charakterbogen" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="498">
   <si>
     <t xml:space="preserve"> Name</t>
   </si>
@@ -1522,6 +1522,21 @@
   </si>
   <si>
     <t>character.spell.13</t>
+  </si>
+  <si>
+    <t>Arkane Geschosse</t>
+  </si>
+  <si>
+    <t>Blenden</t>
+  </si>
+  <si>
+    <t>Flux</t>
+  </si>
+  <si>
+    <t>Frostnova</t>
+  </si>
+  <si>
+    <t>Rufe Ent</t>
   </si>
 </sst>
 </file>
@@ -1994,38 +2009,43 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2034,145 +2054,35 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2180,15 +2090,39 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2207,53 +2141,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2263,17 +2161,134 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2704,8 +2719,8 @@
   </sheetPr>
   <dimension ref="A1:AMK97"/>
   <sheetViews>
-    <sheetView topLeftCell="AF23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AU37" sqref="AU37:AV38"/>
+    <sheetView tabSelected="1" topLeftCell="AK13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AU55" sqref="AU55:AV56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2718,38 +2733,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="18.75">
-      <c r="A1" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="64" t="s">
+      <c r="A1" s="129" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="129"/>
+      <c r="C1" s="130" t="s">
         <v>463</v>
       </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34">
+      <c r="H1" s="129"/>
+      <c r="I1" s="129">
         <v>1337</v>
       </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="65" t="s">
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
+      <c r="R1" s="131"/>
+      <c r="S1" s="131"/>
+      <c r="T1" s="131"/>
+      <c r="U1" s="131"/>
+      <c r="V1" s="131"/>
       <c r="W1" s="3" t="s">
         <v>3</v>
       </c>
@@ -2848,36 +2863,36 @@
       </c>
     </row>
     <row r="2" spans="1:54" ht="18.75" customHeight="1">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="66" t="s">
+      <c r="B2" s="129"/>
+      <c r="C2" s="132" t="s">
         <v>464</v>
       </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34" t="s">
+      <c r="H2" s="129"/>
+      <c r="I2" s="129" t="s">
         <v>466</v>
       </c>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="131"/>
+      <c r="P2" s="131"/>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="131"/>
+      <c r="S2" s="131"/>
+      <c r="T2" s="131"/>
+      <c r="U2" s="131"/>
+      <c r="V2" s="131"/>
       <c r="W2" s="3">
         <f>$D$6</f>
         <v>1</v>
@@ -3008,38 +3023,38 @@
       </c>
     </row>
     <row r="3" spans="1:54" ht="18.75" customHeight="1">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34" t="s">
+      <c r="B3" s="129"/>
+      <c r="C3" s="129" t="s">
         <v>465</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="129" t="s">
         <v>251</v>
       </c>
-      <c r="H3" s="34"/>
-      <c r="I3" s="35">
+      <c r="H3" s="129"/>
+      <c r="I3" s="133">
         <v>42</v>
       </c>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="36" t="s">
+      <c r="J3" s="133"/>
+      <c r="K3" s="133"/>
+      <c r="L3" s="134" t="s">
         <v>475</v>
       </c>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="134"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="134"/>
+      <c r="Q3" s="134"/>
+      <c r="R3" s="134"/>
+      <c r="S3" s="134"/>
+      <c r="T3" s="134"/>
+      <c r="U3" s="134"/>
+      <c r="V3" s="134"/>
       <c r="W3" s="8"/>
       <c r="X3" s="8"/>
       <c r="Y3" s="8"/>
@@ -3070,17 +3085,17 @@
       <c r="I4" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
+      <c r="L4" s="134"/>
+      <c r="M4" s="134"/>
+      <c r="N4" s="134"/>
+      <c r="O4" s="134"/>
+      <c r="P4" s="134"/>
+      <c r="Q4" s="134"/>
+      <c r="R4" s="134"/>
+      <c r="S4" s="134"/>
+      <c r="T4" s="134"/>
+      <c r="U4" s="134"/>
+      <c r="V4" s="134"/>
       <c r="W4" s="8"/>
       <c r="X4" s="8"/>
       <c r="Y4" s="8"/>
@@ -3107,236 +3122,236 @@
       <c r="AZ4" s="2"/>
     </row>
     <row r="5" spans="1:54" ht="18.75" customHeight="1">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="75" t="s">
+      <c r="C5" s="135"/>
+      <c r="D5" s="120" t="s">
         <v>257</v>
       </c>
-      <c r="E5" s="75"/>
+      <c r="E5" s="120"/>
       <c r="F5" s="2"/>
       <c r="I5" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="74" t="s">
+      <c r="L5" s="134"/>
+      <c r="M5" s="134"/>
+      <c r="N5" s="134"/>
+      <c r="O5" s="134"/>
+      <c r="P5" s="134"/>
+      <c r="Q5" s="134"/>
+      <c r="R5" s="134"/>
+      <c r="S5" s="134"/>
+      <c r="T5" s="134"/>
+      <c r="U5" s="134"/>
+      <c r="V5" s="134"/>
+      <c r="W5" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="X5" s="74"/>
-      <c r="Y5" s="74"/>
-      <c r="Z5" s="74"/>
-      <c r="AA5" s="74"/>
-      <c r="AB5" s="74"/>
-      <c r="AC5" s="74"/>
-      <c r="AD5" s="74"/>
-      <c r="AE5" s="74" t="s">
+      <c r="X5" s="119"/>
+      <c r="Y5" s="119"/>
+      <c r="Z5" s="119"/>
+      <c r="AA5" s="119"/>
+      <c r="AB5" s="119"/>
+      <c r="AC5" s="119"/>
+      <c r="AD5" s="119"/>
+      <c r="AE5" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="AF5" s="74"/>
-      <c r="AG5" s="74"/>
-      <c r="AH5" s="74"/>
-      <c r="AI5" s="74"/>
-      <c r="AJ5" s="74"/>
-      <c r="AK5" s="74"/>
-      <c r="AL5" s="74"/>
-      <c r="AM5" s="74" t="s">
+      <c r="AF5" s="119"/>
+      <c r="AG5" s="119"/>
+      <c r="AH5" s="119"/>
+      <c r="AI5" s="119"/>
+      <c r="AJ5" s="119"/>
+      <c r="AK5" s="119"/>
+      <c r="AL5" s="119"/>
+      <c r="AM5" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="AN5" s="74"/>
-      <c r="AO5" s="74"/>
-      <c r="AP5" s="74"/>
-      <c r="AQ5" s="74"/>
-      <c r="AR5" s="74"/>
-      <c r="AS5" s="74"/>
-      <c r="AT5" s="74"/>
-      <c r="AU5" s="74" t="s">
+      <c r="AN5" s="119"/>
+      <c r="AO5" s="119"/>
+      <c r="AP5" s="119"/>
+      <c r="AQ5" s="119"/>
+      <c r="AR5" s="119"/>
+      <c r="AS5" s="119"/>
+      <c r="AT5" s="119"/>
+      <c r="AU5" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="AV5" s="74"/>
-      <c r="AW5" s="74"/>
-      <c r="AX5" s="74"/>
-      <c r="AY5" s="74"/>
-      <c r="AZ5" s="74"/>
-      <c r="BA5" s="74"/>
-      <c r="BB5" s="74"/>
+      <c r="AV5" s="119"/>
+      <c r="AW5" s="119"/>
+      <c r="AX5" s="119"/>
+      <c r="AY5" s="119"/>
+      <c r="AZ5" s="119"/>
+      <c r="BA5" s="119"/>
+      <c r="BB5" s="119"/>
     </row>
     <row r="6" spans="1:54" ht="18.75" customHeight="1">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="51" t="s">
+      <c r="B6" s="121"/>
+      <c r="C6" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="52">
+      <c r="D6" s="123">
         <v>1</v>
       </c>
-      <c r="E6" s="52"/>
+      <c r="E6" s="123"/>
       <c r="F6" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="G6" s="50" t="s">
+      <c r="G6" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="54">
+      <c r="H6" s="121"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="113">
         <v>9</v>
       </c>
-      <c r="K6" s="55"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="36"/>
-      <c r="W6" s="74"/>
-      <c r="X6" s="74"/>
-      <c r="Y6" s="74"/>
-      <c r="Z6" s="74"/>
-      <c r="AA6" s="74"/>
-      <c r="AB6" s="74"/>
-      <c r="AC6" s="74"/>
-      <c r="AD6" s="74"/>
-      <c r="AE6" s="74"/>
-      <c r="AF6" s="74"/>
-      <c r="AG6" s="74"/>
-      <c r="AH6" s="74"/>
-      <c r="AI6" s="74"/>
-      <c r="AJ6" s="74"/>
-      <c r="AK6" s="74"/>
-      <c r="AL6" s="74"/>
-      <c r="AM6" s="74"/>
-      <c r="AN6" s="74"/>
-      <c r="AO6" s="74"/>
-      <c r="AP6" s="74"/>
-      <c r="AQ6" s="74"/>
-      <c r="AR6" s="74"/>
-      <c r="AS6" s="74"/>
-      <c r="AT6" s="74"/>
-      <c r="AU6" s="74"/>
-      <c r="AV6" s="74"/>
-      <c r="AW6" s="74"/>
-      <c r="AX6" s="74"/>
-      <c r="AY6" s="74"/>
-      <c r="AZ6" s="74"/>
-      <c r="BA6" s="74"/>
-      <c r="BB6" s="74"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="134"/>
+      <c r="M6" s="134"/>
+      <c r="N6" s="134"/>
+      <c r="O6" s="134"/>
+      <c r="P6" s="134"/>
+      <c r="Q6" s="134"/>
+      <c r="R6" s="134"/>
+      <c r="S6" s="134"/>
+      <c r="T6" s="134"/>
+      <c r="U6" s="134"/>
+      <c r="V6" s="134"/>
+      <c r="W6" s="119"/>
+      <c r="X6" s="119"/>
+      <c r="Y6" s="119"/>
+      <c r="Z6" s="119"/>
+      <c r="AA6" s="119"/>
+      <c r="AB6" s="119"/>
+      <c r="AC6" s="119"/>
+      <c r="AD6" s="119"/>
+      <c r="AE6" s="119"/>
+      <c r="AF6" s="119"/>
+      <c r="AG6" s="119"/>
+      <c r="AH6" s="119"/>
+      <c r="AI6" s="119"/>
+      <c r="AJ6" s="119"/>
+      <c r="AK6" s="119"/>
+      <c r="AL6" s="119"/>
+      <c r="AM6" s="119"/>
+      <c r="AN6" s="119"/>
+      <c r="AO6" s="119"/>
+      <c r="AP6" s="119"/>
+      <c r="AQ6" s="119"/>
+      <c r="AR6" s="119"/>
+      <c r="AS6" s="119"/>
+      <c r="AT6" s="119"/>
+      <c r="AU6" s="119"/>
+      <c r="AV6" s="119"/>
+      <c r="AW6" s="119"/>
+      <c r="AX6" s="119"/>
+      <c r="AY6" s="119"/>
+      <c r="AZ6" s="119"/>
+      <c r="BA6" s="119"/>
+      <c r="BB6" s="119"/>
     </row>
     <row r="7" spans="1:54" ht="18.75" customHeight="1">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
+      <c r="A7" s="121"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="123"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="36"/>
-      <c r="U7" s="36"/>
-      <c r="V7" s="36"/>
-      <c r="W7" s="74"/>
-      <c r="X7" s="74"/>
-      <c r="Y7" s="74"/>
-      <c r="Z7" s="74"/>
-      <c r="AA7" s="74"/>
-      <c r="AB7" s="74"/>
-      <c r="AC7" s="74"/>
-      <c r="AD7" s="74"/>
-      <c r="AE7" s="74"/>
-      <c r="AF7" s="74"/>
-      <c r="AG7" s="74"/>
-      <c r="AH7" s="74"/>
-      <c r="AI7" s="74"/>
-      <c r="AJ7" s="74"/>
-      <c r="AK7" s="74"/>
-      <c r="AL7" s="74"/>
-      <c r="AM7" s="74"/>
-      <c r="AN7" s="74"/>
-      <c r="AO7" s="74"/>
-      <c r="AP7" s="74"/>
-      <c r="AQ7" s="74"/>
-      <c r="AR7" s="74"/>
-      <c r="AS7" s="74"/>
-      <c r="AT7" s="74"/>
-      <c r="AU7" s="74"/>
-      <c r="AV7" s="74"/>
-      <c r="AW7" s="74"/>
-      <c r="AX7" s="74"/>
-      <c r="AY7" s="74"/>
-      <c r="AZ7" s="74"/>
-      <c r="BA7" s="74"/>
-      <c r="BB7" s="74"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="124"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="134"/>
+      <c r="M7" s="134"/>
+      <c r="N7" s="134"/>
+      <c r="O7" s="134"/>
+      <c r="P7" s="134"/>
+      <c r="Q7" s="134"/>
+      <c r="R7" s="134"/>
+      <c r="S7" s="134"/>
+      <c r="T7" s="134"/>
+      <c r="U7" s="134"/>
+      <c r="V7" s="134"/>
+      <c r="W7" s="119"/>
+      <c r="X7" s="119"/>
+      <c r="Y7" s="119"/>
+      <c r="Z7" s="119"/>
+      <c r="AA7" s="119"/>
+      <c r="AB7" s="119"/>
+      <c r="AC7" s="119"/>
+      <c r="AD7" s="119"/>
+      <c r="AE7" s="119"/>
+      <c r="AF7" s="119"/>
+      <c r="AG7" s="119"/>
+      <c r="AH7" s="119"/>
+      <c r="AI7" s="119"/>
+      <c r="AJ7" s="119"/>
+      <c r="AK7" s="119"/>
+      <c r="AL7" s="119"/>
+      <c r="AM7" s="119"/>
+      <c r="AN7" s="119"/>
+      <c r="AO7" s="119"/>
+      <c r="AP7" s="119"/>
+      <c r="AQ7" s="119"/>
+      <c r="AR7" s="119"/>
+      <c r="AS7" s="119"/>
+      <c r="AT7" s="119"/>
+      <c r="AU7" s="119"/>
+      <c r="AV7" s="119"/>
+      <c r="AW7" s="119"/>
+      <c r="AX7" s="119"/>
+      <c r="AY7" s="119"/>
+      <c r="AZ7" s="119"/>
+      <c r="BA7" s="119"/>
+      <c r="BB7" s="119"/>
     </row>
     <row r="8" spans="1:54" ht="18.75" customHeight="1">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="59" t="s">
+      <c r="B8" s="116"/>
+      <c r="C8" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="60">
+      <c r="D8" s="109">
         <v>2</v>
       </c>
-      <c r="E8" s="60"/>
+      <c r="E8" s="109"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="58" t="s">
+      <c r="G8" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="39">
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="111">
         <v>10</v>
       </c>
-      <c r="K8" s="40"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
-      <c r="S8" s="36"/>
-      <c r="T8" s="36"/>
-      <c r="U8" s="36"/>
-      <c r="V8" s="36"/>
-      <c r="W8" s="76">
+      <c r="K8" s="126"/>
+      <c r="L8" s="134"/>
+      <c r="M8" s="134"/>
+      <c r="N8" s="134"/>
+      <c r="O8" s="134"/>
+      <c r="P8" s="134"/>
+      <c r="Q8" s="134"/>
+      <c r="R8" s="134"/>
+      <c r="S8" s="134"/>
+      <c r="T8" s="134"/>
+      <c r="U8" s="134"/>
+      <c r="V8" s="134"/>
+      <c r="W8" s="125">
         <f>SUM(W11:AT62)+SUM(AU11:BB34)</f>
         <v>6328</v>
       </c>
-      <c r="X8" s="76"/>
-      <c r="Y8" s="76" t="s">
+      <c r="X8" s="125"/>
+      <c r="Y8" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="Z8" s="76"/>
+      <c r="Z8" s="125"/>
       <c r="AA8" s="8" t="s">
         <v>252</v>
       </c>
@@ -3361,32 +3376,32 @@
       <c r="AZ8" s="8"/>
     </row>
     <row r="9" spans="1:54" ht="18.75" customHeight="1">
-      <c r="A9" s="58"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
+      <c r="A9" s="116"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="36"/>
-      <c r="V9" s="36"/>
-      <c r="W9" s="76"/>
-      <c r="X9" s="76"/>
-      <c r="Y9" s="76"/>
-      <c r="Z9" s="76"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="128"/>
+      <c r="L9" s="134"/>
+      <c r="M9" s="134"/>
+      <c r="N9" s="134"/>
+      <c r="O9" s="134"/>
+      <c r="P9" s="134"/>
+      <c r="Q9" s="134"/>
+      <c r="R9" s="134"/>
+      <c r="S9" s="134"/>
+      <c r="T9" s="134"/>
+      <c r="U9" s="134"/>
+      <c r="V9" s="134"/>
+      <c r="W9" s="125"/>
+      <c r="X9" s="125"/>
+      <c r="Y9" s="125"/>
+      <c r="Z9" s="125"/>
       <c r="AA9" s="8" t="s">
         <v>253</v>
       </c>
@@ -3411,1056 +3426,1056 @@
       <c r="AZ9" s="8"/>
     </row>
     <row r="10" spans="1:54" ht="18.75" customHeight="1">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="51" t="s">
+      <c r="B10" s="121"/>
+      <c r="C10" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="52">
+      <c r="D10" s="123">
         <v>3</v>
       </c>
-      <c r="E10" s="52"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="53" t="s">
+      <c r="G10" s="138" t="s">
         <v>248</v>
       </c>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="54">
+      <c r="H10" s="138"/>
+      <c r="I10" s="138"/>
+      <c r="J10" s="113">
         <v>11</v>
       </c>
-      <c r="K10" s="55"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="36"/>
-      <c r="V10" s="36"/>
-      <c r="W10" s="73" t="s">
+      <c r="K10" s="42"/>
+      <c r="L10" s="134"/>
+      <c r="M10" s="134"/>
+      <c r="N10" s="134"/>
+      <c r="O10" s="134"/>
+      <c r="P10" s="134"/>
+      <c r="Q10" s="134"/>
+      <c r="R10" s="134"/>
+      <c r="S10" s="134"/>
+      <c r="T10" s="134"/>
+      <c r="U10" s="134"/>
+      <c r="V10" s="134"/>
+      <c r="W10" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="X10" s="73"/>
-      <c r="Y10" s="73"/>
-      <c r="Z10" s="73"/>
-      <c r="AA10" s="73"/>
-      <c r="AB10" s="73"/>
-      <c r="AC10" s="73"/>
-      <c r="AD10" s="73"/>
-      <c r="AE10" s="73" t="s">
+      <c r="X10" s="93"/>
+      <c r="Y10" s="93"/>
+      <c r="Z10" s="93"/>
+      <c r="AA10" s="93"/>
+      <c r="AB10" s="93"/>
+      <c r="AC10" s="93"/>
+      <c r="AD10" s="93"/>
+      <c r="AE10" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="AF10" s="73"/>
-      <c r="AG10" s="73"/>
-      <c r="AH10" s="73"/>
-      <c r="AI10" s="73"/>
-      <c r="AJ10" s="73"/>
-      <c r="AK10" s="73"/>
-      <c r="AL10" s="73"/>
-      <c r="AM10" s="73" t="s">
+      <c r="AF10" s="93"/>
+      <c r="AG10" s="93"/>
+      <c r="AH10" s="93"/>
+      <c r="AI10" s="93"/>
+      <c r="AJ10" s="93"/>
+      <c r="AK10" s="93"/>
+      <c r="AL10" s="93"/>
+      <c r="AM10" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="AN10" s="73"/>
-      <c r="AO10" s="73"/>
-      <c r="AP10" s="73"/>
-      <c r="AQ10" s="73"/>
-      <c r="AR10" s="73"/>
-      <c r="AS10" s="73"/>
-      <c r="AT10" s="73"/>
-      <c r="AU10" s="73" t="s">
+      <c r="AN10" s="93"/>
+      <c r="AO10" s="93"/>
+      <c r="AP10" s="93"/>
+      <c r="AQ10" s="93"/>
+      <c r="AR10" s="93"/>
+      <c r="AS10" s="93"/>
+      <c r="AT10" s="93"/>
+      <c r="AU10" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="AV10" s="73"/>
-      <c r="AW10" s="73"/>
-      <c r="AX10" s="73"/>
-      <c r="AY10" s="73"/>
-      <c r="AZ10" s="73"/>
-      <c r="BA10" s="73"/>
-      <c r="BB10" s="73"/>
+      <c r="AV10" s="93"/>
+      <c r="AW10" s="93"/>
+      <c r="AX10" s="93"/>
+      <c r="AY10" s="93"/>
+      <c r="AZ10" s="93"/>
+      <c r="BA10" s="93"/>
+      <c r="BB10" s="93"/>
     </row>
     <row r="11" spans="1:54" ht="18.75" customHeight="1">
-      <c r="A11" s="50"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
+      <c r="A11" s="121"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="36"/>
-      <c r="V11" s="36"/>
-      <c r="W11" s="70" t="s">
+      <c r="G11" s="138"/>
+      <c r="H11" s="138"/>
+      <c r="I11" s="138"/>
+      <c r="J11" s="124"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="134"/>
+      <c r="M11" s="134"/>
+      <c r="N11" s="134"/>
+      <c r="O11" s="134"/>
+      <c r="P11" s="134"/>
+      <c r="Q11" s="134"/>
+      <c r="R11" s="134"/>
+      <c r="S11" s="134"/>
+      <c r="T11" s="134"/>
+      <c r="U11" s="134"/>
+      <c r="V11" s="134"/>
+      <c r="W11" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="X11" s="70"/>
-      <c r="Y11" s="67" t="s">
+      <c r="X11" s="34"/>
+      <c r="Y11" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="Z11" s="68">
+      <c r="Z11" s="40">
         <v>1</v>
       </c>
-      <c r="AA11" s="70" t="s">
+      <c r="AA11" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="AB11" s="70"/>
-      <c r="AC11" s="67" t="s">
+      <c r="AB11" s="34"/>
+      <c r="AC11" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="AD11" s="68">
+      <c r="AD11" s="40">
         <v>14</v>
       </c>
-      <c r="AE11" s="70" t="s">
+      <c r="AE11" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="AF11" s="70"/>
-      <c r="AG11" s="71" t="s">
+      <c r="AF11" s="34"/>
+      <c r="AG11" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="AH11" s="68">
+      <c r="AH11" s="40">
         <v>40</v>
       </c>
-      <c r="AI11" s="72" t="s">
+      <c r="AI11" s="38" t="s">
         <v>254</v>
       </c>
-      <c r="AJ11" s="72"/>
-      <c r="AK11" s="71" t="s">
+      <c r="AJ11" s="38"/>
+      <c r="AK11" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="AL11" s="68">
+      <c r="AL11" s="40">
         <v>57</v>
       </c>
-      <c r="AM11" s="72" t="s">
+      <c r="AM11" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="AN11" s="72"/>
-      <c r="AO11" s="71" t="s">
+      <c r="AN11" s="38"/>
+      <c r="AO11" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="AP11" s="68">
+      <c r="AP11" s="40">
         <v>70</v>
       </c>
-      <c r="AQ11" s="72" t="s">
+      <c r="AQ11" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="AR11" s="72"/>
-      <c r="AS11" s="71" t="s">
+      <c r="AR11" s="38"/>
+      <c r="AS11" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="AT11" s="68">
+      <c r="AT11" s="40">
         <v>86</v>
       </c>
-      <c r="AU11" s="70" t="s">
+      <c r="AU11" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="AV11" s="70"/>
-      <c r="AW11" s="67" t="s">
+      <c r="AV11" s="34"/>
+      <c r="AW11" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="AX11" s="68">
+      <c r="AX11" s="40">
         <v>99</v>
       </c>
-      <c r="AY11" s="70" t="s">
+      <c r="AY11" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AZ11" s="70"/>
-      <c r="BA11" s="67" t="s">
+      <c r="AZ11" s="34"/>
+      <c r="BA11" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="BB11" s="68">
+      <c r="BB11" s="40">
         <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:54" ht="18.75" customHeight="1">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="58"/>
-      <c r="C12" s="59" t="s">
+      <c r="B12" s="116"/>
+      <c r="C12" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="60">
+      <c r="D12" s="109">
         <v>4</v>
       </c>
-      <c r="E12" s="60"/>
+      <c r="E12" s="109"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="38" t="s">
+      <c r="G12" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="39">
+      <c r="H12" s="107"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="111">
         <v>12</v>
       </c>
-      <c r="K12" s="40"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="36"/>
-      <c r="W12" s="70"/>
-      <c r="X12" s="70"/>
-      <c r="Y12" s="67"/>
-      <c r="Z12" s="69"/>
-      <c r="AA12" s="70"/>
-      <c r="AB12" s="70"/>
-      <c r="AC12" s="67"/>
-      <c r="AD12" s="69"/>
-      <c r="AE12" s="70"/>
-      <c r="AF12" s="70"/>
-      <c r="AG12" s="71"/>
-      <c r="AH12" s="69"/>
-      <c r="AI12" s="72"/>
-      <c r="AJ12" s="72"/>
-      <c r="AK12" s="71"/>
-      <c r="AL12" s="69"/>
-      <c r="AM12" s="72"/>
-      <c r="AN12" s="72"/>
-      <c r="AO12" s="71"/>
-      <c r="AP12" s="69"/>
-      <c r="AQ12" s="72"/>
-      <c r="AR12" s="72"/>
-      <c r="AS12" s="71"/>
-      <c r="AT12" s="69"/>
-      <c r="AU12" s="70"/>
-      <c r="AV12" s="70"/>
-      <c r="AW12" s="67"/>
-      <c r="AX12" s="69"/>
-      <c r="AY12" s="70"/>
-      <c r="AZ12" s="70"/>
-      <c r="BA12" s="67"/>
-      <c r="BB12" s="69"/>
+      <c r="K12" s="126"/>
+      <c r="L12" s="134"/>
+      <c r="M12" s="134"/>
+      <c r="N12" s="134"/>
+      <c r="O12" s="134"/>
+      <c r="P12" s="134"/>
+      <c r="Q12" s="134"/>
+      <c r="R12" s="134"/>
+      <c r="S12" s="134"/>
+      <c r="T12" s="134"/>
+      <c r="U12" s="134"/>
+      <c r="V12" s="134"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="34"/>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="36"/>
+      <c r="AA12" s="34"/>
+      <c r="AB12" s="34"/>
+      <c r="AC12" s="37"/>
+      <c r="AD12" s="36"/>
+      <c r="AE12" s="34"/>
+      <c r="AF12" s="34"/>
+      <c r="AG12" s="39"/>
+      <c r="AH12" s="36"/>
+      <c r="AI12" s="38"/>
+      <c r="AJ12" s="38"/>
+      <c r="AK12" s="39"/>
+      <c r="AL12" s="36"/>
+      <c r="AM12" s="38"/>
+      <c r="AN12" s="38"/>
+      <c r="AO12" s="39"/>
+      <c r="AP12" s="36"/>
+      <c r="AQ12" s="38"/>
+      <c r="AR12" s="38"/>
+      <c r="AS12" s="39"/>
+      <c r="AT12" s="36"/>
+      <c r="AU12" s="34"/>
+      <c r="AV12" s="34"/>
+      <c r="AW12" s="37"/>
+      <c r="AX12" s="36"/>
+      <c r="AY12" s="34"/>
+      <c r="AZ12" s="34"/>
+      <c r="BA12" s="37"/>
+      <c r="BB12" s="36"/>
     </row>
     <row r="13" spans="1:54" ht="18.75" customHeight="1">
-      <c r="A13" s="58"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
+      <c r="A13" s="116"/>
+      <c r="B13" s="116"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="36"/>
-      <c r="V13" s="36"/>
-      <c r="W13" s="70" t="s">
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="127"/>
+      <c r="K13" s="128"/>
+      <c r="L13" s="134"/>
+      <c r="M13" s="134"/>
+      <c r="N13" s="134"/>
+      <c r="O13" s="134"/>
+      <c r="P13" s="134"/>
+      <c r="Q13" s="134"/>
+      <c r="R13" s="134"/>
+      <c r="S13" s="134"/>
+      <c r="T13" s="134"/>
+      <c r="U13" s="134"/>
+      <c r="V13" s="134"/>
+      <c r="W13" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="X13" s="70"/>
-      <c r="Y13" s="67" t="s">
+      <c r="X13" s="34"/>
+      <c r="Y13" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="Z13" s="69">
+      <c r="Z13" s="36">
         <v>2</v>
       </c>
-      <c r="AA13" s="70" t="s">
+      <c r="AA13" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="AB13" s="70"/>
-      <c r="AC13" s="67" t="s">
+      <c r="AB13" s="34"/>
+      <c r="AC13" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="AD13" s="69">
+      <c r="AD13" s="36">
         <v>15</v>
       </c>
-      <c r="AE13" s="70" t="s">
+      <c r="AE13" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="AF13" s="70"/>
-      <c r="AG13" s="67" t="s">
+      <c r="AF13" s="34"/>
+      <c r="AG13" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="AH13" s="69">
+      <c r="AH13" s="36">
         <v>41</v>
       </c>
-      <c r="AI13" s="70" t="s">
+      <c r="AI13" s="34" t="s">
         <v>255</v>
       </c>
-      <c r="AJ13" s="70"/>
-      <c r="AK13" s="67" t="s">
+      <c r="AJ13" s="34"/>
+      <c r="AK13" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="AL13" s="69">
+      <c r="AL13" s="36">
         <v>58</v>
       </c>
-      <c r="AM13" s="70" t="s">
+      <c r="AM13" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="AN13" s="70"/>
-      <c r="AO13" s="67" t="s">
+      <c r="AN13" s="34"/>
+      <c r="AO13" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="AP13" s="69">
+      <c r="AP13" s="36">
         <v>71</v>
       </c>
-      <c r="AQ13" s="70" t="s">
+      <c r="AQ13" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="AR13" s="70"/>
-      <c r="AS13" s="67" t="s">
+      <c r="AR13" s="34"/>
+      <c r="AS13" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="AT13" s="69">
+      <c r="AT13" s="36">
         <v>87</v>
       </c>
-      <c r="AU13" s="77"/>
-      <c r="AV13" s="77"/>
-      <c r="AW13" s="78"/>
-      <c r="AX13" s="69"/>
-      <c r="AY13" s="79"/>
-      <c r="AZ13" s="79"/>
-      <c r="BA13" s="80"/>
-      <c r="BB13" s="69"/>
+      <c r="AU13" s="75"/>
+      <c r="AV13" s="75"/>
+      <c r="AW13" s="74"/>
+      <c r="AX13" s="36"/>
+      <c r="AY13" s="117"/>
+      <c r="AZ13" s="117"/>
+      <c r="BA13" s="118"/>
+      <c r="BB13" s="36"/>
     </row>
     <row r="14" spans="1:54" ht="18.75" customHeight="1">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="121" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="51" t="s">
+      <c r="B14" s="121"/>
+      <c r="C14" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="52">
+      <c r="D14" s="123">
         <v>5</v>
       </c>
-      <c r="E14" s="52"/>
+      <c r="E14" s="123"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="61" t="s">
+      <c r="G14" s="114" t="s">
         <v>56</v>
       </c>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="62">
+      <c r="H14" s="114"/>
+      <c r="I14" s="114"/>
+      <c r="J14" s="115">
         <v>13</v>
       </c>
-      <c r="K14" s="62"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="36"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="70"/>
-      <c r="X14" s="70"/>
-      <c r="Y14" s="67"/>
-      <c r="Z14" s="69"/>
-      <c r="AA14" s="70"/>
-      <c r="AB14" s="70"/>
-      <c r="AC14" s="67"/>
-      <c r="AD14" s="69"/>
-      <c r="AE14" s="70"/>
-      <c r="AF14" s="70"/>
-      <c r="AG14" s="67"/>
-      <c r="AH14" s="69"/>
-      <c r="AI14" s="70"/>
-      <c r="AJ14" s="70"/>
-      <c r="AK14" s="67"/>
-      <c r="AL14" s="69"/>
-      <c r="AM14" s="70"/>
-      <c r="AN14" s="70"/>
-      <c r="AO14" s="67"/>
-      <c r="AP14" s="69"/>
-      <c r="AQ14" s="70"/>
-      <c r="AR14" s="70"/>
-      <c r="AS14" s="67"/>
-      <c r="AT14" s="69"/>
-      <c r="AU14" s="77"/>
-      <c r="AV14" s="77"/>
-      <c r="AW14" s="78"/>
-      <c r="AX14" s="69"/>
-      <c r="AY14" s="79"/>
-      <c r="AZ14" s="79"/>
-      <c r="BA14" s="80"/>
-      <c r="BB14" s="69"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="134"/>
+      <c r="M14" s="134"/>
+      <c r="N14" s="134"/>
+      <c r="O14" s="134"/>
+      <c r="P14" s="134"/>
+      <c r="Q14" s="134"/>
+      <c r="R14" s="134"/>
+      <c r="S14" s="134"/>
+      <c r="T14" s="134"/>
+      <c r="U14" s="134"/>
+      <c r="V14" s="134"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="34"/>
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="36"/>
+      <c r="AA14" s="34"/>
+      <c r="AB14" s="34"/>
+      <c r="AC14" s="37"/>
+      <c r="AD14" s="36"/>
+      <c r="AE14" s="34"/>
+      <c r="AF14" s="34"/>
+      <c r="AG14" s="37"/>
+      <c r="AH14" s="36"/>
+      <c r="AI14" s="34"/>
+      <c r="AJ14" s="34"/>
+      <c r="AK14" s="37"/>
+      <c r="AL14" s="36"/>
+      <c r="AM14" s="34"/>
+      <c r="AN14" s="34"/>
+      <c r="AO14" s="37"/>
+      <c r="AP14" s="36"/>
+      <c r="AQ14" s="34"/>
+      <c r="AR14" s="34"/>
+      <c r="AS14" s="37"/>
+      <c r="AT14" s="36"/>
+      <c r="AU14" s="75"/>
+      <c r="AV14" s="75"/>
+      <c r="AW14" s="74"/>
+      <c r="AX14" s="36"/>
+      <c r="AY14" s="117"/>
+      <c r="AZ14" s="117"/>
+      <c r="BA14" s="118"/>
+      <c r="BB14" s="36"/>
     </row>
     <row r="15" spans="1:54" ht="18.75" customHeight="1">
-      <c r="A15" s="50"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
+      <c r="A15" s="121"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="36"/>
-      <c r="V15" s="36"/>
-      <c r="W15" s="70" t="s">
+      <c r="G15" s="114"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="114"/>
+      <c r="J15" s="115"/>
+      <c r="K15" s="115"/>
+      <c r="L15" s="134"/>
+      <c r="M15" s="134"/>
+      <c r="N15" s="134"/>
+      <c r="O15" s="134"/>
+      <c r="P15" s="134"/>
+      <c r="Q15" s="134"/>
+      <c r="R15" s="134"/>
+      <c r="S15" s="134"/>
+      <c r="T15" s="134"/>
+      <c r="U15" s="134"/>
+      <c r="V15" s="134"/>
+      <c r="W15" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="X15" s="70"/>
-      <c r="Y15" s="67" t="s">
+      <c r="X15" s="34"/>
+      <c r="Y15" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="Z15" s="69">
+      <c r="Z15" s="36">
         <v>3</v>
       </c>
-      <c r="AA15" s="81" t="s">
+      <c r="AA15" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="AB15" s="55"/>
-      <c r="AC15" s="83" t="s">
+      <c r="AB15" s="42"/>
+      <c r="AC15" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="AD15" s="69">
+      <c r="AD15" s="36">
         <v>16</v>
       </c>
-      <c r="AE15" s="70" t="s">
+      <c r="AE15" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="AF15" s="70"/>
-      <c r="AG15" s="67" t="s">
+      <c r="AF15" s="34"/>
+      <c r="AG15" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="AH15" s="69">
+      <c r="AH15" s="36">
         <v>42</v>
       </c>
-      <c r="AI15" s="70" t="s">
+      <c r="AI15" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="AJ15" s="70"/>
-      <c r="AK15" s="67" t="s">
+      <c r="AJ15" s="34"/>
+      <c r="AK15" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="AL15" s="69">
+      <c r="AL15" s="36">
         <v>59</v>
       </c>
-      <c r="AM15" s="70" t="s">
+      <c r="AM15" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="AN15" s="70"/>
-      <c r="AO15" s="67" t="s">
+      <c r="AN15" s="34"/>
+      <c r="AO15" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="AP15" s="69">
+      <c r="AP15" s="36">
         <v>72</v>
       </c>
-      <c r="AQ15" s="70" t="s">
+      <c r="AQ15" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="AR15" s="70"/>
-      <c r="AS15" s="67" t="s">
+      <c r="AR15" s="34"/>
+      <c r="AS15" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="AT15" s="69">
+      <c r="AT15" s="36">
         <v>88</v>
       </c>
-      <c r="AU15" s="72" t="s">
+      <c r="AU15" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="AV15" s="72"/>
-      <c r="AW15" s="71" t="s">
+      <c r="AV15" s="38"/>
+      <c r="AW15" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="AX15" s="69">
+      <c r="AX15" s="36">
         <v>100</v>
       </c>
-      <c r="AY15" s="70" t="s">
+      <c r="AY15" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="AZ15" s="70"/>
-      <c r="BA15" s="67" t="s">
+      <c r="AZ15" s="34"/>
+      <c r="BA15" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="BB15" s="69">
+      <c r="BB15" s="36">
         <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:54" ht="18.75" customHeight="1">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="58"/>
-      <c r="C16" s="59" t="s">
+      <c r="B16" s="116"/>
+      <c r="C16" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="60">
+      <c r="D16" s="109">
         <v>6</v>
       </c>
-      <c r="E16" s="60"/>
+      <c r="E16" s="109"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="58" t="s">
+      <c r="G16" s="116" t="s">
         <v>72</v>
       </c>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="60">
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="109">
         <v>14</v>
       </c>
-      <c r="K16" s="60"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="36"/>
-      <c r="W16" s="70"/>
-      <c r="X16" s="70"/>
-      <c r="Y16" s="67"/>
-      <c r="Z16" s="69"/>
-      <c r="AA16" s="82"/>
-      <c r="AB16" s="57"/>
-      <c r="AC16" s="71"/>
-      <c r="AD16" s="69"/>
-      <c r="AE16" s="70"/>
-      <c r="AF16" s="70"/>
-      <c r="AG16" s="67"/>
-      <c r="AH16" s="69"/>
-      <c r="AI16" s="70"/>
-      <c r="AJ16" s="70"/>
-      <c r="AK16" s="67"/>
-      <c r="AL16" s="69"/>
-      <c r="AM16" s="70"/>
-      <c r="AN16" s="70"/>
-      <c r="AO16" s="67"/>
-      <c r="AP16" s="69"/>
-      <c r="AQ16" s="70"/>
-      <c r="AR16" s="70"/>
-      <c r="AS16" s="67"/>
-      <c r="AT16" s="69"/>
-      <c r="AU16" s="72"/>
-      <c r="AV16" s="72"/>
-      <c r="AW16" s="71"/>
-      <c r="AX16" s="69"/>
-      <c r="AY16" s="70"/>
-      <c r="AZ16" s="70"/>
-      <c r="BA16" s="67"/>
-      <c r="BB16" s="69"/>
+      <c r="K16" s="109"/>
+      <c r="L16" s="134"/>
+      <c r="M16" s="134"/>
+      <c r="N16" s="134"/>
+      <c r="O16" s="134"/>
+      <c r="P16" s="134"/>
+      <c r="Q16" s="134"/>
+      <c r="R16" s="134"/>
+      <c r="S16" s="134"/>
+      <c r="T16" s="134"/>
+      <c r="U16" s="134"/>
+      <c r="V16" s="134"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="34"/>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="36"/>
+      <c r="AA16" s="43"/>
+      <c r="AB16" s="44"/>
+      <c r="AC16" s="39"/>
+      <c r="AD16" s="36"/>
+      <c r="AE16" s="34"/>
+      <c r="AF16" s="34"/>
+      <c r="AG16" s="37"/>
+      <c r="AH16" s="36"/>
+      <c r="AI16" s="34"/>
+      <c r="AJ16" s="34"/>
+      <c r="AK16" s="37"/>
+      <c r="AL16" s="36"/>
+      <c r="AM16" s="34"/>
+      <c r="AN16" s="34"/>
+      <c r="AO16" s="37"/>
+      <c r="AP16" s="36"/>
+      <c r="AQ16" s="34"/>
+      <c r="AR16" s="34"/>
+      <c r="AS16" s="37"/>
+      <c r="AT16" s="36"/>
+      <c r="AU16" s="38"/>
+      <c r="AV16" s="38"/>
+      <c r="AW16" s="39"/>
+      <c r="AX16" s="36"/>
+      <c r="AY16" s="34"/>
+      <c r="AZ16" s="34"/>
+      <c r="BA16" s="37"/>
+      <c r="BB16" s="36"/>
     </row>
     <row r="17" spans="1:54" ht="18.75" customHeight="1">
-      <c r="A17" s="58"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
+      <c r="A17" s="116"/>
+      <c r="B17" s="116"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="109"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="36"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="36"/>
-      <c r="V17" s="36"/>
-      <c r="W17" s="70" t="s">
+      <c r="G17" s="116"/>
+      <c r="H17" s="116"/>
+      <c r="I17" s="116"/>
+      <c r="J17" s="109"/>
+      <c r="K17" s="109"/>
+      <c r="L17" s="134"/>
+      <c r="M17" s="134"/>
+      <c r="N17" s="134"/>
+      <c r="O17" s="134"/>
+      <c r="P17" s="134"/>
+      <c r="Q17" s="134"/>
+      <c r="R17" s="134"/>
+      <c r="S17" s="134"/>
+      <c r="T17" s="134"/>
+      <c r="U17" s="134"/>
+      <c r="V17" s="134"/>
+      <c r="W17" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="X17" s="70"/>
-      <c r="Y17" s="67" t="s">
+      <c r="X17" s="34"/>
+      <c r="Y17" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="Z17" s="69">
+      <c r="Z17" s="36">
         <v>4</v>
       </c>
-      <c r="AA17" s="81" t="s">
+      <c r="AA17" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="AB17" s="55"/>
-      <c r="AC17" s="83" t="s">
+      <c r="AB17" s="42"/>
+      <c r="AC17" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="AD17" s="69">
+      <c r="AD17" s="36">
         <v>17</v>
       </c>
-      <c r="AE17" s="70" t="s">
+      <c r="AE17" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="AF17" s="70"/>
-      <c r="AG17" s="67" t="s">
+      <c r="AF17" s="34"/>
+      <c r="AG17" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="AH17" s="69">
+      <c r="AH17" s="36">
         <v>43</v>
       </c>
-      <c r="AI17" s="70"/>
-      <c r="AJ17" s="70"/>
-      <c r="AK17" s="67"/>
-      <c r="AL17" s="69"/>
-      <c r="AM17" s="70" t="s">
+      <c r="AI17" s="34"/>
+      <c r="AJ17" s="34"/>
+      <c r="AK17" s="37"/>
+      <c r="AL17" s="36"/>
+      <c r="AM17" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="AN17" s="70"/>
-      <c r="AO17" s="67" t="s">
+      <c r="AN17" s="34"/>
+      <c r="AO17" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="AP17" s="69">
+      <c r="AP17" s="36">
         <v>73</v>
       </c>
-      <c r="AQ17" s="77"/>
-      <c r="AR17" s="77"/>
-      <c r="AS17" s="78"/>
-      <c r="AT17" s="69"/>
-      <c r="AU17" s="70" t="s">
+      <c r="AQ17" s="75"/>
+      <c r="AR17" s="75"/>
+      <c r="AS17" s="74"/>
+      <c r="AT17" s="36"/>
+      <c r="AU17" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="AV17" s="70"/>
-      <c r="AW17" s="67" t="s">
+      <c r="AV17" s="34"/>
+      <c r="AW17" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="AX17" s="69">
+      <c r="AX17" s="36">
         <v>101</v>
       </c>
-      <c r="AY17" s="70" t="s">
+      <c r="AY17" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="AZ17" s="70"/>
-      <c r="BA17" s="67" t="s">
+      <c r="AZ17" s="34"/>
+      <c r="BA17" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="BB17" s="69">
+      <c r="BB17" s="36">
         <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:54" ht="18.75" customHeight="1">
-      <c r="A18" s="84" t="s">
+      <c r="A18" s="112" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="84"/>
-      <c r="C18" s="54" t="s">
+      <c r="B18" s="112"/>
+      <c r="C18" s="113" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="55">
+      <c r="D18" s="42">
         <v>7</v>
       </c>
-      <c r="E18" s="55"/>
+      <c r="E18" s="42"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="61" t="s">
+      <c r="G18" s="114" t="s">
         <v>89</v>
       </c>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="62">
+      <c r="H18" s="114"/>
+      <c r="I18" s="114"/>
+      <c r="J18" s="115">
         <v>15</v>
       </c>
-      <c r="K18" s="62"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="36"/>
-      <c r="U18" s="36"/>
-      <c r="V18" s="36"/>
-      <c r="W18" s="70"/>
-      <c r="X18" s="70"/>
-      <c r="Y18" s="67"/>
-      <c r="Z18" s="69"/>
-      <c r="AA18" s="82"/>
-      <c r="AB18" s="57"/>
-      <c r="AC18" s="71"/>
-      <c r="AD18" s="69"/>
-      <c r="AE18" s="70"/>
-      <c r="AF18" s="70"/>
-      <c r="AG18" s="67"/>
-      <c r="AH18" s="69"/>
-      <c r="AI18" s="70"/>
-      <c r="AJ18" s="70"/>
-      <c r="AK18" s="67"/>
-      <c r="AL18" s="69"/>
-      <c r="AM18" s="70"/>
-      <c r="AN18" s="70"/>
-      <c r="AO18" s="67"/>
-      <c r="AP18" s="69"/>
-      <c r="AQ18" s="77"/>
-      <c r="AR18" s="77"/>
-      <c r="AS18" s="78"/>
-      <c r="AT18" s="69"/>
-      <c r="AU18" s="70"/>
-      <c r="AV18" s="70"/>
-      <c r="AW18" s="67"/>
-      <c r="AX18" s="69"/>
-      <c r="AY18" s="70"/>
-      <c r="AZ18" s="70"/>
-      <c r="BA18" s="67"/>
-      <c r="BB18" s="69"/>
+      <c r="K18" s="115"/>
+      <c r="L18" s="134"/>
+      <c r="M18" s="134"/>
+      <c r="N18" s="134"/>
+      <c r="O18" s="134"/>
+      <c r="P18" s="134"/>
+      <c r="Q18" s="134"/>
+      <c r="R18" s="134"/>
+      <c r="S18" s="134"/>
+      <c r="T18" s="134"/>
+      <c r="U18" s="134"/>
+      <c r="V18" s="134"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="34"/>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="36"/>
+      <c r="AA18" s="43"/>
+      <c r="AB18" s="44"/>
+      <c r="AC18" s="39"/>
+      <c r="AD18" s="36"/>
+      <c r="AE18" s="34"/>
+      <c r="AF18" s="34"/>
+      <c r="AG18" s="37"/>
+      <c r="AH18" s="36"/>
+      <c r="AI18" s="34"/>
+      <c r="AJ18" s="34"/>
+      <c r="AK18" s="37"/>
+      <c r="AL18" s="36"/>
+      <c r="AM18" s="34"/>
+      <c r="AN18" s="34"/>
+      <c r="AO18" s="37"/>
+      <c r="AP18" s="36"/>
+      <c r="AQ18" s="75"/>
+      <c r="AR18" s="75"/>
+      <c r="AS18" s="74"/>
+      <c r="AT18" s="36"/>
+      <c r="AU18" s="34"/>
+      <c r="AV18" s="34"/>
+      <c r="AW18" s="37"/>
+      <c r="AX18" s="36"/>
+      <c r="AY18" s="34"/>
+      <c r="AZ18" s="34"/>
+      <c r="BA18" s="37"/>
+      <c r="BB18" s="36"/>
     </row>
     <row r="19" spans="1:54" ht="18.75" customHeight="1">
-      <c r="A19" s="84"/>
-      <c r="B19" s="84"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
+      <c r="A19" s="112"/>
+      <c r="B19" s="112"/>
+      <c r="C19" s="113"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="36"/>
-      <c r="U19" s="36"/>
-      <c r="V19" s="36"/>
-      <c r="W19" s="70" t="s">
+      <c r="G19" s="114"/>
+      <c r="H19" s="114"/>
+      <c r="I19" s="114"/>
+      <c r="J19" s="115"/>
+      <c r="K19" s="115"/>
+      <c r="L19" s="134"/>
+      <c r="M19" s="134"/>
+      <c r="N19" s="134"/>
+      <c r="O19" s="134"/>
+      <c r="P19" s="134"/>
+      <c r="Q19" s="134"/>
+      <c r="R19" s="134"/>
+      <c r="S19" s="134"/>
+      <c r="T19" s="134"/>
+      <c r="U19" s="134"/>
+      <c r="V19" s="134"/>
+      <c r="W19" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="X19" s="70"/>
-      <c r="Y19" s="67" t="s">
+      <c r="X19" s="34"/>
+      <c r="Y19" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="Z19" s="69">
+      <c r="Z19" s="36">
         <v>5</v>
       </c>
-      <c r="AA19" s="81" t="s">
+      <c r="AA19" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="AB19" s="55"/>
-      <c r="AC19" s="83" t="s">
+      <c r="AB19" s="42"/>
+      <c r="AC19" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="AD19" s="69">
+      <c r="AD19" s="36">
         <v>18</v>
       </c>
-      <c r="AE19" s="70"/>
-      <c r="AF19" s="70"/>
-      <c r="AG19" s="67"/>
-      <c r="AH19" s="69"/>
-      <c r="AI19" s="70"/>
-      <c r="AJ19" s="70"/>
-      <c r="AK19" s="67"/>
-      <c r="AL19" s="69"/>
-      <c r="AM19" s="70" t="s">
+      <c r="AE19" s="34"/>
+      <c r="AF19" s="34"/>
+      <c r="AG19" s="37"/>
+      <c r="AH19" s="36"/>
+      <c r="AI19" s="34"/>
+      <c r="AJ19" s="34"/>
+      <c r="AK19" s="37"/>
+      <c r="AL19" s="36"/>
+      <c r="AM19" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="AN19" s="70"/>
-      <c r="AO19" s="67" t="s">
+      <c r="AN19" s="34"/>
+      <c r="AO19" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="AP19" s="69">
+      <c r="AP19" s="36">
         <v>74</v>
       </c>
-      <c r="AQ19" s="70" t="s">
+      <c r="AQ19" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="AR19" s="70"/>
-      <c r="AS19" s="67" t="s">
+      <c r="AR19" s="34"/>
+      <c r="AS19" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="AT19" s="69">
+      <c r="AT19" s="36">
         <v>89</v>
       </c>
-      <c r="AU19" s="70" t="s">
+      <c r="AU19" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="AV19" s="70"/>
-      <c r="AW19" s="71" t="s">
+      <c r="AV19" s="34"/>
+      <c r="AW19" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="AX19" s="69">
+      <c r="AX19" s="36">
         <v>102</v>
       </c>
-      <c r="AY19" s="70" t="s">
+      <c r="AY19" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="AZ19" s="70"/>
-      <c r="BA19" s="71" t="s">
+      <c r="AZ19" s="34"/>
+      <c r="BA19" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="BB19" s="69">
+      <c r="BB19" s="36">
         <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:54" ht="18.75" customHeight="1">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="107" t="s">
         <v>103</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="59" t="s">
+      <c r="B20" s="107"/>
+      <c r="C20" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="60">
+      <c r="D20" s="109">
         <v>8</v>
       </c>
-      <c r="E20" s="60"/>
+      <c r="E20" s="109"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="38" t="s">
+      <c r="G20" s="107" t="s">
         <v>104</v>
       </c>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="60">
+      <c r="H20" s="107"/>
+      <c r="I20" s="107"/>
+      <c r="J20" s="109">
         <v>16</v>
       </c>
-      <c r="K20" s="60"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="36"/>
-      <c r="W20" s="70"/>
-      <c r="X20" s="70"/>
-      <c r="Y20" s="67"/>
-      <c r="Z20" s="69"/>
-      <c r="AA20" s="82"/>
-      <c r="AB20" s="57"/>
-      <c r="AC20" s="71"/>
-      <c r="AD20" s="69"/>
-      <c r="AE20" s="70"/>
-      <c r="AF20" s="70"/>
-      <c r="AG20" s="67"/>
-      <c r="AH20" s="69"/>
-      <c r="AI20" s="70"/>
-      <c r="AJ20" s="70"/>
-      <c r="AK20" s="67"/>
-      <c r="AL20" s="69"/>
-      <c r="AM20" s="70"/>
-      <c r="AN20" s="70"/>
-      <c r="AO20" s="67"/>
-      <c r="AP20" s="69"/>
-      <c r="AQ20" s="70"/>
-      <c r="AR20" s="70"/>
-      <c r="AS20" s="67"/>
-      <c r="AT20" s="69"/>
-      <c r="AU20" s="70"/>
-      <c r="AV20" s="70"/>
-      <c r="AW20" s="71"/>
-      <c r="AX20" s="69"/>
-      <c r="AY20" s="70"/>
-      <c r="AZ20" s="70"/>
-      <c r="BA20" s="71"/>
-      <c r="BB20" s="69"/>
+      <c r="K20" s="109"/>
+      <c r="L20" s="134"/>
+      <c r="M20" s="134"/>
+      <c r="N20" s="134"/>
+      <c r="O20" s="134"/>
+      <c r="P20" s="134"/>
+      <c r="Q20" s="134"/>
+      <c r="R20" s="134"/>
+      <c r="S20" s="134"/>
+      <c r="T20" s="134"/>
+      <c r="U20" s="134"/>
+      <c r="V20" s="134"/>
+      <c r="W20" s="34"/>
+      <c r="X20" s="34"/>
+      <c r="Y20" s="37"/>
+      <c r="Z20" s="36"/>
+      <c r="AA20" s="43"/>
+      <c r="AB20" s="44"/>
+      <c r="AC20" s="39"/>
+      <c r="AD20" s="36"/>
+      <c r="AE20" s="34"/>
+      <c r="AF20" s="34"/>
+      <c r="AG20" s="37"/>
+      <c r="AH20" s="36"/>
+      <c r="AI20" s="34"/>
+      <c r="AJ20" s="34"/>
+      <c r="AK20" s="37"/>
+      <c r="AL20" s="36"/>
+      <c r="AM20" s="34"/>
+      <c r="AN20" s="34"/>
+      <c r="AO20" s="37"/>
+      <c r="AP20" s="36"/>
+      <c r="AQ20" s="34"/>
+      <c r="AR20" s="34"/>
+      <c r="AS20" s="37"/>
+      <c r="AT20" s="36"/>
+      <c r="AU20" s="34"/>
+      <c r="AV20" s="34"/>
+      <c r="AW20" s="39"/>
+      <c r="AX20" s="36"/>
+      <c r="AY20" s="34"/>
+      <c r="AZ20" s="34"/>
+      <c r="BA20" s="39"/>
+      <c r="BB20" s="36"/>
     </row>
     <row r="21" spans="1:54" ht="18.75" customHeight="1">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
+      <c r="A21" s="107"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="109"/>
+      <c r="E21" s="109"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="36"/>
-      <c r="W21" s="70" t="s">
+      <c r="G21" s="107"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="109"/>
+      <c r="K21" s="109"/>
+      <c r="L21" s="134"/>
+      <c r="M21" s="134"/>
+      <c r="N21" s="134"/>
+      <c r="O21" s="134"/>
+      <c r="P21" s="134"/>
+      <c r="Q21" s="134"/>
+      <c r="R21" s="134"/>
+      <c r="S21" s="134"/>
+      <c r="T21" s="134"/>
+      <c r="U21" s="134"/>
+      <c r="V21" s="134"/>
+      <c r="W21" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="X21" s="70"/>
-      <c r="Y21" s="67" t="s">
+      <c r="X21" s="34"/>
+      <c r="Y21" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="Z21" s="69">
+      <c r="Z21" s="36">
         <v>6</v>
       </c>
-      <c r="AA21" s="70" t="s">
+      <c r="AA21" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="AB21" s="70"/>
-      <c r="AC21" s="67" t="s">
+      <c r="AB21" s="34"/>
+      <c r="AC21" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="AD21" s="69">
+      <c r="AD21" s="36">
         <v>19</v>
       </c>
-      <c r="AE21" s="70" t="s">
+      <c r="AE21" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="AF21" s="70"/>
-      <c r="AG21" s="67" t="s">
+      <c r="AF21" s="34"/>
+      <c r="AG21" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="AH21" s="69">
+      <c r="AH21" s="36">
         <v>44</v>
       </c>
-      <c r="AI21" s="70" t="s">
+      <c r="AI21" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="AJ21" s="70"/>
-      <c r="AK21" s="67" t="s">
+      <c r="AJ21" s="34"/>
+      <c r="AK21" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="AL21" s="69">
+      <c r="AL21" s="36">
         <v>60</v>
       </c>
       <c r="AM21" s="86" t="s">
         <v>122</v>
       </c>
       <c r="AN21" s="86"/>
-      <c r="AO21" s="67" t="s">
+      <c r="AO21" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="AP21" s="69">
+      <c r="AP21" s="36">
         <v>75</v>
       </c>
-      <c r="AQ21" s="70" t="s">
+      <c r="AQ21" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="AR21" s="70"/>
-      <c r="AS21" s="67" t="s">
+      <c r="AR21" s="34"/>
+      <c r="AS21" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="AT21" s="69">
+      <c r="AT21" s="36">
         <v>90</v>
       </c>
-      <c r="AU21" s="72" t="s">
+      <c r="AU21" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="AV21" s="72"/>
-      <c r="AW21" s="71" t="s">
+      <c r="AV21" s="38"/>
+      <c r="AW21" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="AX21" s="69">
+      <c r="AX21" s="36">
         <v>103</v>
       </c>
-      <c r="AY21" s="70" t="s">
+      <c r="AY21" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="AZ21" s="70"/>
-      <c r="BA21" s="71" t="s">
+      <c r="AZ21" s="34"/>
+      <c r="BA21" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="BB21" s="69">
+      <c r="BB21" s="36">
         <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:54" ht="18.75" customHeight="1">
-      <c r="B22" s="85" t="s">
+      <c r="B22" s="110" t="s">
         <v>258</v>
       </c>
-      <c r="C22" s="85"/>
-      <c r="D22" s="39">
+      <c r="C22" s="110"/>
+      <c r="D22" s="111">
         <f>SUM(D6:D20)</f>
         <v>36</v>
       </c>
-      <c r="E22" s="39"/>
+      <c r="E22" s="111"/>
       <c r="F22" s="2"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
-      <c r="S22" s="36"/>
-      <c r="T22" s="36"/>
-      <c r="U22" s="36"/>
-      <c r="V22" s="36"/>
-      <c r="W22" s="70"/>
-      <c r="X22" s="70"/>
-      <c r="Y22" s="67"/>
-      <c r="Z22" s="69"/>
-      <c r="AA22" s="70"/>
-      <c r="AB22" s="70"/>
-      <c r="AC22" s="67"/>
-      <c r="AD22" s="69"/>
-      <c r="AE22" s="70"/>
-      <c r="AF22" s="70"/>
-      <c r="AG22" s="67"/>
-      <c r="AH22" s="69"/>
-      <c r="AI22" s="70"/>
-      <c r="AJ22" s="70"/>
-      <c r="AK22" s="67"/>
-      <c r="AL22" s="69"/>
+      <c r="L22" s="134"/>
+      <c r="M22" s="134"/>
+      <c r="N22" s="134"/>
+      <c r="O22" s="134"/>
+      <c r="P22" s="134"/>
+      <c r="Q22" s="134"/>
+      <c r="R22" s="134"/>
+      <c r="S22" s="134"/>
+      <c r="T22" s="134"/>
+      <c r="U22" s="134"/>
+      <c r="V22" s="134"/>
+      <c r="W22" s="34"/>
+      <c r="X22" s="34"/>
+      <c r="Y22" s="37"/>
+      <c r="Z22" s="36"/>
+      <c r="AA22" s="34"/>
+      <c r="AB22" s="34"/>
+      <c r="AC22" s="37"/>
+      <c r="AD22" s="36"/>
+      <c r="AE22" s="34"/>
+      <c r="AF22" s="34"/>
+      <c r="AG22" s="37"/>
+      <c r="AH22" s="36"/>
+      <c r="AI22" s="34"/>
+      <c r="AJ22" s="34"/>
+      <c r="AK22" s="37"/>
+      <c r="AL22" s="36"/>
       <c r="AM22" s="86"/>
       <c r="AN22" s="86"/>
-      <c r="AO22" s="67"/>
-      <c r="AP22" s="69"/>
-      <c r="AQ22" s="70"/>
-      <c r="AR22" s="70"/>
-      <c r="AS22" s="67"/>
-      <c r="AT22" s="69"/>
-      <c r="AU22" s="72"/>
-      <c r="AV22" s="72"/>
-      <c r="AW22" s="71"/>
-      <c r="AX22" s="69"/>
-      <c r="AY22" s="70"/>
-      <c r="AZ22" s="70"/>
-      <c r="BA22" s="71"/>
-      <c r="BB22" s="69"/>
+      <c r="AO22" s="37"/>
+      <c r="AP22" s="36"/>
+      <c r="AQ22" s="34"/>
+      <c r="AR22" s="34"/>
+      <c r="AS22" s="37"/>
+      <c r="AT22" s="36"/>
+      <c r="AU22" s="38"/>
+      <c r="AV22" s="38"/>
+      <c r="AW22" s="39"/>
+      <c r="AX22" s="36"/>
+      <c r="AY22" s="34"/>
+      <c r="AZ22" s="34"/>
+      <c r="BA22" s="39"/>
+      <c r="BB22" s="36"/>
     </row>
     <row r="23" spans="1:54" ht="18.75" customHeight="1">
       <c r="B23" s="22"/>
@@ -4473,239 +4488,239 @@
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="36"/>
-      <c r="S23" s="36"/>
-      <c r="T23" s="36"/>
-      <c r="U23" s="36"/>
-      <c r="V23" s="36"/>
-      <c r="W23" s="70" t="s">
+      <c r="L23" s="134"/>
+      <c r="M23" s="134"/>
+      <c r="N23" s="134"/>
+      <c r="O23" s="134"/>
+      <c r="P23" s="134"/>
+      <c r="Q23" s="134"/>
+      <c r="R23" s="134"/>
+      <c r="S23" s="134"/>
+      <c r="T23" s="134"/>
+      <c r="U23" s="134"/>
+      <c r="V23" s="134"/>
+      <c r="W23" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="X23" s="70"/>
-      <c r="Y23" s="67" t="s">
+      <c r="X23" s="34"/>
+      <c r="Y23" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="Z23" s="69">
+      <c r="Z23" s="36">
         <v>7</v>
       </c>
-      <c r="AA23" s="70"/>
-      <c r="AB23" s="70"/>
-      <c r="AC23" s="67"/>
-      <c r="AD23" s="69"/>
-      <c r="AE23" s="70" t="s">
+      <c r="AA23" s="34"/>
+      <c r="AB23" s="34"/>
+      <c r="AC23" s="37"/>
+      <c r="AD23" s="36"/>
+      <c r="AE23" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="AF23" s="70"/>
-      <c r="AG23" s="67" t="s">
+      <c r="AF23" s="34"/>
+      <c r="AG23" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="AH23" s="69">
+      <c r="AH23" s="36">
         <v>45</v>
       </c>
-      <c r="AI23" s="70" t="s">
+      <c r="AI23" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="AJ23" s="70"/>
-      <c r="AK23" s="67" t="s">
+      <c r="AJ23" s="34"/>
+      <c r="AK23" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="AL23" s="69">
+      <c r="AL23" s="36">
         <v>61</v>
       </c>
       <c r="AM23" s="86" t="s">
         <v>133</v>
       </c>
       <c r="AN23" s="86"/>
-      <c r="AO23" s="67" t="s">
+      <c r="AO23" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="AP23" s="69">
+      <c r="AP23" s="36">
         <v>76</v>
       </c>
-      <c r="AQ23" s="70" t="s">
+      <c r="AQ23" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="AR23" s="70"/>
-      <c r="AS23" s="67" t="s">
+      <c r="AR23" s="34"/>
+      <c r="AS23" s="37" t="s">
         <v>266</v>
       </c>
-      <c r="AT23" s="69">
+      <c r="AT23" s="36">
         <v>91</v>
       </c>
-      <c r="AU23" s="70" t="s">
+      <c r="AU23" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="AV23" s="70"/>
-      <c r="AW23" s="71" t="s">
+      <c r="AV23" s="34"/>
+      <c r="AW23" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="AX23" s="69">
+      <c r="AX23" s="36">
         <v>104</v>
       </c>
-      <c r="AY23" s="70" t="s">
+      <c r="AY23" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="AZ23" s="70"/>
-      <c r="BA23" s="71" t="s">
+      <c r="AZ23" s="34"/>
+      <c r="BA23" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="BB23" s="69">
+      <c r="BB23" s="36">
         <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:54" ht="18.75" customHeight="1">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="44" t="s">
+      <c r="B24" s="47"/>
+      <c r="C24" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="D24" s="46"/>
-      <c r="E24" s="136" t="s">
+      <c r="D24" s="47"/>
+      <c r="E24" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="F24" s="138" t="s">
+      <c r="F24" s="52" t="s">
         <v>240</v>
       </c>
-      <c r="G24" s="138" t="s">
+      <c r="G24" s="52" t="s">
         <v>241</v>
       </c>
-      <c r="H24" s="138" t="s">
+      <c r="H24" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="I24" s="44" t="s">
+      <c r="I24" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="J24" s="45"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="36"/>
-      <c r="V24" s="36"/>
-      <c r="W24" s="70"/>
-      <c r="X24" s="70"/>
-      <c r="Y24" s="67"/>
-      <c r="Z24" s="69"/>
-      <c r="AA24" s="70"/>
-      <c r="AB24" s="70"/>
-      <c r="AC24" s="67"/>
-      <c r="AD24" s="69"/>
-      <c r="AE24" s="70"/>
-      <c r="AF24" s="70"/>
-      <c r="AG24" s="67"/>
-      <c r="AH24" s="69"/>
-      <c r="AI24" s="70"/>
-      <c r="AJ24" s="70"/>
-      <c r="AK24" s="67"/>
-      <c r="AL24" s="69"/>
+      <c r="J24" s="136"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="134"/>
+      <c r="M24" s="134"/>
+      <c r="N24" s="134"/>
+      <c r="O24" s="134"/>
+      <c r="P24" s="134"/>
+      <c r="Q24" s="134"/>
+      <c r="R24" s="134"/>
+      <c r="S24" s="134"/>
+      <c r="T24" s="134"/>
+      <c r="U24" s="134"/>
+      <c r="V24" s="134"/>
+      <c r="W24" s="34"/>
+      <c r="X24" s="34"/>
+      <c r="Y24" s="37"/>
+      <c r="Z24" s="36"/>
+      <c r="AA24" s="34"/>
+      <c r="AB24" s="34"/>
+      <c r="AC24" s="37"/>
+      <c r="AD24" s="36"/>
+      <c r="AE24" s="34"/>
+      <c r="AF24" s="34"/>
+      <c r="AG24" s="37"/>
+      <c r="AH24" s="36"/>
+      <c r="AI24" s="34"/>
+      <c r="AJ24" s="34"/>
+      <c r="AK24" s="37"/>
+      <c r="AL24" s="36"/>
       <c r="AM24" s="86"/>
       <c r="AN24" s="86"/>
-      <c r="AO24" s="67"/>
-      <c r="AP24" s="69"/>
-      <c r="AQ24" s="70"/>
-      <c r="AR24" s="70"/>
-      <c r="AS24" s="67"/>
-      <c r="AT24" s="69"/>
-      <c r="AU24" s="70"/>
-      <c r="AV24" s="70"/>
-      <c r="AW24" s="71"/>
-      <c r="AX24" s="69"/>
-      <c r="AY24" s="70"/>
-      <c r="AZ24" s="70"/>
-      <c r="BA24" s="71"/>
-      <c r="BB24" s="69"/>
+      <c r="AO24" s="37"/>
+      <c r="AP24" s="36"/>
+      <c r="AQ24" s="34"/>
+      <c r="AR24" s="34"/>
+      <c r="AS24" s="37"/>
+      <c r="AT24" s="36"/>
+      <c r="AU24" s="34"/>
+      <c r="AV24" s="34"/>
+      <c r="AW24" s="39"/>
+      <c r="AX24" s="36"/>
+      <c r="AY24" s="34"/>
+      <c r="AZ24" s="34"/>
+      <c r="BA24" s="39"/>
+      <c r="BB24" s="36"/>
     </row>
     <row r="25" spans="1:54" ht="18.75" customHeight="1">
-      <c r="A25" s="47"/>
+      <c r="A25" s="48"/>
       <c r="B25" s="49"/>
-      <c r="C25" s="47"/>
+      <c r="C25" s="48"/>
       <c r="D25" s="49"/>
-      <c r="E25" s="137"/>
-      <c r="F25" s="137"/>
-      <c r="G25" s="137"/>
-      <c r="H25" s="137"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="48"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="137"/>
       <c r="K25" s="49"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="36"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="36"/>
-      <c r="V25" s="36"/>
-      <c r="W25" s="77"/>
-      <c r="X25" s="77"/>
-      <c r="Y25" s="78"/>
-      <c r="Z25" s="69"/>
-      <c r="AA25" s="77"/>
-      <c r="AB25" s="77"/>
-      <c r="AC25" s="78"/>
-      <c r="AD25" s="69"/>
-      <c r="AE25" s="70" t="s">
+      <c r="L25" s="134"/>
+      <c r="M25" s="134"/>
+      <c r="N25" s="134"/>
+      <c r="O25" s="134"/>
+      <c r="P25" s="134"/>
+      <c r="Q25" s="134"/>
+      <c r="R25" s="134"/>
+      <c r="S25" s="134"/>
+      <c r="T25" s="134"/>
+      <c r="U25" s="134"/>
+      <c r="V25" s="134"/>
+      <c r="W25" s="75"/>
+      <c r="X25" s="75"/>
+      <c r="Y25" s="74"/>
+      <c r="Z25" s="36"/>
+      <c r="AA25" s="75"/>
+      <c r="AB25" s="75"/>
+      <c r="AC25" s="74"/>
+      <c r="AD25" s="36"/>
+      <c r="AE25" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="AF25" s="70"/>
-      <c r="AG25" s="67" t="s">
+      <c r="AF25" s="34"/>
+      <c r="AG25" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="AH25" s="69">
+      <c r="AH25" s="36">
         <v>46</v>
       </c>
-      <c r="AI25" s="70" t="s">
+      <c r="AI25" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="AJ25" s="70"/>
-      <c r="AK25" s="67" t="s">
+      <c r="AJ25" s="34"/>
+      <c r="AK25" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="AL25" s="69">
+      <c r="AL25" s="36">
         <v>62</v>
       </c>
       <c r="AM25" s="86"/>
       <c r="AN25" s="86"/>
-      <c r="AO25" s="67"/>
-      <c r="AP25" s="69"/>
-      <c r="AQ25" s="77"/>
-      <c r="AR25" s="77"/>
-      <c r="AS25" s="78"/>
-      <c r="AT25" s="69"/>
-      <c r="AU25" s="87" t="s">
+      <c r="AO25" s="37"/>
+      <c r="AP25" s="36"/>
+      <c r="AQ25" s="75"/>
+      <c r="AR25" s="75"/>
+      <c r="AS25" s="74"/>
+      <c r="AT25" s="36"/>
+      <c r="AU25" s="106" t="s">
         <v>135</v>
       </c>
-      <c r="AV25" s="87"/>
-      <c r="AW25" s="71" t="s">
+      <c r="AV25" s="106"/>
+      <c r="AW25" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="AX25" s="69">
+      <c r="AX25" s="36">
         <v>105</v>
       </c>
-      <c r="AY25" s="70" t="s">
+      <c r="AY25" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="AZ25" s="70"/>
-      <c r="BA25" s="67" t="s">
+      <c r="AZ25" s="34"/>
+      <c r="BA25" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="BB25" s="69">
+      <c r="BB25" s="36">
         <v>112</v>
       </c>
     </row>
@@ -4723,49 +4738,49 @@
       <c r="I26" s="11"/>
       <c r="J26" s="2"/>
       <c r="K26" s="12"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="36"/>
-      <c r="R26" s="36"/>
-      <c r="S26" s="36"/>
-      <c r="T26" s="36"/>
-      <c r="U26" s="36"/>
-      <c r="V26" s="36"/>
-      <c r="W26" s="77"/>
-      <c r="X26" s="77"/>
-      <c r="Y26" s="78"/>
-      <c r="Z26" s="69"/>
-      <c r="AA26" s="77"/>
-      <c r="AB26" s="77"/>
-      <c r="AC26" s="78"/>
-      <c r="AD26" s="69"/>
-      <c r="AE26" s="70"/>
-      <c r="AF26" s="70"/>
-      <c r="AG26" s="67"/>
-      <c r="AH26" s="69"/>
-      <c r="AI26" s="70"/>
-      <c r="AJ26" s="70"/>
-      <c r="AK26" s="67"/>
-      <c r="AL26" s="69"/>
+      <c r="L26" s="134"/>
+      <c r="M26" s="134"/>
+      <c r="N26" s="134"/>
+      <c r="O26" s="134"/>
+      <c r="P26" s="134"/>
+      <c r="Q26" s="134"/>
+      <c r="R26" s="134"/>
+      <c r="S26" s="134"/>
+      <c r="T26" s="134"/>
+      <c r="U26" s="134"/>
+      <c r="V26" s="134"/>
+      <c r="W26" s="75"/>
+      <c r="X26" s="75"/>
+      <c r="Y26" s="74"/>
+      <c r="Z26" s="36"/>
+      <c r="AA26" s="75"/>
+      <c r="AB26" s="75"/>
+      <c r="AC26" s="74"/>
+      <c r="AD26" s="36"/>
+      <c r="AE26" s="34"/>
+      <c r="AF26" s="34"/>
+      <c r="AG26" s="37"/>
+      <c r="AH26" s="36"/>
+      <c r="AI26" s="34"/>
+      <c r="AJ26" s="34"/>
+      <c r="AK26" s="37"/>
+      <c r="AL26" s="36"/>
       <c r="AM26" s="86"/>
       <c r="AN26" s="86"/>
-      <c r="AO26" s="67"/>
-      <c r="AP26" s="69"/>
-      <c r="AQ26" s="77"/>
-      <c r="AR26" s="77"/>
-      <c r="AS26" s="78"/>
-      <c r="AT26" s="69"/>
-      <c r="AU26" s="87"/>
-      <c r="AV26" s="87"/>
-      <c r="AW26" s="71"/>
-      <c r="AX26" s="69"/>
-      <c r="AY26" s="70"/>
-      <c r="AZ26" s="70"/>
-      <c r="BA26" s="67"/>
-      <c r="BB26" s="69"/>
+      <c r="AO26" s="37"/>
+      <c r="AP26" s="36"/>
+      <c r="AQ26" s="75"/>
+      <c r="AR26" s="75"/>
+      <c r="AS26" s="74"/>
+      <c r="AT26" s="36"/>
+      <c r="AU26" s="106"/>
+      <c r="AV26" s="106"/>
+      <c r="AW26" s="39"/>
+      <c r="AX26" s="36"/>
+      <c r="AY26" s="34"/>
+      <c r="AZ26" s="34"/>
+      <c r="BA26" s="37"/>
+      <c r="BB26" s="36"/>
     </row>
     <row r="27" spans="1:54" ht="18.75" customHeight="1">
       <c r="A27" s="16"/>
@@ -4779,67 +4794,67 @@
       <c r="I27" s="17"/>
       <c r="J27" s="17"/>
       <c r="K27" s="18"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="36"/>
-      <c r="R27" s="36"/>
-      <c r="S27" s="36"/>
-      <c r="T27" s="36"/>
-      <c r="U27" s="36"/>
-      <c r="V27" s="36"/>
-      <c r="W27" s="70" t="s">
+      <c r="L27" s="134"/>
+      <c r="M27" s="134"/>
+      <c r="N27" s="134"/>
+      <c r="O27" s="134"/>
+      <c r="P27" s="134"/>
+      <c r="Q27" s="134"/>
+      <c r="R27" s="134"/>
+      <c r="S27" s="134"/>
+      <c r="T27" s="134"/>
+      <c r="U27" s="134"/>
+      <c r="V27" s="134"/>
+      <c r="W27" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="X27" s="70"/>
-      <c r="Y27" s="67" t="s">
+      <c r="X27" s="34"/>
+      <c r="Y27" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="Z27" s="69">
+      <c r="Z27" s="36">
         <v>8</v>
       </c>
-      <c r="AA27" s="70" t="s">
+      <c r="AA27" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="AB27" s="70"/>
-      <c r="AC27" s="67" t="s">
+      <c r="AB27" s="34"/>
+      <c r="AC27" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="AD27" s="69">
+      <c r="AD27" s="36">
         <v>20</v>
       </c>
-      <c r="AE27" s="70" t="s">
+      <c r="AE27" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="AF27" s="70"/>
-      <c r="AG27" s="67" t="s">
+      <c r="AF27" s="34"/>
+      <c r="AG27" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="AH27" s="69">
+      <c r="AH27" s="36">
         <v>47</v>
       </c>
-      <c r="AI27" s="70"/>
-      <c r="AJ27" s="70"/>
-      <c r="AK27" s="67"/>
-      <c r="AL27" s="69"/>
-      <c r="AM27" s="77"/>
-      <c r="AN27" s="77"/>
-      <c r="AO27" s="78"/>
-      <c r="AP27" s="69"/>
-      <c r="AQ27" s="77"/>
-      <c r="AR27" s="77"/>
-      <c r="AS27" s="78"/>
-      <c r="AT27" s="69"/>
-      <c r="AU27" s="88"/>
-      <c r="AV27" s="88"/>
-      <c r="AW27" s="89"/>
-      <c r="AX27" s="69"/>
-      <c r="AY27" s="77"/>
-      <c r="AZ27" s="77"/>
-      <c r="BA27" s="78"/>
-      <c r="BB27" s="69"/>
+      <c r="AI27" s="34"/>
+      <c r="AJ27" s="34"/>
+      <c r="AK27" s="37"/>
+      <c r="AL27" s="36"/>
+      <c r="AM27" s="75"/>
+      <c r="AN27" s="75"/>
+      <c r="AO27" s="74"/>
+      <c r="AP27" s="36"/>
+      <c r="AQ27" s="75"/>
+      <c r="AR27" s="75"/>
+      <c r="AS27" s="74"/>
+      <c r="AT27" s="36"/>
+      <c r="AU27" s="104"/>
+      <c r="AV27" s="104"/>
+      <c r="AW27" s="105"/>
+      <c r="AX27" s="36"/>
+      <c r="AY27" s="75"/>
+      <c r="AZ27" s="75"/>
+      <c r="BA27" s="74"/>
+      <c r="BB27" s="36"/>
     </row>
     <row r="28" spans="1:54" ht="18.75" customHeight="1">
       <c r="A28" s="11" t="s">
@@ -4855,49 +4870,49 @@
       <c r="I28" s="11"/>
       <c r="J28" s="2"/>
       <c r="K28" s="12"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="36"/>
-      <c r="S28" s="36"/>
-      <c r="T28" s="36"/>
-      <c r="U28" s="36"/>
-      <c r="V28" s="36"/>
-      <c r="W28" s="70"/>
-      <c r="X28" s="70"/>
-      <c r="Y28" s="67"/>
-      <c r="Z28" s="69"/>
-      <c r="AA28" s="70"/>
-      <c r="AB28" s="70"/>
-      <c r="AC28" s="67"/>
-      <c r="AD28" s="69"/>
-      <c r="AE28" s="70"/>
-      <c r="AF28" s="70"/>
-      <c r="AG28" s="67"/>
-      <c r="AH28" s="69"/>
-      <c r="AI28" s="70"/>
-      <c r="AJ28" s="70"/>
-      <c r="AK28" s="67"/>
-      <c r="AL28" s="69"/>
-      <c r="AM28" s="77"/>
-      <c r="AN28" s="77"/>
-      <c r="AO28" s="78"/>
-      <c r="AP28" s="69"/>
-      <c r="AQ28" s="77"/>
-      <c r="AR28" s="77"/>
-      <c r="AS28" s="78"/>
-      <c r="AT28" s="69"/>
-      <c r="AU28" s="88"/>
-      <c r="AV28" s="88"/>
-      <c r="AW28" s="89"/>
-      <c r="AX28" s="69"/>
-      <c r="AY28" s="77"/>
-      <c r="AZ28" s="77"/>
-      <c r="BA28" s="78"/>
-      <c r="BB28" s="69"/>
+      <c r="L28" s="134"/>
+      <c r="M28" s="134"/>
+      <c r="N28" s="134"/>
+      <c r="O28" s="134"/>
+      <c r="P28" s="134"/>
+      <c r="Q28" s="134"/>
+      <c r="R28" s="134"/>
+      <c r="S28" s="134"/>
+      <c r="T28" s="134"/>
+      <c r="U28" s="134"/>
+      <c r="V28" s="134"/>
+      <c r="W28" s="34"/>
+      <c r="X28" s="34"/>
+      <c r="Y28" s="37"/>
+      <c r="Z28" s="36"/>
+      <c r="AA28" s="34"/>
+      <c r="AB28" s="34"/>
+      <c r="AC28" s="37"/>
+      <c r="AD28" s="36"/>
+      <c r="AE28" s="34"/>
+      <c r="AF28" s="34"/>
+      <c r="AG28" s="37"/>
+      <c r="AH28" s="36"/>
+      <c r="AI28" s="34"/>
+      <c r="AJ28" s="34"/>
+      <c r="AK28" s="37"/>
+      <c r="AL28" s="36"/>
+      <c r="AM28" s="75"/>
+      <c r="AN28" s="75"/>
+      <c r="AO28" s="74"/>
+      <c r="AP28" s="36"/>
+      <c r="AQ28" s="75"/>
+      <c r="AR28" s="75"/>
+      <c r="AS28" s="74"/>
+      <c r="AT28" s="36"/>
+      <c r="AU28" s="104"/>
+      <c r="AV28" s="104"/>
+      <c r="AW28" s="105"/>
+      <c r="AX28" s="36"/>
+      <c r="AY28" s="75"/>
+      <c r="AZ28" s="75"/>
+      <c r="BA28" s="74"/>
+      <c r="BB28" s="36"/>
     </row>
     <row r="29" spans="1:54" ht="18.75" customHeight="1">
       <c r="A29" s="16"/>
@@ -4911,61 +4926,61 @@
       <c r="I29" s="17"/>
       <c r="J29" s="17"/>
       <c r="K29" s="18"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="36"/>
-      <c r="S29" s="36"/>
-      <c r="T29" s="36"/>
-      <c r="U29" s="36"/>
-      <c r="V29" s="36"/>
-      <c r="W29" s="70" t="s">
+      <c r="L29" s="134"/>
+      <c r="M29" s="134"/>
+      <c r="N29" s="134"/>
+      <c r="O29" s="134"/>
+      <c r="P29" s="134"/>
+      <c r="Q29" s="134"/>
+      <c r="R29" s="134"/>
+      <c r="S29" s="134"/>
+      <c r="T29" s="134"/>
+      <c r="U29" s="134"/>
+      <c r="V29" s="134"/>
+      <c r="W29" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="X29" s="70"/>
-      <c r="Y29" s="67" t="s">
+      <c r="X29" s="34"/>
+      <c r="Y29" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="Z29" s="69">
+      <c r="Z29" s="36">
         <v>9</v>
       </c>
-      <c r="AA29" s="70" t="s">
+      <c r="AA29" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="AB29" s="70"/>
-      <c r="AC29" s="67" t="s">
+      <c r="AB29" s="34"/>
+      <c r="AC29" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="AD29" s="69">
+      <c r="AD29" s="36">
         <v>21</v>
       </c>
-      <c r="AE29" s="70"/>
-      <c r="AF29" s="70"/>
-      <c r="AG29" s="67"/>
-      <c r="AH29" s="69"/>
-      <c r="AI29" s="70"/>
-      <c r="AJ29" s="70"/>
-      <c r="AK29" s="90"/>
-      <c r="AL29" s="69"/>
-      <c r="AM29" s="77"/>
-      <c r="AN29" s="77"/>
-      <c r="AO29" s="78"/>
-      <c r="AP29" s="68"/>
-      <c r="AQ29" s="77"/>
-      <c r="AR29" s="77"/>
-      <c r="AS29" s="78"/>
-      <c r="AT29" s="68"/>
-      <c r="AU29" s="88"/>
-      <c r="AV29" s="88"/>
-      <c r="AW29" s="89"/>
-      <c r="AX29" s="68"/>
-      <c r="AY29" s="77"/>
-      <c r="AZ29" s="77"/>
-      <c r="BA29" s="78"/>
-      <c r="BB29" s="68"/>
+      <c r="AE29" s="34"/>
+      <c r="AF29" s="34"/>
+      <c r="AG29" s="37"/>
+      <c r="AH29" s="36"/>
+      <c r="AI29" s="34"/>
+      <c r="AJ29" s="34"/>
+      <c r="AK29" s="35"/>
+      <c r="AL29" s="36"/>
+      <c r="AM29" s="75"/>
+      <c r="AN29" s="75"/>
+      <c r="AO29" s="74"/>
+      <c r="AP29" s="40"/>
+      <c r="AQ29" s="75"/>
+      <c r="AR29" s="75"/>
+      <c r="AS29" s="74"/>
+      <c r="AT29" s="40"/>
+      <c r="AU29" s="104"/>
+      <c r="AV29" s="104"/>
+      <c r="AW29" s="105"/>
+      <c r="AX29" s="40"/>
+      <c r="AY29" s="75"/>
+      <c r="AZ29" s="75"/>
+      <c r="BA29" s="74"/>
+      <c r="BB29" s="40"/>
     </row>
     <row r="30" spans="1:54" ht="18.75" customHeight="1">
       <c r="A30" s="11"/>
@@ -4979,49 +4994,49 @@
       <c r="I30" s="11"/>
       <c r="J30" s="2"/>
       <c r="K30" s="12"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="36"/>
-      <c r="S30" s="36"/>
-      <c r="T30" s="36"/>
-      <c r="U30" s="36"/>
-      <c r="V30" s="36"/>
-      <c r="W30" s="70"/>
-      <c r="X30" s="70"/>
-      <c r="Y30" s="67"/>
-      <c r="Z30" s="69"/>
-      <c r="AA30" s="70"/>
-      <c r="AB30" s="70"/>
-      <c r="AC30" s="67"/>
-      <c r="AD30" s="69"/>
-      <c r="AE30" s="70"/>
-      <c r="AF30" s="70"/>
-      <c r="AG30" s="67"/>
-      <c r="AH30" s="69"/>
-      <c r="AI30" s="70"/>
-      <c r="AJ30" s="70"/>
-      <c r="AK30" s="90"/>
-      <c r="AL30" s="69"/>
-      <c r="AM30" s="77"/>
-      <c r="AN30" s="77"/>
-      <c r="AO30" s="78"/>
-      <c r="AP30" s="69"/>
-      <c r="AQ30" s="77"/>
-      <c r="AR30" s="77"/>
-      <c r="AS30" s="78"/>
-      <c r="AT30" s="69"/>
-      <c r="AU30" s="88"/>
-      <c r="AV30" s="88"/>
-      <c r="AW30" s="89"/>
-      <c r="AX30" s="69"/>
-      <c r="AY30" s="77"/>
-      <c r="AZ30" s="77"/>
-      <c r="BA30" s="78"/>
-      <c r="BB30" s="69"/>
+      <c r="L30" s="134"/>
+      <c r="M30" s="134"/>
+      <c r="N30" s="134"/>
+      <c r="O30" s="134"/>
+      <c r="P30" s="134"/>
+      <c r="Q30" s="134"/>
+      <c r="R30" s="134"/>
+      <c r="S30" s="134"/>
+      <c r="T30" s="134"/>
+      <c r="U30" s="134"/>
+      <c r="V30" s="134"/>
+      <c r="W30" s="34"/>
+      <c r="X30" s="34"/>
+      <c r="Y30" s="37"/>
+      <c r="Z30" s="36"/>
+      <c r="AA30" s="34"/>
+      <c r="AB30" s="34"/>
+      <c r="AC30" s="37"/>
+      <c r="AD30" s="36"/>
+      <c r="AE30" s="34"/>
+      <c r="AF30" s="34"/>
+      <c r="AG30" s="37"/>
+      <c r="AH30" s="36"/>
+      <c r="AI30" s="34"/>
+      <c r="AJ30" s="34"/>
+      <c r="AK30" s="35"/>
+      <c r="AL30" s="36"/>
+      <c r="AM30" s="75"/>
+      <c r="AN30" s="75"/>
+      <c r="AO30" s="74"/>
+      <c r="AP30" s="36"/>
+      <c r="AQ30" s="75"/>
+      <c r="AR30" s="75"/>
+      <c r="AS30" s="74"/>
+      <c r="AT30" s="36"/>
+      <c r="AU30" s="104"/>
+      <c r="AV30" s="104"/>
+      <c r="AW30" s="105"/>
+      <c r="AX30" s="36"/>
+      <c r="AY30" s="75"/>
+      <c r="AZ30" s="75"/>
+      <c r="BA30" s="74"/>
+      <c r="BB30" s="36"/>
     </row>
     <row r="31" spans="1:54" ht="18.75" customHeight="1">
       <c r="A31" s="16"/>
@@ -5035,73 +5050,73 @@
       <c r="I31" s="17"/>
       <c r="J31" s="17"/>
       <c r="K31" s="18"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="36"/>
-      <c r="O31" s="36"/>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="36"/>
-      <c r="S31" s="36"/>
-      <c r="T31" s="36"/>
-      <c r="U31" s="36"/>
-      <c r="V31" s="36"/>
-      <c r="W31" s="70" t="s">
+      <c r="L31" s="134"/>
+      <c r="M31" s="134"/>
+      <c r="N31" s="134"/>
+      <c r="O31" s="134"/>
+      <c r="P31" s="134"/>
+      <c r="Q31" s="134"/>
+      <c r="R31" s="134"/>
+      <c r="S31" s="134"/>
+      <c r="T31" s="134"/>
+      <c r="U31" s="134"/>
+      <c r="V31" s="134"/>
+      <c r="W31" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="X31" s="70"/>
-      <c r="Y31" s="67" t="s">
+      <c r="X31" s="34"/>
+      <c r="Y31" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="Z31" s="69">
+      <c r="Z31" s="36">
         <v>10</v>
       </c>
-      <c r="AA31" s="70" t="s">
+      <c r="AA31" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="AB31" s="70"/>
-      <c r="AC31" s="67" t="s">
+      <c r="AB31" s="34"/>
+      <c r="AC31" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="AD31" s="69">
+      <c r="AD31" s="36">
         <v>22</v>
       </c>
-      <c r="AE31" s="81" t="s">
+      <c r="AE31" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="AF31" s="55"/>
-      <c r="AG31" s="83" t="s">
+      <c r="AF31" s="42"/>
+      <c r="AG31" s="45" t="s">
         <v>256</v>
       </c>
-      <c r="AH31" s="91">
+      <c r="AH31" s="73">
         <v>48</v>
       </c>
-      <c r="AI31" s="70" t="s">
+      <c r="AI31" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="AJ31" s="70"/>
-      <c r="AK31" s="67" t="s">
+      <c r="AJ31" s="34"/>
+      <c r="AK31" s="37" t="s">
         <v>267</v>
       </c>
-      <c r="AL31" s="68">
+      <c r="AL31" s="40">
         <v>63</v>
       </c>
-      <c r="AM31" s="88"/>
-      <c r="AN31" s="88"/>
-      <c r="AO31" s="89"/>
-      <c r="AP31" s="69"/>
-      <c r="AQ31" s="88"/>
-      <c r="AR31" s="88"/>
-      <c r="AS31" s="89"/>
-      <c r="AT31" s="69"/>
-      <c r="AU31" s="88"/>
-      <c r="AV31" s="88"/>
-      <c r="AW31" s="89"/>
-      <c r="AX31" s="69"/>
-      <c r="AY31" s="77"/>
-      <c r="AZ31" s="77"/>
-      <c r="BA31" s="78"/>
-      <c r="BB31" s="69"/>
+      <c r="AM31" s="104"/>
+      <c r="AN31" s="104"/>
+      <c r="AO31" s="105"/>
+      <c r="AP31" s="36"/>
+      <c r="AQ31" s="104"/>
+      <c r="AR31" s="104"/>
+      <c r="AS31" s="105"/>
+      <c r="AT31" s="36"/>
+      <c r="AU31" s="104"/>
+      <c r="AV31" s="104"/>
+      <c r="AW31" s="105"/>
+      <c r="AX31" s="36"/>
+      <c r="AY31" s="75"/>
+      <c r="AZ31" s="75"/>
+      <c r="BA31" s="74"/>
+      <c r="BB31" s="36"/>
     </row>
     <row r="32" spans="1:54" ht="18.75" customHeight="1">
       <c r="A32" s="11"/>
@@ -5115,38 +5130,38 @@
       <c r="I32" s="11"/>
       <c r="J32" s="2"/>
       <c r="K32" s="12"/>
-      <c r="W32" s="70"/>
-      <c r="X32" s="70"/>
-      <c r="Y32" s="67"/>
-      <c r="Z32" s="69"/>
-      <c r="AA32" s="70"/>
-      <c r="AB32" s="70"/>
-      <c r="AC32" s="67"/>
-      <c r="AD32" s="69"/>
-      <c r="AE32" s="82"/>
-      <c r="AF32" s="57"/>
-      <c r="AG32" s="71"/>
-      <c r="AH32" s="69"/>
-      <c r="AI32" s="70"/>
-      <c r="AJ32" s="70"/>
-      <c r="AK32" s="67"/>
-      <c r="AL32" s="69"/>
-      <c r="AM32" s="88"/>
-      <c r="AN32" s="88"/>
-      <c r="AO32" s="89"/>
-      <c r="AP32" s="69"/>
-      <c r="AQ32" s="88"/>
-      <c r="AR32" s="88"/>
-      <c r="AS32" s="89"/>
-      <c r="AT32" s="69"/>
-      <c r="AU32" s="88"/>
-      <c r="AV32" s="88"/>
-      <c r="AW32" s="89"/>
-      <c r="AX32" s="69"/>
-      <c r="AY32" s="77"/>
-      <c r="AZ32" s="77"/>
-      <c r="BA32" s="78"/>
-      <c r="BB32" s="69"/>
+      <c r="W32" s="34"/>
+      <c r="X32" s="34"/>
+      <c r="Y32" s="37"/>
+      <c r="Z32" s="36"/>
+      <c r="AA32" s="34"/>
+      <c r="AB32" s="34"/>
+      <c r="AC32" s="37"/>
+      <c r="AD32" s="36"/>
+      <c r="AE32" s="43"/>
+      <c r="AF32" s="44"/>
+      <c r="AG32" s="39"/>
+      <c r="AH32" s="36"/>
+      <c r="AI32" s="34"/>
+      <c r="AJ32" s="34"/>
+      <c r="AK32" s="37"/>
+      <c r="AL32" s="36"/>
+      <c r="AM32" s="104"/>
+      <c r="AN32" s="104"/>
+      <c r="AO32" s="105"/>
+      <c r="AP32" s="36"/>
+      <c r="AQ32" s="104"/>
+      <c r="AR32" s="104"/>
+      <c r="AS32" s="105"/>
+      <c r="AT32" s="36"/>
+      <c r="AU32" s="104"/>
+      <c r="AV32" s="104"/>
+      <c r="AW32" s="105"/>
+      <c r="AX32" s="36"/>
+      <c r="AY32" s="75"/>
+      <c r="AZ32" s="75"/>
+      <c r="BA32" s="74"/>
+      <c r="BB32" s="36"/>
     </row>
     <row r="33" spans="1:54" ht="18.75" customHeight="1">
       <c r="A33" s="16"/>
@@ -5160,257 +5175,257 @@
       <c r="I33" s="17"/>
       <c r="J33" s="17"/>
       <c r="K33" s="18"/>
-      <c r="L33" s="63" t="s">
+      <c r="L33" s="103" t="s">
         <v>162</v>
       </c>
-      <c r="M33" s="63"/>
-      <c r="N33" s="63"/>
-      <c r="O33" s="63"/>
-      <c r="P33" s="63"/>
-      <c r="R33" s="63" t="s">
+      <c r="M33" s="103"/>
+      <c r="N33" s="103"/>
+      <c r="O33" s="103"/>
+      <c r="P33" s="103"/>
+      <c r="R33" s="103" t="s">
         <v>163</v>
       </c>
-      <c r="S33" s="63"/>
-      <c r="T33" s="63"/>
-      <c r="U33" s="63"/>
-      <c r="V33" s="63"/>
-      <c r="W33" s="77"/>
-      <c r="X33" s="77"/>
-      <c r="Y33" s="78"/>
-      <c r="Z33" s="69"/>
-      <c r="AA33" s="77"/>
-      <c r="AB33" s="77"/>
-      <c r="AC33" s="78"/>
-      <c r="AD33" s="69"/>
-      <c r="AE33" s="70" t="s">
+      <c r="S33" s="103"/>
+      <c r="T33" s="103"/>
+      <c r="U33" s="103"/>
+      <c r="V33" s="103"/>
+      <c r="W33" s="75"/>
+      <c r="X33" s="75"/>
+      <c r="Y33" s="74"/>
+      <c r="Z33" s="36"/>
+      <c r="AA33" s="75"/>
+      <c r="AB33" s="75"/>
+      <c r="AC33" s="74"/>
+      <c r="AD33" s="36"/>
+      <c r="AE33" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="AF33" s="70"/>
-      <c r="AG33" s="67" t="s">
+      <c r="AF33" s="34"/>
+      <c r="AG33" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="AH33" s="69">
+      <c r="AH33" s="36">
         <v>49</v>
       </c>
-      <c r="AI33" s="70" t="s">
+      <c r="AI33" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="AJ33" s="70"/>
-      <c r="AK33" s="67" t="s">
+      <c r="AJ33" s="34"/>
+      <c r="AK33" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="AL33" s="69">
+      <c r="AL33" s="36">
         <v>64</v>
       </c>
-      <c r="AM33" s="77"/>
-      <c r="AN33" s="77"/>
-      <c r="AO33" s="78"/>
-      <c r="AP33" s="69"/>
-      <c r="AQ33" s="77"/>
-      <c r="AR33" s="77"/>
-      <c r="AS33" s="78"/>
-      <c r="AT33" s="69"/>
-      <c r="AU33" s="77"/>
-      <c r="AV33" s="77"/>
-      <c r="AW33" s="78"/>
-      <c r="AX33" s="69"/>
-      <c r="AY33" s="77"/>
-      <c r="AZ33" s="77"/>
-      <c r="BA33" s="78"/>
-      <c r="BB33" s="69"/>
+      <c r="AM33" s="75"/>
+      <c r="AN33" s="75"/>
+      <c r="AO33" s="74"/>
+      <c r="AP33" s="36"/>
+      <c r="AQ33" s="75"/>
+      <c r="AR33" s="75"/>
+      <c r="AS33" s="74"/>
+      <c r="AT33" s="36"/>
+      <c r="AU33" s="75"/>
+      <c r="AV33" s="75"/>
+      <c r="AW33" s="74"/>
+      <c r="AX33" s="36"/>
+      <c r="AY33" s="75"/>
+      <c r="AZ33" s="75"/>
+      <c r="BA33" s="74"/>
+      <c r="BB33" s="36"/>
     </row>
     <row r="34" spans="1:54" ht="18.75" customHeight="1">
-      <c r="L34" s="63"/>
-      <c r="M34" s="63"/>
-      <c r="N34" s="63"/>
-      <c r="O34" s="63"/>
-      <c r="P34" s="63"/>
-      <c r="R34" s="63"/>
-      <c r="S34" s="63"/>
-      <c r="T34" s="63"/>
-      <c r="U34" s="63"/>
-      <c r="V34" s="63"/>
-      <c r="W34" s="77"/>
-      <c r="X34" s="77"/>
-      <c r="Y34" s="78"/>
-      <c r="Z34" s="69"/>
-      <c r="AA34" s="77"/>
-      <c r="AB34" s="77"/>
-      <c r="AC34" s="78"/>
-      <c r="AD34" s="69"/>
-      <c r="AE34" s="70"/>
-      <c r="AF34" s="70"/>
-      <c r="AG34" s="67"/>
-      <c r="AH34" s="69"/>
-      <c r="AI34" s="70"/>
-      <c r="AJ34" s="70"/>
-      <c r="AK34" s="67"/>
-      <c r="AL34" s="69"/>
-      <c r="AM34" s="77"/>
-      <c r="AN34" s="77"/>
-      <c r="AO34" s="78"/>
-      <c r="AP34" s="69"/>
-      <c r="AQ34" s="77"/>
-      <c r="AR34" s="77"/>
-      <c r="AS34" s="78"/>
-      <c r="AT34" s="69"/>
-      <c r="AU34" s="77"/>
-      <c r="AV34" s="77"/>
-      <c r="AW34" s="78"/>
-      <c r="AX34" s="69"/>
-      <c r="AY34" s="77"/>
-      <c r="AZ34" s="77"/>
-      <c r="BA34" s="78"/>
-      <c r="BB34" s="69"/>
+      <c r="L34" s="103"/>
+      <c r="M34" s="103"/>
+      <c r="N34" s="103"/>
+      <c r="O34" s="103"/>
+      <c r="P34" s="103"/>
+      <c r="R34" s="103"/>
+      <c r="S34" s="103"/>
+      <c r="T34" s="103"/>
+      <c r="U34" s="103"/>
+      <c r="V34" s="103"/>
+      <c r="W34" s="75"/>
+      <c r="X34" s="75"/>
+      <c r="Y34" s="74"/>
+      <c r="Z34" s="36"/>
+      <c r="AA34" s="75"/>
+      <c r="AB34" s="75"/>
+      <c r="AC34" s="74"/>
+      <c r="AD34" s="36"/>
+      <c r="AE34" s="34"/>
+      <c r="AF34" s="34"/>
+      <c r="AG34" s="37"/>
+      <c r="AH34" s="36"/>
+      <c r="AI34" s="34"/>
+      <c r="AJ34" s="34"/>
+      <c r="AK34" s="37"/>
+      <c r="AL34" s="36"/>
+      <c r="AM34" s="75"/>
+      <c r="AN34" s="75"/>
+      <c r="AO34" s="74"/>
+      <c r="AP34" s="36"/>
+      <c r="AQ34" s="75"/>
+      <c r="AR34" s="75"/>
+      <c r="AS34" s="74"/>
+      <c r="AT34" s="36"/>
+      <c r="AU34" s="75"/>
+      <c r="AV34" s="75"/>
+      <c r="AW34" s="74"/>
+      <c r="AX34" s="36"/>
+      <c r="AY34" s="75"/>
+      <c r="AZ34" s="75"/>
+      <c r="BA34" s="74"/>
+      <c r="BB34" s="36"/>
     </row>
     <row r="35" spans="1:54" ht="18.75" customHeight="1">
       <c r="A35" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="B35" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="112"/>
+      <c r="B35" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="68"/>
       <c r="D35" s="20" t="s">
         <v>177</v>
       </c>
       <c r="E35" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="G35" s="99" t="s">
+      <c r="G35" s="95" t="s">
         <v>231</v>
       </c>
-      <c r="H35" s="99"/>
-      <c r="I35" s="99"/>
-      <c r="J35" s="99"/>
-      <c r="K35" s="99"/>
-      <c r="L35" s="92" t="s">
+      <c r="H35" s="95"/>
+      <c r="I35" s="95"/>
+      <c r="J35" s="95"/>
+      <c r="K35" s="95"/>
+      <c r="L35" s="98" t="s">
         <v>476</v>
       </c>
-      <c r="M35" s="93"/>
-      <c r="N35" s="93"/>
-      <c r="O35" s="93"/>
-      <c r="P35" s="93"/>
-      <c r="R35" s="92" t="s">
+      <c r="M35" s="99"/>
+      <c r="N35" s="99"/>
+      <c r="O35" s="99"/>
+      <c r="P35" s="99"/>
+      <c r="R35" s="98" t="s">
         <v>477</v>
       </c>
-      <c r="S35" s="93"/>
-      <c r="T35" s="93"/>
-      <c r="U35" s="93"/>
-      <c r="V35" s="93"/>
-      <c r="W35" s="70" t="s">
+      <c r="S35" s="99"/>
+      <c r="T35" s="99"/>
+      <c r="U35" s="99"/>
+      <c r="V35" s="99"/>
+      <c r="W35" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="X35" s="70"/>
-      <c r="Y35" s="67" t="s">
+      <c r="X35" s="34"/>
+      <c r="Y35" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="Z35" s="69">
+      <c r="Z35" s="36">
         <v>11</v>
       </c>
-      <c r="AA35" s="70" t="s">
+      <c r="AA35" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="AB35" s="70"/>
-      <c r="AC35" s="67" t="s">
+      <c r="AB35" s="34"/>
+      <c r="AC35" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="AD35" s="69">
+      <c r="AD35" s="36">
         <v>23</v>
       </c>
-      <c r="AE35" s="70" t="s">
+      <c r="AE35" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AF35" s="70"/>
-      <c r="AG35" s="67" t="s">
+      <c r="AF35" s="34"/>
+      <c r="AG35" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="AH35" s="69">
+      <c r="AH35" s="36">
         <v>50</v>
       </c>
-      <c r="AI35" s="70" t="s">
+      <c r="AI35" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="AJ35" s="70"/>
-      <c r="AK35" s="67" t="s">
+      <c r="AJ35" s="34"/>
+      <c r="AK35" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="AL35" s="69">
+      <c r="AL35" s="36">
         <v>65</v>
       </c>
-      <c r="AU35" s="94" t="s">
+      <c r="AU35" s="100" t="s">
         <v>170</v>
       </c>
-      <c r="AV35" s="94"/>
-      <c r="AW35" s="94"/>
-      <c r="AX35" s="94"/>
-      <c r="AY35" s="94"/>
-      <c r="AZ35" s="94"/>
-      <c r="BA35" s="94"/>
-      <c r="BB35" s="94"/>
+      <c r="AV35" s="100"/>
+      <c r="AW35" s="100"/>
+      <c r="AX35" s="100"/>
+      <c r="AY35" s="100"/>
+      <c r="AZ35" s="100"/>
+      <c r="BA35" s="100"/>
+      <c r="BB35" s="100"/>
     </row>
     <row r="36" spans="1:54" ht="18.75" customHeight="1">
       <c r="A36" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="B36" s="102" t="s">
+      <c r="B36" s="66" t="s">
         <v>271</v>
       </c>
-      <c r="C36" s="103"/>
+      <c r="C36" s="67"/>
       <c r="D36" s="24"/>
       <c r="E36" s="23"/>
-      <c r="G36" s="78">
+      <c r="G36" s="74">
         <v>1</v>
       </c>
-      <c r="H36" s="78"/>
-      <c r="I36" s="78"/>
-      <c r="J36" s="78"/>
-      <c r="K36" s="78"/>
-      <c r="L36" s="92"/>
-      <c r="M36" s="93"/>
-      <c r="N36" s="93"/>
-      <c r="O36" s="93"/>
-      <c r="P36" s="93"/>
-      <c r="R36" s="92"/>
-      <c r="S36" s="93"/>
-      <c r="T36" s="93"/>
-      <c r="U36" s="93"/>
-      <c r="V36" s="93"/>
-      <c r="W36" s="70"/>
-      <c r="X36" s="70"/>
-      <c r="Y36" s="67"/>
-      <c r="Z36" s="69"/>
-      <c r="AA36" s="70"/>
-      <c r="AB36" s="70"/>
-      <c r="AC36" s="67"/>
-      <c r="AD36" s="69"/>
-      <c r="AE36" s="70"/>
-      <c r="AF36" s="70"/>
-      <c r="AG36" s="67"/>
-      <c r="AH36" s="69"/>
-      <c r="AI36" s="70"/>
-      <c r="AJ36" s="70"/>
-      <c r="AK36" s="67"/>
-      <c r="AL36" s="69"/>
-      <c r="AM36" s="73" t="s">
+      <c r="H36" s="74"/>
+      <c r="I36" s="74"/>
+      <c r="J36" s="74"/>
+      <c r="K36" s="74"/>
+      <c r="L36" s="98"/>
+      <c r="M36" s="99"/>
+      <c r="N36" s="99"/>
+      <c r="O36" s="99"/>
+      <c r="P36" s="99"/>
+      <c r="R36" s="98"/>
+      <c r="S36" s="99"/>
+      <c r="T36" s="99"/>
+      <c r="U36" s="99"/>
+      <c r="V36" s="99"/>
+      <c r="W36" s="34"/>
+      <c r="X36" s="34"/>
+      <c r="Y36" s="37"/>
+      <c r="Z36" s="36"/>
+      <c r="AA36" s="34"/>
+      <c r="AB36" s="34"/>
+      <c r="AC36" s="37"/>
+      <c r="AD36" s="36"/>
+      <c r="AE36" s="34"/>
+      <c r="AF36" s="34"/>
+      <c r="AG36" s="37"/>
+      <c r="AH36" s="36"/>
+      <c r="AI36" s="34"/>
+      <c r="AJ36" s="34"/>
+      <c r="AK36" s="37"/>
+      <c r="AL36" s="36"/>
+      <c r="AM36" s="93" t="s">
         <v>171</v>
       </c>
-      <c r="AN36" s="73"/>
-      <c r="AO36" s="73"/>
-      <c r="AP36" s="73"/>
-      <c r="AQ36" s="73"/>
-      <c r="AR36" s="73"/>
-      <c r="AS36" s="73"/>
-      <c r="AT36" s="73"/>
-      <c r="AU36" s="95" t="s">
+      <c r="AN36" s="93"/>
+      <c r="AO36" s="93"/>
+      <c r="AP36" s="93"/>
+      <c r="AQ36" s="93"/>
+      <c r="AR36" s="93"/>
+      <c r="AS36" s="93"/>
+      <c r="AT36" s="93"/>
+      <c r="AU36" s="101" t="s">
         <v>172</v>
       </c>
-      <c r="AV36" s="95"/>
-      <c r="AW36" s="96" t="s">
+      <c r="AV36" s="101"/>
+      <c r="AW36" s="102" t="s">
         <v>173</v>
       </c>
-      <c r="AX36" s="96"/>
-      <c r="AY36" s="96"/>
+      <c r="AX36" s="102"/>
+      <c r="AY36" s="102"/>
       <c r="AZ36" s="19" t="s">
         <v>174</v>
       </c>
@@ -5427,151 +5442,153 @@
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
       <c r="E37" s="18"/>
-      <c r="G37" s="99" t="s">
+      <c r="G37" s="95" t="s">
         <v>232</v>
       </c>
-      <c r="H37" s="99"/>
-      <c r="I37" s="99"/>
-      <c r="J37" s="99"/>
-      <c r="K37" s="99"/>
-      <c r="L37" s="92"/>
-      <c r="M37" s="93"/>
-      <c r="N37" s="93"/>
-      <c r="O37" s="93"/>
-      <c r="P37" s="93"/>
-      <c r="R37" s="92"/>
-      <c r="S37" s="93"/>
-      <c r="T37" s="93"/>
-      <c r="U37" s="93"/>
-      <c r="V37" s="93"/>
-      <c r="W37" s="70" t="s">
+      <c r="H37" s="95"/>
+      <c r="I37" s="95"/>
+      <c r="J37" s="95"/>
+      <c r="K37" s="95"/>
+      <c r="L37" s="98"/>
+      <c r="M37" s="99"/>
+      <c r="N37" s="99"/>
+      <c r="O37" s="99"/>
+      <c r="P37" s="99"/>
+      <c r="R37" s="98"/>
+      <c r="S37" s="99"/>
+      <c r="T37" s="99"/>
+      <c r="U37" s="99"/>
+      <c r="V37" s="99"/>
+      <c r="W37" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="X37" s="70"/>
-      <c r="Y37" s="67" t="s">
+      <c r="X37" s="34"/>
+      <c r="Y37" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="Z37" s="69">
+      <c r="Z37" s="36">
         <v>12</v>
       </c>
-      <c r="AA37" s="70" t="s">
+      <c r="AA37" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="AB37" s="70"/>
-      <c r="AC37" s="67" t="s">
+      <c r="AB37" s="34"/>
+      <c r="AC37" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="AD37" s="69">
+      <c r="AD37" s="36">
         <v>24</v>
       </c>
-      <c r="AE37" s="70" t="s">
+      <c r="AE37" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="AF37" s="70"/>
-      <c r="AG37" s="67" t="s">
+      <c r="AF37" s="34"/>
+      <c r="AG37" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="AH37" s="69">
+      <c r="AH37" s="36">
         <v>51</v>
       </c>
-      <c r="AI37" s="70" t="s">
+      <c r="AI37" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="AJ37" s="70"/>
-      <c r="AK37" s="90" t="s">
+      <c r="AJ37" s="34"/>
+      <c r="AK37" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="AL37" s="69">
+      <c r="AL37" s="36">
         <v>66</v>
       </c>
-      <c r="AM37" s="72" t="s">
+      <c r="AM37" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="AN37" s="72"/>
-      <c r="AO37" s="111" t="s">
+      <c r="AN37" s="38"/>
+      <c r="AO37" s="97" t="s">
         <v>187</v>
       </c>
-      <c r="AP37" s="68">
+      <c r="AP37" s="40">
         <v>77</v>
       </c>
-      <c r="AQ37" s="72" t="s">
+      <c r="AQ37" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="AR37" s="72"/>
-      <c r="AS37" s="104" t="s">
+      <c r="AR37" s="38"/>
+      <c r="AS37" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="AT37" s="68">
+      <c r="AT37" s="40">
         <v>92</v>
       </c>
-      <c r="AU37" s="105"/>
-      <c r="AV37" s="106"/>
-      <c r="AW37" s="105"/>
-      <c r="AX37" s="109"/>
-      <c r="AY37" s="106"/>
-      <c r="AZ37" s="91"/>
-      <c r="BA37" s="91"/>
-      <c r="BB37" s="91"/>
+      <c r="AU37" s="76" t="s">
+        <v>493</v>
+      </c>
+      <c r="AV37" s="77"/>
+      <c r="AW37" s="76"/>
+      <c r="AX37" s="80"/>
+      <c r="AY37" s="77"/>
+      <c r="AZ37" s="73"/>
+      <c r="BA37" s="73"/>
+      <c r="BB37" s="73"/>
     </row>
     <row r="38" spans="1:54" ht="18.75" customHeight="1">
       <c r="A38" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="B38" s="102" t="s">
+      <c r="B38" s="66" t="s">
         <v>272</v>
       </c>
-      <c r="C38" s="103"/>
+      <c r="C38" s="67"/>
       <c r="D38" s="24"/>
       <c r="E38" s="23"/>
-      <c r="G38" s="78">
+      <c r="G38" s="74">
         <v>33</v>
       </c>
-      <c r="H38" s="78"/>
-      <c r="I38" s="78"/>
-      <c r="J38" s="78"/>
-      <c r="K38" s="78"/>
-      <c r="L38" s="92"/>
-      <c r="M38" s="93"/>
-      <c r="N38" s="93"/>
-      <c r="O38" s="93"/>
-      <c r="P38" s="93"/>
-      <c r="R38" s="92"/>
-      <c r="S38" s="93"/>
-      <c r="T38" s="93"/>
-      <c r="U38" s="93"/>
-      <c r="V38" s="93"/>
-      <c r="W38" s="70"/>
-      <c r="X38" s="70"/>
-      <c r="Y38" s="67"/>
-      <c r="Z38" s="69"/>
-      <c r="AA38" s="70"/>
-      <c r="AB38" s="70"/>
-      <c r="AC38" s="67"/>
-      <c r="AD38" s="69"/>
-      <c r="AE38" s="70"/>
-      <c r="AF38" s="70"/>
-      <c r="AG38" s="67"/>
-      <c r="AH38" s="69"/>
-      <c r="AI38" s="70"/>
-      <c r="AJ38" s="70"/>
-      <c r="AK38" s="90"/>
-      <c r="AL38" s="69"/>
-      <c r="AM38" s="72"/>
-      <c r="AN38" s="72"/>
-      <c r="AO38" s="111"/>
-      <c r="AP38" s="69"/>
-      <c r="AQ38" s="72"/>
-      <c r="AR38" s="72"/>
-      <c r="AS38" s="104"/>
-      <c r="AT38" s="69"/>
-      <c r="AU38" s="107"/>
-      <c r="AV38" s="108"/>
-      <c r="AW38" s="107"/>
-      <c r="AX38" s="110"/>
-      <c r="AY38" s="108"/>
-      <c r="AZ38" s="69"/>
-      <c r="BA38" s="69"/>
-      <c r="BB38" s="69"/>
+      <c r="H38" s="74"/>
+      <c r="I38" s="74"/>
+      <c r="J38" s="74"/>
+      <c r="K38" s="74"/>
+      <c r="L38" s="98"/>
+      <c r="M38" s="99"/>
+      <c r="N38" s="99"/>
+      <c r="O38" s="99"/>
+      <c r="P38" s="99"/>
+      <c r="R38" s="98"/>
+      <c r="S38" s="99"/>
+      <c r="T38" s="99"/>
+      <c r="U38" s="99"/>
+      <c r="V38" s="99"/>
+      <c r="W38" s="34"/>
+      <c r="X38" s="34"/>
+      <c r="Y38" s="37"/>
+      <c r="Z38" s="36"/>
+      <c r="AA38" s="34"/>
+      <c r="AB38" s="34"/>
+      <c r="AC38" s="37"/>
+      <c r="AD38" s="36"/>
+      <c r="AE38" s="34"/>
+      <c r="AF38" s="34"/>
+      <c r="AG38" s="37"/>
+      <c r="AH38" s="36"/>
+      <c r="AI38" s="34"/>
+      <c r="AJ38" s="34"/>
+      <c r="AK38" s="35"/>
+      <c r="AL38" s="36"/>
+      <c r="AM38" s="38"/>
+      <c r="AN38" s="38"/>
+      <c r="AO38" s="97"/>
+      <c r="AP38" s="36"/>
+      <c r="AQ38" s="38"/>
+      <c r="AR38" s="38"/>
+      <c r="AS38" s="96"/>
+      <c r="AT38" s="36"/>
+      <c r="AU38" s="78"/>
+      <c r="AV38" s="79"/>
+      <c r="AW38" s="78"/>
+      <c r="AX38" s="81"/>
+      <c r="AY38" s="79"/>
+      <c r="AZ38" s="36"/>
+      <c r="BA38" s="36"/>
+      <c r="BB38" s="36"/>
     </row>
     <row r="39" spans="1:54" ht="18.75" customHeight="1">
       <c r="A39" s="26"/>
@@ -5579,139 +5596,139 @@
       <c r="C39" s="17"/>
       <c r="D39" s="17"/>
       <c r="E39" s="18"/>
-      <c r="G39" s="99" t="s">
+      <c r="G39" s="95" t="s">
         <v>233</v>
       </c>
-      <c r="H39" s="99"/>
-      <c r="I39" s="99"/>
-      <c r="J39" s="99"/>
-      <c r="K39" s="99"/>
-      <c r="L39" s="92"/>
-      <c r="M39" s="93"/>
-      <c r="N39" s="93"/>
-      <c r="O39" s="93"/>
-      <c r="P39" s="93"/>
-      <c r="R39" s="92"/>
-      <c r="S39" s="93"/>
-      <c r="T39" s="93"/>
-      <c r="U39" s="93"/>
-      <c r="V39" s="93"/>
-      <c r="W39" s="70" t="s">
+      <c r="H39" s="95"/>
+      <c r="I39" s="95"/>
+      <c r="J39" s="95"/>
+      <c r="K39" s="95"/>
+      <c r="L39" s="98"/>
+      <c r="M39" s="99"/>
+      <c r="N39" s="99"/>
+      <c r="O39" s="99"/>
+      <c r="P39" s="99"/>
+      <c r="R39" s="98"/>
+      <c r="S39" s="99"/>
+      <c r="T39" s="99"/>
+      <c r="U39" s="99"/>
+      <c r="V39" s="99"/>
+      <c r="W39" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="X39" s="70"/>
-      <c r="Y39" s="67" t="s">
+      <c r="X39" s="34"/>
+      <c r="Y39" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="Z39" s="69">
+      <c r="Z39" s="36">
         <v>13</v>
       </c>
-      <c r="AA39" s="70"/>
-      <c r="AB39" s="70"/>
-      <c r="AC39" s="67"/>
-      <c r="AD39" s="69"/>
-      <c r="AE39" s="72" t="s">
+      <c r="AA39" s="34"/>
+      <c r="AB39" s="34"/>
+      <c r="AC39" s="37"/>
+      <c r="AD39" s="36"/>
+      <c r="AE39" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="AF39" s="72"/>
-      <c r="AG39" s="71" t="s">
+      <c r="AF39" s="38"/>
+      <c r="AG39" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AH39" s="68">
+      <c r="AH39" s="40">
         <v>52</v>
       </c>
-      <c r="AI39" s="72"/>
-      <c r="AJ39" s="72"/>
-      <c r="AK39" s="71"/>
-      <c r="AL39" s="68"/>
-      <c r="AM39" s="97" t="s">
+      <c r="AI39" s="38"/>
+      <c r="AJ39" s="38"/>
+      <c r="AK39" s="39"/>
+      <c r="AL39" s="40"/>
+      <c r="AM39" s="94" t="s">
         <v>193</v>
       </c>
-      <c r="AN39" s="97"/>
-      <c r="AO39" s="98" t="s">
+      <c r="AN39" s="94"/>
+      <c r="AO39" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="AP39" s="69">
+      <c r="AP39" s="36">
         <v>78</v>
       </c>
-      <c r="AQ39" s="97" t="s">
+      <c r="AQ39" s="94" t="s">
         <v>194</v>
       </c>
-      <c r="AR39" s="97"/>
-      <c r="AS39" s="98" t="s">
+      <c r="AR39" s="94"/>
+      <c r="AS39" s="82" t="s">
         <v>195</v>
       </c>
-      <c r="AT39" s="69">
+      <c r="AT39" s="36">
         <v>93</v>
       </c>
-      <c r="AU39" s="113"/>
-      <c r="AV39" s="114"/>
-      <c r="AW39" s="113"/>
-      <c r="AX39" s="117"/>
-      <c r="AY39" s="114"/>
-      <c r="AZ39" s="100"/>
-      <c r="BA39" s="100"/>
-      <c r="BB39" s="100"/>
+      <c r="AU39" s="53"/>
+      <c r="AV39" s="54"/>
+      <c r="AW39" s="53"/>
+      <c r="AX39" s="57"/>
+      <c r="AY39" s="54"/>
+      <c r="AZ39" s="59"/>
+      <c r="BA39" s="59"/>
+      <c r="BB39" s="59"/>
     </row>
     <row r="40" spans="1:54" ht="18.75" customHeight="1">
       <c r="A40" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="B40" s="102" t="s">
+      <c r="B40" s="66" t="s">
         <v>273</v>
       </c>
-      <c r="C40" s="103"/>
+      <c r="C40" s="67"/>
       <c r="D40" s="24"/>
       <c r="E40" s="23"/>
-      <c r="G40" s="78">
+      <c r="G40" s="74">
         <v>7</v>
       </c>
-      <c r="H40" s="78"/>
-      <c r="I40" s="78"/>
-      <c r="J40" s="78"/>
-      <c r="K40" s="78"/>
-      <c r="L40" s="92"/>
-      <c r="M40" s="93"/>
-      <c r="N40" s="93"/>
-      <c r="O40" s="93"/>
-      <c r="P40" s="93"/>
-      <c r="R40" s="92"/>
-      <c r="S40" s="93"/>
-      <c r="T40" s="93"/>
-      <c r="U40" s="93"/>
-      <c r="V40" s="93"/>
-      <c r="W40" s="70"/>
-      <c r="X40" s="70"/>
-      <c r="Y40" s="67"/>
-      <c r="Z40" s="69"/>
-      <c r="AA40" s="70"/>
-      <c r="AB40" s="70"/>
-      <c r="AC40" s="67"/>
-      <c r="AD40" s="69"/>
-      <c r="AE40" s="72"/>
-      <c r="AF40" s="72"/>
-      <c r="AG40" s="71"/>
-      <c r="AH40" s="69"/>
-      <c r="AI40" s="72"/>
-      <c r="AJ40" s="72"/>
-      <c r="AK40" s="71"/>
-      <c r="AL40" s="69"/>
-      <c r="AM40" s="97"/>
-      <c r="AN40" s="97"/>
-      <c r="AO40" s="98"/>
-      <c r="AP40" s="69"/>
-      <c r="AQ40" s="97"/>
-      <c r="AR40" s="97"/>
-      <c r="AS40" s="98"/>
-      <c r="AT40" s="69"/>
-      <c r="AU40" s="115"/>
-      <c r="AV40" s="116"/>
-      <c r="AW40" s="115"/>
-      <c r="AX40" s="118"/>
-      <c r="AY40" s="116"/>
-      <c r="AZ40" s="101"/>
-      <c r="BA40" s="101"/>
-      <c r="BB40" s="101"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="74"/>
+      <c r="K40" s="74"/>
+      <c r="L40" s="98"/>
+      <c r="M40" s="99"/>
+      <c r="N40" s="99"/>
+      <c r="O40" s="99"/>
+      <c r="P40" s="99"/>
+      <c r="R40" s="98"/>
+      <c r="S40" s="99"/>
+      <c r="T40" s="99"/>
+      <c r="U40" s="99"/>
+      <c r="V40" s="99"/>
+      <c r="W40" s="34"/>
+      <c r="X40" s="34"/>
+      <c r="Y40" s="37"/>
+      <c r="Z40" s="36"/>
+      <c r="AA40" s="34"/>
+      <c r="AB40" s="34"/>
+      <c r="AC40" s="37"/>
+      <c r="AD40" s="36"/>
+      <c r="AE40" s="38"/>
+      <c r="AF40" s="38"/>
+      <c r="AG40" s="39"/>
+      <c r="AH40" s="36"/>
+      <c r="AI40" s="38"/>
+      <c r="AJ40" s="38"/>
+      <c r="AK40" s="39"/>
+      <c r="AL40" s="36"/>
+      <c r="AM40" s="94"/>
+      <c r="AN40" s="94"/>
+      <c r="AO40" s="82"/>
+      <c r="AP40" s="36"/>
+      <c r="AQ40" s="94"/>
+      <c r="AR40" s="94"/>
+      <c r="AS40" s="82"/>
+      <c r="AT40" s="36"/>
+      <c r="AU40" s="55"/>
+      <c r="AV40" s="56"/>
+      <c r="AW40" s="55"/>
+      <c r="AX40" s="58"/>
+      <c r="AY40" s="56"/>
+      <c r="AZ40" s="60"/>
+      <c r="BA40" s="60"/>
+      <c r="BB40" s="60"/>
     </row>
     <row r="41" spans="1:54" ht="18.75" customHeight="1">
       <c r="A41" s="26"/>
@@ -5719,126 +5736,126 @@
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
       <c r="E41" s="18"/>
-      <c r="L41" s="92"/>
-      <c r="M41" s="93"/>
-      <c r="N41" s="93"/>
-      <c r="O41" s="93"/>
-      <c r="P41" s="93"/>
-      <c r="R41" s="92"/>
-      <c r="S41" s="93"/>
-      <c r="T41" s="93"/>
-      <c r="U41" s="93"/>
-      <c r="V41" s="93"/>
-      <c r="W41" s="77"/>
-      <c r="X41" s="77"/>
-      <c r="Y41" s="78"/>
-      <c r="Z41" s="69"/>
-      <c r="AA41" s="70"/>
-      <c r="AB41" s="70"/>
-      <c r="AC41" s="67"/>
-      <c r="AD41" s="69"/>
-      <c r="AE41" s="70" t="s">
+      <c r="L41" s="98"/>
+      <c r="M41" s="99"/>
+      <c r="N41" s="99"/>
+      <c r="O41" s="99"/>
+      <c r="P41" s="99"/>
+      <c r="R41" s="98"/>
+      <c r="S41" s="99"/>
+      <c r="T41" s="99"/>
+      <c r="U41" s="99"/>
+      <c r="V41" s="99"/>
+      <c r="W41" s="75"/>
+      <c r="X41" s="75"/>
+      <c r="Y41" s="74"/>
+      <c r="Z41" s="36"/>
+      <c r="AA41" s="34"/>
+      <c r="AB41" s="34"/>
+      <c r="AC41" s="37"/>
+      <c r="AD41" s="36"/>
+      <c r="AE41" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="AF41" s="70"/>
-      <c r="AG41" s="90" t="s">
+      <c r="AF41" s="34"/>
+      <c r="AG41" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="AH41" s="69">
+      <c r="AH41" s="36">
         <v>53</v>
       </c>
-      <c r="AI41" s="70"/>
-      <c r="AJ41" s="70"/>
-      <c r="AK41" s="90"/>
-      <c r="AL41" s="69"/>
-      <c r="AM41" s="97" t="s">
+      <c r="AI41" s="34"/>
+      <c r="AJ41" s="34"/>
+      <c r="AK41" s="35"/>
+      <c r="AL41" s="36"/>
+      <c r="AM41" s="94" t="s">
         <v>197</v>
       </c>
-      <c r="AN41" s="97"/>
-      <c r="AO41" s="98" t="s">
+      <c r="AN41" s="94"/>
+      <c r="AO41" s="82" t="s">
         <v>195</v>
       </c>
-      <c r="AP41" s="69">
+      <c r="AP41" s="36">
         <v>79</v>
       </c>
-      <c r="AQ41" s="97" t="s">
+      <c r="AQ41" s="94" t="s">
         <v>198</v>
       </c>
-      <c r="AR41" s="97"/>
-      <c r="AS41" s="98" t="s">
+      <c r="AR41" s="94"/>
+      <c r="AS41" s="82" t="s">
         <v>152</v>
       </c>
-      <c r="AT41" s="69">
+      <c r="AT41" s="36">
         <v>94</v>
       </c>
-      <c r="AU41" s="105"/>
-      <c r="AV41" s="106"/>
-      <c r="AW41" s="105"/>
-      <c r="AX41" s="109"/>
-      <c r="AY41" s="106"/>
-      <c r="AZ41" s="91"/>
-      <c r="BA41" s="91"/>
-      <c r="BB41" s="91"/>
+      <c r="AU41" s="76"/>
+      <c r="AV41" s="77"/>
+      <c r="AW41" s="76"/>
+      <c r="AX41" s="80"/>
+      <c r="AY41" s="77"/>
+      <c r="AZ41" s="73"/>
+      <c r="BA41" s="73"/>
+      <c r="BB41" s="73"/>
     </row>
     <row r="42" spans="1:54" ht="18.75" customHeight="1">
       <c r="A42" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="B42" s="102" t="s">
+      <c r="B42" s="66" t="s">
         <v>274</v>
       </c>
-      <c r="C42" s="103"/>
+      <c r="C42" s="67"/>
       <c r="D42" s="24"/>
       <c r="E42" s="23"/>
-      <c r="G42" s="43" t="s">
+      <c r="G42" s="72" t="s">
         <v>244</v>
       </c>
-      <c r="H42" s="43"/>
-      <c r="I42" s="43"/>
-      <c r="J42" s="43"/>
-      <c r="K42" s="43"/>
-      <c r="L42" s="92"/>
-      <c r="M42" s="93"/>
-      <c r="N42" s="93"/>
-      <c r="O42" s="93"/>
-      <c r="P42" s="93"/>
-      <c r="R42" s="92"/>
-      <c r="S42" s="93"/>
-      <c r="T42" s="93"/>
-      <c r="U42" s="93"/>
-      <c r="V42" s="93"/>
-      <c r="W42" s="77"/>
-      <c r="X42" s="77"/>
-      <c r="Y42" s="78"/>
-      <c r="Z42" s="69"/>
-      <c r="AA42" s="70"/>
-      <c r="AB42" s="70"/>
-      <c r="AC42" s="67"/>
-      <c r="AD42" s="69"/>
-      <c r="AE42" s="70"/>
-      <c r="AF42" s="70"/>
-      <c r="AG42" s="90"/>
-      <c r="AH42" s="69"/>
-      <c r="AI42" s="70"/>
-      <c r="AJ42" s="70"/>
-      <c r="AK42" s="90"/>
-      <c r="AL42" s="69"/>
-      <c r="AM42" s="97"/>
-      <c r="AN42" s="97"/>
-      <c r="AO42" s="98"/>
-      <c r="AP42" s="69"/>
-      <c r="AQ42" s="97"/>
-      <c r="AR42" s="97"/>
-      <c r="AS42" s="98"/>
-      <c r="AT42" s="69"/>
-      <c r="AU42" s="107"/>
-      <c r="AV42" s="108"/>
-      <c r="AW42" s="107"/>
-      <c r="AX42" s="110"/>
-      <c r="AY42" s="108"/>
-      <c r="AZ42" s="69"/>
-      <c r="BA42" s="69"/>
-      <c r="BB42" s="69"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="72"/>
+      <c r="J42" s="72"/>
+      <c r="K42" s="72"/>
+      <c r="L42" s="98"/>
+      <c r="M42" s="99"/>
+      <c r="N42" s="99"/>
+      <c r="O42" s="99"/>
+      <c r="P42" s="99"/>
+      <c r="R42" s="98"/>
+      <c r="S42" s="99"/>
+      <c r="T42" s="99"/>
+      <c r="U42" s="99"/>
+      <c r="V42" s="99"/>
+      <c r="W42" s="75"/>
+      <c r="X42" s="75"/>
+      <c r="Y42" s="74"/>
+      <c r="Z42" s="36"/>
+      <c r="AA42" s="34"/>
+      <c r="AB42" s="34"/>
+      <c r="AC42" s="37"/>
+      <c r="AD42" s="36"/>
+      <c r="AE42" s="34"/>
+      <c r="AF42" s="34"/>
+      <c r="AG42" s="35"/>
+      <c r="AH42" s="36"/>
+      <c r="AI42" s="34"/>
+      <c r="AJ42" s="34"/>
+      <c r="AK42" s="35"/>
+      <c r="AL42" s="36"/>
+      <c r="AM42" s="94"/>
+      <c r="AN42" s="94"/>
+      <c r="AO42" s="82"/>
+      <c r="AP42" s="36"/>
+      <c r="AQ42" s="94"/>
+      <c r="AR42" s="94"/>
+      <c r="AS42" s="82"/>
+      <c r="AT42" s="36"/>
+      <c r="AU42" s="78"/>
+      <c r="AV42" s="79"/>
+      <c r="AW42" s="78"/>
+      <c r="AX42" s="81"/>
+      <c r="AY42" s="79"/>
+      <c r="AZ42" s="36"/>
+      <c r="BA42" s="36"/>
+      <c r="BB42" s="36"/>
     </row>
     <row r="43" spans="1:54" ht="18.75" customHeight="1">
       <c r="A43" s="26"/>
@@ -5846,1270 +5863,1278 @@
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
       <c r="E43" s="18"/>
-      <c r="G43" s="122" t="s">
+      <c r="G43" s="64" t="s">
         <v>469</v>
       </c>
-      <c r="H43" s="123"/>
-      <c r="I43" s="122"/>
-      <c r="J43" s="124"/>
-      <c r="K43" s="123"/>
-      <c r="L43" s="92"/>
-      <c r="M43" s="93"/>
-      <c r="N43" s="93"/>
-      <c r="O43" s="93"/>
-      <c r="P43" s="93"/>
-      <c r="R43" s="92"/>
-      <c r="S43" s="93"/>
-      <c r="T43" s="93"/>
-      <c r="U43" s="93"/>
-      <c r="V43" s="93"/>
-      <c r="AE43" s="77"/>
-      <c r="AF43" s="77"/>
-      <c r="AG43" s="78"/>
-      <c r="AH43" s="69"/>
-      <c r="AI43" s="70"/>
-      <c r="AJ43" s="70"/>
-      <c r="AK43" s="67"/>
-      <c r="AL43" s="69"/>
-      <c r="AM43" s="70" t="s">
+      <c r="H43" s="65"/>
+      <c r="I43" s="64"/>
+      <c r="J43" s="71"/>
+      <c r="K43" s="65"/>
+      <c r="L43" s="98"/>
+      <c r="M43" s="99"/>
+      <c r="N43" s="99"/>
+      <c r="O43" s="99"/>
+      <c r="P43" s="99"/>
+      <c r="R43" s="98"/>
+      <c r="S43" s="99"/>
+      <c r="T43" s="99"/>
+      <c r="U43" s="99"/>
+      <c r="V43" s="99"/>
+      <c r="AE43" s="75"/>
+      <c r="AF43" s="75"/>
+      <c r="AG43" s="74"/>
+      <c r="AH43" s="36"/>
+      <c r="AI43" s="34"/>
+      <c r="AJ43" s="34"/>
+      <c r="AK43" s="37"/>
+      <c r="AL43" s="36"/>
+      <c r="AM43" s="34" t="s">
         <v>199</v>
       </c>
-      <c r="AN43" s="70"/>
-      <c r="AO43" s="98" t="s">
+      <c r="AN43" s="34"/>
+      <c r="AO43" s="82" t="s">
         <v>169</v>
       </c>
-      <c r="AP43" s="69">
+      <c r="AP43" s="36">
         <v>80</v>
       </c>
-      <c r="AQ43" s="70" t="s">
+      <c r="AQ43" s="34" t="s">
         <v>200</v>
       </c>
-      <c r="AR43" s="70"/>
-      <c r="AS43" s="98" t="s">
+      <c r="AR43" s="34"/>
+      <c r="AS43" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="AT43" s="69">
+      <c r="AT43" s="36">
         <v>95</v>
       </c>
-      <c r="AU43" s="113"/>
-      <c r="AV43" s="114"/>
-      <c r="AW43" s="113"/>
-      <c r="AX43" s="117"/>
-      <c r="AY43" s="114"/>
-      <c r="AZ43" s="100"/>
-      <c r="BA43" s="100"/>
-      <c r="BB43" s="100"/>
+      <c r="AU43" s="53" t="s">
+        <v>494</v>
+      </c>
+      <c r="AV43" s="54"/>
+      <c r="AW43" s="53"/>
+      <c r="AX43" s="57"/>
+      <c r="AY43" s="54"/>
+      <c r="AZ43" s="59"/>
+      <c r="BA43" s="59"/>
+      <c r="BB43" s="59"/>
     </row>
     <row r="44" spans="1:54" ht="18.75" customHeight="1">
-      <c r="L44" s="92"/>
-      <c r="M44" s="93"/>
-      <c r="N44" s="93"/>
-      <c r="O44" s="93"/>
-      <c r="P44" s="93"/>
-      <c r="R44" s="92"/>
-      <c r="S44" s="93"/>
-      <c r="T44" s="93"/>
-      <c r="U44" s="93"/>
-      <c r="V44" s="93"/>
-      <c r="W44" s="73" t="s">
+      <c r="L44" s="98"/>
+      <c r="M44" s="99"/>
+      <c r="N44" s="99"/>
+      <c r="O44" s="99"/>
+      <c r="P44" s="99"/>
+      <c r="R44" s="98"/>
+      <c r="S44" s="99"/>
+      <c r="T44" s="99"/>
+      <c r="U44" s="99"/>
+      <c r="V44" s="99"/>
+      <c r="W44" s="93" t="s">
         <v>201</v>
       </c>
-      <c r="X44" s="73"/>
-      <c r="Y44" s="73"/>
-      <c r="Z44" s="73"/>
-      <c r="AA44" s="73"/>
-      <c r="AB44" s="73"/>
-      <c r="AC44" s="73"/>
-      <c r="AD44" s="73"/>
-      <c r="AE44" s="77"/>
-      <c r="AF44" s="77"/>
-      <c r="AG44" s="78"/>
-      <c r="AH44" s="69"/>
-      <c r="AI44" s="70"/>
-      <c r="AJ44" s="70"/>
-      <c r="AK44" s="67"/>
-      <c r="AL44" s="69"/>
-      <c r="AM44" s="70"/>
-      <c r="AN44" s="70"/>
-      <c r="AO44" s="98"/>
-      <c r="AP44" s="69"/>
-      <c r="AQ44" s="70"/>
-      <c r="AR44" s="70"/>
-      <c r="AS44" s="98"/>
-      <c r="AT44" s="69"/>
-      <c r="AU44" s="115"/>
-      <c r="AV44" s="116"/>
-      <c r="AW44" s="115"/>
-      <c r="AX44" s="118"/>
-      <c r="AY44" s="116"/>
-      <c r="AZ44" s="101"/>
-      <c r="BA44" s="101"/>
-      <c r="BB44" s="101"/>
+      <c r="X44" s="93"/>
+      <c r="Y44" s="93"/>
+      <c r="Z44" s="93"/>
+      <c r="AA44" s="93"/>
+      <c r="AB44" s="93"/>
+      <c r="AC44" s="93"/>
+      <c r="AD44" s="93"/>
+      <c r="AE44" s="75"/>
+      <c r="AF44" s="75"/>
+      <c r="AG44" s="74"/>
+      <c r="AH44" s="36"/>
+      <c r="AI44" s="34"/>
+      <c r="AJ44" s="34"/>
+      <c r="AK44" s="37"/>
+      <c r="AL44" s="36"/>
+      <c r="AM44" s="34"/>
+      <c r="AN44" s="34"/>
+      <c r="AO44" s="82"/>
+      <c r="AP44" s="36"/>
+      <c r="AQ44" s="34"/>
+      <c r="AR44" s="34"/>
+      <c r="AS44" s="82"/>
+      <c r="AT44" s="36"/>
+      <c r="AU44" s="55"/>
+      <c r="AV44" s="56"/>
+      <c r="AW44" s="55"/>
+      <c r="AX44" s="58"/>
+      <c r="AY44" s="56"/>
+      <c r="AZ44" s="60"/>
+      <c r="BA44" s="60"/>
+      <c r="BB44" s="60"/>
     </row>
     <row r="45" spans="1:54" ht="18.75" customHeight="1">
-      <c r="A45" s="112" t="s">
+      <c r="A45" s="68" t="s">
         <v>242</v>
       </c>
-      <c r="B45" s="129"/>
-      <c r="C45" s="129"/>
-      <c r="D45" s="129"/>
-      <c r="E45" s="130"/>
-      <c r="G45" s="43" t="s">
+      <c r="B45" s="69"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="70"/>
+      <c r="G45" s="72" t="s">
         <v>243</v>
       </c>
-      <c r="H45" s="43"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="43"/>
-      <c r="K45" s="43"/>
-      <c r="L45" s="92"/>
-      <c r="M45" s="93"/>
-      <c r="N45" s="93"/>
-      <c r="O45" s="93"/>
-      <c r="P45" s="93"/>
-      <c r="R45" s="92"/>
-      <c r="S45" s="93"/>
-      <c r="T45" s="93"/>
-      <c r="U45" s="93"/>
-      <c r="V45" s="93"/>
-      <c r="W45" s="70" t="s">
+      <c r="H45" s="72"/>
+      <c r="I45" s="72"/>
+      <c r="J45" s="72"/>
+      <c r="K45" s="72"/>
+      <c r="L45" s="98"/>
+      <c r="M45" s="99"/>
+      <c r="N45" s="99"/>
+      <c r="O45" s="99"/>
+      <c r="P45" s="99"/>
+      <c r="R45" s="98"/>
+      <c r="S45" s="99"/>
+      <c r="T45" s="99"/>
+      <c r="U45" s="99"/>
+      <c r="V45" s="99"/>
+      <c r="W45" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="X45" s="70"/>
-      <c r="Y45" s="67" t="s">
+      <c r="X45" s="34"/>
+      <c r="Y45" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="Z45" s="68">
+      <c r="Z45" s="40">
         <v>25</v>
       </c>
-      <c r="AA45" s="70" t="s">
+      <c r="AA45" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="AB45" s="70"/>
-      <c r="AC45" s="71" t="s">
+      <c r="AB45" s="34"/>
+      <c r="AC45" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="AD45" s="68">
+      <c r="AD45" s="40">
         <v>32</v>
       </c>
-      <c r="AE45" s="70" t="s">
+      <c r="AE45" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="AF45" s="70"/>
-      <c r="AG45" s="67" t="s">
+      <c r="AF45" s="34"/>
+      <c r="AG45" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="AH45" s="69">
+      <c r="AH45" s="36">
         <v>54</v>
       </c>
-      <c r="AI45" s="70" t="s">
+      <c r="AI45" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="AJ45" s="70"/>
-      <c r="AK45" s="67" t="s">
+      <c r="AJ45" s="34"/>
+      <c r="AK45" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="AL45" s="69">
+      <c r="AL45" s="36">
         <v>67</v>
       </c>
-      <c r="AM45" s="70" t="s">
+      <c r="AM45" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="AN45" s="70"/>
-      <c r="AO45" s="98" t="s">
+      <c r="AN45" s="34"/>
+      <c r="AO45" s="82" t="s">
         <v>205</v>
       </c>
-      <c r="AP45" s="69">
+      <c r="AP45" s="36">
         <v>81</v>
       </c>
-      <c r="AQ45" s="70" t="s">
+      <c r="AQ45" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="AR45" s="70"/>
-      <c r="AS45" s="98" t="s">
+      <c r="AR45" s="34"/>
+      <c r="AS45" s="82" t="s">
         <v>207</v>
       </c>
-      <c r="AT45" s="69">
+      <c r="AT45" s="36">
         <v>96</v>
       </c>
-      <c r="AU45" s="105"/>
-      <c r="AV45" s="106"/>
-      <c r="AW45" s="105"/>
-      <c r="AX45" s="109"/>
-      <c r="AY45" s="106"/>
-      <c r="AZ45" s="91"/>
-      <c r="BA45" s="91"/>
-      <c r="BB45" s="91"/>
+      <c r="AU45" s="76"/>
+      <c r="AV45" s="77"/>
+      <c r="AW45" s="76"/>
+      <c r="AX45" s="80"/>
+      <c r="AY45" s="77"/>
+      <c r="AZ45" s="73"/>
+      <c r="BA45" s="73"/>
+      <c r="BB45" s="73"/>
     </row>
     <row r="46" spans="1:54" ht="18.75" customHeight="1">
-      <c r="A46" s="122" t="s">
+      <c r="A46" s="64" t="s">
         <v>275</v>
       </c>
-      <c r="B46" s="123"/>
-      <c r="C46" s="122"/>
-      <c r="D46" s="124"/>
-      <c r="E46" s="123"/>
-      <c r="G46" s="122" t="s">
+      <c r="B46" s="65"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="65"/>
+      <c r="G46" s="64" t="s">
         <v>468</v>
       </c>
-      <c r="H46" s="123"/>
-      <c r="I46" s="122"/>
-      <c r="J46" s="124"/>
-      <c r="K46" s="123"/>
-      <c r="L46" s="92"/>
-      <c r="M46" s="93"/>
-      <c r="N46" s="93"/>
-      <c r="O46" s="93"/>
-      <c r="P46" s="93"/>
-      <c r="R46" s="92"/>
-      <c r="S46" s="93"/>
-      <c r="T46" s="93"/>
-      <c r="U46" s="93"/>
-      <c r="V46" s="93"/>
-      <c r="W46" s="70"/>
-      <c r="X46" s="70"/>
-      <c r="Y46" s="67"/>
-      <c r="Z46" s="69"/>
-      <c r="AA46" s="70"/>
-      <c r="AB46" s="70"/>
-      <c r="AC46" s="71"/>
-      <c r="AD46" s="69"/>
-      <c r="AE46" s="70"/>
-      <c r="AF46" s="70"/>
-      <c r="AG46" s="67"/>
-      <c r="AH46" s="69"/>
-      <c r="AI46" s="70"/>
-      <c r="AJ46" s="70"/>
-      <c r="AK46" s="67"/>
-      <c r="AL46" s="69"/>
-      <c r="AM46" s="70"/>
-      <c r="AN46" s="70"/>
-      <c r="AO46" s="98"/>
-      <c r="AP46" s="69"/>
-      <c r="AQ46" s="70"/>
-      <c r="AR46" s="70"/>
-      <c r="AS46" s="98"/>
-      <c r="AT46" s="69"/>
-      <c r="AU46" s="107"/>
-      <c r="AV46" s="108"/>
-      <c r="AW46" s="107"/>
-      <c r="AX46" s="110"/>
-      <c r="AY46" s="108"/>
-      <c r="AZ46" s="69"/>
-      <c r="BA46" s="69"/>
-      <c r="BB46" s="69"/>
+      <c r="H46" s="65"/>
+      <c r="I46" s="64"/>
+      <c r="J46" s="71"/>
+      <c r="K46" s="65"/>
+      <c r="L46" s="98"/>
+      <c r="M46" s="99"/>
+      <c r="N46" s="99"/>
+      <c r="O46" s="99"/>
+      <c r="P46" s="99"/>
+      <c r="R46" s="98"/>
+      <c r="S46" s="99"/>
+      <c r="T46" s="99"/>
+      <c r="U46" s="99"/>
+      <c r="V46" s="99"/>
+      <c r="W46" s="34"/>
+      <c r="X46" s="34"/>
+      <c r="Y46" s="37"/>
+      <c r="Z46" s="36"/>
+      <c r="AA46" s="34"/>
+      <c r="AB46" s="34"/>
+      <c r="AC46" s="39"/>
+      <c r="AD46" s="36"/>
+      <c r="AE46" s="34"/>
+      <c r="AF46" s="34"/>
+      <c r="AG46" s="37"/>
+      <c r="AH46" s="36"/>
+      <c r="AI46" s="34"/>
+      <c r="AJ46" s="34"/>
+      <c r="AK46" s="37"/>
+      <c r="AL46" s="36"/>
+      <c r="AM46" s="34"/>
+      <c r="AN46" s="34"/>
+      <c r="AO46" s="82"/>
+      <c r="AP46" s="36"/>
+      <c r="AQ46" s="34"/>
+      <c r="AR46" s="34"/>
+      <c r="AS46" s="82"/>
+      <c r="AT46" s="36"/>
+      <c r="AU46" s="78"/>
+      <c r="AV46" s="79"/>
+      <c r="AW46" s="78"/>
+      <c r="AX46" s="81"/>
+      <c r="AY46" s="79"/>
+      <c r="AZ46" s="36"/>
+      <c r="BA46" s="36"/>
+      <c r="BB46" s="36"/>
     </row>
     <row r="47" spans="1:54" ht="18.75" customHeight="1">
-      <c r="A47" s="119" t="s">
+      <c r="A47" s="61" t="s">
         <v>277</v>
       </c>
-      <c r="B47" s="120"/>
-      <c r="C47" s="119"/>
-      <c r="D47" s="121"/>
-      <c r="E47" s="120"/>
-      <c r="G47" s="119"/>
-      <c r="H47" s="120"/>
-      <c r="I47" s="119"/>
-      <c r="J47" s="121"/>
-      <c r="K47" s="120"/>
-      <c r="L47" s="92"/>
-      <c r="M47" s="93"/>
-      <c r="N47" s="93"/>
-      <c r="O47" s="93"/>
-      <c r="P47" s="93"/>
-      <c r="R47" s="92"/>
-      <c r="S47" s="93"/>
-      <c r="T47" s="93"/>
-      <c r="U47" s="93"/>
-      <c r="V47" s="93"/>
-      <c r="W47" s="70" t="s">
+      <c r="B47" s="63"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="63"/>
+      <c r="G47" s="61"/>
+      <c r="H47" s="63"/>
+      <c r="I47" s="61"/>
+      <c r="J47" s="62"/>
+      <c r="K47" s="63"/>
+      <c r="L47" s="98"/>
+      <c r="M47" s="99"/>
+      <c r="N47" s="99"/>
+      <c r="O47" s="99"/>
+      <c r="P47" s="99"/>
+      <c r="R47" s="98"/>
+      <c r="S47" s="99"/>
+      <c r="T47" s="99"/>
+      <c r="U47" s="99"/>
+      <c r="V47" s="99"/>
+      <c r="W47" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="X47" s="70"/>
-      <c r="Y47" s="71" t="s">
+      <c r="X47" s="34"/>
+      <c r="Y47" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="Z47" s="69">
+      <c r="Z47" s="36">
         <v>26</v>
       </c>
-      <c r="AA47" s="70" t="s">
+      <c r="AA47" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="AB47" s="70"/>
-      <c r="AC47" s="71" t="s">
+      <c r="AB47" s="34"/>
+      <c r="AC47" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="AD47" s="69">
+      <c r="AD47" s="36">
         <v>33</v>
       </c>
-      <c r="AE47" s="70" t="s">
+      <c r="AE47" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="AF47" s="70"/>
-      <c r="AG47" s="67" t="s">
+      <c r="AF47" s="34"/>
+      <c r="AG47" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="AH47" s="69">
+      <c r="AH47" s="36">
         <v>55</v>
       </c>
-      <c r="AI47" s="70" t="s">
+      <c r="AI47" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="AJ47" s="70"/>
-      <c r="AK47" s="67" t="s">
+      <c r="AJ47" s="34"/>
+      <c r="AK47" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="AL47" s="69">
+      <c r="AL47" s="36">
         <v>68</v>
       </c>
-      <c r="AM47" s="70" t="s">
+      <c r="AM47" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="AN47" s="70"/>
-      <c r="AO47" s="98" t="s">
+      <c r="AN47" s="34"/>
+      <c r="AO47" s="82" t="s">
         <v>211</v>
       </c>
-      <c r="AP47" s="69">
+      <c r="AP47" s="36">
         <v>82</v>
       </c>
-      <c r="AQ47" s="77"/>
-      <c r="AR47" s="77"/>
-      <c r="AS47" s="78"/>
-      <c r="AT47" s="69"/>
-      <c r="AU47" s="113"/>
-      <c r="AV47" s="114"/>
-      <c r="AW47" s="113"/>
-      <c r="AX47" s="117"/>
-      <c r="AY47" s="114"/>
-      <c r="AZ47" s="100"/>
-      <c r="BA47" s="100"/>
-      <c r="BB47" s="100"/>
+      <c r="AQ47" s="75"/>
+      <c r="AR47" s="75"/>
+      <c r="AS47" s="74"/>
+      <c r="AT47" s="36"/>
+      <c r="AU47" s="53"/>
+      <c r="AV47" s="54"/>
+      <c r="AW47" s="53"/>
+      <c r="AX47" s="57"/>
+      <c r="AY47" s="54"/>
+      <c r="AZ47" s="59"/>
+      <c r="BA47" s="59"/>
+      <c r="BB47" s="59"/>
     </row>
     <row r="48" spans="1:54" ht="18.75" customHeight="1">
-      <c r="A48" s="122"/>
-      <c r="B48" s="123"/>
-      <c r="C48" s="122"/>
-      <c r="D48" s="124"/>
-      <c r="E48" s="123"/>
-      <c r="L48" s="92"/>
-      <c r="M48" s="93"/>
-      <c r="N48" s="93"/>
-      <c r="O48" s="93"/>
-      <c r="P48" s="93"/>
-      <c r="R48" s="92"/>
-      <c r="S48" s="93"/>
-      <c r="T48" s="93"/>
-      <c r="U48" s="93"/>
-      <c r="V48" s="93"/>
-      <c r="W48" s="70"/>
-      <c r="X48" s="70"/>
-      <c r="Y48" s="71"/>
-      <c r="Z48" s="69"/>
-      <c r="AA48" s="70"/>
-      <c r="AB48" s="70"/>
-      <c r="AC48" s="71"/>
-      <c r="AD48" s="69"/>
-      <c r="AE48" s="70"/>
-      <c r="AF48" s="70"/>
-      <c r="AG48" s="67"/>
-      <c r="AH48" s="69"/>
-      <c r="AI48" s="70"/>
-      <c r="AJ48" s="70"/>
-      <c r="AK48" s="67"/>
-      <c r="AL48" s="69"/>
-      <c r="AM48" s="70"/>
-      <c r="AN48" s="70"/>
-      <c r="AO48" s="98"/>
-      <c r="AP48" s="69"/>
-      <c r="AQ48" s="77"/>
-      <c r="AR48" s="77"/>
-      <c r="AS48" s="78"/>
-      <c r="AT48" s="69"/>
-      <c r="AU48" s="115"/>
-      <c r="AV48" s="116"/>
-      <c r="AW48" s="115"/>
-      <c r="AX48" s="118"/>
-      <c r="AY48" s="116"/>
-      <c r="AZ48" s="101"/>
-      <c r="BA48" s="101"/>
-      <c r="BB48" s="101"/>
+      <c r="A48" s="64"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="71"/>
+      <c r="E48" s="65"/>
+      <c r="L48" s="98"/>
+      <c r="M48" s="99"/>
+      <c r="N48" s="99"/>
+      <c r="O48" s="99"/>
+      <c r="P48" s="99"/>
+      <c r="R48" s="98"/>
+      <c r="S48" s="99"/>
+      <c r="T48" s="99"/>
+      <c r="U48" s="99"/>
+      <c r="V48" s="99"/>
+      <c r="W48" s="34"/>
+      <c r="X48" s="34"/>
+      <c r="Y48" s="39"/>
+      <c r="Z48" s="36"/>
+      <c r="AA48" s="34"/>
+      <c r="AB48" s="34"/>
+      <c r="AC48" s="39"/>
+      <c r="AD48" s="36"/>
+      <c r="AE48" s="34"/>
+      <c r="AF48" s="34"/>
+      <c r="AG48" s="37"/>
+      <c r="AH48" s="36"/>
+      <c r="AI48" s="34"/>
+      <c r="AJ48" s="34"/>
+      <c r="AK48" s="37"/>
+      <c r="AL48" s="36"/>
+      <c r="AM48" s="34"/>
+      <c r="AN48" s="34"/>
+      <c r="AO48" s="82"/>
+      <c r="AP48" s="36"/>
+      <c r="AQ48" s="75"/>
+      <c r="AR48" s="75"/>
+      <c r="AS48" s="74"/>
+      <c r="AT48" s="36"/>
+      <c r="AU48" s="55"/>
+      <c r="AV48" s="56"/>
+      <c r="AW48" s="55"/>
+      <c r="AX48" s="58"/>
+      <c r="AY48" s="56"/>
+      <c r="AZ48" s="60"/>
+      <c r="BA48" s="60"/>
+      <c r="BB48" s="60"/>
     </row>
     <row r="49" spans="1:1025" ht="18.75" customHeight="1">
-      <c r="A49" s="119"/>
-      <c r="B49" s="120"/>
-      <c r="C49" s="119"/>
-      <c r="D49" s="121"/>
-      <c r="E49" s="120"/>
-      <c r="G49" s="112" t="s">
+      <c r="A49" s="61"/>
+      <c r="B49" s="63"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="63"/>
+      <c r="G49" s="68" t="s">
         <v>245</v>
       </c>
-      <c r="H49" s="129"/>
-      <c r="I49" s="129"/>
-      <c r="J49" s="129"/>
-      <c r="K49" s="130"/>
-      <c r="L49" s="92"/>
-      <c r="M49" s="93"/>
-      <c r="N49" s="93"/>
-      <c r="O49" s="93"/>
-      <c r="P49" s="93"/>
-      <c r="R49" s="92"/>
-      <c r="S49" s="93"/>
-      <c r="T49" s="93"/>
-      <c r="U49" s="93"/>
-      <c r="V49" s="93"/>
-      <c r="W49" s="70" t="s">
+      <c r="H49" s="69"/>
+      <c r="I49" s="69"/>
+      <c r="J49" s="69"/>
+      <c r="K49" s="70"/>
+      <c r="L49" s="98"/>
+      <c r="M49" s="99"/>
+      <c r="N49" s="99"/>
+      <c r="O49" s="99"/>
+      <c r="P49" s="99"/>
+      <c r="R49" s="98"/>
+      <c r="S49" s="99"/>
+      <c r="T49" s="99"/>
+      <c r="U49" s="99"/>
+      <c r="V49" s="99"/>
+      <c r="W49" s="34" t="s">
         <v>213</v>
       </c>
-      <c r="X49" s="70"/>
-      <c r="Y49" s="71" t="s">
+      <c r="X49" s="34"/>
+      <c r="Y49" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="Z49" s="69">
+      <c r="Z49" s="36">
         <v>27</v>
       </c>
-      <c r="AA49" s="70" t="s">
+      <c r="AA49" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="AB49" s="70"/>
-      <c r="AC49" s="90" t="s">
+      <c r="AB49" s="34"/>
+      <c r="AC49" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="AD49" s="69">
+      <c r="AD49" s="36">
         <v>34</v>
       </c>
-      <c r="AE49" s="70" t="s">
+      <c r="AE49" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="AF49" s="70"/>
-      <c r="AG49" s="67" t="s">
+      <c r="AF49" s="34"/>
+      <c r="AG49" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="AH49" s="69">
+      <c r="AH49" s="36">
         <v>56</v>
       </c>
-      <c r="AI49" s="70" t="s">
+      <c r="AI49" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="AJ49" s="70"/>
-      <c r="AK49" s="67" t="s">
+      <c r="AJ49" s="34"/>
+      <c r="AK49" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="AL49" s="68">
+      <c r="AL49" s="40">
         <v>69</v>
       </c>
-      <c r="AM49" s="77"/>
-      <c r="AN49" s="77"/>
-      <c r="AO49" s="78"/>
-      <c r="AP49" s="69"/>
-      <c r="AQ49" s="77"/>
-      <c r="AR49" s="77"/>
-      <c r="AS49" s="78"/>
-      <c r="AT49" s="69"/>
-      <c r="AU49" s="105"/>
-      <c r="AV49" s="106"/>
-      <c r="AW49" s="105"/>
-      <c r="AX49" s="109"/>
-      <c r="AY49" s="106"/>
-      <c r="AZ49" s="91"/>
-      <c r="BA49" s="91"/>
-      <c r="BB49" s="91"/>
+      <c r="AM49" s="75"/>
+      <c r="AN49" s="75"/>
+      <c r="AO49" s="74"/>
+      <c r="AP49" s="36"/>
+      <c r="AQ49" s="75"/>
+      <c r="AR49" s="75"/>
+      <c r="AS49" s="74"/>
+      <c r="AT49" s="36"/>
+      <c r="AU49" s="76" t="s">
+        <v>495</v>
+      </c>
+      <c r="AV49" s="77"/>
+      <c r="AW49" s="76"/>
+      <c r="AX49" s="80"/>
+      <c r="AY49" s="77"/>
+      <c r="AZ49" s="73"/>
+      <c r="BA49" s="73"/>
+      <c r="BB49" s="73"/>
     </row>
     <row r="50" spans="1:1025" ht="18.75" customHeight="1">
-      <c r="A50" s="122"/>
-      <c r="B50" s="123"/>
-      <c r="C50" s="122"/>
-      <c r="D50" s="124"/>
-      <c r="E50" s="123"/>
-      <c r="G50" s="122" t="s">
+      <c r="A50" s="64"/>
+      <c r="B50" s="65"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="71"/>
+      <c r="E50" s="65"/>
+      <c r="G50" s="64" t="s">
         <v>467</v>
       </c>
-      <c r="H50" s="123"/>
-      <c r="I50" s="122"/>
-      <c r="J50" s="124"/>
-      <c r="K50" s="123"/>
-      <c r="L50" s="92"/>
-      <c r="M50" s="93"/>
-      <c r="N50" s="93"/>
-      <c r="O50" s="93"/>
-      <c r="P50" s="93"/>
-      <c r="R50" s="92"/>
-      <c r="S50" s="93"/>
-      <c r="T50" s="93"/>
-      <c r="U50" s="93"/>
-      <c r="V50" s="93"/>
-      <c r="W50" s="70"/>
-      <c r="X50" s="70"/>
-      <c r="Y50" s="71"/>
-      <c r="Z50" s="69"/>
-      <c r="AA50" s="70"/>
-      <c r="AB50" s="70"/>
-      <c r="AC50" s="90"/>
-      <c r="AD50" s="69"/>
-      <c r="AE50" s="70"/>
-      <c r="AF50" s="70"/>
-      <c r="AG50" s="67"/>
-      <c r="AH50" s="69"/>
-      <c r="AI50" s="70"/>
-      <c r="AJ50" s="70"/>
-      <c r="AK50" s="67"/>
-      <c r="AL50" s="69"/>
-      <c r="AM50" s="77"/>
-      <c r="AN50" s="77"/>
-      <c r="AO50" s="78"/>
-      <c r="AP50" s="69"/>
-      <c r="AQ50" s="77"/>
-      <c r="AR50" s="77"/>
-      <c r="AS50" s="78"/>
-      <c r="AT50" s="69"/>
-      <c r="AU50" s="107"/>
-      <c r="AV50" s="108"/>
-      <c r="AW50" s="107"/>
-      <c r="AX50" s="110"/>
-      <c r="AY50" s="108"/>
-      <c r="AZ50" s="69"/>
-      <c r="BA50" s="69"/>
-      <c r="BB50" s="69"/>
+      <c r="H50" s="65"/>
+      <c r="I50" s="64"/>
+      <c r="J50" s="71"/>
+      <c r="K50" s="65"/>
+      <c r="L50" s="98"/>
+      <c r="M50" s="99"/>
+      <c r="N50" s="99"/>
+      <c r="O50" s="99"/>
+      <c r="P50" s="99"/>
+      <c r="R50" s="98"/>
+      <c r="S50" s="99"/>
+      <c r="T50" s="99"/>
+      <c r="U50" s="99"/>
+      <c r="V50" s="99"/>
+      <c r="W50" s="34"/>
+      <c r="X50" s="34"/>
+      <c r="Y50" s="39"/>
+      <c r="Z50" s="36"/>
+      <c r="AA50" s="34"/>
+      <c r="AB50" s="34"/>
+      <c r="AC50" s="35"/>
+      <c r="AD50" s="36"/>
+      <c r="AE50" s="34"/>
+      <c r="AF50" s="34"/>
+      <c r="AG50" s="37"/>
+      <c r="AH50" s="36"/>
+      <c r="AI50" s="34"/>
+      <c r="AJ50" s="34"/>
+      <c r="AK50" s="37"/>
+      <c r="AL50" s="36"/>
+      <c r="AM50" s="75"/>
+      <c r="AN50" s="75"/>
+      <c r="AO50" s="74"/>
+      <c r="AP50" s="36"/>
+      <c r="AQ50" s="75"/>
+      <c r="AR50" s="75"/>
+      <c r="AS50" s="74"/>
+      <c r="AT50" s="36"/>
+      <c r="AU50" s="78"/>
+      <c r="AV50" s="79"/>
+      <c r="AW50" s="78"/>
+      <c r="AX50" s="81"/>
+      <c r="AY50" s="79"/>
+      <c r="AZ50" s="36"/>
+      <c r="BA50" s="36"/>
+      <c r="BB50" s="36"/>
     </row>
     <row r="51" spans="1:1025" ht="18.75" customHeight="1">
-      <c r="A51" s="119"/>
-      <c r="B51" s="120"/>
-      <c r="C51" s="119"/>
-      <c r="D51" s="121"/>
-      <c r="E51" s="120"/>
-      <c r="G51" s="119"/>
-      <c r="H51" s="120"/>
-      <c r="I51" s="119"/>
-      <c r="J51" s="121"/>
-      <c r="K51" s="120"/>
-      <c r="L51" s="92"/>
-      <c r="M51" s="93"/>
-      <c r="N51" s="93"/>
-      <c r="O51" s="93"/>
-      <c r="P51" s="93"/>
-      <c r="R51" s="92"/>
-      <c r="S51" s="93"/>
-      <c r="T51" s="93"/>
-      <c r="U51" s="93"/>
-      <c r="V51" s="93"/>
-      <c r="W51" s="70" t="s">
+      <c r="A51" s="61"/>
+      <c r="B51" s="63"/>
+      <c r="C51" s="61"/>
+      <c r="D51" s="62"/>
+      <c r="E51" s="63"/>
+      <c r="G51" s="61"/>
+      <c r="H51" s="63"/>
+      <c r="I51" s="61"/>
+      <c r="J51" s="62"/>
+      <c r="K51" s="63"/>
+      <c r="L51" s="98"/>
+      <c r="M51" s="99"/>
+      <c r="N51" s="99"/>
+      <c r="O51" s="99"/>
+      <c r="P51" s="99"/>
+      <c r="R51" s="98"/>
+      <c r="S51" s="99"/>
+      <c r="T51" s="99"/>
+      <c r="U51" s="99"/>
+      <c r="V51" s="99"/>
+      <c r="W51" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="X51" s="70"/>
-      <c r="Y51" s="71" t="s">
+      <c r="X51" s="34"/>
+      <c r="Y51" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="Z51" s="69">
+      <c r="Z51" s="36">
         <v>28</v>
       </c>
-      <c r="AA51" s="70" t="s">
+      <c r="AA51" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="AB51" s="70"/>
-      <c r="AC51" s="71" t="s">
+      <c r="AB51" s="34"/>
+      <c r="AC51" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="AD51" s="69">
+      <c r="AD51" s="36">
         <v>35</v>
       </c>
-      <c r="AE51" s="70"/>
-      <c r="AF51" s="70"/>
-      <c r="AG51" s="90"/>
-      <c r="AH51" s="69"/>
-      <c r="AI51" s="70"/>
-      <c r="AJ51" s="70"/>
-      <c r="AK51" s="90"/>
-      <c r="AL51" s="69"/>
-      <c r="AM51" s="70" t="s">
+      <c r="AE51" s="34"/>
+      <c r="AF51" s="34"/>
+      <c r="AG51" s="35"/>
+      <c r="AH51" s="36"/>
+      <c r="AI51" s="34"/>
+      <c r="AJ51" s="34"/>
+      <c r="AK51" s="35"/>
+      <c r="AL51" s="36"/>
+      <c r="AM51" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="AN51" s="70"/>
-      <c r="AO51" s="132" t="s">
+      <c r="AN51" s="34"/>
+      <c r="AO51" s="87" t="s">
         <v>218</v>
       </c>
-      <c r="AP51" s="69">
+      <c r="AP51" s="36">
         <v>83</v>
       </c>
-      <c r="AQ51" s="133" t="s">
+      <c r="AQ51" s="88" t="s">
         <v>219</v>
       </c>
-      <c r="AR51" s="133"/>
-      <c r="AS51" s="134" t="s">
+      <c r="AR51" s="88"/>
+      <c r="AS51" s="89" t="s">
         <v>220</v>
       </c>
-      <c r="AT51" s="69">
+      <c r="AT51" s="36">
         <v>97</v>
       </c>
-      <c r="AU51" s="113"/>
-      <c r="AV51" s="114"/>
-      <c r="AW51" s="113"/>
-      <c r="AX51" s="117"/>
-      <c r="AY51" s="114"/>
-      <c r="AZ51" s="100"/>
-      <c r="BA51" s="100"/>
-      <c r="BB51" s="100"/>
+      <c r="AU51" s="53" t="s">
+        <v>496</v>
+      </c>
+      <c r="AV51" s="54"/>
+      <c r="AW51" s="53"/>
+      <c r="AX51" s="57"/>
+      <c r="AY51" s="54"/>
+      <c r="AZ51" s="59"/>
+      <c r="BA51" s="59"/>
+      <c r="BB51" s="59"/>
     </row>
     <row r="52" spans="1:1025" ht="18.75" customHeight="1">
-      <c r="A52" s="122"/>
-      <c r="B52" s="123"/>
-      <c r="C52" s="122"/>
-      <c r="D52" s="124"/>
-      <c r="E52" s="123"/>
-      <c r="G52" s="122"/>
-      <c r="H52" s="123"/>
-      <c r="I52" s="122"/>
-      <c r="J52" s="124"/>
-      <c r="K52" s="123"/>
-      <c r="L52" s="92"/>
-      <c r="M52" s="93"/>
-      <c r="N52" s="93"/>
-      <c r="O52" s="93"/>
-      <c r="P52" s="93"/>
-      <c r="R52" s="92"/>
-      <c r="S52" s="93"/>
-      <c r="T52" s="93"/>
-      <c r="U52" s="93"/>
-      <c r="V52" s="93"/>
-      <c r="W52" s="70"/>
-      <c r="X52" s="70"/>
-      <c r="Y52" s="71"/>
-      <c r="Z52" s="69"/>
-      <c r="AA52" s="70"/>
-      <c r="AB52" s="70"/>
-      <c r="AC52" s="71"/>
-      <c r="AD52" s="69"/>
-      <c r="AE52" s="70"/>
-      <c r="AF52" s="70"/>
-      <c r="AG52" s="90"/>
-      <c r="AH52" s="69"/>
-      <c r="AI52" s="70"/>
-      <c r="AJ52" s="70"/>
-      <c r="AK52" s="90"/>
-      <c r="AL52" s="69"/>
-      <c r="AM52" s="70"/>
-      <c r="AN52" s="70"/>
-      <c r="AO52" s="132"/>
-      <c r="AP52" s="69"/>
-      <c r="AQ52" s="133"/>
-      <c r="AR52" s="133"/>
-      <c r="AS52" s="134"/>
-      <c r="AT52" s="69"/>
-      <c r="AU52" s="115"/>
-      <c r="AV52" s="116"/>
-      <c r="AW52" s="115"/>
-      <c r="AX52" s="118"/>
-      <c r="AY52" s="116"/>
-      <c r="AZ52" s="101"/>
-      <c r="BA52" s="101"/>
-      <c r="BB52" s="101"/>
+      <c r="A52" s="64"/>
+      <c r="B52" s="65"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="71"/>
+      <c r="E52" s="65"/>
+      <c r="G52" s="64"/>
+      <c r="H52" s="65"/>
+      <c r="I52" s="64"/>
+      <c r="J52" s="71"/>
+      <c r="K52" s="65"/>
+      <c r="L52" s="98"/>
+      <c r="M52" s="99"/>
+      <c r="N52" s="99"/>
+      <c r="O52" s="99"/>
+      <c r="P52" s="99"/>
+      <c r="R52" s="98"/>
+      <c r="S52" s="99"/>
+      <c r="T52" s="99"/>
+      <c r="U52" s="99"/>
+      <c r="V52" s="99"/>
+      <c r="W52" s="34"/>
+      <c r="X52" s="34"/>
+      <c r="Y52" s="39"/>
+      <c r="Z52" s="36"/>
+      <c r="AA52" s="34"/>
+      <c r="AB52" s="34"/>
+      <c r="AC52" s="39"/>
+      <c r="AD52" s="36"/>
+      <c r="AE52" s="34"/>
+      <c r="AF52" s="34"/>
+      <c r="AG52" s="35"/>
+      <c r="AH52" s="36"/>
+      <c r="AI52" s="34"/>
+      <c r="AJ52" s="34"/>
+      <c r="AK52" s="35"/>
+      <c r="AL52" s="36"/>
+      <c r="AM52" s="34"/>
+      <c r="AN52" s="34"/>
+      <c r="AO52" s="87"/>
+      <c r="AP52" s="36"/>
+      <c r="AQ52" s="88"/>
+      <c r="AR52" s="88"/>
+      <c r="AS52" s="89"/>
+      <c r="AT52" s="36"/>
+      <c r="AU52" s="55"/>
+      <c r="AV52" s="56"/>
+      <c r="AW52" s="55"/>
+      <c r="AX52" s="58"/>
+      <c r="AY52" s="56"/>
+      <c r="AZ52" s="60"/>
+      <c r="BA52" s="60"/>
+      <c r="BB52" s="60"/>
     </row>
     <row r="53" spans="1:1025" ht="18.75" customHeight="1">
-      <c r="A53" s="119"/>
-      <c r="B53" s="120"/>
-      <c r="C53" s="119"/>
-      <c r="D53" s="121"/>
-      <c r="E53" s="120"/>
-      <c r="G53" s="119"/>
-      <c r="H53" s="120"/>
-      <c r="I53" s="119"/>
-      <c r="J53" s="121"/>
-      <c r="K53" s="120"/>
-      <c r="L53" s="92"/>
-      <c r="M53" s="93"/>
-      <c r="N53" s="93"/>
-      <c r="O53" s="93"/>
-      <c r="P53" s="93"/>
-      <c r="R53" s="92"/>
-      <c r="S53" s="93"/>
-      <c r="T53" s="93"/>
-      <c r="U53" s="93"/>
-      <c r="V53" s="93"/>
-      <c r="W53" s="70" t="s">
+      <c r="A53" s="61"/>
+      <c r="B53" s="63"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="62"/>
+      <c r="E53" s="63"/>
+      <c r="G53" s="61"/>
+      <c r="H53" s="63"/>
+      <c r="I53" s="61"/>
+      <c r="J53" s="62"/>
+      <c r="K53" s="63"/>
+      <c r="L53" s="98"/>
+      <c r="M53" s="99"/>
+      <c r="N53" s="99"/>
+      <c r="O53" s="99"/>
+      <c r="P53" s="99"/>
+      <c r="R53" s="98"/>
+      <c r="S53" s="99"/>
+      <c r="T53" s="99"/>
+      <c r="U53" s="99"/>
+      <c r="V53" s="99"/>
+      <c r="W53" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="X53" s="70"/>
-      <c r="Y53" s="67" t="s">
+      <c r="X53" s="34"/>
+      <c r="Y53" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="Z53" s="69">
+      <c r="Z53" s="36">
         <v>29</v>
       </c>
-      <c r="AA53" s="70" t="s">
+      <c r="AA53" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="AB53" s="70"/>
-      <c r="AC53" s="67" t="s">
+      <c r="AB53" s="34"/>
+      <c r="AC53" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="AD53" s="69">
+      <c r="AD53" s="36">
         <v>36</v>
       </c>
-      <c r="AE53" s="77"/>
-      <c r="AF53" s="77"/>
-      <c r="AG53" s="78"/>
-      <c r="AH53" s="69"/>
-      <c r="AI53" s="77"/>
-      <c r="AJ53" s="77"/>
-      <c r="AK53" s="78"/>
-      <c r="AL53" s="69"/>
-      <c r="AM53" s="70" t="s">
+      <c r="AE53" s="75"/>
+      <c r="AF53" s="75"/>
+      <c r="AG53" s="74"/>
+      <c r="AH53" s="36"/>
+      <c r="AI53" s="75"/>
+      <c r="AJ53" s="75"/>
+      <c r="AK53" s="74"/>
+      <c r="AL53" s="36"/>
+      <c r="AM53" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="AN53" s="70"/>
-      <c r="AO53" s="67" t="s">
+      <c r="AN53" s="34"/>
+      <c r="AO53" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="AP53" s="69">
+      <c r="AP53" s="36">
         <v>84</v>
       </c>
       <c r="AQ53" s="86" t="s">
         <v>224</v>
       </c>
       <c r="AR53" s="86"/>
-      <c r="AS53" s="67" t="s">
+      <c r="AS53" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="AT53" s="69">
+      <c r="AT53" s="36">
         <v>98</v>
       </c>
-      <c r="AU53" s="105"/>
-      <c r="AV53" s="106"/>
-      <c r="AW53" s="105"/>
-      <c r="AX53" s="109"/>
-      <c r="AY53" s="106"/>
-      <c r="AZ53" s="91"/>
-      <c r="BA53" s="91"/>
-      <c r="BB53" s="91"/>
+      <c r="AU53" s="76" t="s">
+        <v>497</v>
+      </c>
+      <c r="AV53" s="77"/>
+      <c r="AW53" s="76"/>
+      <c r="AX53" s="80"/>
+      <c r="AY53" s="77"/>
+      <c r="AZ53" s="73"/>
+      <c r="BA53" s="73"/>
+      <c r="BB53" s="73"/>
     </row>
     <row r="54" spans="1:1025" ht="18.75" customHeight="1">
-      <c r="L54" s="92"/>
-      <c r="M54" s="93"/>
-      <c r="N54" s="93"/>
-      <c r="O54" s="93"/>
-      <c r="P54" s="93"/>
-      <c r="R54" s="92"/>
-      <c r="S54" s="93"/>
-      <c r="T54" s="93"/>
-      <c r="U54" s="93"/>
-      <c r="V54" s="93"/>
-      <c r="W54" s="70"/>
-      <c r="X54" s="70"/>
-      <c r="Y54" s="67"/>
-      <c r="Z54" s="69"/>
-      <c r="AA54" s="70"/>
-      <c r="AB54" s="70"/>
-      <c r="AC54" s="67"/>
-      <c r="AD54" s="69"/>
-      <c r="AE54" s="77"/>
-      <c r="AF54" s="77"/>
-      <c r="AG54" s="78"/>
-      <c r="AH54" s="69"/>
-      <c r="AI54" s="77"/>
-      <c r="AJ54" s="77"/>
-      <c r="AK54" s="78"/>
-      <c r="AL54" s="69"/>
-      <c r="AM54" s="70"/>
-      <c r="AN54" s="70"/>
-      <c r="AO54" s="67"/>
-      <c r="AP54" s="69"/>
+      <c r="L54" s="98"/>
+      <c r="M54" s="99"/>
+      <c r="N54" s="99"/>
+      <c r="O54" s="99"/>
+      <c r="P54" s="99"/>
+      <c r="R54" s="98"/>
+      <c r="S54" s="99"/>
+      <c r="T54" s="99"/>
+      <c r="U54" s="99"/>
+      <c r="V54" s="99"/>
+      <c r="W54" s="34"/>
+      <c r="X54" s="34"/>
+      <c r="Y54" s="37"/>
+      <c r="Z54" s="36"/>
+      <c r="AA54" s="34"/>
+      <c r="AB54" s="34"/>
+      <c r="AC54" s="37"/>
+      <c r="AD54" s="36"/>
+      <c r="AE54" s="75"/>
+      <c r="AF54" s="75"/>
+      <c r="AG54" s="74"/>
+      <c r="AH54" s="36"/>
+      <c r="AI54" s="75"/>
+      <c r="AJ54" s="75"/>
+      <c r="AK54" s="74"/>
+      <c r="AL54" s="36"/>
+      <c r="AM54" s="34"/>
+      <c r="AN54" s="34"/>
+      <c r="AO54" s="37"/>
+      <c r="AP54" s="36"/>
       <c r="AQ54" s="86"/>
       <c r="AR54" s="86"/>
-      <c r="AS54" s="67"/>
-      <c r="AT54" s="69"/>
-      <c r="AU54" s="107"/>
-      <c r="AV54" s="108"/>
-      <c r="AW54" s="107"/>
-      <c r="AX54" s="110"/>
-      <c r="AY54" s="108"/>
-      <c r="AZ54" s="69"/>
-      <c r="BA54" s="69"/>
-      <c r="BB54" s="69"/>
+      <c r="AS54" s="37"/>
+      <c r="AT54" s="36"/>
+      <c r="AU54" s="78"/>
+      <c r="AV54" s="79"/>
+      <c r="AW54" s="78"/>
+      <c r="AX54" s="81"/>
+      <c r="AY54" s="79"/>
+      <c r="AZ54" s="36"/>
+      <c r="BA54" s="36"/>
+      <c r="BB54" s="36"/>
     </row>
     <row r="55" spans="1:1025" ht="18.75" customHeight="1">
-      <c r="A55" s="125" t="s">
+      <c r="A55" s="90" t="s">
         <v>212</v>
       </c>
-      <c r="B55" s="126"/>
-      <c r="C55" s="126"/>
-      <c r="D55" s="126"/>
-      <c r="E55" s="126"/>
-      <c r="F55" s="126"/>
-      <c r="G55" s="126"/>
-      <c r="H55" s="126"/>
-      <c r="I55" s="126"/>
-      <c r="J55" s="126"/>
-      <c r="K55" s="127"/>
-      <c r="L55" s="92"/>
-      <c r="M55" s="93"/>
-      <c r="N55" s="93"/>
-      <c r="O55" s="93"/>
-      <c r="P55" s="93"/>
-      <c r="R55" s="92"/>
-      <c r="S55" s="93"/>
-      <c r="T55" s="93"/>
-      <c r="U55" s="93"/>
-      <c r="V55" s="93"/>
-      <c r="W55" s="70"/>
-      <c r="X55" s="70"/>
-      <c r="Y55" s="78"/>
-      <c r="Z55" s="69"/>
-      <c r="AA55" s="70" t="s">
+      <c r="B55" s="91"/>
+      <c r="C55" s="91"/>
+      <c r="D55" s="91"/>
+      <c r="E55" s="91"/>
+      <c r="F55" s="91"/>
+      <c r="G55" s="91"/>
+      <c r="H55" s="91"/>
+      <c r="I55" s="91"/>
+      <c r="J55" s="91"/>
+      <c r="K55" s="92"/>
+      <c r="L55" s="98"/>
+      <c r="M55" s="99"/>
+      <c r="N55" s="99"/>
+      <c r="O55" s="99"/>
+      <c r="P55" s="99"/>
+      <c r="R55" s="98"/>
+      <c r="S55" s="99"/>
+      <c r="T55" s="99"/>
+      <c r="U55" s="99"/>
+      <c r="V55" s="99"/>
+      <c r="W55" s="34"/>
+      <c r="X55" s="34"/>
+      <c r="Y55" s="74"/>
+      <c r="Z55" s="36"/>
+      <c r="AA55" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="AB55" s="70"/>
-      <c r="AC55" s="71" t="s">
+      <c r="AB55" s="34"/>
+      <c r="AC55" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="AD55" s="69">
+      <c r="AD55" s="36">
         <v>37</v>
       </c>
-      <c r="AE55" s="70"/>
-      <c r="AF55" s="70"/>
-      <c r="AG55" s="67"/>
-      <c r="AH55" s="69"/>
-      <c r="AI55" s="70"/>
-      <c r="AJ55" s="70"/>
-      <c r="AK55" s="67"/>
-      <c r="AL55" s="69"/>
-      <c r="AM55" s="70" t="s">
+      <c r="AE55" s="34"/>
+      <c r="AF55" s="34"/>
+      <c r="AG55" s="37"/>
+      <c r="AH55" s="36"/>
+      <c r="AI55" s="34"/>
+      <c r="AJ55" s="34"/>
+      <c r="AK55" s="37"/>
+      <c r="AL55" s="36"/>
+      <c r="AM55" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="AN55" s="70"/>
-      <c r="AO55" s="135" t="s">
+      <c r="AN55" s="34"/>
+      <c r="AO55" s="83" t="s">
         <v>228</v>
       </c>
-      <c r="AP55" s="68">
+      <c r="AP55" s="40">
         <v>85</v>
       </c>
-      <c r="AQ55" s="77"/>
-      <c r="AR55" s="77"/>
-      <c r="AS55" s="67"/>
-      <c r="AT55" s="68"/>
-      <c r="AU55" s="113"/>
-      <c r="AV55" s="114"/>
-      <c r="AW55" s="113"/>
-      <c r="AX55" s="117"/>
-      <c r="AY55" s="114"/>
-      <c r="AZ55" s="100"/>
-      <c r="BA55" s="100"/>
-      <c r="BB55" s="100"/>
+      <c r="AQ55" s="75"/>
+      <c r="AR55" s="75"/>
+      <c r="AS55" s="37"/>
+      <c r="AT55" s="40"/>
+      <c r="AU55" s="53"/>
+      <c r="AV55" s="54"/>
+      <c r="AW55" s="53"/>
+      <c r="AX55" s="57"/>
+      <c r="AY55" s="54"/>
+      <c r="AZ55" s="59"/>
+      <c r="BA55" s="59"/>
+      <c r="BB55" s="59"/>
     </row>
     <row r="56" spans="1:1025" ht="18.75" customHeight="1">
-      <c r="A56" s="78" t="s">
+      <c r="A56" s="74" t="s">
         <v>470</v>
       </c>
-      <c r="B56" s="78"/>
-      <c r="C56" s="78"/>
-      <c r="D56" s="78"/>
-      <c r="E56" s="78"/>
-      <c r="F56" s="78"/>
-      <c r="G56" s="78"/>
-      <c r="H56" s="78"/>
-      <c r="I56" s="78"/>
-      <c r="J56" s="78"/>
-      <c r="K56" s="128"/>
-      <c r="L56" s="92"/>
-      <c r="M56" s="93"/>
-      <c r="N56" s="93"/>
-      <c r="O56" s="93"/>
-      <c r="P56" s="93"/>
-      <c r="R56" s="92"/>
-      <c r="S56" s="93"/>
-      <c r="T56" s="93"/>
-      <c r="U56" s="93"/>
-      <c r="V56" s="93"/>
-      <c r="W56" s="70"/>
-      <c r="X56" s="70"/>
-      <c r="Y56" s="78"/>
-      <c r="Z56" s="69"/>
-      <c r="AA56" s="70"/>
-      <c r="AB56" s="70"/>
-      <c r="AC56" s="71"/>
-      <c r="AD56" s="69"/>
-      <c r="AE56" s="70"/>
-      <c r="AF56" s="70"/>
-      <c r="AG56" s="67"/>
-      <c r="AH56" s="69"/>
-      <c r="AI56" s="70"/>
-      <c r="AJ56" s="70"/>
-      <c r="AK56" s="67"/>
-      <c r="AL56" s="69"/>
-      <c r="AM56" s="70"/>
-      <c r="AN56" s="70"/>
-      <c r="AO56" s="135"/>
-      <c r="AP56" s="69"/>
-      <c r="AQ56" s="77"/>
-      <c r="AR56" s="77"/>
-      <c r="AS56" s="67"/>
-      <c r="AT56" s="69"/>
-      <c r="AU56" s="115"/>
-      <c r="AV56" s="116"/>
-      <c r="AW56" s="115"/>
-      <c r="AX56" s="118"/>
-      <c r="AY56" s="116"/>
-      <c r="AZ56" s="101"/>
-      <c r="BA56" s="101"/>
-      <c r="BB56" s="101"/>
+      <c r="B56" s="74"/>
+      <c r="C56" s="74"/>
+      <c r="D56" s="74"/>
+      <c r="E56" s="74"/>
+      <c r="F56" s="74"/>
+      <c r="G56" s="74"/>
+      <c r="H56" s="74"/>
+      <c r="I56" s="74"/>
+      <c r="J56" s="74"/>
+      <c r="K56" s="84"/>
+      <c r="L56" s="98"/>
+      <c r="M56" s="99"/>
+      <c r="N56" s="99"/>
+      <c r="O56" s="99"/>
+      <c r="P56" s="99"/>
+      <c r="R56" s="98"/>
+      <c r="S56" s="99"/>
+      <c r="T56" s="99"/>
+      <c r="U56" s="99"/>
+      <c r="V56" s="99"/>
+      <c r="W56" s="34"/>
+      <c r="X56" s="34"/>
+      <c r="Y56" s="74"/>
+      <c r="Z56" s="36"/>
+      <c r="AA56" s="34"/>
+      <c r="AB56" s="34"/>
+      <c r="AC56" s="39"/>
+      <c r="AD56" s="36"/>
+      <c r="AE56" s="34"/>
+      <c r="AF56" s="34"/>
+      <c r="AG56" s="37"/>
+      <c r="AH56" s="36"/>
+      <c r="AI56" s="34"/>
+      <c r="AJ56" s="34"/>
+      <c r="AK56" s="37"/>
+      <c r="AL56" s="36"/>
+      <c r="AM56" s="34"/>
+      <c r="AN56" s="34"/>
+      <c r="AO56" s="83"/>
+      <c r="AP56" s="36"/>
+      <c r="AQ56" s="75"/>
+      <c r="AR56" s="75"/>
+      <c r="AS56" s="37"/>
+      <c r="AT56" s="36"/>
+      <c r="AU56" s="55"/>
+      <c r="AV56" s="56"/>
+      <c r="AW56" s="55"/>
+      <c r="AX56" s="58"/>
+      <c r="AY56" s="56"/>
+      <c r="AZ56" s="60"/>
+      <c r="BA56" s="60"/>
+      <c r="BB56" s="60"/>
     </row>
     <row r="57" spans="1:1025" ht="19.5" customHeight="1">
-      <c r="A57" s="77" t="s">
+      <c r="A57" s="75" t="s">
         <v>471</v>
       </c>
-      <c r="B57" s="77"/>
-      <c r="C57" s="77"/>
-      <c r="D57" s="77"/>
-      <c r="E57" s="77"/>
-      <c r="F57" s="77"/>
-      <c r="G57" s="77"/>
-      <c r="H57" s="77"/>
-      <c r="I57" s="77"/>
-      <c r="J57" s="77"/>
-      <c r="K57" s="131"/>
-      <c r="L57" s="92"/>
-      <c r="M57" s="93"/>
-      <c r="N57" s="93"/>
-      <c r="O57" s="93"/>
-      <c r="P57" s="93"/>
-      <c r="R57" s="92"/>
-      <c r="S57" s="93"/>
-      <c r="T57" s="93"/>
-      <c r="U57" s="93"/>
-      <c r="V57" s="93"/>
-      <c r="W57" s="77"/>
-      <c r="X57" s="77"/>
-      <c r="Y57" s="78"/>
-      <c r="Z57" s="69"/>
-      <c r="AA57" s="77"/>
-      <c r="AB57" s="77"/>
-      <c r="AC57" s="78"/>
-      <c r="AD57" s="69"/>
-      <c r="AE57" s="70"/>
-      <c r="AF57" s="70"/>
-      <c r="AG57" s="67"/>
-      <c r="AH57" s="69"/>
-      <c r="AI57" s="70"/>
-      <c r="AJ57" s="70"/>
-      <c r="AK57" s="67"/>
-      <c r="AL57" s="69"/>
-      <c r="AM57" s="77"/>
-      <c r="AN57" s="77"/>
-      <c r="AO57" s="78"/>
-      <c r="AP57" s="69"/>
-      <c r="AQ57" s="77"/>
-      <c r="AR57" s="77"/>
-      <c r="AS57" s="78"/>
-      <c r="AT57" s="69"/>
-      <c r="AU57" s="105"/>
-      <c r="AV57" s="106"/>
-      <c r="AW57" s="105"/>
-      <c r="AX57" s="109"/>
-      <c r="AY57" s="106"/>
-      <c r="AZ57" s="91"/>
-      <c r="BA57" s="91"/>
-      <c r="BB57" s="91"/>
+      <c r="B57" s="75"/>
+      <c r="C57" s="75"/>
+      <c r="D57" s="75"/>
+      <c r="E57" s="75"/>
+      <c r="F57" s="75"/>
+      <c r="G57" s="75"/>
+      <c r="H57" s="75"/>
+      <c r="I57" s="75"/>
+      <c r="J57" s="75"/>
+      <c r="K57" s="85"/>
+      <c r="L57" s="98"/>
+      <c r="M57" s="99"/>
+      <c r="N57" s="99"/>
+      <c r="O57" s="99"/>
+      <c r="P57" s="99"/>
+      <c r="R57" s="98"/>
+      <c r="S57" s="99"/>
+      <c r="T57" s="99"/>
+      <c r="U57" s="99"/>
+      <c r="V57" s="99"/>
+      <c r="W57" s="75"/>
+      <c r="X57" s="75"/>
+      <c r="Y57" s="74"/>
+      <c r="Z57" s="36"/>
+      <c r="AA57" s="75"/>
+      <c r="AB57" s="75"/>
+      <c r="AC57" s="74"/>
+      <c r="AD57" s="36"/>
+      <c r="AE57" s="34"/>
+      <c r="AF57" s="34"/>
+      <c r="AG57" s="37"/>
+      <c r="AH57" s="36"/>
+      <c r="AI57" s="34"/>
+      <c r="AJ57" s="34"/>
+      <c r="AK57" s="37"/>
+      <c r="AL57" s="36"/>
+      <c r="AM57" s="75"/>
+      <c r="AN57" s="75"/>
+      <c r="AO57" s="74"/>
+      <c r="AP57" s="36"/>
+      <c r="AQ57" s="75"/>
+      <c r="AR57" s="75"/>
+      <c r="AS57" s="74"/>
+      <c r="AT57" s="36"/>
+      <c r="AU57" s="76"/>
+      <c r="AV57" s="77"/>
+      <c r="AW57" s="76"/>
+      <c r="AX57" s="80"/>
+      <c r="AY57" s="77"/>
+      <c r="AZ57" s="73"/>
+      <c r="BA57" s="73"/>
+      <c r="BB57" s="73"/>
     </row>
     <row r="58" spans="1:1025" ht="18.75" customHeight="1">
-      <c r="A58" s="78"/>
-      <c r="B58" s="78"/>
-      <c r="C58" s="78"/>
-      <c r="D58" s="78"/>
-      <c r="E58" s="78" t="s">
+      <c r="A58" s="74"/>
+      <c r="B58" s="74"/>
+      <c r="C58" s="74"/>
+      <c r="D58" s="74"/>
+      <c r="E58" s="74" t="s">
         <v>472</v>
       </c>
-      <c r="F58" s="78"/>
-      <c r="G58" s="78"/>
-      <c r="H58" s="78"/>
-      <c r="I58" s="78"/>
-      <c r="J58" s="78"/>
-      <c r="K58" s="128"/>
-      <c r="L58" s="92"/>
-      <c r="M58" s="93"/>
-      <c r="N58" s="93"/>
-      <c r="O58" s="93"/>
-      <c r="P58" s="93"/>
-      <c r="R58" s="92"/>
-      <c r="S58" s="93"/>
-      <c r="T58" s="93"/>
-      <c r="U58" s="93"/>
-      <c r="V58" s="93"/>
-      <c r="W58" s="77"/>
-      <c r="X58" s="77"/>
-      <c r="Y58" s="78"/>
-      <c r="Z58" s="69"/>
-      <c r="AA58" s="77"/>
-      <c r="AB58" s="77"/>
-      <c r="AC58" s="78"/>
-      <c r="AD58" s="69"/>
-      <c r="AE58" s="70"/>
-      <c r="AF58" s="70"/>
-      <c r="AG58" s="67"/>
-      <c r="AH58" s="69"/>
-      <c r="AI58" s="70"/>
-      <c r="AJ58" s="70"/>
-      <c r="AK58" s="67"/>
-      <c r="AL58" s="69"/>
-      <c r="AM58" s="77"/>
-      <c r="AN58" s="77"/>
-      <c r="AO58" s="78"/>
-      <c r="AP58" s="69"/>
-      <c r="AQ58" s="77"/>
-      <c r="AR58" s="77"/>
-      <c r="AS58" s="78"/>
-      <c r="AT58" s="69"/>
-      <c r="AU58" s="107"/>
-      <c r="AV58" s="108"/>
-      <c r="AW58" s="107"/>
-      <c r="AX58" s="110"/>
-      <c r="AY58" s="108"/>
-      <c r="AZ58" s="69"/>
-      <c r="BA58" s="69"/>
-      <c r="BB58" s="69"/>
+      <c r="F58" s="74"/>
+      <c r="G58" s="74"/>
+      <c r="H58" s="74"/>
+      <c r="I58" s="74"/>
+      <c r="J58" s="74"/>
+      <c r="K58" s="84"/>
+      <c r="L58" s="98"/>
+      <c r="M58" s="99"/>
+      <c r="N58" s="99"/>
+      <c r="O58" s="99"/>
+      <c r="P58" s="99"/>
+      <c r="R58" s="98"/>
+      <c r="S58" s="99"/>
+      <c r="T58" s="99"/>
+      <c r="U58" s="99"/>
+      <c r="V58" s="99"/>
+      <c r="W58" s="75"/>
+      <c r="X58" s="75"/>
+      <c r="Y58" s="74"/>
+      <c r="Z58" s="36"/>
+      <c r="AA58" s="75"/>
+      <c r="AB58" s="75"/>
+      <c r="AC58" s="74"/>
+      <c r="AD58" s="36"/>
+      <c r="AE58" s="34"/>
+      <c r="AF58" s="34"/>
+      <c r="AG58" s="37"/>
+      <c r="AH58" s="36"/>
+      <c r="AI58" s="34"/>
+      <c r="AJ58" s="34"/>
+      <c r="AK58" s="37"/>
+      <c r="AL58" s="36"/>
+      <c r="AM58" s="75"/>
+      <c r="AN58" s="75"/>
+      <c r="AO58" s="74"/>
+      <c r="AP58" s="36"/>
+      <c r="AQ58" s="75"/>
+      <c r="AR58" s="75"/>
+      <c r="AS58" s="74"/>
+      <c r="AT58" s="36"/>
+      <c r="AU58" s="78"/>
+      <c r="AV58" s="79"/>
+      <c r="AW58" s="78"/>
+      <c r="AX58" s="81"/>
+      <c r="AY58" s="79"/>
+      <c r="AZ58" s="36"/>
+      <c r="BA58" s="36"/>
+      <c r="BB58" s="36"/>
     </row>
     <row r="59" spans="1:1025" ht="19.5" customHeight="1">
-      <c r="A59" s="77"/>
-      <c r="B59" s="77"/>
-      <c r="C59" s="77"/>
-      <c r="D59" s="77"/>
-      <c r="E59" s="77" t="s">
+      <c r="A59" s="75"/>
+      <c r="B59" s="75"/>
+      <c r="C59" s="75"/>
+      <c r="D59" s="75"/>
+      <c r="E59" s="75" t="s">
         <v>473</v>
       </c>
-      <c r="F59" s="77"/>
-      <c r="G59" s="77"/>
-      <c r="H59" s="77"/>
-      <c r="I59" s="77"/>
-      <c r="J59" s="77"/>
-      <c r="K59" s="131"/>
-      <c r="L59" s="92"/>
-      <c r="M59" s="93"/>
-      <c r="N59" s="93"/>
-      <c r="O59" s="93"/>
-      <c r="P59" s="93"/>
-      <c r="R59" s="92"/>
-      <c r="S59" s="93"/>
-      <c r="T59" s="93"/>
-      <c r="U59" s="93"/>
-      <c r="V59" s="93"/>
-      <c r="W59" s="70" t="s">
+      <c r="F59" s="75"/>
+      <c r="G59" s="75"/>
+      <c r="H59" s="75"/>
+      <c r="I59" s="75"/>
+      <c r="J59" s="75"/>
+      <c r="K59" s="85"/>
+      <c r="L59" s="98"/>
+      <c r="M59" s="99"/>
+      <c r="N59" s="99"/>
+      <c r="O59" s="99"/>
+      <c r="P59" s="99"/>
+      <c r="R59" s="98"/>
+      <c r="S59" s="99"/>
+      <c r="T59" s="99"/>
+      <c r="U59" s="99"/>
+      <c r="V59" s="99"/>
+      <c r="W59" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="X59" s="70"/>
-      <c r="Y59" s="67" t="s">
+      <c r="X59" s="34"/>
+      <c r="Y59" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="Z59" s="69">
+      <c r="Z59" s="36">
         <v>30</v>
       </c>
-      <c r="AA59" s="70" t="s">
+      <c r="AA59" s="34" t="s">
         <v>230</v>
       </c>
-      <c r="AB59" s="70"/>
-      <c r="AC59" s="98" t="s">
+      <c r="AB59" s="34"/>
+      <c r="AC59" s="82" t="s">
         <v>195</v>
       </c>
-      <c r="AD59" s="69">
+      <c r="AD59" s="36">
         <v>38</v>
       </c>
-      <c r="AE59" s="70"/>
-      <c r="AF59" s="70"/>
-      <c r="AG59" s="67"/>
-      <c r="AH59" s="69"/>
-      <c r="AI59" s="70"/>
-      <c r="AJ59" s="70"/>
-      <c r="AK59" s="67"/>
-      <c r="AL59" s="69"/>
-      <c r="AM59" s="77"/>
-      <c r="AN59" s="77"/>
-      <c r="AO59" s="78"/>
-      <c r="AP59" s="69"/>
-      <c r="AQ59" s="77"/>
-      <c r="AR59" s="77"/>
-      <c r="AS59" s="78"/>
-      <c r="AT59" s="69"/>
-      <c r="AU59" s="113"/>
-      <c r="AV59" s="114"/>
-      <c r="AW59" s="113"/>
-      <c r="AX59" s="117"/>
-      <c r="AY59" s="114"/>
-      <c r="AZ59" s="100"/>
-      <c r="BA59" s="100"/>
-      <c r="BB59" s="100"/>
+      <c r="AE59" s="34"/>
+      <c r="AF59" s="34"/>
+      <c r="AG59" s="37"/>
+      <c r="AH59" s="36"/>
+      <c r="AI59" s="34"/>
+      <c r="AJ59" s="34"/>
+      <c r="AK59" s="37"/>
+      <c r="AL59" s="36"/>
+      <c r="AM59" s="75"/>
+      <c r="AN59" s="75"/>
+      <c r="AO59" s="74"/>
+      <c r="AP59" s="36"/>
+      <c r="AQ59" s="75"/>
+      <c r="AR59" s="75"/>
+      <c r="AS59" s="74"/>
+      <c r="AT59" s="36"/>
+      <c r="AU59" s="53"/>
+      <c r="AV59" s="54"/>
+      <c r="AW59" s="53"/>
+      <c r="AX59" s="57"/>
+      <c r="AY59" s="54"/>
+      <c r="AZ59" s="59"/>
+      <c r="BA59" s="59"/>
+      <c r="BB59" s="59"/>
     </row>
     <row r="60" spans="1:1025" ht="19.5" customHeight="1">
-      <c r="A60" s="78"/>
-      <c r="B60" s="78"/>
-      <c r="C60" s="78"/>
-      <c r="D60" s="78"/>
-      <c r="E60" s="78"/>
-      <c r="F60" s="78"/>
-      <c r="G60" s="78"/>
-      <c r="H60" s="78"/>
-      <c r="I60" s="78"/>
-      <c r="J60" s="78"/>
-      <c r="K60" s="128"/>
-      <c r="L60" s="92"/>
-      <c r="M60" s="93"/>
-      <c r="N60" s="93"/>
-      <c r="O60" s="93"/>
-      <c r="P60" s="93"/>
-      <c r="R60" s="92"/>
-      <c r="S60" s="93"/>
-      <c r="T60" s="93"/>
-      <c r="U60" s="93"/>
-      <c r="V60" s="93"/>
-      <c r="W60" s="70"/>
-      <c r="X60" s="70"/>
-      <c r="Y60" s="67"/>
-      <c r="Z60" s="69"/>
-      <c r="AA60" s="70"/>
-      <c r="AB60" s="70"/>
-      <c r="AC60" s="98"/>
-      <c r="AD60" s="69"/>
-      <c r="AE60" s="70"/>
-      <c r="AF60" s="70"/>
-      <c r="AG60" s="67"/>
-      <c r="AH60" s="69"/>
-      <c r="AI60" s="70"/>
-      <c r="AJ60" s="70"/>
-      <c r="AK60" s="67"/>
-      <c r="AL60" s="69"/>
-      <c r="AM60" s="77"/>
-      <c r="AN60" s="77"/>
-      <c r="AO60" s="78"/>
-      <c r="AP60" s="69"/>
-      <c r="AQ60" s="77"/>
-      <c r="AR60" s="77"/>
-      <c r="AS60" s="78"/>
-      <c r="AT60" s="69"/>
-      <c r="AU60" s="115"/>
-      <c r="AV60" s="116"/>
-      <c r="AW60" s="115"/>
-      <c r="AX60" s="118"/>
-      <c r="AY60" s="116"/>
-      <c r="AZ60" s="101"/>
-      <c r="BA60" s="101"/>
-      <c r="BB60" s="101"/>
+      <c r="A60" s="74"/>
+      <c r="B60" s="74"/>
+      <c r="C60" s="74"/>
+      <c r="D60" s="74"/>
+      <c r="E60" s="74"/>
+      <c r="F60" s="74"/>
+      <c r="G60" s="74"/>
+      <c r="H60" s="74"/>
+      <c r="I60" s="74"/>
+      <c r="J60" s="74"/>
+      <c r="K60" s="84"/>
+      <c r="L60" s="98"/>
+      <c r="M60" s="99"/>
+      <c r="N60" s="99"/>
+      <c r="O60" s="99"/>
+      <c r="P60" s="99"/>
+      <c r="R60" s="98"/>
+      <c r="S60" s="99"/>
+      <c r="T60" s="99"/>
+      <c r="U60" s="99"/>
+      <c r="V60" s="99"/>
+      <c r="W60" s="34"/>
+      <c r="X60" s="34"/>
+      <c r="Y60" s="37"/>
+      <c r="Z60" s="36"/>
+      <c r="AA60" s="34"/>
+      <c r="AB60" s="34"/>
+      <c r="AC60" s="82"/>
+      <c r="AD60" s="36"/>
+      <c r="AE60" s="34"/>
+      <c r="AF60" s="34"/>
+      <c r="AG60" s="37"/>
+      <c r="AH60" s="36"/>
+      <c r="AI60" s="34"/>
+      <c r="AJ60" s="34"/>
+      <c r="AK60" s="37"/>
+      <c r="AL60" s="36"/>
+      <c r="AM60" s="75"/>
+      <c r="AN60" s="75"/>
+      <c r="AO60" s="74"/>
+      <c r="AP60" s="36"/>
+      <c r="AQ60" s="75"/>
+      <c r="AR60" s="75"/>
+      <c r="AS60" s="74"/>
+      <c r="AT60" s="36"/>
+      <c r="AU60" s="55"/>
+      <c r="AV60" s="56"/>
+      <c r="AW60" s="55"/>
+      <c r="AX60" s="58"/>
+      <c r="AY60" s="56"/>
+      <c r="AZ60" s="60"/>
+      <c r="BA60" s="60"/>
+      <c r="BB60" s="60"/>
     </row>
     <row r="61" spans="1:1025" ht="19.5" customHeight="1">
-      <c r="A61" s="77"/>
-      <c r="B61" s="77"/>
-      <c r="C61" s="77"/>
-      <c r="D61" s="77"/>
-      <c r="E61" s="77"/>
-      <c r="F61" s="77"/>
-      <c r="G61" s="77"/>
-      <c r="H61" s="77"/>
-      <c r="I61" s="77" t="s">
+      <c r="A61" s="75"/>
+      <c r="B61" s="75"/>
+      <c r="C61" s="75"/>
+      <c r="D61" s="75"/>
+      <c r="E61" s="75"/>
+      <c r="F61" s="75"/>
+      <c r="G61" s="75"/>
+      <c r="H61" s="75"/>
+      <c r="I61" s="75" t="s">
         <v>474</v>
       </c>
-      <c r="J61" s="77"/>
-      <c r="K61" s="131"/>
-      <c r="L61" s="92"/>
-      <c r="M61" s="93"/>
-      <c r="N61" s="93"/>
-      <c r="O61" s="93"/>
-      <c r="P61" s="93"/>
-      <c r="R61" s="92"/>
-      <c r="S61" s="93"/>
-      <c r="T61" s="93"/>
-      <c r="U61" s="93"/>
-      <c r="V61" s="93"/>
-      <c r="W61" s="70" t="s">
+      <c r="J61" s="75"/>
+      <c r="K61" s="85"/>
+      <c r="L61" s="98"/>
+      <c r="M61" s="99"/>
+      <c r="N61" s="99"/>
+      <c r="O61" s="99"/>
+      <c r="P61" s="99"/>
+      <c r="R61" s="98"/>
+      <c r="S61" s="99"/>
+      <c r="T61" s="99"/>
+      <c r="U61" s="99"/>
+      <c r="V61" s="99"/>
+      <c r="W61" s="34" t="s">
         <v>234</v>
       </c>
-      <c r="X61" s="70"/>
-      <c r="Y61" s="71" t="s">
+      <c r="X61" s="34"/>
+      <c r="Y61" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="Z61" s="69">
+      <c r="Z61" s="36">
         <v>31</v>
       </c>
-      <c r="AA61" s="70" t="s">
+      <c r="AA61" s="34" t="s">
         <v>235</v>
       </c>
-      <c r="AB61" s="70"/>
-      <c r="AC61" s="67" t="s">
+      <c r="AB61" s="34"/>
+      <c r="AC61" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="AD61" s="69">
+      <c r="AD61" s="36">
         <v>39</v>
       </c>
-      <c r="AE61" s="77"/>
-      <c r="AF61" s="77"/>
-      <c r="AG61" s="78"/>
-      <c r="AH61" s="69"/>
-      <c r="AI61" s="77"/>
-      <c r="AJ61" s="77"/>
-      <c r="AK61" s="78"/>
-      <c r="AL61" s="69"/>
-      <c r="AM61" s="77"/>
-      <c r="AN61" s="77"/>
-      <c r="AO61" s="78"/>
-      <c r="AP61" s="69"/>
-      <c r="AQ61" s="77"/>
-      <c r="AR61" s="77"/>
-      <c r="AS61" s="78"/>
-      <c r="AT61" s="69"/>
-      <c r="AU61" s="105"/>
-      <c r="AV61" s="106"/>
-      <c r="AW61" s="105"/>
-      <c r="AX61" s="109"/>
-      <c r="AY61" s="106"/>
-      <c r="AZ61" s="91"/>
-      <c r="BA61" s="91"/>
-      <c r="BB61" s="91"/>
+      <c r="AE61" s="75"/>
+      <c r="AF61" s="75"/>
+      <c r="AG61" s="74"/>
+      <c r="AH61" s="36"/>
+      <c r="AI61" s="75"/>
+      <c r="AJ61" s="75"/>
+      <c r="AK61" s="74"/>
+      <c r="AL61" s="36"/>
+      <c r="AM61" s="75"/>
+      <c r="AN61" s="75"/>
+      <c r="AO61" s="74"/>
+      <c r="AP61" s="36"/>
+      <c r="AQ61" s="75"/>
+      <c r="AR61" s="75"/>
+      <c r="AS61" s="74"/>
+      <c r="AT61" s="36"/>
+      <c r="AU61" s="76"/>
+      <c r="AV61" s="77"/>
+      <c r="AW61" s="76"/>
+      <c r="AX61" s="80"/>
+      <c r="AY61" s="77"/>
+      <c r="AZ61" s="73"/>
+      <c r="BA61" s="73"/>
+      <c r="BB61" s="73"/>
     </row>
     <row r="62" spans="1:1025" ht="19.5" customHeight="1">
-      <c r="A62" s="78"/>
-      <c r="B62" s="78"/>
-      <c r="C62" s="78"/>
-      <c r="D62" s="78"/>
-      <c r="E62" s="78"/>
-      <c r="F62" s="78"/>
-      <c r="G62" s="78"/>
-      <c r="H62" s="78"/>
-      <c r="I62" s="78"/>
-      <c r="J62" s="78"/>
-      <c r="K62" s="128"/>
-      <c r="L62" s="92"/>
-      <c r="M62" s="93"/>
-      <c r="N62" s="93"/>
-      <c r="O62" s="93"/>
-      <c r="P62" s="93"/>
-      <c r="R62" s="92"/>
-      <c r="S62" s="93"/>
-      <c r="T62" s="93"/>
-      <c r="U62" s="93"/>
-      <c r="V62" s="93"/>
-      <c r="W62" s="70"/>
-      <c r="X62" s="70"/>
-      <c r="Y62" s="71"/>
-      <c r="Z62" s="69"/>
-      <c r="AA62" s="70"/>
-      <c r="AB62" s="70"/>
-      <c r="AC62" s="67"/>
-      <c r="AD62" s="69"/>
-      <c r="AE62" s="77"/>
-      <c r="AF62" s="77"/>
-      <c r="AG62" s="78"/>
-      <c r="AH62" s="69"/>
-      <c r="AI62" s="77"/>
-      <c r="AJ62" s="77"/>
-      <c r="AK62" s="78"/>
-      <c r="AL62" s="69"/>
-      <c r="AM62" s="77"/>
-      <c r="AN62" s="77"/>
-      <c r="AO62" s="78"/>
-      <c r="AP62" s="69"/>
-      <c r="AQ62" s="77"/>
-      <c r="AR62" s="77"/>
-      <c r="AS62" s="78"/>
-      <c r="AT62" s="69"/>
-      <c r="AU62" s="107"/>
-      <c r="AV62" s="108"/>
-      <c r="AW62" s="107"/>
-      <c r="AX62" s="110"/>
-      <c r="AY62" s="108"/>
-      <c r="AZ62" s="69"/>
-      <c r="BA62" s="69"/>
-      <c r="BB62" s="69"/>
+      <c r="A62" s="74"/>
+      <c r="B62" s="74"/>
+      <c r="C62" s="74"/>
+      <c r="D62" s="74"/>
+      <c r="E62" s="74"/>
+      <c r="F62" s="74"/>
+      <c r="G62" s="74"/>
+      <c r="H62" s="74"/>
+      <c r="I62" s="74"/>
+      <c r="J62" s="74"/>
+      <c r="K62" s="84"/>
+      <c r="L62" s="98"/>
+      <c r="M62" s="99"/>
+      <c r="N62" s="99"/>
+      <c r="O62" s="99"/>
+      <c r="P62" s="99"/>
+      <c r="R62" s="98"/>
+      <c r="S62" s="99"/>
+      <c r="T62" s="99"/>
+      <c r="U62" s="99"/>
+      <c r="V62" s="99"/>
+      <c r="W62" s="34"/>
+      <c r="X62" s="34"/>
+      <c r="Y62" s="39"/>
+      <c r="Z62" s="36"/>
+      <c r="AA62" s="34"/>
+      <c r="AB62" s="34"/>
+      <c r="AC62" s="37"/>
+      <c r="AD62" s="36"/>
+      <c r="AE62" s="75"/>
+      <c r="AF62" s="75"/>
+      <c r="AG62" s="74"/>
+      <c r="AH62" s="36"/>
+      <c r="AI62" s="75"/>
+      <c r="AJ62" s="75"/>
+      <c r="AK62" s="74"/>
+      <c r="AL62" s="36"/>
+      <c r="AM62" s="75"/>
+      <c r="AN62" s="75"/>
+      <c r="AO62" s="74"/>
+      <c r="AP62" s="36"/>
+      <c r="AQ62" s="75"/>
+      <c r="AR62" s="75"/>
+      <c r="AS62" s="74"/>
+      <c r="AT62" s="36"/>
+      <c r="AU62" s="78"/>
+      <c r="AV62" s="79"/>
+      <c r="AW62" s="78"/>
+      <c r="AX62" s="81"/>
+      <c r="AY62" s="79"/>
+      <c r="AZ62" s="36"/>
+      <c r="BA62" s="36"/>
+      <c r="BB62" s="36"/>
     </row>
     <row r="63" spans="1:1025" ht="18.75" customHeight="1">
       <c r="AMA63"/>
@@ -7339,18 +7364,714 @@
     </row>
   </sheetData>
   <mergeCells count="744">
-    <mergeCell ref="AE41:AF42"/>
-    <mergeCell ref="AG41:AG42"/>
-    <mergeCell ref="AH41:AH42"/>
-    <mergeCell ref="AE35:AF36"/>
-    <mergeCell ref="AG35:AG36"/>
-    <mergeCell ref="AH35:AH36"/>
-    <mergeCell ref="AE37:AF38"/>
-    <mergeCell ref="AG37:AG38"/>
-    <mergeCell ref="AH37:AH38"/>
-    <mergeCell ref="AE39:AF40"/>
-    <mergeCell ref="AG39:AG40"/>
-    <mergeCell ref="AH39:AH40"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:V31"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="G12:I13"/>
+    <mergeCell ref="J12:K13"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="I24:K25"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:E11"/>
+    <mergeCell ref="G10:I11"/>
+    <mergeCell ref="J10:K11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:E13"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:E15"/>
+    <mergeCell ref="G14:I15"/>
+    <mergeCell ref="J14:K15"/>
+    <mergeCell ref="L33:P34"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:V2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="AC11:AC12"/>
+    <mergeCell ref="AD11:AD12"/>
+    <mergeCell ref="AE11:AF12"/>
+    <mergeCell ref="AG11:AG12"/>
+    <mergeCell ref="AH11:AH12"/>
+    <mergeCell ref="AI11:AJ12"/>
+    <mergeCell ref="W10:AD10"/>
+    <mergeCell ref="AE10:AL10"/>
+    <mergeCell ref="AM10:AT10"/>
+    <mergeCell ref="W11:X12"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="AA11:AB12"/>
+    <mergeCell ref="AM11:AN12"/>
+    <mergeCell ref="AO11:AO12"/>
+    <mergeCell ref="AP11:AP12"/>
+    <mergeCell ref="AQ11:AR12"/>
+    <mergeCell ref="AS11:AS12"/>
+    <mergeCell ref="AT11:AT12"/>
+    <mergeCell ref="W13:X14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="Z13:Z14"/>
+    <mergeCell ref="AA13:AB14"/>
+    <mergeCell ref="AU5:BB7"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:E7"/>
+    <mergeCell ref="G6:I7"/>
+    <mergeCell ref="J6:K7"/>
+    <mergeCell ref="W8:X9"/>
+    <mergeCell ref="Y8:Z9"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="G8:I9"/>
+    <mergeCell ref="J8:K9"/>
+    <mergeCell ref="W5:AD7"/>
+    <mergeCell ref="AE5:AL7"/>
+    <mergeCell ref="AM5:AT7"/>
+    <mergeCell ref="AU10:BB10"/>
+    <mergeCell ref="AK11:AK12"/>
+    <mergeCell ref="AL11:AL12"/>
+    <mergeCell ref="AU11:AV12"/>
+    <mergeCell ref="AW11:AW12"/>
+    <mergeCell ref="AX11:AX12"/>
+    <mergeCell ref="AY11:AZ12"/>
+    <mergeCell ref="BA11:BA12"/>
+    <mergeCell ref="BB11:BB12"/>
+    <mergeCell ref="AQ13:AR14"/>
+    <mergeCell ref="AS13:AS14"/>
+    <mergeCell ref="AT13:AT14"/>
+    <mergeCell ref="AU13:AV14"/>
+    <mergeCell ref="AW13:AW14"/>
+    <mergeCell ref="AX13:AX14"/>
+    <mergeCell ref="AY13:AZ14"/>
+    <mergeCell ref="BA13:BA14"/>
+    <mergeCell ref="BB13:BB14"/>
+    <mergeCell ref="AC13:AC14"/>
+    <mergeCell ref="AD13:AD14"/>
+    <mergeCell ref="AE13:AF14"/>
+    <mergeCell ref="AG13:AG14"/>
+    <mergeCell ref="AH13:AH14"/>
+    <mergeCell ref="AI13:AJ14"/>
+    <mergeCell ref="AK13:AK14"/>
+    <mergeCell ref="AL13:AL14"/>
+    <mergeCell ref="AM13:AN14"/>
+    <mergeCell ref="W15:X16"/>
+    <mergeCell ref="Y15:Y16"/>
+    <mergeCell ref="Z15:Z16"/>
+    <mergeCell ref="AD15:AD16"/>
+    <mergeCell ref="AE15:AF16"/>
+    <mergeCell ref="AG15:AG16"/>
+    <mergeCell ref="AH15:AH16"/>
+    <mergeCell ref="AI15:AJ16"/>
+    <mergeCell ref="AK15:AK16"/>
+    <mergeCell ref="AA15:AB16"/>
+    <mergeCell ref="AC15:AC16"/>
+    <mergeCell ref="AL15:AL16"/>
+    <mergeCell ref="AM15:AN16"/>
+    <mergeCell ref="AO15:AO16"/>
+    <mergeCell ref="AP15:AP16"/>
+    <mergeCell ref="AQ15:AR16"/>
+    <mergeCell ref="AS15:AS16"/>
+    <mergeCell ref="AO13:AO14"/>
+    <mergeCell ref="AP13:AP14"/>
+    <mergeCell ref="AY15:AZ16"/>
+    <mergeCell ref="AT15:AT16"/>
+    <mergeCell ref="AU15:AV16"/>
+    <mergeCell ref="AW15:AW16"/>
+    <mergeCell ref="AX15:AX16"/>
+    <mergeCell ref="BA15:BA16"/>
+    <mergeCell ref="BB15:BB16"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="G16:I17"/>
+    <mergeCell ref="J16:K17"/>
+    <mergeCell ref="W17:X18"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="Z17:Z18"/>
+    <mergeCell ref="AD17:AD18"/>
+    <mergeCell ref="AE17:AF18"/>
+    <mergeCell ref="AG17:AG18"/>
+    <mergeCell ref="AH17:AH18"/>
+    <mergeCell ref="AI17:AJ18"/>
+    <mergeCell ref="AK17:AK18"/>
+    <mergeCell ref="AL17:AL18"/>
+    <mergeCell ref="AP17:AP18"/>
+    <mergeCell ref="AQ17:AR18"/>
+    <mergeCell ref="AS17:AS18"/>
+    <mergeCell ref="AT17:AT18"/>
+    <mergeCell ref="AU17:AV18"/>
+    <mergeCell ref="AW17:AW18"/>
+    <mergeCell ref="AX17:AX18"/>
+    <mergeCell ref="AY17:AZ18"/>
+    <mergeCell ref="BA17:BA18"/>
+    <mergeCell ref="BB17:BB18"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:E19"/>
+    <mergeCell ref="G18:I19"/>
+    <mergeCell ref="J18:K19"/>
+    <mergeCell ref="W19:X20"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="AD19:AD20"/>
+    <mergeCell ref="AE19:AF20"/>
+    <mergeCell ref="AG19:AG20"/>
+    <mergeCell ref="AH19:AH20"/>
+    <mergeCell ref="AI19:AJ20"/>
+    <mergeCell ref="AK19:AK20"/>
+    <mergeCell ref="AL19:AL20"/>
+    <mergeCell ref="AM19:AN20"/>
+    <mergeCell ref="AO19:AO20"/>
+    <mergeCell ref="AP19:AP20"/>
+    <mergeCell ref="AQ19:AR20"/>
+    <mergeCell ref="AM17:AN18"/>
+    <mergeCell ref="AO17:AO18"/>
+    <mergeCell ref="AS19:AS20"/>
+    <mergeCell ref="AT19:AT20"/>
+    <mergeCell ref="AU19:AV20"/>
+    <mergeCell ref="AW19:AW20"/>
+    <mergeCell ref="AX19:AX20"/>
+    <mergeCell ref="AY19:AZ20"/>
+    <mergeCell ref="BA19:BA20"/>
+    <mergeCell ref="BB19:BB20"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:E21"/>
+    <mergeCell ref="G20:I21"/>
+    <mergeCell ref="J20:K21"/>
+    <mergeCell ref="W21:X22"/>
+    <mergeCell ref="Y21:Y22"/>
+    <mergeCell ref="Z21:Z22"/>
+    <mergeCell ref="AD21:AD22"/>
+    <mergeCell ref="AE21:AF22"/>
+    <mergeCell ref="AG21:AG22"/>
+    <mergeCell ref="AH21:AH22"/>
+    <mergeCell ref="AI21:AJ22"/>
+    <mergeCell ref="AK21:AK22"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="AL21:AL22"/>
+    <mergeCell ref="AM21:AN22"/>
+    <mergeCell ref="AO21:AO22"/>
+    <mergeCell ref="AP21:AP22"/>
+    <mergeCell ref="AQ21:AR22"/>
+    <mergeCell ref="AS21:AS22"/>
+    <mergeCell ref="AT21:AT22"/>
+    <mergeCell ref="AU21:AV22"/>
+    <mergeCell ref="AW21:AW22"/>
+    <mergeCell ref="AX21:AX22"/>
+    <mergeCell ref="AY21:AZ22"/>
+    <mergeCell ref="BA21:BA22"/>
+    <mergeCell ref="BB21:BB22"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="Y23:Y24"/>
+    <mergeCell ref="Z23:Z24"/>
+    <mergeCell ref="AA23:AB24"/>
+    <mergeCell ref="AC23:AC24"/>
+    <mergeCell ref="AD23:AD24"/>
+    <mergeCell ref="AE23:AF24"/>
+    <mergeCell ref="AG23:AG24"/>
+    <mergeCell ref="AH23:AH24"/>
+    <mergeCell ref="AI23:AJ24"/>
+    <mergeCell ref="AK23:AK24"/>
+    <mergeCell ref="AL23:AL24"/>
+    <mergeCell ref="AM23:AN24"/>
+    <mergeCell ref="AO23:AO24"/>
+    <mergeCell ref="AP23:AP24"/>
+    <mergeCell ref="AQ23:AR24"/>
+    <mergeCell ref="AS23:AS24"/>
+    <mergeCell ref="AT23:AT24"/>
+    <mergeCell ref="AU23:AV24"/>
+    <mergeCell ref="AW23:AW24"/>
+    <mergeCell ref="AX23:AX24"/>
+    <mergeCell ref="AY23:AZ24"/>
+    <mergeCell ref="BA23:BA24"/>
+    <mergeCell ref="BB23:BB24"/>
+    <mergeCell ref="W25:X26"/>
+    <mergeCell ref="Y25:Y26"/>
+    <mergeCell ref="Z25:Z26"/>
+    <mergeCell ref="AA25:AB26"/>
+    <mergeCell ref="AC25:AC26"/>
+    <mergeCell ref="AD25:AD26"/>
+    <mergeCell ref="AE25:AF26"/>
+    <mergeCell ref="AG25:AG26"/>
+    <mergeCell ref="AH25:AH26"/>
+    <mergeCell ref="AI25:AJ26"/>
+    <mergeCell ref="AK25:AK26"/>
+    <mergeCell ref="AL25:AL26"/>
+    <mergeCell ref="AM25:AN26"/>
+    <mergeCell ref="AO25:AO26"/>
+    <mergeCell ref="AP25:AP26"/>
+    <mergeCell ref="AQ25:AR26"/>
+    <mergeCell ref="AS25:AS26"/>
+    <mergeCell ref="AT25:AT26"/>
+    <mergeCell ref="AU25:AV26"/>
+    <mergeCell ref="AW25:AW26"/>
+    <mergeCell ref="AX25:AX26"/>
+    <mergeCell ref="AY25:AZ26"/>
+    <mergeCell ref="BA25:BA26"/>
+    <mergeCell ref="BB25:BB26"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="Z27:Z28"/>
+    <mergeCell ref="AA27:AB28"/>
+    <mergeCell ref="AC27:AC28"/>
+    <mergeCell ref="AD27:AD28"/>
+    <mergeCell ref="AI27:AJ28"/>
+    <mergeCell ref="AK27:AK28"/>
+    <mergeCell ref="AL27:AL28"/>
+    <mergeCell ref="AM27:AN28"/>
+    <mergeCell ref="AO27:AO28"/>
+    <mergeCell ref="AP27:AP28"/>
+    <mergeCell ref="AQ27:AR28"/>
+    <mergeCell ref="AS27:AS28"/>
+    <mergeCell ref="AT27:AT28"/>
+    <mergeCell ref="AU27:AV28"/>
+    <mergeCell ref="AW27:AW28"/>
+    <mergeCell ref="AX27:AX28"/>
+    <mergeCell ref="AY27:AZ28"/>
+    <mergeCell ref="BA27:BA28"/>
+    <mergeCell ref="BB27:BB28"/>
+    <mergeCell ref="W29:X30"/>
+    <mergeCell ref="Y29:Y30"/>
+    <mergeCell ref="Z29:Z30"/>
+    <mergeCell ref="AA29:AB30"/>
+    <mergeCell ref="AC29:AC30"/>
+    <mergeCell ref="AD29:AD30"/>
+    <mergeCell ref="AE29:AF30"/>
+    <mergeCell ref="AG29:AG30"/>
+    <mergeCell ref="AH29:AH30"/>
+    <mergeCell ref="AI29:AJ30"/>
+    <mergeCell ref="AK29:AK30"/>
+    <mergeCell ref="AL29:AL30"/>
+    <mergeCell ref="AM29:AN30"/>
+    <mergeCell ref="AO29:AO30"/>
+    <mergeCell ref="AP29:AP30"/>
+    <mergeCell ref="AQ29:AR30"/>
+    <mergeCell ref="AS29:AS30"/>
+    <mergeCell ref="AT29:AT30"/>
+    <mergeCell ref="AU29:AV30"/>
+    <mergeCell ref="AW29:AW30"/>
+    <mergeCell ref="AX29:AX30"/>
+    <mergeCell ref="AY29:AZ30"/>
+    <mergeCell ref="BA29:BA30"/>
+    <mergeCell ref="BB29:BB30"/>
+    <mergeCell ref="W31:X32"/>
+    <mergeCell ref="Y31:Y32"/>
+    <mergeCell ref="Z31:Z32"/>
+    <mergeCell ref="AA31:AB32"/>
+    <mergeCell ref="AC31:AC32"/>
+    <mergeCell ref="AD31:AD32"/>
+    <mergeCell ref="AM31:AN32"/>
+    <mergeCell ref="AO31:AO32"/>
+    <mergeCell ref="AP31:AP32"/>
+    <mergeCell ref="AQ31:AR32"/>
+    <mergeCell ref="AS31:AS32"/>
+    <mergeCell ref="AT31:AT32"/>
+    <mergeCell ref="AU31:AV32"/>
+    <mergeCell ref="AW31:AW32"/>
+    <mergeCell ref="AX31:AX32"/>
+    <mergeCell ref="AY31:AZ32"/>
+    <mergeCell ref="BA31:BA32"/>
+    <mergeCell ref="BB31:BB32"/>
+    <mergeCell ref="AH31:AH32"/>
+    <mergeCell ref="R33:V34"/>
+    <mergeCell ref="W33:X34"/>
+    <mergeCell ref="Y33:Y34"/>
+    <mergeCell ref="Z33:Z34"/>
+    <mergeCell ref="AA33:AB34"/>
+    <mergeCell ref="AC33:AC34"/>
+    <mergeCell ref="AD33:AD34"/>
+    <mergeCell ref="AM33:AN34"/>
+    <mergeCell ref="AO33:AO34"/>
+    <mergeCell ref="AE33:AF34"/>
+    <mergeCell ref="AG33:AG34"/>
+    <mergeCell ref="AH33:AH34"/>
+    <mergeCell ref="AP33:AP34"/>
+    <mergeCell ref="AQ33:AR34"/>
+    <mergeCell ref="AS33:AS34"/>
+    <mergeCell ref="AT33:AT34"/>
+    <mergeCell ref="AU33:AV34"/>
+    <mergeCell ref="AW33:AW34"/>
+    <mergeCell ref="AX33:AX34"/>
+    <mergeCell ref="AY33:AZ34"/>
+    <mergeCell ref="BA33:BA34"/>
+    <mergeCell ref="BB33:BB34"/>
+    <mergeCell ref="L35:P62"/>
+    <mergeCell ref="R35:V62"/>
+    <mergeCell ref="W35:X36"/>
+    <mergeCell ref="Y35:Y36"/>
+    <mergeCell ref="Z35:Z36"/>
+    <mergeCell ref="AA35:AB36"/>
+    <mergeCell ref="AC35:AC36"/>
+    <mergeCell ref="AD35:AD36"/>
+    <mergeCell ref="AE55:AF56"/>
+    <mergeCell ref="AG55:AG56"/>
+    <mergeCell ref="AH55:AH56"/>
+    <mergeCell ref="AI55:AJ56"/>
+    <mergeCell ref="AK55:AK56"/>
+    <mergeCell ref="AL55:AL56"/>
+    <mergeCell ref="AU35:BB35"/>
+    <mergeCell ref="AM36:AT36"/>
+    <mergeCell ref="AU36:AV36"/>
+    <mergeCell ref="AW36:AY36"/>
+    <mergeCell ref="AL57:AL58"/>
+    <mergeCell ref="AP39:AP40"/>
+    <mergeCell ref="AQ39:AR40"/>
+    <mergeCell ref="AS39:AS40"/>
+    <mergeCell ref="AT39:AT40"/>
+    <mergeCell ref="G39:K39"/>
+    <mergeCell ref="G40:K40"/>
+    <mergeCell ref="BB39:BB40"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="AZ37:AZ38"/>
+    <mergeCell ref="BA37:BA38"/>
+    <mergeCell ref="BB37:BB38"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="W39:X40"/>
+    <mergeCell ref="Y39:Y40"/>
+    <mergeCell ref="Z39:Z40"/>
+    <mergeCell ref="AA39:AB40"/>
+    <mergeCell ref="AC39:AC40"/>
+    <mergeCell ref="AD39:AD40"/>
+    <mergeCell ref="AS37:AS38"/>
+    <mergeCell ref="AT37:AT38"/>
+    <mergeCell ref="AU37:AV38"/>
+    <mergeCell ref="AW37:AY38"/>
+    <mergeCell ref="AM39:AN40"/>
+    <mergeCell ref="AM37:AN38"/>
+    <mergeCell ref="AO37:AO38"/>
+    <mergeCell ref="AP37:AP38"/>
+    <mergeCell ref="AQ37:AR38"/>
+    <mergeCell ref="AO39:AO40"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="W37:X38"/>
+    <mergeCell ref="Y37:Y38"/>
+    <mergeCell ref="Z37:Z38"/>
+    <mergeCell ref="AA37:AB38"/>
+    <mergeCell ref="AC37:AC38"/>
+    <mergeCell ref="AD37:AD38"/>
+    <mergeCell ref="G37:K37"/>
+    <mergeCell ref="G38:K38"/>
+    <mergeCell ref="G35:K35"/>
+    <mergeCell ref="G36:K36"/>
+    <mergeCell ref="AU39:AV40"/>
+    <mergeCell ref="AW39:AY40"/>
+    <mergeCell ref="AZ39:AZ40"/>
+    <mergeCell ref="BA39:BA40"/>
+    <mergeCell ref="AS43:AS44"/>
+    <mergeCell ref="AT43:AT44"/>
+    <mergeCell ref="AU43:AV44"/>
+    <mergeCell ref="AW43:AY44"/>
+    <mergeCell ref="AZ43:AZ44"/>
+    <mergeCell ref="BA43:BA44"/>
+    <mergeCell ref="AS41:AS42"/>
+    <mergeCell ref="AT41:AT42"/>
+    <mergeCell ref="AU41:AV42"/>
+    <mergeCell ref="AW41:AY42"/>
+    <mergeCell ref="AZ41:AZ42"/>
+    <mergeCell ref="BA41:BA42"/>
+    <mergeCell ref="Y45:Y46"/>
+    <mergeCell ref="Z45:Z46"/>
+    <mergeCell ref="AE43:AF44"/>
+    <mergeCell ref="AG43:AG44"/>
+    <mergeCell ref="AH43:AH44"/>
+    <mergeCell ref="AM43:AN44"/>
+    <mergeCell ref="BB43:BB44"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="W44:AD44"/>
+    <mergeCell ref="AO43:AO44"/>
+    <mergeCell ref="AP43:AP44"/>
+    <mergeCell ref="AQ43:AR44"/>
+    <mergeCell ref="BB41:BB42"/>
+    <mergeCell ref="AM41:AN42"/>
+    <mergeCell ref="AO41:AO42"/>
+    <mergeCell ref="AP41:AP42"/>
+    <mergeCell ref="AQ41:AR42"/>
+    <mergeCell ref="W41:X42"/>
+    <mergeCell ref="Y41:Y42"/>
+    <mergeCell ref="Z41:Z42"/>
+    <mergeCell ref="AA41:AB42"/>
+    <mergeCell ref="AC41:AC42"/>
+    <mergeCell ref="AD41:AD42"/>
+    <mergeCell ref="AZ45:AZ46"/>
+    <mergeCell ref="BA45:BA46"/>
+    <mergeCell ref="BB45:BB46"/>
+    <mergeCell ref="AE47:AF48"/>
+    <mergeCell ref="AG47:AG48"/>
+    <mergeCell ref="AH47:AH48"/>
+    <mergeCell ref="AI47:AJ48"/>
+    <mergeCell ref="AK47:AK48"/>
+    <mergeCell ref="AL47:AL48"/>
+    <mergeCell ref="AQ47:AR48"/>
+    <mergeCell ref="AS47:AS48"/>
+    <mergeCell ref="AT47:AT48"/>
+    <mergeCell ref="AU47:AV48"/>
+    <mergeCell ref="AW47:AY48"/>
+    <mergeCell ref="AZ47:AZ48"/>
+    <mergeCell ref="BA47:BA48"/>
+    <mergeCell ref="BB47:BB48"/>
+    <mergeCell ref="AM47:AN48"/>
+    <mergeCell ref="AO47:AO48"/>
+    <mergeCell ref="AP47:AP48"/>
+    <mergeCell ref="AM45:AN46"/>
+    <mergeCell ref="AO45:AO46"/>
+    <mergeCell ref="AP45:AP46"/>
+    <mergeCell ref="AQ45:AR46"/>
+    <mergeCell ref="AK45:AK46"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="AU45:AV46"/>
+    <mergeCell ref="AW45:AY46"/>
+    <mergeCell ref="W47:X48"/>
+    <mergeCell ref="Y47:Y48"/>
+    <mergeCell ref="Z47:Z48"/>
+    <mergeCell ref="AA47:AB48"/>
+    <mergeCell ref="AC47:AC48"/>
+    <mergeCell ref="AD47:AD48"/>
+    <mergeCell ref="AA45:AB46"/>
+    <mergeCell ref="AC45:AC46"/>
+    <mergeCell ref="AD45:AD46"/>
+    <mergeCell ref="AS45:AS46"/>
+    <mergeCell ref="AT45:AT46"/>
+    <mergeCell ref="AE45:AF46"/>
+    <mergeCell ref="AG45:AG46"/>
+    <mergeCell ref="AH45:AH46"/>
+    <mergeCell ref="W45:X46"/>
+    <mergeCell ref="Y49:Y50"/>
+    <mergeCell ref="Z49:Z50"/>
+    <mergeCell ref="AA49:AB50"/>
+    <mergeCell ref="AC49:AC50"/>
+    <mergeCell ref="AD49:AD50"/>
+    <mergeCell ref="AM49:AN50"/>
+    <mergeCell ref="AO49:AO50"/>
+    <mergeCell ref="A55:K55"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="AE49:AF50"/>
+    <mergeCell ref="AG49:AG50"/>
+    <mergeCell ref="AH49:AH50"/>
+    <mergeCell ref="AI49:AJ50"/>
+    <mergeCell ref="AK49:AK50"/>
+    <mergeCell ref="AH51:AH52"/>
+    <mergeCell ref="AI51:AJ52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="G49:K49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="AZ49:AZ50"/>
+    <mergeCell ref="BA49:BA50"/>
+    <mergeCell ref="BB49:BB50"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="E57:H57"/>
+    <mergeCell ref="I57:K57"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="AW51:AY52"/>
+    <mergeCell ref="AZ51:AZ52"/>
+    <mergeCell ref="BA51:BA52"/>
+    <mergeCell ref="BB51:BB52"/>
+    <mergeCell ref="AM51:AN52"/>
+    <mergeCell ref="AO51:AO52"/>
+    <mergeCell ref="AP51:AP52"/>
+    <mergeCell ref="AQ51:AR52"/>
+    <mergeCell ref="AS51:AS52"/>
+    <mergeCell ref="AT51:AT52"/>
+    <mergeCell ref="AE51:AF52"/>
+    <mergeCell ref="AG51:AG52"/>
+    <mergeCell ref="AL49:AL50"/>
+    <mergeCell ref="W49:X50"/>
+    <mergeCell ref="AS49:AS50"/>
+    <mergeCell ref="AT49:AT50"/>
+    <mergeCell ref="AU49:AV50"/>
+    <mergeCell ref="AW49:AY50"/>
+    <mergeCell ref="AU51:AV52"/>
+    <mergeCell ref="AL51:AL52"/>
+    <mergeCell ref="AQ53:AR54"/>
+    <mergeCell ref="AS53:AS54"/>
+    <mergeCell ref="AT53:AT54"/>
+    <mergeCell ref="AU53:AV54"/>
+    <mergeCell ref="AP49:AP50"/>
+    <mergeCell ref="AQ49:AR50"/>
+    <mergeCell ref="AZ53:AZ54"/>
+    <mergeCell ref="BA53:BA54"/>
+    <mergeCell ref="BB53:BB54"/>
+    <mergeCell ref="AM53:AN54"/>
+    <mergeCell ref="AO53:AO54"/>
+    <mergeCell ref="AP53:AP54"/>
+    <mergeCell ref="W51:X52"/>
+    <mergeCell ref="Y51:Y52"/>
+    <mergeCell ref="Z51:Z52"/>
+    <mergeCell ref="AA51:AB52"/>
+    <mergeCell ref="AC51:AC52"/>
+    <mergeCell ref="AD51:AD52"/>
+    <mergeCell ref="AK51:AK52"/>
+    <mergeCell ref="AE53:AF54"/>
+    <mergeCell ref="AG53:AG54"/>
+    <mergeCell ref="AH53:AH54"/>
+    <mergeCell ref="AI53:AJ54"/>
+    <mergeCell ref="AK53:AK54"/>
+    <mergeCell ref="AL53:AL54"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="E59:H59"/>
+    <mergeCell ref="I59:K59"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="E58:H58"/>
+    <mergeCell ref="I58:K58"/>
+    <mergeCell ref="AL59:AL60"/>
+    <mergeCell ref="AE59:AF60"/>
+    <mergeCell ref="AG59:AG60"/>
+    <mergeCell ref="AH59:AH60"/>
+    <mergeCell ref="AI59:AJ60"/>
+    <mergeCell ref="AK59:AK60"/>
+    <mergeCell ref="AE57:AF58"/>
+    <mergeCell ref="AG57:AG58"/>
+    <mergeCell ref="AH57:AH58"/>
+    <mergeCell ref="AI57:AJ58"/>
+    <mergeCell ref="AK57:AK58"/>
+    <mergeCell ref="Z57:Z58"/>
+    <mergeCell ref="AA57:AB58"/>
+    <mergeCell ref="AC57:AC58"/>
+    <mergeCell ref="AD57:AD58"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="E62:H62"/>
+    <mergeCell ref="I62:K62"/>
+    <mergeCell ref="AW53:AY54"/>
+    <mergeCell ref="AQ57:AR58"/>
+    <mergeCell ref="AS57:AS58"/>
+    <mergeCell ref="AT57:AT58"/>
+    <mergeCell ref="AU57:AV58"/>
+    <mergeCell ref="AW57:AY58"/>
+    <mergeCell ref="AO59:AO60"/>
+    <mergeCell ref="AP59:AP60"/>
+    <mergeCell ref="AQ59:AR60"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="E61:H61"/>
+    <mergeCell ref="I61:K61"/>
+    <mergeCell ref="W53:X54"/>
+    <mergeCell ref="Y53:Y54"/>
+    <mergeCell ref="Z53:Z54"/>
+    <mergeCell ref="AA53:AB54"/>
+    <mergeCell ref="AC53:AC54"/>
+    <mergeCell ref="AD53:AD54"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="E60:H60"/>
+    <mergeCell ref="I60:K60"/>
+    <mergeCell ref="BA59:BA60"/>
+    <mergeCell ref="BB59:BB60"/>
+    <mergeCell ref="BB55:BB56"/>
+    <mergeCell ref="W55:X56"/>
+    <mergeCell ref="Y55:Y56"/>
+    <mergeCell ref="Z55:Z56"/>
+    <mergeCell ref="AA55:AB56"/>
+    <mergeCell ref="AC55:AC56"/>
+    <mergeCell ref="AD55:AD56"/>
+    <mergeCell ref="AM55:AN56"/>
+    <mergeCell ref="AO55:AO56"/>
+    <mergeCell ref="AP55:AP56"/>
+    <mergeCell ref="AU55:AV56"/>
+    <mergeCell ref="AW55:AY56"/>
+    <mergeCell ref="AZ55:AZ56"/>
+    <mergeCell ref="BA55:BA56"/>
+    <mergeCell ref="AQ55:AR56"/>
+    <mergeCell ref="AS55:AS56"/>
+    <mergeCell ref="AT55:AT56"/>
+    <mergeCell ref="AZ57:AZ58"/>
+    <mergeCell ref="BA57:BA58"/>
+    <mergeCell ref="BB57:BB58"/>
+    <mergeCell ref="W57:X58"/>
+    <mergeCell ref="Y57:Y58"/>
+    <mergeCell ref="AM57:AN58"/>
+    <mergeCell ref="AO57:AO58"/>
+    <mergeCell ref="AP57:AP58"/>
+    <mergeCell ref="W61:X62"/>
+    <mergeCell ref="Y61:Y62"/>
+    <mergeCell ref="Z61:Z62"/>
+    <mergeCell ref="AA61:AB62"/>
+    <mergeCell ref="AC61:AC62"/>
+    <mergeCell ref="AD61:AD62"/>
+    <mergeCell ref="AS59:AS60"/>
+    <mergeCell ref="AT59:AT60"/>
+    <mergeCell ref="W59:X60"/>
+    <mergeCell ref="Y59:Y60"/>
+    <mergeCell ref="Z59:Z60"/>
+    <mergeCell ref="AM61:AN62"/>
+    <mergeCell ref="AA59:AB60"/>
+    <mergeCell ref="AC59:AC60"/>
+    <mergeCell ref="AD59:AD60"/>
+    <mergeCell ref="AM59:AN60"/>
+    <mergeCell ref="AE61:AF62"/>
+    <mergeCell ref="AG61:AG62"/>
+    <mergeCell ref="AH61:AH62"/>
+    <mergeCell ref="AI61:AJ62"/>
+    <mergeCell ref="AK61:AK62"/>
+    <mergeCell ref="AL61:AL62"/>
+    <mergeCell ref="BB61:BB62"/>
+    <mergeCell ref="AO61:AO62"/>
+    <mergeCell ref="AP61:AP62"/>
+    <mergeCell ref="AQ61:AR62"/>
+    <mergeCell ref="AS61:AS62"/>
+    <mergeCell ref="AT61:AT62"/>
+    <mergeCell ref="AU61:AV62"/>
+    <mergeCell ref="AW61:AY62"/>
+    <mergeCell ref="AZ61:AZ62"/>
+    <mergeCell ref="BA61:BA62"/>
+    <mergeCell ref="AU59:AV60"/>
+    <mergeCell ref="AW59:AY60"/>
+    <mergeCell ref="AZ59:AZ60"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="G45:K45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="AI43:AJ44"/>
+    <mergeCell ref="AK43:AK44"/>
+    <mergeCell ref="AL43:AL44"/>
+    <mergeCell ref="AI45:AJ46"/>
+    <mergeCell ref="AA17:AB18"/>
+    <mergeCell ref="AC17:AC18"/>
+    <mergeCell ref="AA19:AB20"/>
+    <mergeCell ref="AC19:AC20"/>
+    <mergeCell ref="AA21:AB22"/>
+    <mergeCell ref="AC21:AC22"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
     <mergeCell ref="AL45:AL46"/>
     <mergeCell ref="AE27:AF28"/>
     <mergeCell ref="AG27:AG28"/>
@@ -7375,714 +8096,18 @@
     <mergeCell ref="AL41:AL42"/>
     <mergeCell ref="AE31:AF32"/>
     <mergeCell ref="AG31:AG32"/>
-    <mergeCell ref="AA17:AB18"/>
-    <mergeCell ref="AC17:AC18"/>
-    <mergeCell ref="AA19:AB20"/>
-    <mergeCell ref="AC19:AC20"/>
-    <mergeCell ref="AA21:AB22"/>
-    <mergeCell ref="AC21:AC22"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="AU59:AV60"/>
-    <mergeCell ref="AW59:AY60"/>
-    <mergeCell ref="AZ59:AZ60"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="G45:K45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="AI43:AJ44"/>
-    <mergeCell ref="AK43:AK44"/>
-    <mergeCell ref="AL43:AL44"/>
-    <mergeCell ref="AI45:AJ46"/>
-    <mergeCell ref="BB61:BB62"/>
-    <mergeCell ref="AO61:AO62"/>
-    <mergeCell ref="AP61:AP62"/>
-    <mergeCell ref="AQ61:AR62"/>
-    <mergeCell ref="AS61:AS62"/>
-    <mergeCell ref="AT61:AT62"/>
-    <mergeCell ref="AU61:AV62"/>
-    <mergeCell ref="AW61:AY62"/>
-    <mergeCell ref="AZ61:AZ62"/>
-    <mergeCell ref="BA61:BA62"/>
-    <mergeCell ref="AS59:AS60"/>
-    <mergeCell ref="AT59:AT60"/>
-    <mergeCell ref="W59:X60"/>
-    <mergeCell ref="Y59:Y60"/>
-    <mergeCell ref="Z59:Z60"/>
-    <mergeCell ref="AM61:AN62"/>
-    <mergeCell ref="AA59:AB60"/>
-    <mergeCell ref="AC59:AC60"/>
-    <mergeCell ref="AD59:AD60"/>
-    <mergeCell ref="AM59:AN60"/>
-    <mergeCell ref="AE61:AF62"/>
-    <mergeCell ref="AG61:AG62"/>
-    <mergeCell ref="AH61:AH62"/>
-    <mergeCell ref="AI61:AJ62"/>
-    <mergeCell ref="AK61:AK62"/>
-    <mergeCell ref="AL61:AL62"/>
-    <mergeCell ref="AM57:AN58"/>
-    <mergeCell ref="AO57:AO58"/>
-    <mergeCell ref="AP57:AP58"/>
-    <mergeCell ref="W61:X62"/>
-    <mergeCell ref="Y61:Y62"/>
-    <mergeCell ref="Z61:Z62"/>
-    <mergeCell ref="AA61:AB62"/>
-    <mergeCell ref="AC61:AC62"/>
-    <mergeCell ref="AD61:AD62"/>
-    <mergeCell ref="BA59:BA60"/>
-    <mergeCell ref="BB59:BB60"/>
-    <mergeCell ref="BB55:BB56"/>
-    <mergeCell ref="W55:X56"/>
-    <mergeCell ref="Y55:Y56"/>
-    <mergeCell ref="Z55:Z56"/>
-    <mergeCell ref="AA55:AB56"/>
-    <mergeCell ref="AC55:AC56"/>
-    <mergeCell ref="AD55:AD56"/>
-    <mergeCell ref="AM55:AN56"/>
-    <mergeCell ref="AO55:AO56"/>
-    <mergeCell ref="AP55:AP56"/>
-    <mergeCell ref="AU55:AV56"/>
-    <mergeCell ref="AW55:AY56"/>
-    <mergeCell ref="AZ55:AZ56"/>
-    <mergeCell ref="BA55:BA56"/>
-    <mergeCell ref="AQ55:AR56"/>
-    <mergeCell ref="AS55:AS56"/>
-    <mergeCell ref="AT55:AT56"/>
-    <mergeCell ref="AZ57:AZ58"/>
-    <mergeCell ref="BA57:BA58"/>
-    <mergeCell ref="BB57:BB58"/>
-    <mergeCell ref="W57:X58"/>
-    <mergeCell ref="Y57:Y58"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="E62:H62"/>
-    <mergeCell ref="I62:K62"/>
-    <mergeCell ref="AW53:AY54"/>
-    <mergeCell ref="AQ57:AR58"/>
-    <mergeCell ref="AS57:AS58"/>
-    <mergeCell ref="AT57:AT58"/>
-    <mergeCell ref="AU57:AV58"/>
-    <mergeCell ref="AW57:AY58"/>
-    <mergeCell ref="AO59:AO60"/>
-    <mergeCell ref="AP59:AP60"/>
-    <mergeCell ref="AQ59:AR60"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="E61:H61"/>
-    <mergeCell ref="I61:K61"/>
-    <mergeCell ref="W53:X54"/>
-    <mergeCell ref="Y53:Y54"/>
-    <mergeCell ref="Z53:Z54"/>
-    <mergeCell ref="AA53:AB54"/>
-    <mergeCell ref="AC53:AC54"/>
-    <mergeCell ref="AD53:AD54"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="E60:H60"/>
-    <mergeCell ref="I60:K60"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="E59:H59"/>
-    <mergeCell ref="I59:K59"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="E58:H58"/>
-    <mergeCell ref="I58:K58"/>
-    <mergeCell ref="AL59:AL60"/>
-    <mergeCell ref="AE59:AF60"/>
-    <mergeCell ref="AG59:AG60"/>
-    <mergeCell ref="AH59:AH60"/>
-    <mergeCell ref="AI59:AJ60"/>
-    <mergeCell ref="AK59:AK60"/>
-    <mergeCell ref="AE57:AF58"/>
-    <mergeCell ref="AG57:AG58"/>
-    <mergeCell ref="AH57:AH58"/>
-    <mergeCell ref="AI57:AJ58"/>
-    <mergeCell ref="AK57:AK58"/>
-    <mergeCell ref="Z57:Z58"/>
-    <mergeCell ref="AA57:AB58"/>
-    <mergeCell ref="AC57:AC58"/>
-    <mergeCell ref="AD57:AD58"/>
-    <mergeCell ref="AZ53:AZ54"/>
-    <mergeCell ref="BA53:BA54"/>
-    <mergeCell ref="BB53:BB54"/>
-    <mergeCell ref="AM53:AN54"/>
-    <mergeCell ref="AO53:AO54"/>
-    <mergeCell ref="AP53:AP54"/>
-    <mergeCell ref="W51:X52"/>
-    <mergeCell ref="Y51:Y52"/>
-    <mergeCell ref="Z51:Z52"/>
-    <mergeCell ref="AA51:AB52"/>
-    <mergeCell ref="AC51:AC52"/>
-    <mergeCell ref="AD51:AD52"/>
-    <mergeCell ref="AK51:AK52"/>
-    <mergeCell ref="AE53:AF54"/>
-    <mergeCell ref="AG53:AG54"/>
-    <mergeCell ref="AH53:AH54"/>
-    <mergeCell ref="AI53:AJ54"/>
-    <mergeCell ref="AK53:AK54"/>
-    <mergeCell ref="AL53:AL54"/>
-    <mergeCell ref="AS49:AS50"/>
-    <mergeCell ref="AT49:AT50"/>
-    <mergeCell ref="AU49:AV50"/>
-    <mergeCell ref="AW49:AY50"/>
-    <mergeCell ref="AU51:AV52"/>
-    <mergeCell ref="AL51:AL52"/>
-    <mergeCell ref="AQ53:AR54"/>
-    <mergeCell ref="AS53:AS54"/>
-    <mergeCell ref="AT53:AT54"/>
-    <mergeCell ref="AU53:AV54"/>
-    <mergeCell ref="AP49:AP50"/>
-    <mergeCell ref="AQ49:AR50"/>
-    <mergeCell ref="AZ49:AZ50"/>
-    <mergeCell ref="BA49:BA50"/>
-    <mergeCell ref="BB49:BB50"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="E57:H57"/>
-    <mergeCell ref="I57:K57"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="AW51:AY52"/>
-    <mergeCell ref="AZ51:AZ52"/>
-    <mergeCell ref="BA51:BA52"/>
-    <mergeCell ref="BB51:BB52"/>
-    <mergeCell ref="AM51:AN52"/>
-    <mergeCell ref="AO51:AO52"/>
-    <mergeCell ref="AP51:AP52"/>
-    <mergeCell ref="AQ51:AR52"/>
-    <mergeCell ref="AS51:AS52"/>
-    <mergeCell ref="AT51:AT52"/>
-    <mergeCell ref="AE51:AF52"/>
-    <mergeCell ref="AG51:AG52"/>
-    <mergeCell ref="AL49:AL50"/>
-    <mergeCell ref="W49:X50"/>
-    <mergeCell ref="Y49:Y50"/>
-    <mergeCell ref="Z49:Z50"/>
-    <mergeCell ref="AA49:AB50"/>
-    <mergeCell ref="AC49:AC50"/>
-    <mergeCell ref="AD49:AD50"/>
-    <mergeCell ref="AM49:AN50"/>
-    <mergeCell ref="AO49:AO50"/>
-    <mergeCell ref="A55:K55"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="I56:K56"/>
-    <mergeCell ref="AE49:AF50"/>
-    <mergeCell ref="AG49:AG50"/>
-    <mergeCell ref="AH49:AH50"/>
-    <mergeCell ref="AI49:AJ50"/>
-    <mergeCell ref="AK49:AK50"/>
-    <mergeCell ref="AH51:AH52"/>
-    <mergeCell ref="AI51:AJ52"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="G49:K49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:K53"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="AU45:AV46"/>
-    <mergeCell ref="AW45:AY46"/>
-    <mergeCell ref="W47:X48"/>
-    <mergeCell ref="Y47:Y48"/>
-    <mergeCell ref="Z47:Z48"/>
-    <mergeCell ref="AA47:AB48"/>
-    <mergeCell ref="AC47:AC48"/>
-    <mergeCell ref="AD47:AD48"/>
-    <mergeCell ref="AA45:AB46"/>
-    <mergeCell ref="AC45:AC46"/>
-    <mergeCell ref="AD45:AD46"/>
-    <mergeCell ref="AS45:AS46"/>
-    <mergeCell ref="AT45:AT46"/>
-    <mergeCell ref="AE45:AF46"/>
-    <mergeCell ref="AG45:AG46"/>
-    <mergeCell ref="AH45:AH46"/>
-    <mergeCell ref="W45:X46"/>
-    <mergeCell ref="BA45:BA46"/>
-    <mergeCell ref="BB45:BB46"/>
-    <mergeCell ref="AE47:AF48"/>
-    <mergeCell ref="AG47:AG48"/>
-    <mergeCell ref="AH47:AH48"/>
-    <mergeCell ref="AI47:AJ48"/>
-    <mergeCell ref="AK47:AK48"/>
-    <mergeCell ref="AL47:AL48"/>
-    <mergeCell ref="AQ47:AR48"/>
-    <mergeCell ref="AS47:AS48"/>
-    <mergeCell ref="AT47:AT48"/>
-    <mergeCell ref="AU47:AV48"/>
-    <mergeCell ref="AW47:AY48"/>
-    <mergeCell ref="AZ47:AZ48"/>
-    <mergeCell ref="BA47:BA48"/>
-    <mergeCell ref="BB47:BB48"/>
-    <mergeCell ref="AM47:AN48"/>
-    <mergeCell ref="AO47:AO48"/>
-    <mergeCell ref="AP47:AP48"/>
-    <mergeCell ref="AM45:AN46"/>
-    <mergeCell ref="AO45:AO46"/>
-    <mergeCell ref="AP45:AP46"/>
-    <mergeCell ref="AQ45:AR46"/>
-    <mergeCell ref="AK45:AK46"/>
-    <mergeCell ref="Y45:Y46"/>
-    <mergeCell ref="Z45:Z46"/>
-    <mergeCell ref="AE43:AF44"/>
-    <mergeCell ref="AG43:AG44"/>
-    <mergeCell ref="AH43:AH44"/>
-    <mergeCell ref="AM43:AN44"/>
-    <mergeCell ref="BB43:BB44"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="W44:AD44"/>
-    <mergeCell ref="AO43:AO44"/>
-    <mergeCell ref="AP43:AP44"/>
-    <mergeCell ref="AQ43:AR44"/>
-    <mergeCell ref="BB41:BB42"/>
-    <mergeCell ref="AM41:AN42"/>
-    <mergeCell ref="AO41:AO42"/>
-    <mergeCell ref="AP41:AP42"/>
-    <mergeCell ref="AQ41:AR42"/>
-    <mergeCell ref="W41:X42"/>
-    <mergeCell ref="Y41:Y42"/>
-    <mergeCell ref="Z41:Z42"/>
-    <mergeCell ref="AA41:AB42"/>
-    <mergeCell ref="AC41:AC42"/>
-    <mergeCell ref="AD41:AD42"/>
-    <mergeCell ref="AZ45:AZ46"/>
-    <mergeCell ref="AU39:AV40"/>
-    <mergeCell ref="AW39:AY40"/>
-    <mergeCell ref="AZ39:AZ40"/>
-    <mergeCell ref="BA39:BA40"/>
-    <mergeCell ref="AS43:AS44"/>
-    <mergeCell ref="AT43:AT44"/>
-    <mergeCell ref="AU43:AV44"/>
-    <mergeCell ref="AW43:AY44"/>
-    <mergeCell ref="AZ43:AZ44"/>
-    <mergeCell ref="BA43:BA44"/>
-    <mergeCell ref="AS41:AS42"/>
-    <mergeCell ref="AT41:AT42"/>
-    <mergeCell ref="AU41:AV42"/>
-    <mergeCell ref="AW41:AY42"/>
-    <mergeCell ref="AZ41:AZ42"/>
-    <mergeCell ref="BA41:BA42"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="W37:X38"/>
-    <mergeCell ref="Y37:Y38"/>
-    <mergeCell ref="Z37:Z38"/>
-    <mergeCell ref="AA37:AB38"/>
-    <mergeCell ref="AC37:AC38"/>
-    <mergeCell ref="AD37:AD38"/>
-    <mergeCell ref="G37:K37"/>
-    <mergeCell ref="G38:K38"/>
-    <mergeCell ref="G35:K35"/>
-    <mergeCell ref="G36:K36"/>
-    <mergeCell ref="G39:K39"/>
-    <mergeCell ref="G40:K40"/>
-    <mergeCell ref="BB39:BB40"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="AZ37:AZ38"/>
-    <mergeCell ref="BA37:BA38"/>
-    <mergeCell ref="BB37:BB38"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="W39:X40"/>
-    <mergeCell ref="Y39:Y40"/>
-    <mergeCell ref="Z39:Z40"/>
-    <mergeCell ref="AA39:AB40"/>
-    <mergeCell ref="AC39:AC40"/>
-    <mergeCell ref="AD39:AD40"/>
-    <mergeCell ref="AS37:AS38"/>
-    <mergeCell ref="AT37:AT38"/>
-    <mergeCell ref="AU37:AV38"/>
-    <mergeCell ref="AW37:AY38"/>
-    <mergeCell ref="AM39:AN40"/>
-    <mergeCell ref="AM37:AN38"/>
-    <mergeCell ref="AO37:AO38"/>
-    <mergeCell ref="AP37:AP38"/>
-    <mergeCell ref="AQ37:AR38"/>
-    <mergeCell ref="AO39:AO40"/>
-    <mergeCell ref="BB33:BB34"/>
-    <mergeCell ref="L35:P62"/>
-    <mergeCell ref="R35:V62"/>
-    <mergeCell ref="W35:X36"/>
-    <mergeCell ref="Y35:Y36"/>
-    <mergeCell ref="Z35:Z36"/>
-    <mergeCell ref="AA35:AB36"/>
-    <mergeCell ref="AC35:AC36"/>
-    <mergeCell ref="AD35:AD36"/>
-    <mergeCell ref="AE55:AF56"/>
-    <mergeCell ref="AG55:AG56"/>
-    <mergeCell ref="AH55:AH56"/>
-    <mergeCell ref="AI55:AJ56"/>
-    <mergeCell ref="AK55:AK56"/>
-    <mergeCell ref="AL55:AL56"/>
-    <mergeCell ref="AU35:BB35"/>
-    <mergeCell ref="AM36:AT36"/>
-    <mergeCell ref="AU36:AV36"/>
-    <mergeCell ref="AW36:AY36"/>
-    <mergeCell ref="AL57:AL58"/>
-    <mergeCell ref="AP39:AP40"/>
-    <mergeCell ref="AQ39:AR40"/>
-    <mergeCell ref="AS39:AS40"/>
-    <mergeCell ref="AT39:AT40"/>
-    <mergeCell ref="AP33:AP34"/>
-    <mergeCell ref="AQ33:AR34"/>
-    <mergeCell ref="AS33:AS34"/>
-    <mergeCell ref="AT33:AT34"/>
-    <mergeCell ref="AU33:AV34"/>
-    <mergeCell ref="AW33:AW34"/>
-    <mergeCell ref="AX33:AX34"/>
-    <mergeCell ref="AY33:AZ34"/>
-    <mergeCell ref="BA33:BA34"/>
-    <mergeCell ref="R33:V34"/>
-    <mergeCell ref="W33:X34"/>
-    <mergeCell ref="Y33:Y34"/>
-    <mergeCell ref="Z33:Z34"/>
-    <mergeCell ref="AA33:AB34"/>
-    <mergeCell ref="AC33:AC34"/>
-    <mergeCell ref="AD33:AD34"/>
-    <mergeCell ref="AM33:AN34"/>
-    <mergeCell ref="AO33:AO34"/>
-    <mergeCell ref="AE33:AF34"/>
-    <mergeCell ref="AG33:AG34"/>
-    <mergeCell ref="AH33:AH34"/>
-    <mergeCell ref="BB29:BB30"/>
-    <mergeCell ref="W31:X32"/>
-    <mergeCell ref="Y31:Y32"/>
-    <mergeCell ref="Z31:Z32"/>
-    <mergeCell ref="AA31:AB32"/>
-    <mergeCell ref="AC31:AC32"/>
-    <mergeCell ref="AD31:AD32"/>
-    <mergeCell ref="AM31:AN32"/>
-    <mergeCell ref="AO31:AO32"/>
-    <mergeCell ref="AP31:AP32"/>
-    <mergeCell ref="AQ31:AR32"/>
-    <mergeCell ref="AS31:AS32"/>
-    <mergeCell ref="AT31:AT32"/>
-    <mergeCell ref="AU31:AV32"/>
-    <mergeCell ref="AW31:AW32"/>
-    <mergeCell ref="AX31:AX32"/>
-    <mergeCell ref="AY31:AZ32"/>
-    <mergeCell ref="BA31:BA32"/>
-    <mergeCell ref="BB31:BB32"/>
-    <mergeCell ref="AH31:AH32"/>
-    <mergeCell ref="BB27:BB28"/>
-    <mergeCell ref="W29:X30"/>
-    <mergeCell ref="Y29:Y30"/>
-    <mergeCell ref="Z29:Z30"/>
-    <mergeCell ref="AA29:AB30"/>
-    <mergeCell ref="AC29:AC30"/>
-    <mergeCell ref="AD29:AD30"/>
-    <mergeCell ref="AE29:AF30"/>
-    <mergeCell ref="AG29:AG30"/>
-    <mergeCell ref="AH29:AH30"/>
-    <mergeCell ref="AI29:AJ30"/>
-    <mergeCell ref="AK29:AK30"/>
-    <mergeCell ref="AL29:AL30"/>
-    <mergeCell ref="AM29:AN30"/>
-    <mergeCell ref="AO29:AO30"/>
-    <mergeCell ref="AP29:AP30"/>
-    <mergeCell ref="AQ29:AR30"/>
-    <mergeCell ref="AS29:AS30"/>
-    <mergeCell ref="AT29:AT30"/>
-    <mergeCell ref="AU29:AV30"/>
-    <mergeCell ref="AW29:AW30"/>
-    <mergeCell ref="AX29:AX30"/>
-    <mergeCell ref="AY29:AZ30"/>
-    <mergeCell ref="BA29:BA30"/>
-    <mergeCell ref="AX25:AX26"/>
-    <mergeCell ref="AY25:AZ26"/>
-    <mergeCell ref="BA25:BA26"/>
-    <mergeCell ref="BB25:BB26"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="Z27:Z28"/>
-    <mergeCell ref="AA27:AB28"/>
-    <mergeCell ref="AC27:AC28"/>
-    <mergeCell ref="AD27:AD28"/>
-    <mergeCell ref="AI27:AJ28"/>
-    <mergeCell ref="AK27:AK28"/>
-    <mergeCell ref="AL27:AL28"/>
-    <mergeCell ref="AM27:AN28"/>
-    <mergeCell ref="AO27:AO28"/>
-    <mergeCell ref="AP27:AP28"/>
-    <mergeCell ref="AQ27:AR28"/>
-    <mergeCell ref="AS27:AS28"/>
-    <mergeCell ref="AT27:AT28"/>
-    <mergeCell ref="AU27:AV28"/>
-    <mergeCell ref="AW27:AW28"/>
-    <mergeCell ref="AX27:AX28"/>
-    <mergeCell ref="AY27:AZ28"/>
-    <mergeCell ref="BA27:BA28"/>
-    <mergeCell ref="AX23:AX24"/>
-    <mergeCell ref="AY23:AZ24"/>
-    <mergeCell ref="BA23:BA24"/>
-    <mergeCell ref="BB23:BB24"/>
-    <mergeCell ref="W25:X26"/>
-    <mergeCell ref="Y25:Y26"/>
-    <mergeCell ref="Z25:Z26"/>
-    <mergeCell ref="AA25:AB26"/>
-    <mergeCell ref="AC25:AC26"/>
-    <mergeCell ref="AD25:AD26"/>
-    <mergeCell ref="AE25:AF26"/>
-    <mergeCell ref="AG25:AG26"/>
-    <mergeCell ref="AH25:AH26"/>
-    <mergeCell ref="AI25:AJ26"/>
-    <mergeCell ref="AK25:AK26"/>
-    <mergeCell ref="AL25:AL26"/>
-    <mergeCell ref="AM25:AN26"/>
-    <mergeCell ref="AO25:AO26"/>
-    <mergeCell ref="AP25:AP26"/>
-    <mergeCell ref="AQ25:AR26"/>
-    <mergeCell ref="AS25:AS26"/>
-    <mergeCell ref="AT25:AT26"/>
-    <mergeCell ref="AU25:AV26"/>
-    <mergeCell ref="AW25:AW26"/>
-    <mergeCell ref="AX21:AX22"/>
-    <mergeCell ref="AY21:AZ22"/>
-    <mergeCell ref="BA21:BA22"/>
-    <mergeCell ref="BB21:BB22"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="Y23:Y24"/>
-    <mergeCell ref="Z23:Z24"/>
-    <mergeCell ref="AA23:AB24"/>
-    <mergeCell ref="AC23:AC24"/>
-    <mergeCell ref="AD23:AD24"/>
-    <mergeCell ref="AE23:AF24"/>
-    <mergeCell ref="AG23:AG24"/>
-    <mergeCell ref="AH23:AH24"/>
-    <mergeCell ref="AI23:AJ24"/>
-    <mergeCell ref="AK23:AK24"/>
-    <mergeCell ref="AL23:AL24"/>
-    <mergeCell ref="AM23:AN24"/>
-    <mergeCell ref="AO23:AO24"/>
-    <mergeCell ref="AP23:AP24"/>
-    <mergeCell ref="AQ23:AR24"/>
-    <mergeCell ref="AS23:AS24"/>
-    <mergeCell ref="AT23:AT24"/>
-    <mergeCell ref="AU23:AV24"/>
-    <mergeCell ref="AW23:AW24"/>
-    <mergeCell ref="AL21:AL22"/>
-    <mergeCell ref="AM21:AN22"/>
-    <mergeCell ref="AO21:AO22"/>
-    <mergeCell ref="AP21:AP22"/>
-    <mergeCell ref="AQ21:AR22"/>
-    <mergeCell ref="AS21:AS22"/>
-    <mergeCell ref="AT21:AT22"/>
-    <mergeCell ref="AU21:AV22"/>
-    <mergeCell ref="AW21:AW22"/>
-    <mergeCell ref="AS19:AS20"/>
-    <mergeCell ref="AT19:AT20"/>
-    <mergeCell ref="AU19:AV20"/>
-    <mergeCell ref="AW19:AW20"/>
-    <mergeCell ref="AX19:AX20"/>
-    <mergeCell ref="AY19:AZ20"/>
-    <mergeCell ref="BA19:BA20"/>
-    <mergeCell ref="BB19:BB20"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:E21"/>
-    <mergeCell ref="G20:I21"/>
-    <mergeCell ref="J20:K21"/>
-    <mergeCell ref="W21:X22"/>
-    <mergeCell ref="Y21:Y22"/>
-    <mergeCell ref="Z21:Z22"/>
-    <mergeCell ref="AD21:AD22"/>
-    <mergeCell ref="AE21:AF22"/>
-    <mergeCell ref="AG21:AG22"/>
-    <mergeCell ref="AH21:AH22"/>
-    <mergeCell ref="AI21:AJ22"/>
-    <mergeCell ref="AK21:AK22"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="AY17:AZ18"/>
-    <mergeCell ref="BA17:BA18"/>
-    <mergeCell ref="BB17:BB18"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:E19"/>
-    <mergeCell ref="G18:I19"/>
-    <mergeCell ref="J18:K19"/>
-    <mergeCell ref="W19:X20"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="AD19:AD20"/>
-    <mergeCell ref="AE19:AF20"/>
-    <mergeCell ref="AG19:AG20"/>
-    <mergeCell ref="AH19:AH20"/>
-    <mergeCell ref="AI19:AJ20"/>
-    <mergeCell ref="AK19:AK20"/>
-    <mergeCell ref="AL19:AL20"/>
-    <mergeCell ref="AM19:AN20"/>
-    <mergeCell ref="AO19:AO20"/>
-    <mergeCell ref="AP19:AP20"/>
-    <mergeCell ref="AQ19:AR20"/>
-    <mergeCell ref="AM17:AN18"/>
-    <mergeCell ref="AO17:AO18"/>
-    <mergeCell ref="BA15:BA16"/>
-    <mergeCell ref="BB15:BB16"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="G16:I17"/>
-    <mergeCell ref="J16:K17"/>
-    <mergeCell ref="W17:X18"/>
-    <mergeCell ref="Y17:Y18"/>
-    <mergeCell ref="Z17:Z18"/>
-    <mergeCell ref="AD17:AD18"/>
-    <mergeCell ref="AE17:AF18"/>
-    <mergeCell ref="AG17:AG18"/>
-    <mergeCell ref="AH17:AH18"/>
-    <mergeCell ref="AI17:AJ18"/>
-    <mergeCell ref="AK17:AK18"/>
-    <mergeCell ref="AL17:AL18"/>
-    <mergeCell ref="AP17:AP18"/>
-    <mergeCell ref="AQ17:AR18"/>
-    <mergeCell ref="AS17:AS18"/>
-    <mergeCell ref="AT17:AT18"/>
-    <mergeCell ref="AU17:AV18"/>
-    <mergeCell ref="AW17:AW18"/>
-    <mergeCell ref="AX17:AX18"/>
-    <mergeCell ref="AL15:AL16"/>
-    <mergeCell ref="AM15:AN16"/>
-    <mergeCell ref="AO15:AO16"/>
-    <mergeCell ref="AP15:AP16"/>
-    <mergeCell ref="AQ15:AR16"/>
-    <mergeCell ref="AS15:AS16"/>
-    <mergeCell ref="AO13:AO14"/>
-    <mergeCell ref="AP13:AP14"/>
-    <mergeCell ref="AY15:AZ16"/>
-    <mergeCell ref="AT15:AT16"/>
-    <mergeCell ref="AU15:AV16"/>
-    <mergeCell ref="AW15:AW16"/>
-    <mergeCell ref="AX15:AX16"/>
-    <mergeCell ref="W15:X16"/>
-    <mergeCell ref="Y15:Y16"/>
-    <mergeCell ref="Z15:Z16"/>
-    <mergeCell ref="AD15:AD16"/>
-    <mergeCell ref="AE15:AF16"/>
-    <mergeCell ref="AG15:AG16"/>
-    <mergeCell ref="AH15:AH16"/>
-    <mergeCell ref="AI15:AJ16"/>
-    <mergeCell ref="AK15:AK16"/>
-    <mergeCell ref="AA15:AB16"/>
-    <mergeCell ref="AC15:AC16"/>
-    <mergeCell ref="AC13:AC14"/>
-    <mergeCell ref="AD13:AD14"/>
-    <mergeCell ref="AE13:AF14"/>
-    <mergeCell ref="AG13:AG14"/>
-    <mergeCell ref="AH13:AH14"/>
-    <mergeCell ref="AI13:AJ14"/>
-    <mergeCell ref="AK13:AK14"/>
-    <mergeCell ref="AL13:AL14"/>
-    <mergeCell ref="AM13:AN14"/>
-    <mergeCell ref="AU11:AV12"/>
-    <mergeCell ref="AW11:AW12"/>
-    <mergeCell ref="AX11:AX12"/>
-    <mergeCell ref="AY11:AZ12"/>
-    <mergeCell ref="BA11:BA12"/>
-    <mergeCell ref="BB11:BB12"/>
-    <mergeCell ref="AQ13:AR14"/>
-    <mergeCell ref="AS13:AS14"/>
-    <mergeCell ref="AT13:AT14"/>
-    <mergeCell ref="AU13:AV14"/>
-    <mergeCell ref="AW13:AW14"/>
-    <mergeCell ref="AX13:AX14"/>
-    <mergeCell ref="AY13:AZ14"/>
-    <mergeCell ref="BA13:BA14"/>
-    <mergeCell ref="BB13:BB14"/>
-    <mergeCell ref="W13:X14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="Z13:Z14"/>
-    <mergeCell ref="AA13:AB14"/>
-    <mergeCell ref="AU5:BB7"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:E7"/>
-    <mergeCell ref="G6:I7"/>
-    <mergeCell ref="J6:K7"/>
-    <mergeCell ref="W8:X9"/>
-    <mergeCell ref="Y8:Z9"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:E9"/>
-    <mergeCell ref="G8:I9"/>
-    <mergeCell ref="J8:K9"/>
-    <mergeCell ref="W5:AD7"/>
-    <mergeCell ref="AE5:AL7"/>
-    <mergeCell ref="AM5:AT7"/>
-    <mergeCell ref="AU10:BB10"/>
-    <mergeCell ref="AK11:AK12"/>
-    <mergeCell ref="AL11:AL12"/>
-    <mergeCell ref="AC11:AC12"/>
-    <mergeCell ref="AD11:AD12"/>
-    <mergeCell ref="AE11:AF12"/>
-    <mergeCell ref="AG11:AG12"/>
-    <mergeCell ref="AH11:AH12"/>
-    <mergeCell ref="AI11:AJ12"/>
-    <mergeCell ref="W10:AD10"/>
-    <mergeCell ref="AE10:AL10"/>
-    <mergeCell ref="AM10:AT10"/>
-    <mergeCell ref="W11:X12"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z11:Z12"/>
-    <mergeCell ref="AA11:AB12"/>
-    <mergeCell ref="AM11:AN12"/>
-    <mergeCell ref="AO11:AO12"/>
-    <mergeCell ref="AP11:AP12"/>
-    <mergeCell ref="AQ11:AR12"/>
-    <mergeCell ref="AS11:AS12"/>
-    <mergeCell ref="AT11:AT12"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:V2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:V31"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="G12:I13"/>
-    <mergeCell ref="J12:K13"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="I24:K25"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:E11"/>
-    <mergeCell ref="G10:I11"/>
-    <mergeCell ref="J10:K11"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:E13"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:E15"/>
-    <mergeCell ref="G14:I15"/>
-    <mergeCell ref="J14:K15"/>
-    <mergeCell ref="L33:P34"/>
+    <mergeCell ref="AE41:AF42"/>
+    <mergeCell ref="AG41:AG42"/>
+    <mergeCell ref="AH41:AH42"/>
+    <mergeCell ref="AE35:AF36"/>
+    <mergeCell ref="AG35:AG36"/>
+    <mergeCell ref="AH35:AH36"/>
+    <mergeCell ref="AE37:AF38"/>
+    <mergeCell ref="AG37:AG38"/>
+    <mergeCell ref="AH37:AH38"/>
+    <mergeCell ref="AE39:AF40"/>
+    <mergeCell ref="AG39:AG40"/>
+    <mergeCell ref="AH39:AH40"/>
   </mergeCells>
   <conditionalFormatting sqref="W8:X9">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
@@ -8170,7 +8195,7 @@
       </c>
       <c r="D4" s="3">
         <f>COUNTIF(Charakterbogen!$Y$11:$BB$62, "*" &amp; Analyse!D3 &amp; "*") + COUNTIF(Charakterbogen!$Y$11:$BB$62, "*" &amp; Analyse!D3 &amp; "*" &amp; Analyse!D3 &amp; "*") + COUNTIF(Charakterbogen!$Y$11:$BB$62, "*" &amp; Analyse!D3 &amp; "*" &amp; Analyse!D3 &amp; "*" &amp; Analyse!D3 &amp; "*" )</f>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E4" s="3">
         <f>COUNTIF(Charakterbogen!$Y$11:$BB$62, "*" &amp; Analyse!E3 &amp; "*") + COUNTIF(Charakterbogen!$Y$11:$BB$62, "*" &amp; Analyse!E3 &amp; "*" &amp; Analyse!E3 &amp; "*") + COUNTIF(Charakterbogen!$Y$11:$BB$62, "*" &amp; Analyse!E3 &amp; "*" &amp; Analyse!E3 &amp; "*" &amp; Analyse!E3 &amp; "*" )</f>
@@ -8178,11 +8203,11 @@
       </c>
       <c r="F4" s="3">
         <f>COUNTIF(Charakterbogen!$Y$11:$BB$62, "*" &amp; Analyse!F3 &amp; "*") + COUNTIF(Charakterbogen!$Y$11:$BB$62, "*" &amp; Analyse!F3 &amp; "*" &amp; Analyse!F3 &amp; "*") + COUNTIF(Charakterbogen!$Y$11:$BB$62, "*" &amp; Analyse!F3 &amp; "*" &amp; Analyse!F3 &amp; "*" &amp; Analyse!F3 &amp; "*" )</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G4" s="3">
         <f>COUNTIF(Charakterbogen!$Y$11:$BB$62, "*" &amp; Analyse!G3 &amp; "*") + COUNTIF(Charakterbogen!$Y$11:$BB$62, "*" &amp; Analyse!G3 &amp; "*" &amp; Analyse!G3 &amp; "*") + COUNTIF(Charakterbogen!$Y$11:$BB$62, "*" &amp; Analyse!G3 &amp; "*" &amp; Analyse!G3 &amp; "*" &amp; Analyse!G3 &amp; "*" )</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H4" s="3">
         <f>COUNTIF(Charakterbogen!$Y$11:$BB$62, "*" &amp; Analyse!H3 &amp; "*") + COUNTIF(Charakterbogen!$Y$11:$BB$62, "*" &amp; Analyse!H3 &amp; "*" &amp; Analyse!H3 &amp; "*") + COUNTIF(Charakterbogen!$Y$11:$BB$62, "*" &amp; Analyse!H3 &amp; "*" &amp; Analyse!H3 &amp; "*" &amp; Analyse!H3 &amp; "*" )</f>
@@ -11378,7 +11403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8434C3BD-0C8A-4666-95D3-44EF37B9B2E8}">
   <dimension ref="A1:B198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+    <sheetView topLeftCell="A157" workbookViewId="0">
       <selection activeCell="F191" sqref="F191"/>
     </sheetView>
   </sheetViews>
@@ -13056,9 +13081,9 @@
       <c r="A186" t="s">
         <v>480</v>
       </c>
-      <c r="B186">
+      <c r="B186" t="str">
         <f>Charakterbogen!AU37</f>
-        <v>0</v>
+        <v>Arkane Geschosse</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -13083,9 +13108,9 @@
       <c r="A189" t="s">
         <v>483</v>
       </c>
-      <c r="B189">
+      <c r="B189" t="str">
         <f>Charakterbogen!AU43</f>
-        <v>0</v>
+        <v>Blenden</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -13110,27 +13135,27 @@
       <c r="A192" t="s">
         <v>486</v>
       </c>
-      <c r="B192">
+      <c r="B192" t="str">
         <f>Charakterbogen!AU49</f>
-        <v>0</v>
+        <v>Flux</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
         <v>487</v>
       </c>
-      <c r="B193">
+      <c r="B193" t="str">
         <f>Charakterbogen!AU51</f>
-        <v>0</v>
+        <v>Frostnova</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
         <v>488</v>
       </c>
-      <c r="B194">
+      <c r="B194" t="str">
         <f>Charakterbogen!AU53</f>
-        <v>0</v>
+        <v>Rufe Ent</v>
       </c>
     </row>
     <row r="195" spans="1:2">
